--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -136,7 +136,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,8 +164,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +197,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,13 +258,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,8 +559,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,9 +603,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,10 +646,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +706,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -668,24 +714,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="156">
   <si>
     <t>Environment</t>
   </si>
@@ -90,27 +90,9 @@
     <t>Failure Reason</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lets Talk Icon not present on page.</t>
-  </si>
-  <si>
-    <t>https://www.google.com</t>
-  </si>
-  <si>
     <t>https://survey.k12insight.com/Survey1.aspx?k=SsSXQVYsVsPsPsP&amp;lang=0</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>pwd1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>pwd2</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -126,10 +108,388 @@
     <t>Survey Participation page should be launched</t>
   </si>
   <si>
+    <t>Big Problem</t>
+  </si>
+  <si>
+    <t>Eighth8#</t>
+  </si>
+  <si>
+    <t>gjoyk12_test</t>
+  </si>
+  <si>
+    <t>https://www.k12insight.com/static/k12insight_login.html</t>
+  </si>
+  <si>
+    <t>Smoke_TC2</t>
+  </si>
+  <si>
+    <t>Create SMX survey</t>
+  </si>
+  <si>
+    <t>survey should be created</t>
+  </si>
+  <si>
+    <t>SMx DP</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>This survey is for manufacturers and product distributors to get a sense of how current and prospective customers responded to a particular product.</t>
+  </si>
+  <si>
+    <t>What are the specific details of the product / service.</t>
+  </si>
+  <si>
+    <t>Where did you last purchase THE PRODUCT?</t>
+  </si>
+  <si>
+    <t>Endorsement</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Please select your choices from the list</t>
+  </si>
+  <si>
+    <t>Where you like to travel from the below place</t>
+  </si>
+  <si>
+    <t>6;7</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg;harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>Please enter the date of birth</t>
+  </si>
+  <si>
+    <t>Do you use THE PRODUCT all of the time or rarely when PERFORMING THE FUNCTION FOR WHICH ITS DESIGNED?</t>
+  </si>
+  <si>
+    <t>How likely is it that you would recommend our company to a friend or colleague?</t>
+  </si>
+  <si>
+    <t>How long have you been our customer?</t>
+  </si>
+  <si>
+    <t>Which Product/Service type do you want to provide your feedback about</t>
+  </si>
+  <si>
+    <t>Please enter your qualification details below</t>
+  </si>
+  <si>
+    <t>PHD</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>To what extent do you think that THE PRODUCT is worth the price?</t>
+  </si>
+  <si>
+    <t>Where do you usually purchase THE PRODUCT?</t>
+  </si>
+  <si>
+    <t>Where do you usually sell the product</t>
+  </si>
+  <si>
+    <t>How would you rate our company in the following areas?</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Please select all the applicable things you like</t>
+  </si>
+  <si>
+    <t>Rate your skills</t>
+  </si>
+  <si>
+    <t>Rate the importance of things you value</t>
+  </si>
+  <si>
+    <t>PERFORMING THE FUNCTION FOR WHICH ITS DESIGNED?</t>
+  </si>
+  <si>
+    <t>What is the highest level of education you completed?</t>
+  </si>
+  <si>
+    <t>For how many years have you been using THE PRODUCT?</t>
+  </si>
+  <si>
+    <t>Are you the principal shopper in your household?</t>
+  </si>
+  <si>
+    <t>Upload your documents</t>
+  </si>
+  <si>
+    <t>Would you recommend the product to others?</t>
+  </si>
+  <si>
+    <t>The morale in my department is high.</t>
+  </si>
+  <si>
+    <t>How did you first learn about THE PRODUCT?</t>
+  </si>
+  <si>
+    <t>Please fill below information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company clearly conveys its mission to its employees.;There is good communication from managers to employees.;I have the tools and resources I need to do my job. ;I have the training I need to do my job. ;I feel underutilized in my job. ;The amount of work expected of me is reasonable. </t>
+  </si>
+  <si>
+    <t>Please indicate the extent to which you agree with the following statements.</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>TextBox</t>
+  </si>
+  <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Slider</t>
+  </si>
+  <si>
+    <t>MultiDropDown</t>
+  </si>
+  <si>
+    <t>ImageRadio</t>
+  </si>
+  <si>
+    <t>RatingNumber</t>
+  </si>
+  <si>
+    <t>MTB</t>
+  </si>
+  <si>
+    <t>MTB2</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>RDDG</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>RRG</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>MG1</t>
+  </si>
+  <si>
+    <t>MG2</t>
+  </si>
+  <si>
+    <t>RRB</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>DrillDown</t>
+  </si>
+  <si>
+    <t>ThanksMsg</t>
+  </si>
+  <si>
+    <t>surveyname</t>
+  </si>
+  <si>
+    <t>foldername</t>
+  </si>
+  <si>
+    <t>primarylanguage</t>
+  </si>
+  <si>
+    <t>secondarylanguage</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>radiobutton</t>
+  </si>
+  <si>
+    <t>AnswerOptions</t>
+  </si>
+  <si>
+    <t>AnswerOptions1</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>imagechoice</t>
+  </si>
+  <si>
+    <t>reportingvalue</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>likedislike</t>
+  </si>
+  <si>
+    <t>ratingscale</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>multitextbox</t>
+  </si>
+  <si>
+    <t>textbox1</t>
+  </si>
+  <si>
+    <t>textbox2</t>
+  </si>
+  <si>
+    <t>multidropdown</t>
+  </si>
+  <si>
+    <t>dropdown1</t>
+  </si>
+  <si>
+    <t>dropdown2</t>
+  </si>
+  <si>
+    <t>multiradio</t>
+  </si>
+  <si>
+    <t>QuestionOptions</t>
+  </si>
+  <si>
+    <t>multicheckbox</t>
+  </si>
+  <si>
+    <t>ratingradio</t>
+  </si>
+  <si>
+    <t>ratingdropdown</t>
+  </si>
+  <si>
+    <t>ratingscalegrid</t>
+  </si>
+  <si>
+    <t>matrixgrid</t>
+  </si>
+  <si>
+    <t>horizontalradiobutton</t>
+  </si>
+  <si>
+    <t>numericallocations</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>ratingradiobutton</t>
+  </si>
+  <si>
+    <t>ratingdropdownbutton</t>
+  </si>
+  <si>
+    <t>listbox</t>
+  </si>
+  <si>
+    <t>demographics</t>
+  </si>
+  <si>
+    <t>subquestions</t>
+  </si>
+  <si>
+    <t>symbolratingscale</t>
+  </si>
+  <si>
+    <t>surveyid</t>
+  </si>
+  <si>
+    <t>emailtemplate</t>
+  </si>
+  <si>
+    <t>selectlist</t>
+  </si>
+  <si>
+    <t>mailmergedd</t>
+  </si>
+  <si>
+    <t>mailmergetxt</t>
+  </si>
+  <si>
+    <t>prepopdd</t>
+  </si>
+  <si>
+    <t>emailtemplatere</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Big Problem</t>
   </si>
 </sst>
 </file>
@@ -176,7 +536,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,11 +552,6 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -253,21 +608,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -554,7 +938,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,16 +963,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -624,7 +1005,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -638,10 +1019,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,34 +1052,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
-    <hyperlink ref="C3" r:id="rId2" display="Prod_17.1v@2019"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -706,10 +1069,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:CN3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +1097,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -766,21 +1129,258 @@
         <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BU1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BX1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="BY1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CB1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="CC1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="CD1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CE1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="CF1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="CN1" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -792,23 +1392,290 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="188">
   <si>
     <t>Environment</t>
   </si>
@@ -486,7 +486,103 @@
     <t>emailtemplatere</t>
   </si>
   <si>
+    <t>Sanity_TC3</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe invite </t>
+  </si>
+  <si>
+    <t>survey should be distributed</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Reminder_EXE DP RA</t>
+  </si>
+  <si>
+    <t>Sanity_TC4</t>
+  </si>
+  <si>
+    <t>To send Platfrom Invite &amp; PF reminder</t>
+  </si>
+  <si>
+    <t>Sanity_TC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send SMS invites and reminder </t>
+  </si>
+  <si>
+    <t>SMS numbers.xlsx</t>
+  </si>
+  <si>
+    <t>Sanity_TC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloading SAP </t>
+  </si>
+  <si>
+    <t>survey should be downloaded</t>
+  </si>
+  <si>
+    <t>Sanity_TC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new list </t>
+  </si>
+  <si>
+    <t>Contact list DP.xlsx</t>
+  </si>
+  <si>
+    <t>Email Address;Status;First Name</t>
+  </si>
+  <si>
+    <t>rkhandelwal_test</t>
+  </si>
+  <si>
+    <t>K12_dmx_live</t>
+  </si>
+  <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>DMx exe DP Most Recently Used11</t>
+  </si>
+  <si>
+    <t>05 FEB [1024 records]</t>
+  </si>
+  <si>
+    <t>Salutation;First Name</t>
+  </si>
+  <si>
+    <t>Mr;Sanket</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>DMx PF DP invites</t>
+  </si>
+  <si>
+    <t>DP PF list [5 records]</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loader did not disappear.</t>
+  </si>
+  <si>
+    <t>DMx PF DP</t>
   </si>
   <si>
     <t>PASS</t>
@@ -496,7 +592,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,18 +620,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,17 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -575,17 +659,24 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -632,12 +723,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -648,11 +754,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,13 +1049,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,9 +1095,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,18 +1130,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,6 +1169,20 @@
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1069,32 +1194,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CN3"/>
+  <dimension ref="A1:CN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CH8" sqref="CH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.25">
@@ -1398,10 +1523,10 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="4"/>
+      <c r="I2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1492,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1510,10 +1635,10 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="I3" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -1677,6 +1802,602 @@
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
     </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
+      <c r="BT4" s="11"/>
+      <c r="BU4" s="11"/>
+      <c r="BV4" s="11"/>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="11"/>
+      <c r="BY4" s="11"/>
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11"/>
+      <c r="CE4" s="11"/>
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="CK4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="CL4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="CM4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN4" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="11"/>
+      <c r="BH5" s="11"/>
+      <c r="BI5" s="11"/>
+      <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="11"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="11"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="11"/>
+      <c r="BV5" s="11"/>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="11"/>
+      <c r="BY5" s="11"/>
+      <c r="BZ5" s="11"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11"/>
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="11"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="11"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="CI5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CL5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN5" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="11"/>
+      <c r="BT6" s="11"/>
+      <c r="BU6" s="11"/>
+      <c r="BV6" s="11"/>
+      <c r="BW6" s="11"/>
+      <c r="BX6" s="11"/>
+      <c r="BY6" s="11"/>
+      <c r="BZ6" s="11"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="11"/>
+      <c r="CC6" s="11"/>
+      <c r="CD6" s="11"/>
+      <c r="CE6" s="11"/>
+      <c r="CF6" s="11"/>
+      <c r="CG6" s="11"/>
+      <c r="CH6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="11"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="11"/>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
+      <c r="CH7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN7" s="12"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
+      <c r="CH8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="CK8" s="12"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="CN8" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DAFBEF-9F79-404C-ADB0-F2BFFCF5B401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,26 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="203">
   <si>
     <t>Environment</t>
   </si>
@@ -486,9 +496,6 @@
     <t>emailtemplatere</t>
   </si>
   <si>
-    <t>Sanity_TC3</t>
-  </si>
-  <si>
     <t>DMX</t>
   </si>
   <si>
@@ -504,33 +511,21 @@
     <t>Reminder_EXE DP RA</t>
   </si>
   <si>
-    <t>Sanity_TC4</t>
-  </si>
-  <si>
     <t>To send Platfrom Invite &amp; PF reminder</t>
   </si>
   <si>
-    <t>Sanity_TC5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Send SMS invites and reminder </t>
   </si>
   <si>
     <t>SMS numbers.xlsx</t>
   </si>
   <si>
-    <t>Sanity_TC6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Downloading SAP </t>
   </si>
   <si>
     <t>survey should be downloaded</t>
   </si>
   <si>
-    <t>Sanity_TC7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create new list </t>
   </si>
   <si>
@@ -576,9 +571,6 @@
     <t>DMx PF DP</t>
   </si>
   <si>
-    <t>Sanity_TC8</t>
-  </si>
-  <si>
     <t>Test Invite</t>
   </si>
   <si>
@@ -588,9 +580,6 @@
     <t>Copy (4) of switch of DP survey from 26th October</t>
   </si>
   <si>
-    <t>Sanity_TC9</t>
-  </si>
-  <si>
     <t>DAR</t>
   </si>
   <si>
@@ -609,14 +598,56 @@
     <t>welcome29</t>
   </si>
   <si>
-    <t>Sanity_TC10</t>
+    <t>Smoke_TC3</t>
+  </si>
+  <si>
+    <t>Smoke_TC4</t>
+  </si>
+  <si>
+    <t>Smoke_TC5</t>
+  </si>
+  <si>
+    <t>Smoke_TC6</t>
+  </si>
+  <si>
+    <t>Smoke_TC7</t>
+  </si>
+  <si>
+    <t>Smoke_TC8</t>
+  </si>
+  <si>
+    <t>Smoke_TC9</t>
+  </si>
+  <si>
+    <t>Smoke_TC10</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>OOPS! Something went wrong! Page displayed on sending the reminder</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dp test invites [18 records] list not present </t>
+  </si>
+  <si>
+    <t>DP PF list [5 records] list not present</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Reminder email template not provided</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,8 +680,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +713,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -767,6 +816,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1040,14 +1092,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1055,13 +1107,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,21 +1141,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,15 +1183,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1147,7 +1199,7 @@
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,32 +1227,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1209,15 +1261,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP11"/>
+  <dimension ref="A1:CO11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1237,11 +1289,10 @@
     <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1498,31 +1549,28 @@
         <v>146</v>
       </c>
       <c r="CH1" s="9" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="CI1" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CJ1" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CK1" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CL1" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CM1" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CN1" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="CO1" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:94">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1593,9 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
         <v>28</v>
@@ -1631,9 +1681,8 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:94">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1656,7 +1705,9 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -1820,11 +1871,10 @@
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
-      <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1836,17 +1886,21 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -1922,32 +1976,31 @@
       <c r="CE4" s="11"/>
       <c r="CF4" s="11"/>
       <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CJ4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK4" s="15" t="s">
-        <v>176</v>
+      <c r="CH4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="CJ4" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="CK4" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="CL4" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="CM4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="CN4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN4" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="16" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="5" spans="1:94">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1959,17 +2012,21 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -2045,32 +2102,31 @@
       <c r="CE5" s="11"/>
       <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
-      <c r="CH5" s="11"/>
+      <c r="CH5" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="CI5" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="CJ5" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="CL5" s="12" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO5" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:94">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2082,17 +2138,21 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+        <v>156</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -2168,22 +2228,21 @@
       <c r="CE6" s="11"/>
       <c r="CF6" s="11"/>
       <c r="CG6" s="11"/>
-      <c r="CH6" s="11"/>
-      <c r="CI6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CJ6" s="12"/>
-      <c r="CK6" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="CH6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="CK6" s="12"/>
       <c r="CL6" s="12"/>
       <c r="CM6" s="12"/>
       <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
     </row>
-    <row r="7" spans="1:94">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2195,17 +2254,21 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>200</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2281,24 +2344,23 @@
       <c r="CE7" s="11"/>
       <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
-      <c r="CH7" s="11"/>
-      <c r="CI7" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="CJ7" s="12"/>
-      <c r="CK7" s="12" t="s">
-        <v>181</v>
-      </c>
+      <c r="CH7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO7" s="12"/>
+      <c r="CM7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN7" s="12"/>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2310,16 +2372,18 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
       <c r="L8" s="10"/>
@@ -2396,24 +2460,23 @@
       <c r="CE8" s="11"/>
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
-      <c r="CH8" s="11"/>
-      <c r="CI8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="12" t="s">
-        <v>170</v>
-      </c>
+      <c r="CH8" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK8" s="12"/>
       <c r="CL8" s="12"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="CO8" s="12"/>
+      <c r="CM8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="CN8" s="12"/>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>3</v>
@@ -2425,17 +2488,21 @@
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2471,7 +2538,9 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
+      <c r="AT9" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
@@ -2511,34 +2580,31 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI9" s="1">
+      <c r="CH9" s="1">
         <v>313</v>
       </c>
-      <c r="CJ9" s="12" t="s">
+      <c r="CI9" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ9" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="CK9" s="11" t="s">
-        <v>186</v>
+      <c r="CK9" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="CL9" s="12" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="CM9" s="12" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="CN9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO9" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:94">
-      <c r="A10" s="11" t="s">
-        <v>188</v>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>3</v>
@@ -2553,11 +2619,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2595,10 +2663,10 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
@@ -2646,17 +2714,16 @@
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CP10" s="18">
+      <c r="CN10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO10" s="18">
         <f>DATE(2021,1,28)</f>
         <v>44224</v>
       </c>
     </row>
-    <row r="11" spans="1:94">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2672,11 +2739,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2714,10 +2783,10 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
@@ -2765,14 +2834,14 @@
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1" t="s">
-        <v>192</v>
+      <c r="CN11" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DAFBEF-9F79-404C-ADB0-F2BFFCF5B401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00299EBE-191D-41C7-A291-6C58923F2F45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="240">
   <si>
     <t>Environment</t>
   </si>
@@ -641,13 +641,174 @@
   </si>
   <si>
     <t>Reminder email template not provided</t>
+  </si>
+  <si>
+    <t>RMX</t>
+  </si>
+  <si>
+    <t>Omni report</t>
+  </si>
+  <si>
+    <t>1. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+2. Click on Save button and save the report named as OMNI DP Today's Date
+3. Click on Add report to canvas
+4. Export omni report
+"5. Click on email report. Enter report title as 'OMNI DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI DP  - </t>
+  </si>
+  <si>
+    <t>jreddy@zarca.com</t>
+  </si>
+  <si>
+    <t>Advance frequency report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on Frequency button and select 'Advance Frequency' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Reorder the questions on Reorder Question page and then click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Generate button on Data Sources and Filters page.
+6. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+7. Click on Save button and save the report named as 'Advance Freq DP Today's Date'
+8. Click on Download button to export the report.
+"9. Click on email report. Enter report title as 'Adv freq DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Advance Freq DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC11</t>
+  </si>
+  <si>
+    <t>Individual report</t>
+  </si>
+  <si>
+    <t>1. Click on Raw Data button and select 'Individual' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Individual DP Today's Date'
+"7. Click on email report. Enter report title as 'Individual DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t>Individual DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC12</t>
+  </si>
+  <si>
+    <t>Response table report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Raw Data button and select 'Response table' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Response table DP Today's Date'
+"7. Click on email report. Enter report title as 'Response table DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Response table DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC13</t>
+  </si>
+  <si>
+    <t>Segmentation report</t>
+  </si>
+  <si>
+    <t>1. Click on Segementation button.
+2. Select Q.1 as segment question. Once the question is selected, select all answer options in same question. Click on Continue
+3. Select All Questions on Survey Questions page and click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Continue on 'Comparison Segment Data'
+6. Click on Continue on Customize Cover Page.
+7. Enter the given email id in To field, check All segment reports as multiple Word documents in a zipped file, Individual segment report in separate Word document anf then click on Generate.</t>
+  </si>
+  <si>
+    <t>Smoke_TC14</t>
+  </si>
+  <si>
+    <t>Engagement report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Special Reports button and select 'Engagement' report in drop down
+"2. Enter Engagement report DP Today's date as input text in Who are the participants in this study? field. 
+"
+3. Set Nmax as 10,000 and click on Continue.
+4. Select Q.16, 17, 18 as Engagement question (including sub questions) and Click on Continue.
+5. Select Q.19 as Driver question and Click on Continue.
+6. Toggle on Do you want to include additional questions? and Select Q.1 as Additional question and then click on Continue.
+7. Toggle on Individual Composition Report and Select Q.2 as Composion question and then click on Continue.
+8. Toggle on Do you want to generate group-specific reports? and Select Q.2 and name as Location .
+9, Click on Add More, and Select Q.4 and name as School and then click on Continue.
+10. Click on Generate and select export format 
+11. Enter the given email id in pop up and then click on Submit.
+12, Accept the alert.
+</t>
+  </si>
+  <si>
+    <t>Engagement report DP</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t>surveyTitle</t>
+  </si>
+  <si>
+    <t>All Question survey</t>
+  </si>
+  <si>
+    <t>Q6. DD: What's your household income?</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Q 3</t>
+  </si>
+  <si>
+    <t>Q 2,Q 4,Q 5</t>
+  </si>
+  <si>
+    <t>Q 2</t>
+  </si>
+  <si>
+    <t>Need discussion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +843,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -792,11 +960,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -815,14 +986,20 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{E0C9F20A-3C63-41E3-B488-667155B99753}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BEFE91A1-6694-4EFC-B4C7-79AC9427A142}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{E3D7501D-72D4-41B1-89B8-6CC3B051C17C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1188,7 +1365,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,8 +1419,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>186</v>
@@ -1252,21 +1429,22 @@
         <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1467,7 @@
     <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1569,6 +1747,9 @@
       <c r="CN1" s="9" t="s">
         <v>153</v>
       </c>
+      <c r="CO1" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1593,7 +1774,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>201</v>
       </c>
       <c r="J2" s="13"/>
@@ -1681,6 +1862,7 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
     </row>
     <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1705,7 +1887,7 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>196</v>
       </c>
       <c r="J3" s="13"/>
@@ -1871,6 +2053,7 @@
       <c r="CL3" s="6"/>
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
+      <c r="CO3" s="6"/>
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1895,7 +2078,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -1997,6 +2180,7 @@
       <c r="CN4" s="16" t="s">
         <v>158</v>
       </c>
+      <c r="CO4" s="16"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2021,7 +2205,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -2123,6 +2307,7 @@
       <c r="CN5" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="CO5" s="12"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2147,7 +2332,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J6" s="13" t="s">
@@ -2239,6 +2424,7 @@
       <c r="CL6" s="12"/>
       <c r="CM6" s="12"/>
       <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2263,7 +2449,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -2357,6 +2543,7 @@
         <v>157</v>
       </c>
       <c r="CN7" s="12"/>
+      <c r="CO7" s="12"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2381,7 +2568,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>196</v>
       </c>
       <c r="J8" s="13"/>
@@ -2473,6 +2660,7 @@
         <v>166</v>
       </c>
       <c r="CN8" s="12"/>
+      <c r="CO8" s="12"/>
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2497,7 +2685,7 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2601,242 +2789,978 @@
       <c r="CN9" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="CO9" s="12"/>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="11">
-        <v>91</v>
-      </c>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO10" s="18">
-        <f>DATE(2021,1,28)</f>
-        <v>44224</v>
+      <c r="E10" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="21"/>
+      <c r="CB10" s="21"/>
+      <c r="CC10" s="21"/>
+      <c r="CD10" s="21"/>
+      <c r="CE10" s="21"/>
+      <c r="CF10" s="21"/>
+      <c r="CG10" s="21"/>
+      <c r="CH10" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI10" s="23"/>
+      <c r="CJ10" s="23"/>
+      <c r="CK10" s="23"/>
+      <c r="CL10" s="23"/>
+      <c r="CM10" s="23"/>
+      <c r="CN10" s="23"/>
+      <c r="CO10" s="23" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="21"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="21"/>
+      <c r="BY11" s="21"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="21"/>
+      <c r="CD11" s="21"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI11" s="23"/>
+      <c r="CJ11" s="23"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="23"/>
+      <c r="CN11" s="23"/>
+      <c r="CO11" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="23"/>
+      <c r="CO12" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21"/>
+      <c r="BK13" s="21"/>
+      <c r="BL13" s="21"/>
+      <c r="BM13" s="21"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="21"/>
+      <c r="BU13" s="21"/>
+      <c r="BV13" s="21"/>
+      <c r="BW13" s="21"/>
+      <c r="BX13" s="21"/>
+      <c r="BY13" s="21"/>
+      <c r="BZ13" s="21"/>
+      <c r="CA13" s="21"/>
+      <c r="CB13" s="21"/>
+      <c r="CC13" s="21"/>
+      <c r="CD13" s="21"/>
+      <c r="CE13" s="21"/>
+      <c r="CF13" s="21"/>
+      <c r="CG13" s="21"/>
+      <c r="CH13" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI13" s="23"/>
+      <c r="CJ13" s="23"/>
+      <c r="CK13" s="23"/>
+      <c r="CL13" s="23"/>
+      <c r="CM13" s="23"/>
+      <c r="CN13" s="23"/>
+      <c r="CO13" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="21"/>
+      <c r="BR14" s="21"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="21"/>
+      <c r="BU14" s="21"/>
+      <c r="BV14" s="21"/>
+      <c r="BW14" s="21"/>
+      <c r="BX14" s="21"/>
+      <c r="BY14" s="21"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI14" s="23"/>
+      <c r="CJ14" s="23"/>
+      <c r="CK14" s="23"/>
+      <c r="CL14" s="23"/>
+      <c r="CM14" s="23"/>
+      <c r="CN14" s="23"/>
+      <c r="CO14" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
+      <c r="BL15" s="21"/>
+      <c r="BM15" s="21"/>
+      <c r="BN15" s="21"/>
+      <c r="BO15" s="21"/>
+      <c r="BP15" s="21"/>
+      <c r="BQ15" s="21"/>
+      <c r="BR15" s="21"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="21"/>
+      <c r="BU15" s="21"/>
+      <c r="BV15" s="21"/>
+      <c r="BW15" s="21"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="21"/>
+      <c r="BZ15" s="21"/>
+      <c r="CA15" s="21"/>
+      <c r="CB15" s="21"/>
+      <c r="CC15" s="21"/>
+      <c r="CD15" s="21"/>
+      <c r="CE15" s="21"/>
+      <c r="CF15" s="21"/>
+      <c r="CG15" s="21"/>
+      <c r="CH15" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="CI15" s="23"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
+      <c r="CL15" s="23"/>
+      <c r="CM15" s="23"/>
+      <c r="CN15" s="23"/>
+      <c r="CO15" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="21" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="17" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="11">
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="11">
         <v>91</v>
       </c>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1" t="s">
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="CO16" s="1">
+        <f>DATE(2021,1,28)</f>
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="11">
+        <v>91</v>
+      </c>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00299EBE-191D-41C7-A291-6C58923F2F45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287BE29-E6D4-41BB-AB5A-CED2A6DBDAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="243">
   <si>
     <t>Environment</t>
   </si>
@@ -580,13 +580,7 @@
     <t>Copy (4) of switch of DP survey from 26th October</t>
   </si>
   <si>
-    <t>DAR</t>
-  </si>
-  <si>
     <t>Dimensional Report 1</t>
-  </si>
-  <si>
-    <t>Dar</t>
   </si>
   <si>
     <t>DAR DP</t>
@@ -658,9 +652,6 @@
   </si>
   <si>
     <t xml:space="preserve">OMNI DP  - </t>
-  </si>
-  <si>
-    <t>jreddy@zarca.com</t>
   </si>
   <si>
     <t>Advance frequency report</t>
@@ -777,9 +768,6 @@
     <t>Smoke_TC15</t>
   </si>
   <si>
-    <t>Smoke_TC16</t>
-  </si>
-  <si>
     <t>surveyTitle</t>
   </si>
   <si>
@@ -802,13 +790,63 @@
   </si>
   <si>
     <t>Need discussion</t>
+  </si>
+  <si>
+    <t>Dar report</t>
+  </si>
+  <si>
+    <t>1. Login in to given account.
+2. Enter user credential and click on login. (After every release there will be a banner for some time, "e,g https://www.sogosurvey.com/static/maintenance.aspx", need to continue ahead by clicking X icon on top right corner)
+3. Click on Project dashboard.
+3. Select folder named as 'DAR DP'
+4. Hover over survey named as 'Safe Schools Survey - Students 2018' and click 'Report' icon.
+5. Click on Special Reports button and select 'Dimenssion Analysis' report in drop down
+6. From Time Period 1 column and Target Group 1, select DAR DP folder &gt; Safe Schools Survey - Students 2018
+6. From Time Period 2 column and Target Group 1, select DAR DP folder &gt; Safe Schools Survey - Students 2019
+7. Click on Generate button
+"8. Add follwing elements onto the canvas by clicking on Star icon:
+i) Overall score graph and data table
+ii) Comparion by time graph of overall score and and data table
+iii) Dimension score graph and data table
+iv) Comparion by time graph of Dimenscore score and and data table
+v) Rules and Regulations graph and data table
+vi) Comparion by time graph of Rules and Regulations and and data table
+vii) Highest and Lowerst ranking indicator
+viii) What is your ethnic group graph and data table
+ix) Please respond to the following statements.graph and data table
+x) Response Rate graph and data table
+xi)  Response Sorce graph and data table"
+9. Click on Report Canvas.
+10. Enter Report title as 'DAR DP'
+11. Enter Report description as 'Today's Date'
+12. Click on Segment icon given at top right corner
+13. Select Safe Schools Survey - Students 2018 in Select Survey drop down
+14. Select Q.5 a) in Select Segmentation Question drop down
+15. Select All answer options.
+16. Enter given email id in To field and click on Email Report button
+17. Accept alert message.</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Dar,Dimensional Report 1,Dar,Dimensional Report 2</t>
+  </si>
+  <si>
+    <t>rruksar@zarca.com</t>
+  </si>
+  <si>
+    <t>13314784</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,12 +872,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -963,11 +995,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -985,14 +1017,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1365,7 +1396,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,14 +1450,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>203</v>
+      <c r="A4" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1441,10 +1472,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO17"/>
+  <dimension ref="A1:CO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1779,7 @@
         <v>153</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1774,8 +1805,8 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>201</v>
+      <c r="I2" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
@@ -1887,8 +1918,8 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>196</v>
+      <c r="I3" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
@@ -2057,7 +2088,7 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2078,11 +2109,11 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>198</v>
+      <c r="I4" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="10"/>
@@ -2184,7 +2215,7 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2205,11 +2236,11 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="10"/>
@@ -2311,7 +2342,7 @@
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2332,11 +2363,11 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>198</v>
+      <c r="I6" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="10"/>
@@ -2428,7 +2459,7 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2449,11 +2480,11 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="10"/>
@@ -2547,7 +2578,7 @@
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2568,8 +2599,8 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>196</v>
+      <c r="I8" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -2664,7 +2695,7 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>3</v>
@@ -2685,11 +2716,11 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>198</v>
+      <c r="I9" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -2793,977 +2824,874 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="J10" s="21"/>
+      <c r="K10" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="23"/>
-      <c r="BF10" s="21"/>
-      <c r="BG10" s="21"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="21"/>
-      <c r="BN10" s="21"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-      <c r="BU10" s="21"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="21"/>
-      <c r="CB10" s="21"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI10" s="23"/>
-      <c r="CJ10" s="23"/>
-      <c r="CK10" s="23"/>
-      <c r="CL10" s="23"/>
-      <c r="CM10" s="23"/>
-      <c r="CN10" s="23"/>
-      <c r="CO10" s="23" t="s">
-        <v>233</v>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI10" s="22"/>
+      <c r="CJ10" s="22"/>
+      <c r="CK10" s="22"/>
+      <c r="CL10" s="22"/>
+      <c r="CM10" s="22"/>
+      <c r="CN10" s="22"/>
+      <c r="CO10" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23" t="s">
+      <c r="E11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="21"/>
-      <c r="BI11" s="21"/>
-      <c r="BJ11" s="21"/>
-      <c r="BK11" s="21"/>
-      <c r="BL11" s="21"/>
-      <c r="BM11" s="21"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-      <c r="BU11" s="21"/>
-      <c r="BV11" s="21"/>
-      <c r="BW11" s="21"/>
-      <c r="BX11" s="21"/>
-      <c r="BY11" s="21"/>
-      <c r="BZ11" s="21"/>
-      <c r="CA11" s="21"/>
-      <c r="CB11" s="21"/>
-      <c r="CC11" s="21"/>
-      <c r="CD11" s="21"/>
-      <c r="CE11" s="21"/>
-      <c r="CF11" s="21"/>
-      <c r="CG11" s="21"/>
-      <c r="CH11" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI11" s="23"/>
-      <c r="CJ11" s="23"/>
-      <c r="CK11" s="23"/>
-      <c r="CL11" s="23"/>
-      <c r="CM11" s="23"/>
-      <c r="CN11" s="23"/>
-      <c r="CO11" s="23" t="s">
-        <v>233</v>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI11" s="22"/>
+      <c r="CJ11" s="22"/>
+      <c r="CK11" s="22"/>
+      <c r="CL11" s="22"/>
+      <c r="CM11" s="22"/>
+      <c r="CN11" s="22"/>
+      <c r="CO11" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="23"/>
-      <c r="BF12" s="21"/>
-      <c r="BG12" s="21"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="21"/>
-      <c r="BJ12" s="21"/>
-      <c r="BK12" s="21"/>
-      <c r="BL12" s="21"/>
-      <c r="BM12" s="21"/>
-      <c r="BN12" s="21"/>
-      <c r="BO12" s="21"/>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
-      <c r="BT12" s="21"/>
-      <c r="BU12" s="21"/>
-      <c r="BV12" s="21"/>
-      <c r="BW12" s="21"/>
-      <c r="BX12" s="21"/>
-      <c r="BY12" s="21"/>
-      <c r="BZ12" s="21"/>
-      <c r="CA12" s="21"/>
-      <c r="CB12" s="21"/>
-      <c r="CC12" s="21"/>
-      <c r="CD12" s="21"/>
-      <c r="CE12" s="21"/>
-      <c r="CF12" s="21"/>
-      <c r="CG12" s="21"/>
-      <c r="CH12" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="23"/>
-      <c r="CO12" s="23" t="s">
-        <v>233</v>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI12" s="22"/>
+      <c r="CJ12" s="22"/>
+      <c r="CK12" s="22"/>
+      <c r="CL12" s="22"/>
+      <c r="CM12" s="22"/>
+      <c r="CN12" s="22"/>
+      <c r="CO12" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="23"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-      <c r="BT13" s="21"/>
-      <c r="BU13" s="21"/>
-      <c r="BV13" s="21"/>
-      <c r="BW13" s="21"/>
-      <c r="BX13" s="21"/>
-      <c r="BY13" s="21"/>
-      <c r="BZ13" s="21"/>
-      <c r="CA13" s="21"/>
-      <c r="CB13" s="21"/>
-      <c r="CC13" s="21"/>
-      <c r="CD13" s="21"/>
-      <c r="CE13" s="21"/>
-      <c r="CF13" s="21"/>
-      <c r="CG13" s="21"/>
-      <c r="CH13" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI13" s="23"/>
-      <c r="CJ13" s="23"/>
-      <c r="CK13" s="23"/>
-      <c r="CL13" s="23"/>
-      <c r="CM13" s="23"/>
-      <c r="CN13" s="23"/>
-      <c r="CO13" s="23" t="s">
-        <v>233</v>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20"/>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI13" s="22"/>
+      <c r="CJ13" s="22"/>
+      <c r="CK13" s="22"/>
+      <c r="CL13" s="22"/>
+      <c r="CM13" s="22"/>
+      <c r="CN13" s="22"/>
+      <c r="CO13" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-      <c r="BU14" s="21"/>
-      <c r="BV14" s="21"/>
-      <c r="BW14" s="21"/>
-      <c r="BX14" s="21"/>
-      <c r="BY14" s="21"/>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="23"/>
-      <c r="CO14" s="23" t="s">
-        <v>233</v>
+      <c r="E14" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="20"/>
+      <c r="BV14" s="20"/>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
+      <c r="CA14" s="20"/>
+      <c r="CB14" s="20"/>
+      <c r="CC14" s="20"/>
+      <c r="CD14" s="20"/>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI14" s="22"/>
+      <c r="CJ14" s="22"/>
+      <c r="CK14" s="22"/>
+      <c r="CL14" s="22"/>
+      <c r="CM14" s="22"/>
+      <c r="CN14" s="22"/>
+      <c r="CO14" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="L15" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q15" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="R15" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K15" s="21" t="s">
+      <c r="T15" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q15" s="23" t="s">
+      <c r="U15" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="R15" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="T15" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="U15" s="23" t="s">
+      <c r="V15" s="22"/>
+      <c r="W15" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
+      <c r="CH15" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI15" s="22"/>
+      <c r="CJ15" s="22"/>
+      <c r="CK15" s="22"/>
+      <c r="CL15" s="22"/>
+      <c r="CM15" s="22"/>
+      <c r="CN15" s="22"/>
+      <c r="CO15" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="23"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-      <c r="BU15" s="21"/>
-      <c r="BV15" s="21"/>
-      <c r="BW15" s="21"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CB15" s="21"/>
-      <c r="CC15" s="21"/>
-      <c r="CD15" s="21"/>
-      <c r="CE15" s="21"/>
-      <c r="CF15" s="21"/>
-      <c r="CG15" s="21"/>
-      <c r="CH15" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI15" s="23"/>
-      <c r="CJ15" s="23"/>
-      <c r="CK15" s="23"/>
-      <c r="CL15" s="23"/>
-      <c r="CM15" s="23"/>
-      <c r="CN15" s="23"/>
-      <c r="CO15" s="23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="BV16" s="20"/>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
+      <c r="BZ16" s="20"/>
+      <c r="CA16" s="20"/>
+      <c r="CB16" s="20"/>
+      <c r="CC16" s="20"/>
+      <c r="CD16" s="20"/>
+      <c r="CE16" s="20"/>
+      <c r="CF16" s="20"/>
+      <c r="CG16" s="20"/>
+      <c r="CH16" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="CI16" s="22"/>
+      <c r="CJ16" s="22"/>
+      <c r="CK16" s="22"/>
+      <c r="CL16" s="22"/>
+      <c r="CM16" s="22"/>
+      <c r="CN16" s="22"/>
+      <c r="CO16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="11">
-        <v>91</v>
-      </c>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO16" s="1">
-        <f>DATE(2021,1,28)</f>
-        <v>44224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="11">
-        <v>91</v>
-      </c>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CO17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287BE29-E6D4-41BB-AB5A-CED2A6DBDAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A129B78-1F28-433C-B43F-DAF78FB8CF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="247">
   <si>
     <t>Environment</t>
   </si>
@@ -781,12 +781,6 @@
   </si>
   <si>
     <t>Q 3</t>
-  </si>
-  <si>
-    <t>Q 2,Q 4,Q 5</t>
-  </si>
-  <si>
-    <t>Q 2</t>
   </si>
   <si>
     <t>Need discussion</t>
@@ -840,6 +834,24 @@
   </si>
   <si>
     <t>13314784</t>
+  </si>
+  <si>
+    <t>Teacher/Staff</t>
+  </si>
+  <si>
+    <t>Q 9</t>
+  </si>
+  <si>
+    <t>Q 10</t>
+  </si>
+  <si>
+    <t>Subject Taught</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -872,6 +884,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1474,8 +1487,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2877,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -2983,7 +2996,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3102,7 +3115,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3221,7 +3234,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3340,7 +3353,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3444,26 +3457,28 @@
         <v>199</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>222</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" s="20"/>
+        <v>243</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>241</v>
+      </c>
       <c r="O15" s="22" t="s">
         <v>231</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>223</v>
@@ -3472,14 +3487,16 @@
         <v>224</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="V15" s="22"/>
+        <v>245</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>244</v>
+      </c>
       <c r="W15" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3573,10 +3590,10 @@
         <v>201</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
@@ -3587,14 +3604,14 @@
         <v>183</v>
       </c>
       <c r="L16" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>223</v>
@@ -3613,7 +3630,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3678,7 +3695,7 @@
       <c r="CF16" s="20"/>
       <c r="CG16" s="20"/>
       <c r="CH16" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="CI16" s="22"/>
       <c r="CJ16" s="22"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A129B78-1F28-433C-B43F-DAF78FB8CF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104FEAB4-B3EB-4737-9513-3CEF1A9C8458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="248">
   <si>
     <t>Environment</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>Q 3</t>
-  </si>
-  <si>
-    <t>Need discussion</t>
   </si>
   <si>
     <t>Dar report</t>
@@ -852,6 +849,12 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Not showing email to pop up on generated report</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1490,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +2880,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -2996,7 +2999,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3115,7 +3118,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3234,7 +3237,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3353,7 +3356,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3453,23 +3456,23 @@
         <v>221</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="19" t="s">
-        <v>199</v>
+      <c r="I15" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>222</v>
       </c>
       <c r="L15" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="M15" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>243</v>
-      </c>
       <c r="N15" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>231</v>
@@ -3478,7 +3481,7 @@
         <v>232</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>223</v>
@@ -3487,16 +3490,16 @@
         <v>224</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3590,10 +3593,10 @@
         <v>201</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
@@ -3604,20 +3607,20 @@
         <v>183</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>223</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="S16" s="22" t="s">
         <v>224</v>
@@ -3630,7 +3633,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3695,7 +3698,7 @@
       <c r="CF16" s="20"/>
       <c r="CG16" s="20"/>
       <c r="CH16" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CI16" s="22"/>
       <c r="CJ16" s="22"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104FEAB4-B3EB-4737-9513-3CEF1A9C8458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52F793-3447-420C-8B01-14D4364D45F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="250">
   <si>
     <t>Environment</t>
   </si>
@@ -778,9 +778,6 @@
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>Q 3</t>
   </si>
   <si>
     <t>Dar report</t>
@@ -836,25 +833,34 @@
     <t>Teacher/Staff</t>
   </si>
   <si>
-    <t>Q 9</t>
-  </si>
-  <si>
-    <t>Q 10</t>
-  </si>
-  <si>
     <t>Subject Taught</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Not showing email to pop up on generated report</t>
+    <t>School Site,Subject Taught,Department,Grade Level,Gender</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Engagement Exe check</t>
+  </si>
+  <si>
+    <t>Q 2</t>
+  </si>
+  <si>
+    <t>Q 5</t>
+  </si>
+  <si>
+    <t>Q 1</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1496,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2886,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -2999,7 +3005,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3118,7 +3124,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3237,7 +3243,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3356,7 +3362,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3456,32 +3462,30 @@
         <v>221</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>247</v>
-      </c>
+      <c r="I15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="20" t="s">
         <v>222</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>231</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="R15" s="22" t="s">
         <v>223</v>
@@ -3490,16 +3494,16 @@
         <v>224</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U15" s="22" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3564,7 +3568,7 @@
       <c r="CF15" s="20"/>
       <c r="CG15" s="20"/>
       <c r="CH15" s="22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="CI15" s="22"/>
       <c r="CJ15" s="22"/>
@@ -3573,7 +3577,7 @@
       <c r="CM15" s="22"/>
       <c r="CN15" s="22"/>
       <c r="CO15" s="22" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
@@ -3593,10 +3597,10 @@
         <v>201</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>233</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>234</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
@@ -3607,20 +3611,20 @@
         <v>183</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="22" t="s">
         <v>223</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="S16" s="22" t="s">
         <v>224</v>
@@ -3633,7 +3637,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3698,7 +3702,7 @@
       <c r="CF16" s="20"/>
       <c r="CG16" s="20"/>
       <c r="CH16" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CI16" s="22"/>
       <c r="CJ16" s="22"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C52F793-3447-420C-8B01-14D4364D45F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD3A1A-56B5-4B27-855E-5F0AB40D8DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,26 +13,17 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="253">
   <si>
     <t>Environment</t>
   </si>
@@ -547,9 +538,6 @@
     <t>DMx exe DP Most Recently Used11</t>
   </si>
   <si>
-    <t>05 FEB [1024 records]</t>
-  </si>
-  <si>
     <t>Salutation;First Name</t>
   </si>
   <si>
@@ -562,27 +550,24 @@
     <t>DMx PF DP invites</t>
   </si>
   <si>
-    <t>DP PF list [5 records]</t>
-  </si>
-  <si>
     <t>FN</t>
   </si>
   <si>
-    <t>DMx PF DP</t>
-  </si>
-  <si>
     <t>Test Invite</t>
   </si>
   <si>
-    <t>Dp test invites [18 records]</t>
-  </si>
-  <si>
     <t>Copy (4) of switch of DP survey from 26th October</t>
   </si>
   <si>
+    <t>DAR</t>
+  </si>
+  <si>
     <t>Dimensional Report 1</t>
   </si>
   <si>
+    <t>Dar</t>
+  </si>
+  <si>
     <t>DAR DP</t>
   </si>
   <si>
@@ -616,25 +601,7 @@
     <t>Smoke_TC10</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>OOPS! Something went wrong! Page displayed on sending the reminder</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dp test invites [18 records] list not present </t>
-  </si>
-  <si>
-    <t>DP PF list [5 records] list not present</t>
-  </si>
-  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>Reminder email template not provided</t>
   </si>
   <si>
     <t>RMX</t>
@@ -768,6 +735,9 @@
     <t>Smoke_TC15</t>
   </si>
   <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
     <t>surveyTitle</t>
   </si>
   <si>
@@ -778,6 +748,39 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Q 2</t>
+  </si>
+  <si>
+    <t>rruksar@zarca.com</t>
+  </si>
+  <si>
+    <t>22nd March [1027 records]</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>DP PF List [22 records]</t>
+  </si>
+  <si>
+    <t>First Name;Salutation</t>
+  </si>
+  <si>
+    <t>Test Invitation List [3 records]</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Smoke_TC17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe reminder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
   </si>
   <si>
     <t>Dar report</t>
@@ -815,59 +818,56 @@
 17. Accept alert message.</t>
   </si>
   <si>
+    <t>Dar,Dimensional Report 1,Dar,Dimensional Report 2</t>
+  </si>
+  <si>
+    <t>13314784</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
-    <t>Dar,Dimensional Report 1,Dar,Dimensional Report 2</t>
-  </si>
-  <si>
-    <t>rruksar@zarca.com</t>
-  </si>
-  <si>
-    <t>13314784</t>
+    <t>Q 5</t>
   </si>
   <si>
     <t>Teacher/Staff</t>
   </si>
   <si>
+    <t>Q 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>School Site,Subject Taught,Department,Grade Level,Gender</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8</t>
+  </si>
+  <si>
     <t>Subject Taught</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>School Site,Subject Taught,Department,Grade Level,Gender</t>
-  </si>
-  <si>
     <t>199</t>
   </si>
   <si>
     <t>Engagement Exe check</t>
   </si>
   <si>
-    <t>Q 2</t>
-  </si>
-  <si>
-    <t>Q 5</t>
-  </si>
-  <si>
-    <t>Q 1</t>
-  </si>
-  <si>
-    <t>4,5,6,7,8</t>
+    <t xml:space="preserve"> Overall Score Data Table not present on page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +893,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -907,6 +912,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -940,14 +950,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -1014,14 +1022,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1039,20 +1049,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{E0C9F20A-3C63-41E3-B488-667155B99753}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BEFE91A1-6694-4EFC-B4C7-79AC9427A142}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{33784278-FC36-4C89-A3F0-5F104988CE08}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{E3D7501D-72D4-41B1-89B8-6CC3B051C17C}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{CA8A5EF5-7DD1-4FF3-9C16-F3ECD1AB37FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1418,7 +1441,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,14 +1495,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>201</v>
+      <c r="A4" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1494,10 +1517,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO16"/>
+  <dimension ref="A1:CO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1543,7 @@
     <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1801,7 +1824,7 @@
         <v>153</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1809,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1827,8 +1850,8 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>199</v>
+      <c r="I2" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
@@ -1922,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1940,8 +1963,8 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>194</v>
+      <c r="I3" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
@@ -2110,7 +2133,7 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2131,12 +2154,10 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>200</v>
-      </c>
+      <c r="I4" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="13"/>
       <c r="K4" s="1"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -2219,13 +2240,13 @@
         <v>170</v>
       </c>
       <c r="CJ4" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="CK4" s="12" t="s">
+      <c r="CL4" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="CL4" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="CM4" s="12" t="s">
         <v>157</v>
@@ -2237,7 +2258,7 @@
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2258,12 +2279,10 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="I5" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="1"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -2340,31 +2359,31 @@
       <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
       <c r="CH5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CI5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="CI5" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="CJ5" s="12" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="CL5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="CO5" s="12"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2385,12 +2404,10 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="I6" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="13"/>
       <c r="K6" s="1"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -2481,7 +2498,7 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2502,12 +2519,10 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="I7" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="12"/>
       <c r="K7" s="1"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2584,23 +2599,23 @@
       <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
       <c r="CH7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CI7" s="12"/>
       <c r="CJ7" s="12" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
       <c r="CM7" s="12" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2621,8 +2636,8 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>194</v>
+      <c r="I8" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -2717,9 +2732,9 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2732,18 +2747,16 @@
         <v>154</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="I9" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2780,7 +2793,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -2825,901 +2838,1148 @@
         <v>313</v>
       </c>
       <c r="CI9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ9" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="CK9" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="CJ9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK9" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="CL9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="CM9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CN9" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="22"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="20"/>
-      <c r="BJ10" s="20"/>
-      <c r="BK10" s="20"/>
-      <c r="BL10" s="20"/>
-      <c r="BM10" s="20"/>
-      <c r="BN10" s="20"/>
-      <c r="BO10" s="20"/>
-      <c r="BP10" s="20"/>
-      <c r="BQ10" s="20"/>
-      <c r="BR10" s="20"/>
-      <c r="BS10" s="20"/>
-      <c r="BT10" s="20"/>
-      <c r="BU10" s="20"/>
-      <c r="BV10" s="20"/>
-      <c r="BW10" s="20"/>
-      <c r="BX10" s="20"/>
-      <c r="BY10" s="20"/>
-      <c r="BZ10" s="20"/>
-      <c r="CA10" s="20"/>
-      <c r="CB10" s="20"/>
-      <c r="CC10" s="20"/>
-      <c r="CD10" s="20"/>
-      <c r="CE10" s="20"/>
-      <c r="CF10" s="20"/>
-      <c r="CG10" s="20"/>
-      <c r="CH10" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI10" s="22"/>
-      <c r="CJ10" s="22"/>
-      <c r="CK10" s="22"/>
-      <c r="CL10" s="22"/>
-      <c r="CM10" s="22"/>
-      <c r="CN10" s="22"/>
-      <c r="CO10" s="22" t="s">
-        <v>229</v>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="19"/>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19"/>
+      <c r="BX10" s="19"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="19"/>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="19"/>
+      <c r="CF10" s="19"/>
+      <c r="CG10" s="19"/>
+      <c r="CH10" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI10" s="21"/>
+      <c r="CJ10" s="21"/>
+      <c r="CK10" s="21"/>
+      <c r="CL10" s="21"/>
+      <c r="CM10" s="21"/>
+      <c r="CN10" s="21"/>
+      <c r="CO10" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="22"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="20"/>
-      <c r="BJ11" s="20"/>
-      <c r="BK11" s="20"/>
-      <c r="BL11" s="20"/>
-      <c r="BM11" s="20"/>
-      <c r="BN11" s="20"/>
-      <c r="BO11" s="20"/>
-      <c r="BP11" s="20"/>
-      <c r="BQ11" s="20"/>
-      <c r="BR11" s="20"/>
-      <c r="BS11" s="20"/>
-      <c r="BT11" s="20"/>
-      <c r="BU11" s="20"/>
-      <c r="BV11" s="20"/>
-      <c r="BW11" s="20"/>
-      <c r="BX11" s="20"/>
-      <c r="BY11" s="20"/>
-      <c r="BZ11" s="20"/>
-      <c r="CA11" s="20"/>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="20"/>
-      <c r="CD11" s="20"/>
-      <c r="CE11" s="20"/>
-      <c r="CF11" s="20"/>
-      <c r="CG11" s="20"/>
-      <c r="CH11" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI11" s="22"/>
-      <c r="CJ11" s="22"/>
-      <c r="CK11" s="22"/>
-      <c r="CL11" s="22"/>
-      <c r="CM11" s="22"/>
-      <c r="CN11" s="22"/>
-      <c r="CO11" s="22" t="s">
-        <v>229</v>
+      <c r="F11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="19"/>
+      <c r="BG11" s="19"/>
+      <c r="BH11" s="19"/>
+      <c r="BI11" s="19"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="19"/>
+      <c r="BL11" s="19"/>
+      <c r="BM11" s="19"/>
+      <c r="BN11" s="19"/>
+      <c r="BO11" s="19"/>
+      <c r="BP11" s="19"/>
+      <c r="BQ11" s="19"/>
+      <c r="BR11" s="19"/>
+      <c r="BS11" s="19"/>
+      <c r="BT11" s="19"/>
+      <c r="BU11" s="19"/>
+      <c r="BV11" s="19"/>
+      <c r="BW11" s="19"/>
+      <c r="BX11" s="19"/>
+      <c r="BY11" s="19"/>
+      <c r="BZ11" s="19"/>
+      <c r="CA11" s="19"/>
+      <c r="CB11" s="19"/>
+      <c r="CC11" s="19"/>
+      <c r="CD11" s="19"/>
+      <c r="CE11" s="19"/>
+      <c r="CF11" s="19"/>
+      <c r="CG11" s="19"/>
+      <c r="CH11" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI11" s="21"/>
+      <c r="CJ11" s="21"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="21"/>
+      <c r="CN11" s="21"/>
+      <c r="CO11" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="20"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
-      <c r="BN12" s="20"/>
-      <c r="BO12" s="20"/>
-      <c r="BP12" s="20"/>
-      <c r="BQ12" s="20"/>
-      <c r="BR12" s="20"/>
-      <c r="BS12" s="20"/>
-      <c r="BT12" s="20"/>
-      <c r="BU12" s="20"/>
-      <c r="BV12" s="20"/>
-      <c r="BW12" s="20"/>
-      <c r="BX12" s="20"/>
-      <c r="BY12" s="20"/>
-      <c r="BZ12" s="20"/>
-      <c r="CA12" s="20"/>
-      <c r="CB12" s="20"/>
-      <c r="CC12" s="20"/>
-      <c r="CD12" s="20"/>
-      <c r="CE12" s="20"/>
-      <c r="CF12" s="20"/>
-      <c r="CG12" s="20"/>
-      <c r="CH12" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI12" s="22"/>
-      <c r="CJ12" s="22"/>
-      <c r="CK12" s="22"/>
-      <c r="CL12" s="22"/>
-      <c r="CM12" s="22"/>
-      <c r="CN12" s="22"/>
-      <c r="CO12" s="22" t="s">
-        <v>229</v>
+      <c r="G12" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
+      <c r="BH12" s="19"/>
+      <c r="BI12" s="19"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="19"/>
+      <c r="BL12" s="19"/>
+      <c r="BM12" s="19"/>
+      <c r="BN12" s="19"/>
+      <c r="BO12" s="19"/>
+      <c r="BP12" s="19"/>
+      <c r="BQ12" s="19"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="19"/>
+      <c r="BT12" s="19"/>
+      <c r="BU12" s="19"/>
+      <c r="BV12" s="19"/>
+      <c r="BW12" s="19"/>
+      <c r="BX12" s="19"/>
+      <c r="BY12" s="19"/>
+      <c r="BZ12" s="19"/>
+      <c r="CA12" s="19"/>
+      <c r="CB12" s="19"/>
+      <c r="CC12" s="19"/>
+      <c r="CD12" s="19"/>
+      <c r="CE12" s="19"/>
+      <c r="CF12" s="19"/>
+      <c r="CG12" s="19"/>
+      <c r="CH12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI12" s="21"/>
+      <c r="CJ12" s="21"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
+      <c r="CM12" s="21"/>
+      <c r="CN12" s="21"/>
+      <c r="CO12" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
-      <c r="BN13" s="20"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="20"/>
-      <c r="BQ13" s="20"/>
-      <c r="BR13" s="20"/>
-      <c r="BS13" s="20"/>
-      <c r="BT13" s="20"/>
-      <c r="BU13" s="20"/>
-      <c r="BV13" s="20"/>
-      <c r="BW13" s="20"/>
-      <c r="BX13" s="20"/>
-      <c r="BY13" s="20"/>
-      <c r="BZ13" s="20"/>
-      <c r="CA13" s="20"/>
-      <c r="CB13" s="20"/>
-      <c r="CC13" s="20"/>
-      <c r="CD13" s="20"/>
-      <c r="CE13" s="20"/>
-      <c r="CF13" s="20"/>
-      <c r="CG13" s="20"/>
-      <c r="CH13" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI13" s="22"/>
-      <c r="CJ13" s="22"/>
-      <c r="CK13" s="22"/>
-      <c r="CL13" s="22"/>
-      <c r="CM13" s="22"/>
-      <c r="CN13" s="22"/>
-      <c r="CO13" s="22" t="s">
-        <v>229</v>
+      <c r="E13" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="19"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="19"/>
+      <c r="BQ13" s="19"/>
+      <c r="BR13" s="19"/>
+      <c r="BS13" s="19"/>
+      <c r="BT13" s="19"/>
+      <c r="BU13" s="19"/>
+      <c r="BV13" s="19"/>
+      <c r="BW13" s="19"/>
+      <c r="BX13" s="19"/>
+      <c r="BY13" s="19"/>
+      <c r="BZ13" s="19"/>
+      <c r="CA13" s="19"/>
+      <c r="CB13" s="19"/>
+      <c r="CC13" s="19"/>
+      <c r="CD13" s="19"/>
+      <c r="CE13" s="19"/>
+      <c r="CF13" s="19"/>
+      <c r="CG13" s="19"/>
+      <c r="CH13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI13" s="21"/>
+      <c r="CJ13" s="21"/>
+      <c r="CK13" s="21"/>
+      <c r="CL13" s="21"/>
+      <c r="CM13" s="21"/>
+      <c r="CN13" s="21"/>
+      <c r="CO13" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="19"/>
+      <c r="BG14" s="19"/>
+      <c r="BH14" s="19"/>
+      <c r="BI14" s="19"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="19"/>
+      <c r="BM14" s="19"/>
+      <c r="BN14" s="19"/>
+      <c r="BO14" s="19"/>
+      <c r="BP14" s="19"/>
+      <c r="BQ14" s="19"/>
+      <c r="BR14" s="19"/>
+      <c r="BS14" s="19"/>
+      <c r="BT14" s="19"/>
+      <c r="BU14" s="19"/>
+      <c r="BV14" s="19"/>
+      <c r="BW14" s="19"/>
+      <c r="BX14" s="19"/>
+      <c r="BY14" s="19"/>
+      <c r="BZ14" s="19"/>
+      <c r="CA14" s="19"/>
+      <c r="CB14" s="19"/>
+      <c r="CC14" s="19"/>
+      <c r="CD14" s="19"/>
+      <c r="CE14" s="19"/>
+      <c r="CF14" s="19"/>
+      <c r="CG14" s="19"/>
+      <c r="CH14" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="20"/>
-      <c r="AW14" s="20"/>
-      <c r="AX14" s="20"/>
-      <c r="AY14" s="20"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="20"/>
-      <c r="BB14" s="20"/>
-      <c r="BC14" s="20"/>
-      <c r="BD14" s="20"/>
-      <c r="BE14" s="22"/>
-      <c r="BF14" s="20"/>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="20"/>
-      <c r="BI14" s="20"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="20"/>
-      <c r="BQ14" s="20"/>
-      <c r="BR14" s="20"/>
-      <c r="BS14" s="20"/>
-      <c r="BT14" s="20"/>
-      <c r="BU14" s="20"/>
-      <c r="BV14" s="20"/>
-      <c r="BW14" s="20"/>
-      <c r="BX14" s="20"/>
-      <c r="BY14" s="20"/>
-      <c r="BZ14" s="20"/>
-      <c r="CA14" s="20"/>
-      <c r="CB14" s="20"/>
-      <c r="CC14" s="20"/>
-      <c r="CD14" s="20"/>
-      <c r="CE14" s="20"/>
-      <c r="CF14" s="20"/>
-      <c r="CG14" s="20"/>
-      <c r="CH14" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI14" s="22"/>
-      <c r="CJ14" s="22"/>
-      <c r="CK14" s="22"/>
-      <c r="CL14" s="22"/>
-      <c r="CM14" s="22"/>
-      <c r="CN14" s="22"/>
-      <c r="CO14" s="22" t="s">
-        <v>229</v>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="L15" s="21" t="s">
+      <c r="E15" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q15" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="R15" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="S15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="T15" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="P15" s="20" t="s">
+      <c r="U15" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="Q15" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="S15" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="U15" s="22" t="s">
+      <c r="V15" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="V15" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="W15" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="20"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="20"/>
-      <c r="BD15" s="20"/>
-      <c r="BE15" s="22"/>
-      <c r="BF15" s="20"/>
-      <c r="BG15" s="20"/>
-      <c r="BH15" s="20"/>
-      <c r="BI15" s="20"/>
-      <c r="BJ15" s="20"/>
-      <c r="BK15" s="20"/>
-      <c r="BL15" s="20"/>
-      <c r="BM15" s="20"/>
-      <c r="BN15" s="20"/>
-      <c r="BO15" s="20"/>
-      <c r="BP15" s="20"/>
-      <c r="BQ15" s="20"/>
-      <c r="BR15" s="20"/>
-      <c r="BS15" s="20"/>
-      <c r="BT15" s="20"/>
-      <c r="BU15" s="20"/>
-      <c r="BV15" s="20"/>
-      <c r="BW15" s="20"/>
-      <c r="BX15" s="20"/>
-      <c r="BY15" s="20"/>
-      <c r="BZ15" s="20"/>
-      <c r="CA15" s="20"/>
-      <c r="CB15" s="20"/>
-      <c r="CC15" s="20"/>
-      <c r="CD15" s="20"/>
-      <c r="CE15" s="20"/>
-      <c r="CF15" s="20"/>
-      <c r="CG15" s="20"/>
-      <c r="CH15" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="CI15" s="22"/>
-      <c r="CJ15" s="22"/>
-      <c r="CK15" s="22"/>
-      <c r="CL15" s="22"/>
-      <c r="CM15" s="22"/>
-      <c r="CN15" s="22"/>
-      <c r="CO15" s="22" t="s">
-        <v>245</v>
+      <c r="W15" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="30"/>
+      <c r="AX15" s="30"/>
+      <c r="AY15" s="30"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="30"/>
+      <c r="BC15" s="30"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="30"/>
+      <c r="BI15" s="30"/>
+      <c r="BJ15" s="30"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="30"/>
+      <c r="BM15" s="30"/>
+      <c r="BN15" s="30"/>
+      <c r="BO15" s="30"/>
+      <c r="BP15" s="30"/>
+      <c r="BQ15" s="30"/>
+      <c r="BR15" s="30"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="30"/>
+      <c r="BU15" s="30"/>
+      <c r="BV15" s="30"/>
+      <c r="BW15" s="30"/>
+      <c r="BX15" s="30"/>
+      <c r="BY15" s="30"/>
+      <c r="BZ15" s="30"/>
+      <c r="CA15" s="30"/>
+      <c r="CB15" s="30"/>
+      <c r="CC15" s="30"/>
+      <c r="CD15" s="30"/>
+      <c r="CE15" s="30"/>
+      <c r="CF15" s="30"/>
+      <c r="CG15" s="30"/>
+      <c r="CH15" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI15" s="32"/>
+      <c r="CJ15" s="32"/>
+      <c r="CK15" s="32"/>
+      <c r="CL15" s="32"/>
+      <c r="CM15" s="32"/>
+      <c r="CN15" s="32"/>
+      <c r="CO15" s="32" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="26"/>
+      <c r="BG16" s="26"/>
+      <c r="BH16" s="26"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="26"/>
+      <c r="BL16" s="26"/>
+      <c r="BM16" s="26"/>
+      <c r="BN16" s="26"/>
+      <c r="BO16" s="26"/>
+      <c r="BP16" s="26"/>
+      <c r="BQ16" s="26"/>
+      <c r="BR16" s="26"/>
+      <c r="BS16" s="26"/>
+      <c r="BT16" s="26"/>
+      <c r="BU16" s="26"/>
+      <c r="BV16" s="26"/>
+      <c r="BW16" s="26"/>
+      <c r="BX16" s="26"/>
+      <c r="BY16" s="26"/>
+      <c r="BZ16" s="26"/>
+      <c r="CA16" s="26"/>
+      <c r="CB16" s="26"/>
+      <c r="CC16" s="26"/>
+      <c r="CD16" s="26"/>
+      <c r="CE16" s="26"/>
+      <c r="CF16" s="26"/>
+      <c r="CG16" s="26"/>
+      <c r="CH16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="CI16" s="28"/>
+      <c r="CJ16" s="28"/>
+      <c r="CK16" s="28"/>
+      <c r="CL16" s="28"/>
+      <c r="CM16" s="28"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+      <c r="BT17" s="1"/>
+      <c r="BU17" s="1"/>
+      <c r="BV17" s="1"/>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="11">
+        <v>91</v>
+      </c>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CO17" s="1"/>
+    </row>
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
+      <c r="BM18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="11"/>
+      <c r="BP18" s="11"/>
+      <c r="BQ18" s="11"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="11"/>
+      <c r="BT18" s="11"/>
+      <c r="BU18" s="11"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="11"/>
+      <c r="CC18" s="11"/>
+      <c r="CD18" s="11"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="11"/>
+      <c r="CG18" s="11"/>
+      <c r="CH18" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI18" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="CJ18" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="20"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="20"/>
-      <c r="AT16" s="20"/>
-      <c r="AU16" s="20"/>
-      <c r="AV16" s="20"/>
-      <c r="AW16" s="20"/>
-      <c r="AX16" s="20"/>
-      <c r="AY16" s="20"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="20"/>
-      <c r="BB16" s="20"/>
-      <c r="BC16" s="20"/>
-      <c r="BD16" s="20"/>
-      <c r="BE16" s="22"/>
-      <c r="BF16" s="20"/>
-      <c r="BG16" s="20"/>
-      <c r="BH16" s="20"/>
-      <c r="BI16" s="20"/>
-      <c r="BJ16" s="20"/>
-      <c r="BK16" s="20"/>
-      <c r="BL16" s="20"/>
-      <c r="BM16" s="20"/>
-      <c r="BN16" s="20"/>
-      <c r="BO16" s="20"/>
-      <c r="BP16" s="20"/>
-      <c r="BQ16" s="20"/>
-      <c r="BR16" s="20"/>
-      <c r="BS16" s="20"/>
-      <c r="BT16" s="20"/>
-      <c r="BU16" s="20"/>
-      <c r="BV16" s="20"/>
-      <c r="BW16" s="20"/>
-      <c r="BX16" s="20"/>
-      <c r="BY16" s="20"/>
-      <c r="BZ16" s="20"/>
-      <c r="CA16" s="20"/>
-      <c r="CB16" s="20"/>
-      <c r="CC16" s="20"/>
-      <c r="CD16" s="20"/>
-      <c r="CE16" s="20"/>
-      <c r="CF16" s="20"/>
-      <c r="CG16" s="20"/>
-      <c r="CH16" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="CI16" s="22"/>
-      <c r="CJ16" s="22"/>
-      <c r="CK16" s="22"/>
-      <c r="CL16" s="22"/>
-      <c r="CM16" s="22"/>
-      <c r="CN16" s="22"/>
-      <c r="CO16" s="22" t="s">
-        <v>182</v>
-      </c>
+      <c r="CK18" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL18" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM18" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN18" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO18" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
+    <hyperlink ref="W11:W15" r:id="rId3" display="rruksar@zarca.com" xr:uid="{7B8FE0C8-0E48-451D-8132-121097498E65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD3A1A-56B5-4B27-855E-5F0AB40D8DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6CD74-B0E4-47E2-BA3A-B303805244F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
   <si>
     <t>Environment</t>
   </si>
@@ -559,13 +559,7 @@
     <t>Copy (4) of switch of DP survey from 26th October</t>
   </si>
   <si>
-    <t>DAR</t>
-  </si>
-  <si>
     <t>Dimensional Report 1</t>
-  </si>
-  <si>
-    <t>Dar</t>
   </si>
   <si>
     <t>DAR DP</t>
@@ -753,9 +747,6 @@
     <t>Q 2</t>
   </si>
   <si>
-    <t>rruksar@zarca.com</t>
-  </si>
-  <si>
     <t>22nd March [1027 records]</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
   </si>
   <si>
     <t xml:space="preserve">To send exe reminder </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Schedule Reminder Button not present on page.</t>
   </si>
   <si>
     <t>Dar report</t>
@@ -860,14 +848,45 @@
     <t>Engagement Exe check</t>
   </si>
   <si>
-    <t xml:space="preserve"> Overall Score Data Table not present on page.</t>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>Copy (1) of Attach n resp trend NLP</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>gaurav_k12</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>K12 Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test</t>
+  </si>
+  <si>
+    <t>Data Export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,12 +914,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -918,8 +931,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,13 +968,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1025,13 +1084,13 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1048,25 +1107,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1362,8 +1424,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,9 +1465,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,18 +1500,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,55 +1557,73 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>193</v>
+      <c r="A4" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{999D06AC-CA3A-4F68-853D-212DC434DE30}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO18"/>
+  <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="92" max="93" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1824,7 +1904,7 @@
         <v>153</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1850,8 +1930,8 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>192</v>
+      <c r="I2" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
@@ -1963,8 +2043,8 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>192</v>
+      <c r="I3" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
@@ -2133,10 +2213,10 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2154,8 +2234,8 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>192</v>
+      <c r="I4" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="1"/>
@@ -2240,7 +2320,7 @@
         <v>170</v>
       </c>
       <c r="CJ4" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="CK4" s="12" t="s">
         <v>171</v>
@@ -2251,17 +2331,17 @@
       <c r="CM4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN4" s="16" t="s">
+      <c r="CN4" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="16"/>
+      <c r="CO4" s="33"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2279,8 +2359,8 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>192</v>
+      <c r="I5" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="1"/>
@@ -2365,16 +2445,16 @@
         <v>174</v>
       </c>
       <c r="CJ5" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="CL5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="CN5" s="12" t="s">
         <v>174</v>
@@ -2383,10 +2463,10 @@
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2404,8 +2484,8 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>192</v>
+      <c r="I6" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="1"/>
@@ -2498,10 +2578,10 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2519,8 +2599,8 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>192</v>
+      <c r="I7" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2603,22 +2683,22 @@
       </c>
       <c r="CI7" s="12"/>
       <c r="CJ7" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
       <c r="CM7" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -2636,8 +2716,8 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="34" t="s">
-        <v>192</v>
+      <c r="I8" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -2732,10 +2812,10 @@
     </row>
     <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
@@ -2753,8 +2833,8 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>192</v>
+      <c r="I9" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2841,7 +2921,7 @@
         <v>174</v>
       </c>
       <c r="CJ9" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="CK9" s="12" t="s">
         <v>175</v>
@@ -2857,905 +2937,905 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="19"/>
-      <c r="BM10" s="19"/>
-      <c r="BN10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
-      <c r="BQ10" s="19"/>
-      <c r="BR10" s="19"/>
-      <c r="BS10" s="19"/>
-      <c r="BT10" s="19"/>
-      <c r="BU10" s="19"/>
-      <c r="BV10" s="19"/>
-      <c r="BW10" s="19"/>
-      <c r="BX10" s="19"/>
-      <c r="BY10" s="19"/>
-      <c r="BZ10" s="19"/>
-      <c r="CA10" s="19"/>
-      <c r="CB10" s="19"/>
-      <c r="CC10" s="19"/>
-      <c r="CD10" s="19"/>
-      <c r="CE10" s="19"/>
-      <c r="CF10" s="19"/>
-      <c r="CG10" s="19"/>
-      <c r="CH10" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI10" s="21"/>
-      <c r="CJ10" s="21"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="21" t="s">
-        <v>222</v>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI10" s="18"/>
+      <c r="CJ10" s="18"/>
+      <c r="CK10" s="18"/>
+      <c r="CL10" s="18"/>
+      <c r="CM10" s="18"/>
+      <c r="CN10" s="18"/>
+      <c r="CO10" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="19"/>
-      <c r="BG11" s="19"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="19"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="19"/>
-      <c r="BL11" s="19"/>
-      <c r="BM11" s="19"/>
-      <c r="BN11" s="19"/>
-      <c r="BO11" s="19"/>
-      <c r="BP11" s="19"/>
-      <c r="BQ11" s="19"/>
-      <c r="BR11" s="19"/>
-      <c r="BS11" s="19"/>
-      <c r="BT11" s="19"/>
-      <c r="BU11" s="19"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="19"/>
-      <c r="BZ11" s="19"/>
-      <c r="CA11" s="19"/>
-      <c r="CB11" s="19"/>
-      <c r="CC11" s="19"/>
-      <c r="CD11" s="19"/>
-      <c r="CE11" s="19"/>
-      <c r="CF11" s="19"/>
-      <c r="CG11" s="19"/>
-      <c r="CH11" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI11" s="21"/>
-      <c r="CJ11" s="21"/>
-      <c r="CK11" s="21"/>
-      <c r="CL11" s="21"/>
-      <c r="CM11" s="21"/>
-      <c r="CN11" s="21"/>
-      <c r="CO11" s="21" t="s">
-        <v>222</v>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI11" s="18"/>
+      <c r="CJ11" s="18"/>
+      <c r="CK11" s="18"/>
+      <c r="CL11" s="18"/>
+      <c r="CM11" s="18"/>
+      <c r="CN11" s="18"/>
+      <c r="CO11" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="19"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="19"/>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
-      <c r="BR12" s="19"/>
-      <c r="BS12" s="19"/>
-      <c r="BT12" s="19"/>
-      <c r="BU12" s="19"/>
-      <c r="BV12" s="19"/>
-      <c r="BW12" s="19"/>
-      <c r="BX12" s="19"/>
-      <c r="BY12" s="19"/>
-      <c r="BZ12" s="19"/>
-      <c r="CA12" s="19"/>
-      <c r="CB12" s="19"/>
-      <c r="CC12" s="19"/>
-      <c r="CD12" s="19"/>
-      <c r="CE12" s="19"/>
-      <c r="CF12" s="19"/>
-      <c r="CG12" s="19"/>
-      <c r="CH12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI12" s="21"/>
-      <c r="CJ12" s="21"/>
-      <c r="CK12" s="21"/>
-      <c r="CL12" s="21"/>
-      <c r="CM12" s="21"/>
-      <c r="CN12" s="21"/>
-      <c r="CO12" s="21" t="s">
-        <v>222</v>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI12" s="18"/>
+      <c r="CJ12" s="18"/>
+      <c r="CK12" s="18"/>
+      <c r="CL12" s="18"/>
+      <c r="CM12" s="18"/>
+      <c r="CN12" s="18"/>
+      <c r="CO12" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="19"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="19"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="19"/>
-      <c r="BO13" s="19"/>
-      <c r="BP13" s="19"/>
-      <c r="BQ13" s="19"/>
-      <c r="BR13" s="19"/>
-      <c r="BS13" s="19"/>
-      <c r="BT13" s="19"/>
-      <c r="BU13" s="19"/>
-      <c r="BV13" s="19"/>
-      <c r="BW13" s="19"/>
-      <c r="BX13" s="19"/>
-      <c r="BY13" s="19"/>
-      <c r="BZ13" s="19"/>
-      <c r="CA13" s="19"/>
-      <c r="CB13" s="19"/>
-      <c r="CC13" s="19"/>
-      <c r="CD13" s="19"/>
-      <c r="CE13" s="19"/>
-      <c r="CF13" s="19"/>
-      <c r="CG13" s="19"/>
-      <c r="CH13" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI13" s="21"/>
-      <c r="CJ13" s="21"/>
-      <c r="CK13" s="21"/>
-      <c r="CL13" s="21"/>
-      <c r="CM13" s="21"/>
-      <c r="CN13" s="21"/>
-      <c r="CO13" s="21" t="s">
-        <v>222</v>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI13" s="18"/>
+      <c r="CJ13" s="18"/>
+      <c r="CK13" s="18"/>
+      <c r="CL13" s="18"/>
+      <c r="CM13" s="18"/>
+      <c r="CN13" s="18"/>
+      <c r="CO13" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="19"/>
-      <c r="BG14" s="19"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="19"/>
-      <c r="BO14" s="19"/>
-      <c r="BP14" s="19"/>
-      <c r="BQ14" s="19"/>
-      <c r="BR14" s="19"/>
-      <c r="BS14" s="19"/>
-      <c r="BT14" s="19"/>
-      <c r="BU14" s="19"/>
-      <c r="BV14" s="19"/>
-      <c r="BW14" s="19"/>
-      <c r="BX14" s="19"/>
-      <c r="BY14" s="19"/>
-      <c r="BZ14" s="19"/>
-      <c r="CA14" s="19"/>
-      <c r="CB14" s="19"/>
-      <c r="CC14" s="19"/>
-      <c r="CD14" s="19"/>
-      <c r="CE14" s="19"/>
-      <c r="CF14" s="19"/>
-      <c r="CG14" s="19"/>
-      <c r="CH14" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
-      <c r="CM14" s="21"/>
-      <c r="CN14" s="21"/>
-      <c r="CO14" s="21" t="s">
-        <v>222</v>
+      <c r="E14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI14" s="18"/>
+      <c r="CJ14" s="18"/>
+      <c r="CK14" s="18"/>
+      <c r="CL14" s="18"/>
+      <c r="CM14" s="18"/>
+      <c r="CN14" s="18"/>
+      <c r="CO14" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>211</v>
+      <c r="A15" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="L15" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="30" t="s">
+      <c r="S15" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="M15" s="31" t="s">
+      <c r="T15" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="U15" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="P15" s="30" t="s">
+      <c r="V15" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="W15" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="26"/>
+      <c r="BO15" s="26"/>
+      <c r="BP15" s="26"/>
+      <c r="BQ15" s="26"/>
+      <c r="BR15" s="26"/>
+      <c r="BS15" s="26"/>
+      <c r="BT15" s="26"/>
+      <c r="BU15" s="26"/>
+      <c r="BV15" s="26"/>
+      <c r="BW15" s="26"/>
+      <c r="BX15" s="26"/>
+      <c r="BY15" s="26"/>
+      <c r="BZ15" s="26"/>
+      <c r="CA15" s="26"/>
+      <c r="CB15" s="26"/>
+      <c r="CC15" s="26"/>
+      <c r="CD15" s="26"/>
+      <c r="CE15" s="26"/>
+      <c r="CF15" s="26"/>
+      <c r="CG15" s="26"/>
+      <c r="CH15" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="R15" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="T15" s="30" t="s">
+      <c r="CI15" s="28"/>
+      <c r="CJ15" s="28"/>
+      <c r="CK15" s="28"/>
+      <c r="CL15" s="28"/>
+      <c r="CM15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CO15" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="U15" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="V15" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="W15" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="30"/>
-      <c r="BI15" s="30"/>
-      <c r="BJ15" s="30"/>
-      <c r="BK15" s="30"/>
-      <c r="BL15" s="30"/>
-      <c r="BM15" s="30"/>
-      <c r="BN15" s="30"/>
-      <c r="BO15" s="30"/>
-      <c r="BP15" s="30"/>
-      <c r="BQ15" s="30"/>
-      <c r="BR15" s="30"/>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
-      <c r="BU15" s="30"/>
-      <c r="BV15" s="30"/>
-      <c r="BW15" s="30"/>
-      <c r="BX15" s="30"/>
-      <c r="BY15" s="30"/>
-      <c r="BZ15" s="30"/>
-      <c r="CA15" s="30"/>
-      <c r="CB15" s="30"/>
-      <c r="CC15" s="30"/>
-      <c r="CD15" s="30"/>
-      <c r="CE15" s="30"/>
-      <c r="CF15" s="30"/>
-      <c r="CG15" s="30"/>
-      <c r="CH15" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="CI15" s="32"/>
-      <c r="CJ15" s="32"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="32"/>
-      <c r="CM15" s="32"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="32" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>219</v>
+      <c r="A16" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="R16" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="27" t="s">
+      <c r="S16" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="V16" s="24"/>
+      <c r="W16" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="22"/>
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="22"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="22"/>
+      <c r="BL16" s="22"/>
+      <c r="BM16" s="22"/>
+      <c r="BN16" s="22"/>
+      <c r="BO16" s="22"/>
+      <c r="BP16" s="22"/>
+      <c r="BQ16" s="22"/>
+      <c r="BR16" s="22"/>
+      <c r="BS16" s="22"/>
+      <c r="BT16" s="22"/>
+      <c r="BU16" s="22"/>
+      <c r="BV16" s="22"/>
+      <c r="BW16" s="22"/>
+      <c r="BX16" s="22"/>
+      <c r="BY16" s="22"/>
+      <c r="BZ16" s="22"/>
+      <c r="CA16" s="22"/>
+      <c r="CB16" s="22"/>
+      <c r="CC16" s="22"/>
+      <c r="CD16" s="22"/>
+      <c r="CE16" s="22"/>
+      <c r="CF16" s="22"/>
+      <c r="CG16" s="22"/>
+      <c r="CH16" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="R16" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="S16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="T16" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="U16" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="26"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
-      <c r="BL16" s="26"/>
-      <c r="BM16" s="26"/>
-      <c r="BN16" s="26"/>
-      <c r="BO16" s="26"/>
-      <c r="BP16" s="26"/>
-      <c r="BQ16" s="26"/>
-      <c r="BR16" s="26"/>
-      <c r="BS16" s="26"/>
-      <c r="BT16" s="26"/>
-      <c r="BU16" s="26"/>
-      <c r="BV16" s="26"/>
-      <c r="BW16" s="26"/>
-      <c r="BX16" s="26"/>
-      <c r="BY16" s="26"/>
-      <c r="BZ16" s="26"/>
-      <c r="CA16" s="26"/>
-      <c r="CB16" s="26"/>
-      <c r="CC16" s="26"/>
-      <c r="CD16" s="26"/>
-      <c r="CE16" s="26"/>
-      <c r="CF16" s="26"/>
-      <c r="CG16" s="26"/>
-      <c r="CH16" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="CI16" s="28"/>
-      <c r="CJ16" s="28"/>
-      <c r="CK16" s="28"/>
-      <c r="CL16" s="28"/>
-      <c r="CM16" s="28"/>
-      <c r="CN16" s="28"/>
-      <c r="CO16" s="28" t="s">
-        <v>179</v>
+      <c r="CI16" s="24"/>
+      <c r="CJ16" s="24"/>
+      <c r="CK16" s="24"/>
+      <c r="CL16" s="24"/>
+      <c r="CM16" s="24"/>
+      <c r="CN16" s="24"/>
+      <c r="CO16" s="24" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>178</v>
+      <c r="E17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="13"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -3763,94 +3843,100 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="11">
-        <v>91</v>
-      </c>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CO17" s="1"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="11"/>
+      <c r="BP17" s="11"/>
+      <c r="BQ17" s="11"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="11"/>
+      <c r="BT17" s="11"/>
+      <c r="BU17" s="11"/>
+      <c r="BV17" s="11"/>
+      <c r="BW17" s="11"/>
+      <c r="BX17" s="11"/>
+      <c r="BY17" s="11"/>
+      <c r="BZ17" s="11"/>
+      <c r="CA17" s="11"/>
+      <c r="CB17" s="11"/>
+      <c r="CC17" s="11"/>
+      <c r="CD17" s="11"/>
+      <c r="CE17" s="11"/>
+      <c r="CF17" s="11"/>
+      <c r="CG17" s="11"/>
+      <c r="CH17" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="CJ17" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="CK17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM17" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN17" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO17" s="33"/>
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3859,21 +3945,17 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>235</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="J18" s="13"/>
       <c r="K18" s="1"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -3909,7 +3991,9 @@
       <c r="AQ18" s="11"/>
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
+      <c r="AT18" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
@@ -3949,37 +4033,143 @@
       <c r="CE18" s="11"/>
       <c r="CF18" s="11"/>
       <c r="CG18" s="11"/>
-      <c r="CH18" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="CI18" s="14" t="s">
-        <v>170</v>
-      </c>
+      <c r="CH18" s="12">
+        <v>1340</v>
+      </c>
+      <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="CK18" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL18" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="CM18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN18" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="CO18" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="CK18" s="12"/>
+      <c r="CL18" s="12"/>
+      <c r="CM18" s="12"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
+    </row>
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
+      <c r="BT19" s="11"/>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="11"/>
+      <c r="CC19" s="11"/>
+      <c r="CD19" s="11"/>
+      <c r="CE19" s="11"/>
+      <c r="CF19" s="11"/>
+      <c r="CG19" s="11"/>
+      <c r="CH19" s="12">
+        <v>1278</v>
+      </c>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="12"/>
+      <c r="CL19" s="12"/>
+      <c r="CM19" s="12"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W15" r:id="rId3" display="rruksar@zarca.com" xr:uid="{7B8FE0C8-0E48-451D-8132-121097498E65}"/>
+    <hyperlink ref="W11:W15" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{F8CAF336-4B49-413C-B84B-31D28BAB683A}"/>
+    <hyperlink ref="W16" r:id="rId4" xr:uid="{38206B95-127E-4BF7-A610-3AB1C32EE781}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6CD74-B0E4-47E2-BA3A-B303805244F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DD9C8-FF19-42D7-9434-53DE47985B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="0" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="263">
   <si>
     <t>Environment</t>
   </si>
@@ -848,12 +848,6 @@
     <t>Engagement Exe check</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Data Import</t>
   </si>
   <si>
@@ -879,14 +873,31 @@
   </si>
   <si>
     <t>Data Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The excel was not downloaded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overall Score Data Table not present on page.</t>
+  </si>
+  <si>
+    <t>kchavan@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
+  </si>
+  <si>
+    <t>Q 5. CB: Which types of meat do you like?</t>
+  </si>
+  <si>
+    <t>DP - Segment Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +923,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -931,19 +943,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,48 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1090,7 +1056,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1121,14 +1087,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1424,8 +1385,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,9 +1426,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,10 +1469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1533,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1600,30 +1561,30 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="93" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1930,7 +1891,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J2" s="13"/>
@@ -2043,7 +2004,7 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J3" s="13"/>
@@ -2234,7 +2195,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J4" s="13"/>
@@ -2331,10 +2292,10 @@
       <c r="CM4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN4" s="33" t="s">
+      <c r="CN4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="33"/>
+      <c r="CO4" s="30"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2359,7 +2320,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J5" s="12"/>
@@ -2484,7 +2445,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="13"/>
@@ -2599,10 +2560,12 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2716,7 +2679,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="13"/>
@@ -2833,7 +2796,7 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J9" s="1"/>
@@ -2940,7 +2903,7 @@
         <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
@@ -2958,7 +2921,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J10" s="17"/>
@@ -2968,8 +2931,12 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -2977,7 +2944,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -3077,7 +3044,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J11" s="17"/>
@@ -3096,7 +3063,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -3196,7 +3163,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J12" s="17"/>
@@ -3215,7 +3182,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3315,7 +3282,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J13" s="17"/>
@@ -3334,7 +3301,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -3434,7 +3401,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J14" s="17"/>
@@ -3453,7 +3420,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -3535,7 +3502,7 @@
         <v>209</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>15</v>
@@ -3553,10 +3520,12 @@
         <v>211</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="27"/>
+      <c r="I15" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="K15" s="26" t="s">
         <v>212</v>
       </c>
@@ -3594,7 +3563,7 @@
         <v>245</v>
       </c>
       <c r="W15" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -3676,7 +3645,7 @@
         <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>15</v>
@@ -3694,10 +3663,12 @@
         <v>233</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" s="21"/>
+      <c r="I16" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>258</v>
+      </c>
       <c r="K16" s="22" t="s">
         <v>179</v>
       </c>
@@ -3729,7 +3700,7 @@
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="29" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3829,7 +3800,7 @@
       <c r="H17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J17" s="13"/>
@@ -3926,17 +3897,17 @@
       <c r="CM17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN17" s="33" t="s">
+      <c r="CN17" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO17" s="33"/>
+      <c r="CO17" s="30"/>
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3945,15 +3916,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
-        <v>229</v>
+      <c r="I18" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -3992,7 +3963,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
@@ -4038,20 +4009,20 @@
       </c>
       <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
-      <c r="CN18" s="33"/>
-      <c r="CO18" s="33"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4060,15 +4031,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34" t="s">
-        <v>229</v>
+      <c r="I19" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -4109,7 +4080,7 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
@@ -4158,18 +4129,17 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
-      <c r="CN19" s="33"/>
-      <c r="CO19" s="33"/>
+      <c r="CN19" s="30"/>
+      <c r="CO19" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W15" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{F8CAF336-4B49-413C-B84B-31D28BAB683A}"/>
-    <hyperlink ref="W16" r:id="rId4" xr:uid="{38206B95-127E-4BF7-A610-3AB1C32EE781}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com" xr:uid="{55B2641E-366D-4B03-AD07-8497F5A731DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6CD74-B0E4-47E2-BA3A-B303805244F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F36C62E-E89D-41C7-B3D3-2264965AA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="261">
   <si>
     <t>Environment</t>
   </si>
@@ -848,37 +848,43 @@
     <t>Engagement Exe check</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>Copy (1) of Attach n resp trend NLP</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>gaurav_k12</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>K12 Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>All Question Survey with English FROM gjoy_test</t>
+  </si>
+  <si>
+    <t>Data Export</t>
+  </si>
+  <si>
+    <t>kchavan@zarca.com</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>Data Import</t>
-  </si>
-  <si>
-    <t>Copy (1) of Attach n resp trend NLP</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>gaurav_k12</t>
-  </si>
-  <si>
-    <t>GVG3196@test</t>
-  </si>
-  <si>
-    <t>K12 Data Import File.xls</t>
-  </si>
-  <si>
-    <t>Smoke_TC18</t>
-  </si>
-  <si>
-    <t>All Question Survey with English FROM gjoy_test</t>
-  </si>
-  <si>
-    <t>Data Export</t>
+    <t xml:space="preserve"> Ranking Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
   </si>
 </sst>
 </file>
@@ -968,6 +974,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -979,12 +991,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1121,10 +1127,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1422,13 +1428,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1469,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1506,15 +1512,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>191</v>
       </c>
@@ -1570,15 +1576,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1600,33 +1606,33 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B4" sqref="B4:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.1796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.26953125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.81640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="93" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="92" max="93" bestFit="true" customWidth="true" width="19.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2020,12 +2026,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2043,10 +2049,12 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="I3" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2211,7 +2219,7 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2331,12 +2339,12 @@
       <c r="CM4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN4" s="33" t="s">
+      <c r="CN4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="33"/>
+      <c r="CO4" s="30"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2461,7 +2469,7 @@
       </c>
       <c r="CO5" s="12"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2576,7 +2584,7 @@
       <c r="CN6" s="12"/>
       <c r="CO6" s="12"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2693,7 +2701,7 @@
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -2810,7 +2818,7 @@
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -2935,7 +2943,7 @@
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -2977,7 +2985,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -3054,7 +3062,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -3096,7 +3104,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -3173,7 +3181,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3215,7 +3223,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3292,7 +3300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3334,7 +3342,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -3411,7 +3419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
@@ -3453,7 +3461,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -3530,7 +3538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>209</v>
       </c>
@@ -3556,7 +3564,9 @@
       <c r="I15" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>260</v>
+      </c>
       <c r="K15" s="26" t="s">
         <v>212</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>245</v>
       </c>
       <c r="W15" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -3671,7 +3681,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>217</v>
       </c>
@@ -3729,7 +3739,7 @@
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3806,7 +3816,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -3926,17 +3936,17 @@
       <c r="CM17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN17" s="33" t="s">
+      <c r="CN17" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO17" s="33"/>
+      <c r="CO17" s="30"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3945,15 +3955,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
-        <v>229</v>
+      <c r="I18" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -3992,7 +4002,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
@@ -4038,20 +4048,20 @@
       </c>
       <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
-      <c r="CN18" s="33"/>
-      <c r="CO18" s="33"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4060,15 +4070,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34" t="s">
-        <v>229</v>
+      <c r="I19" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -4109,7 +4119,7 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
@@ -4158,18 +4168,17 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
-      <c r="CN19" s="33"/>
-      <c r="CO19" s="33"/>
+      <c r="CN19" s="30"/>
+      <c r="CO19" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W15" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{F8CAF336-4B49-413C-B84B-31D28BAB683A}"/>
-    <hyperlink ref="W16" r:id="rId4" xr:uid="{38206B95-127E-4BF7-A610-3AB1C32EE781}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com" xr:uid="{398A7759-EEFF-4B0C-AEBC-AA147DE7CED1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F36C62E-E89D-41C7-B3D3-2264965AA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6CD74-B0E4-47E2-BA3A-B303805244F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
   <si>
     <t>Environment</t>
   </si>
@@ -848,6 +848,12 @@
     <t>Engagement Exe check</t>
   </si>
   <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>Data Import</t>
   </si>
   <si>
@@ -873,18 +879,6 @@
   </si>
   <si>
     <t>Data Export</t>
-  </si>
-  <si>
-    <t>kchavan@zarca.com</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ranking Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
   </si>
 </sst>
 </file>
@@ -974,12 +968,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -991,6 +979,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1127,10 +1121,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1428,13 +1422,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1469,14 +1463,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,15 +1506,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -1562,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>191</v>
       </c>
@@ -1576,15 +1570,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1606,33 +1600,33 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.26953125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.81640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
-    <col min="92" max="93" bestFit="true" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="92" max="93" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2026,12 +2020,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2049,12 +2043,10 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>259</v>
-      </c>
+      <c r="I3" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2219,7 +2211,7 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2339,12 +2331,12 @@
       <c r="CM4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN4" s="30" t="s">
+      <c r="CN4" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="30"/>
+      <c r="CO4" s="33"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2469,7 +2461,7 @@
       </c>
       <c r="CO5" s="12"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2584,7 +2576,7 @@
       <c r="CN6" s="12"/>
       <c r="CO6" s="12"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2701,7 +2693,7 @@
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -2818,7 +2810,7 @@
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -2943,7 +2935,7 @@
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -2985,7 +2977,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -3062,7 +3054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -3104,7 +3096,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -3181,7 +3173,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3223,7 +3215,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3300,7 +3292,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3342,7 +3334,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -3419,7 +3411,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
@@ -3461,7 +3453,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -3538,7 +3530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>209</v>
       </c>
@@ -3564,9 +3556,7 @@
       <c r="I15" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="27" t="s">
-        <v>260</v>
-      </c>
+      <c r="J15" s="27"/>
       <c r="K15" s="26" t="s">
         <v>212</v>
       </c>
@@ -3604,7 +3594,7 @@
         <v>245</v>
       </c>
       <c r="W15" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -3681,7 +3671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>217</v>
       </c>
@@ -3739,7 +3729,7 @@
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3816,7 +3806,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -3936,17 +3926,17 @@
       <c r="CM17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN17" s="30" t="s">
+      <c r="CN17" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="CO17" s="30"/>
+      <c r="CO17" s="33"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3955,15 +3945,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="36" t="s">
-        <v>190</v>
+      <c r="I18" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -4002,7 +3992,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
@@ -4048,20 +4038,20 @@
       </c>
       <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
-      <c r="CN18" s="30"/>
-      <c r="CO18" s="30"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4070,15 +4060,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="36" t="s">
-        <v>190</v>
+      <c r="I19" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -4119,7 +4109,7 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
@@ -4168,17 +4158,18 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
-      <c r="CN19" s="30"/>
-      <c r="CO19" s="30"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com" xr:uid="{398A7759-EEFF-4B0C-AEBC-AA147DE7CED1}"/>
+    <hyperlink ref="W11:W15" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{F8CAF336-4B49-413C-B84B-31D28BAB683A}"/>
+    <hyperlink ref="W16" r:id="rId4" xr:uid="{38206B95-127E-4BF7-A610-3AB1C32EE781}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C6CD74-B0E4-47E2-BA3A-B303805244F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EC67E-F2DA-42CA-8666-F881A23A1AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="262">
   <si>
     <t>Environment</t>
   </si>
@@ -848,12 +848,6 @@
     <t>Engagement Exe check</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Data Import</t>
   </si>
   <si>
@@ -879,14 +873,28 @@
   </si>
   <si>
     <t>Data Export</t>
+  </si>
+  <si>
+    <t>kchavan@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ranking Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
+  </si>
+  <si>
+    <t>DP - Segment Group</t>
+  </si>
+  <si>
+    <t>Q 5. CB: Which types of meat do you like?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,19 +939,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,43 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1081,7 +1048,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
@@ -1089,8 +1056,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1121,23 +1095,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="9" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{E0C9F20A-3C63-41E3-B488-667155B99753}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{266E5B1D-F7E5-4947-9EE7-36ACB7FB4844}"/>
+    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{7545D0E5-C627-4B1D-9EE0-A5A30E1492F0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BEFE91A1-6694-4EFC-B4C7-79AC9427A142}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{22EE6E41-3A88-4E00-9A70-1CEAFA4C0A47}"/>
     <cellStyle name="Normal 3" xfId="5" xr:uid="{33784278-FC36-4C89-A3F0-5F104988CE08}"/>
+    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{E3F897AF-A356-4BEA-AB8F-08EF37734491}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{E3D7501D-72D4-41B1-89B8-6CC3B051C17C}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{2A402E83-0D9F-4A8E-9534-92C03218AF6A}"/>
     <cellStyle name="Normal 5" xfId="6" xr:uid="{CA8A5EF5-7DD1-4FF3-9C16-F3ECD1AB37FA}"/>
+    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{09540B07-B51B-482E-9F69-52483B3D8E9D}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{CE04887E-3E3A-421D-8E2D-455F57AF8A48}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1424,8 +1401,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,9 +1442,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,10 +1485,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,13 +1549,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1599,31 +1576,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="93" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1930,7 +1907,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J2" s="13"/>
@@ -2025,7 +2002,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2043,10 +2020,12 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="I3" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2234,7 +2213,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J4" s="13"/>
@@ -2331,10 +2310,10 @@
       <c r="CM4" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN4" s="33" t="s">
+      <c r="CN4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO4" s="33"/>
+      <c r="CO4" s="30"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2359,7 +2338,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J5" s="12"/>
@@ -2484,7 +2463,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="13"/>
@@ -2599,7 +2578,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J7" s="12"/>
@@ -2716,7 +2695,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="13"/>
@@ -2833,7 +2812,7 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J9" s="1"/>
@@ -2958,7 +2937,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J10" s="17"/>
@@ -2968,8 +2947,12 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>261</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -2977,7 +2960,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -3077,7 +3060,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J11" s="17"/>
@@ -3096,7 +3079,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -3196,7 +3179,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J12" s="17"/>
@@ -3215,7 +3198,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3315,7 +3298,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J13" s="17"/>
@@ -3334,7 +3317,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -3434,7 +3417,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J14" s="17"/>
@@ -3453,7 +3436,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -3553,10 +3536,12 @@
         <v>211</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>259</v>
+      </c>
       <c r="K15" s="26" t="s">
         <v>212</v>
       </c>
@@ -3594,7 +3579,7 @@
         <v>245</v>
       </c>
       <c r="W15" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -3694,7 +3679,7 @@
         <v>233</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J16" s="21"/>
@@ -3729,7 +3714,7 @@
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="29" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3829,7 +3814,7 @@
       <c r="H17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="32" t="s">
         <v>190</v>
       </c>
       <c r="J17" s="13"/>
@@ -3926,17 +3911,17 @@
       <c r="CM17" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="CN17" s="33" t="s">
+      <c r="CN17" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="CO17" s="33"/>
+      <c r="CO17" s="30"/>
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3945,15 +3930,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
-        <v>229</v>
+      <c r="I18" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -3992,7 +3977,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
@@ -4038,20 +4023,20 @@
       </c>
       <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="12"/>
-      <c r="CN18" s="33"/>
-      <c r="CO18" s="33"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4060,15 +4045,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34" t="s">
-        <v>229</v>
+      <c r="I19" s="32" t="s">
+        <v>190</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="1"/>
@@ -4109,7 +4094,7 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
@@ -4158,18 +4143,17 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="12"/>
-      <c r="CN19" s="33"/>
-      <c r="CO19" s="33"/>
+      <c r="CN19" s="30"/>
+      <c r="CO19" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W15" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{F8CAF336-4B49-413C-B84B-31D28BAB683A}"/>
-    <hyperlink ref="W16" r:id="rId4" xr:uid="{38206B95-127E-4BF7-A610-3AB1C32EE781}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com" xr:uid="{398A7759-EEFF-4B0C-AEBC-AA147DE7CED1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EC67E-F2DA-42CA-8666-F881A23A1AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,9 +12,9 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="349">
   <si>
     <t>Environment</t>
   </si>
@@ -889,12 +888,274 @@
   <si>
     <t>Q 5. CB: Which types of meat do you like?</t>
   </si>
+  <si>
+    <t>Smoke_TC19</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Poll DP</t>
+  </si>
+  <si>
+    <t>Comparison I</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Much less than others</t>
+  </si>
+  <si>
+    <t>surveyType</t>
+  </si>
+  <si>
+    <t>anil_k12</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>Smoke_TC20</t>
+  </si>
+  <si>
+    <t>Smoke_TC21</t>
+  </si>
+  <si>
+    <t>Smoke_TC22</t>
+  </si>
+  <si>
+    <t>Smoke_TC23</t>
+  </si>
+  <si>
+    <t>Smoke_TC24</t>
+  </si>
+  <si>
+    <t>Smoke_TC25</t>
+  </si>
+  <si>
+    <t>Smoke_TC26</t>
+  </si>
+  <si>
+    <t>Smoke_TC27</t>
+  </si>
+  <si>
+    <t>Smoke_TC28</t>
+  </si>
+  <si>
+    <t>Smoke_TC29</t>
+  </si>
+  <si>
+    <t>Smoke_TC30</t>
+  </si>
+  <si>
+    <t>Smoke_TC31</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg</t>
+  </si>
+  <si>
+    <t>harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>1111111 do not delete (dp check)</t>
+  </si>
+  <si>
+    <t>question 3</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
+  </si>
+  <si>
+    <t>question 4</t>
+  </si>
+  <si>
+    <t>question 5</t>
+  </si>
+  <si>
+    <t>DANCING_BABY.gif</t>
+  </si>
+  <si>
+    <t>question 6</t>
+  </si>
+  <si>
+    <t>question 8</t>
+  </si>
+  <si>
+    <t>question 9</t>
+  </si>
+  <si>
+    <t>green.jpeg</t>
+  </si>
+  <si>
+    <t>question 10</t>
+  </si>
+  <si>
+    <t>hotel.jpg</t>
+  </si>
+  <si>
+    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
+  </si>
+  <si>
+    <t>question 11</t>
+  </si>
+  <si>
+    <t>pdf.pdf</t>
+  </si>
+  <si>
+    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
+  </si>
+  <si>
+    <t>question 12</t>
+  </si>
+  <si>
+    <t>question 13</t>
+  </si>
+  <si>
+    <t>Logo Upload From Computer</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and deleted</t>
+  </si>
+  <si>
+    <t>Use account logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded</t>
+  </si>
+  <si>
+    <t>Copy from another project</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Insert logo using URL</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>Uploading JPG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
+  </si>
+  <si>
+    <t>Uploading GIF file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
+  </si>
+  <si>
+    <t>Align logo to left</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to left</t>
+  </si>
+  <si>
+    <t>Align logo to Right</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to right</t>
+  </si>
+  <si>
+    <t>Uploading JPEG file</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
+  </si>
+  <si>
+    <t>Logo greater than 5mb</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert</t>
+  </si>
+  <si>
+    <t>Unsupported file for logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
+  </si>
+  <si>
+    <t>Delete use account logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>DP-POLL</t>
+  </si>
+  <si>
+    <t>Survey-Logo-20</t>
+  </si>
+  <si>
+    <t>Survey-Logo-21</t>
+  </si>
+  <si>
+    <t>Survey-Logo-22</t>
+  </si>
+  <si>
+    <t>Survey-Logo-23</t>
+  </si>
+  <si>
+    <t>Survey-Logo-24</t>
+  </si>
+  <si>
+    <t>Survey-Logo-25</t>
+  </si>
+  <si>
+    <t>Survey-Logo-26</t>
+  </si>
+  <si>
+    <t>Survey-Logo-27</t>
+  </si>
+  <si>
+    <t>Survey-Logo-28</t>
+  </si>
+  <si>
+    <t>Survey-Logo-29</t>
+  </si>
+  <si>
+    <t>Survey-Logo-30</t>
+  </si>
+  <si>
+    <t>Survey-Logo-31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,8 +1200,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,8 +1242,38 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1056,15 +1358,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1096,25 +1398,32 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{E0C9F20A-3C63-41E3-B488-667155B99753}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{266E5B1D-F7E5-4947-9EE7-36ACB7FB4844}"/>
-    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{7545D0E5-C627-4B1D-9EE0-A5A30E1492F0}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11"/>
+    <cellStyle name="Hyperlink 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BEFE91A1-6694-4EFC-B4C7-79AC9427A142}"/>
-    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{22EE6E41-3A88-4E00-9A70-1CEAFA4C0A47}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{33784278-FC36-4C89-A3F0-5F104988CE08}"/>
-    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{E3F897AF-A356-4BEA-AB8F-08EF37734491}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{E3D7501D-72D4-41B1-89B8-6CC3B051C17C}"/>
-    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{2A402E83-0D9F-4A8E-9534-92C03218AF6A}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{CA8A5EF5-7DD1-4FF3-9C16-F3ECD1AB37FA}"/>
-    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{09540B07-B51B-482E-9F69-52483B3D8E9D}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{CE04887E-3E3A-421D-8E2D-455F57AF8A48}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 5 2" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1391,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1401,8 +1710,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1442,9 +1751,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,20 +1784,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,10 +1870,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{999D06AC-CA3A-4F68-853D-212DC434DE30}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1572,38 +1895,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO19"/>
+  <dimension ref="A1:CP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:P10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="93" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1881,10 +2206,13 @@
         <v>153</v>
       </c>
       <c r="CO1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CP1" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +2235,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J2" s="13"/>
@@ -1996,13 +2324,14 @@
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2020,8 +2349,8 @@
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>229</v>
+      <c r="I3" s="39" t="s">
+        <v>190</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>258</v>
@@ -2189,8 +2518,9 @@
       <c r="CM3" s="6"/>
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
+      <c r="CP3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2213,7 +2543,7 @@
       <c r="H4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J4" s="13"/>
@@ -2314,8 +2644,9 @@
         <v>158</v>
       </c>
       <c r="CO4" s="30"/>
+      <c r="CP4" s="30"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2338,7 +2669,7 @@
       <c r="H5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J5" s="12"/>
@@ -2439,8 +2770,9 @@
         <v>174</v>
       </c>
       <c r="CO5" s="12"/>
+      <c r="CP5" s="12"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2463,7 +2795,7 @@
       <c r="H6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="13"/>
@@ -2554,8 +2886,9 @@
       <c r="CM6" s="12"/>
       <c r="CN6" s="12"/>
       <c r="CO6" s="12"/>
+      <c r="CP6" s="12"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2578,7 +2911,7 @@
       <c r="H7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J7" s="12"/>
@@ -2671,8 +3004,9 @@
       </c>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
+      <c r="CP7" s="12"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -2695,7 +3029,7 @@
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J8" s="13"/>
@@ -2788,8 +3122,9 @@
       </c>
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
+      <c r="CP8" s="12"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -2812,7 +3147,7 @@
       <c r="H9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J9" s="1"/>
@@ -2913,8 +3248,9 @@
       </c>
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
+      <c r="CP9" s="12"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -2937,7 +3273,7 @@
         <v>193</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J10" s="17"/>
@@ -2947,10 +3283,10 @@
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="31" t="s">
         <v>261</v>
       </c>
       <c r="Q10" s="16"/>
@@ -3033,11 +3369,12 @@
       <c r="CL10" s="18"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
-      <c r="CO10" s="18" t="s">
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -3060,7 +3397,7 @@
         <v>196</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J11" s="17"/>
@@ -3152,11 +3489,12 @@
       <c r="CL11" s="18"/>
       <c r="CM11" s="18"/>
       <c r="CN11" s="18"/>
-      <c r="CO11" s="18" t="s">
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>198</v>
       </c>
@@ -3179,7 +3517,7 @@
         <v>200</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J12" s="17"/>
@@ -3271,11 +3609,12 @@
       <c r="CL12" s="18"/>
       <c r="CM12" s="18"/>
       <c r="CN12" s="18"/>
-      <c r="CO12" s="18" t="s">
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3298,7 +3637,7 @@
         <v>204</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J13" s="17"/>
@@ -3390,11 +3729,12 @@
       <c r="CL13" s="18"/>
       <c r="CM13" s="18"/>
       <c r="CN13" s="18"/>
-      <c r="CO13" s="18" t="s">
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
@@ -3417,7 +3757,7 @@
         <v>208</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J14" s="17"/>
@@ -3509,11 +3849,12 @@
       <c r="CL14" s="18"/>
       <c r="CM14" s="18"/>
       <c r="CN14" s="18"/>
-      <c r="CO14" s="18" t="s">
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>209</v>
       </c>
@@ -3536,7 +3877,7 @@
         <v>211</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J15" s="27" t="s">
@@ -3652,11 +3993,12 @@
       <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
-      <c r="CO15" s="28" t="s">
+      <c r="CO15" s="28"/>
+      <c r="CP15" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>217</v>
       </c>
@@ -3679,7 +4021,7 @@
         <v>233</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J16" s="21"/>
@@ -3787,11 +4129,12 @@
       <c r="CL16" s="24"/>
       <c r="CM16" s="24"/>
       <c r="CN16" s="24"/>
-      <c r="CO16" s="24" t="s">
+      <c r="CO16" s="28"/>
+      <c r="CP16" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>218</v>
       </c>
@@ -3814,7 +4157,7 @@
       <c r="H17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J17" s="13"/>
@@ -3915,8 +4258,9 @@
         <v>158</v>
       </c>
       <c r="CO17" s="30"/>
+      <c r="CP17" s="30"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -3937,7 +4281,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J18" s="13"/>
@@ -4030,8 +4374,9 @@
       <c r="CM18" s="12"/>
       <c r="CN18" s="30"/>
       <c r="CO18" s="30"/>
+      <c r="CP18" s="30"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>254</v>
       </c>
@@ -4052,7 +4397,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="39" t="s">
         <v>190</v>
       </c>
       <c r="J19" s="13"/>
@@ -4145,13 +4490,1552 @@
       <c r="CM19" s="12"/>
       <c r="CN19" s="30"/>
       <c r="CO19" s="30"/>
+      <c r="CP19" s="30"/>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+      <c r="BR20" s="11"/>
+      <c r="BS20" s="11"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="11"/>
+      <c r="BV20" s="11"/>
+      <c r="BW20" s="11"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="11"/>
+      <c r="BZ20" s="11"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="11"/>
+      <c r="CD20" s="11"/>
+      <c r="CE20" s="11"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="11"/>
+      <c r="CH20" s="12"/>
+      <c r="CI20" s="14"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="12"/>
+      <c r="CL20" s="12"/>
+      <c r="CM20" s="12"/>
+      <c r="CN20" s="30"/>
+      <c r="CO20" s="30"/>
+      <c r="CP20" s="30"/>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="34"/>
+      <c r="AW21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP21" s="30"/>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP22" s="30"/>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+      <c r="BH23" s="1"/>
+      <c r="BI23" s="1"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP23" s="30"/>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP24" s="30"/>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BI25" s="1"/>
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP25" s="30"/>
+    </row>
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP26" s="30"/>
+    </row>
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP27" s="30"/>
+    </row>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="34"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP28" s="30"/>
+    </row>
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP29" s="30"/>
+    </row>
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP30" s="30"/>
+    </row>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP31" s="30"/>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="1"/>
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP32" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" xr:uid="{1A3A3DAA-C543-4D04-861C-36D2AA5A4FAA}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com" xr:uid="{398A7759-EEFF-4B0C-AEBC-AA147DE7CED1}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="513">
   <si>
     <t>Environment</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Failure Reason</t>
   </si>
   <si>
     <t>https://survey.k12insight.com/Survey1.aspx?k=SsSXQVYsVsPsPsP&amp;lang=0</t>
@@ -759,9 +756,6 @@
   </si>
   <si>
     <t>Test Invitation List [3 records]</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Smoke_TC17</t>
@@ -874,12 +868,6 @@
     <t>Data Export</t>
   </si>
   <si>
-    <t>kchavan@zarca.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ranking Button not present on page.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Email Engagement Report not present on page.</t>
   </si>
   <si>
@@ -1148,14 +1136,567 @@
   </si>
   <si>
     <t>Survey-Logo-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loader did not disappear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Report Icon on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Response No Fieldis not present on page.</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com,vgrandhi@zarca.com</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your report has been emailed successfully. not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iframe Answer Options not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Single Use Link not present on page.</t>
+  </si>
+  <si>
+    <t>Smoke_TC43</t>
+  </si>
+  <si>
+    <t>header and footer 43</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Header Message' is 3000.</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.2</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>Smoke_TC44</t>
+  </si>
+  <si>
+    <t>header and footer 44</t>
+  </si>
+  <si>
+    <t>Smoke_TC45</t>
+  </si>
+  <si>
+    <t>https://www.sogosurvey.com/static/login.aspx</t>
+  </si>
+  <si>
+    <t>questio</t>
+  </si>
+  <si>
+    <t>Smoke_TC46</t>
+  </si>
+  <si>
+    <t>Smoke_TC47</t>
+  </si>
+  <si>
+    <t>Smoke_TC48</t>
+  </si>
+  <si>
+    <t>Smoke_TC49</t>
+  </si>
+  <si>
+    <t>Smoke_TC50</t>
+  </si>
+  <si>
+    <t>Smoke_TC51</t>
+  </si>
+  <si>
+    <t>Smoke_TC52</t>
+  </si>
+  <si>
+    <t>Smoke_TC53</t>
+  </si>
+  <si>
+    <t>Smoke_TC54</t>
+  </si>
+  <si>
+    <t>Smoke_TC55</t>
+  </si>
+  <si>
+    <t>Smoke_TC56</t>
+  </si>
+  <si>
+    <t>Smoke_TC57</t>
+  </si>
+  <si>
+    <t>Smoke_TC58</t>
+  </si>
+  <si>
+    <t>Smoke_TC59</t>
+  </si>
+  <si>
+    <t>Smoke_TC60</t>
+  </si>
+  <si>
+    <t>Smoke_TC61</t>
+  </si>
+  <si>
+    <t>Smoke_TC62</t>
+  </si>
+  <si>
+    <t>Smoke_TC63</t>
+  </si>
+  <si>
+    <t>Smoke_TC64</t>
+  </si>
+  <si>
+    <t>Smoke_TC65</t>
+  </si>
+  <si>
+    <t>Smoke_TC66</t>
+  </si>
+  <si>
+    <t>Smoke_TC67</t>
+  </si>
+  <si>
+    <t>Smoke_TC68</t>
+  </si>
+  <si>
+    <t>Smoke_TC69</t>
+  </si>
+  <si>
+    <t>Smoke_TC70</t>
+  </si>
+  <si>
+    <t>Smoke_TC71</t>
+  </si>
+  <si>
+    <t>Smoke_TC72</t>
+  </si>
+  <si>
+    <t>Smoke_TC73</t>
+  </si>
+  <si>
+    <t>Smoke_TC74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey Name not present on page.</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Footer Message' is 3000.</t>
+  </si>
+  <si>
+    <t>header and footer 45</t>
+  </si>
+  <si>
+    <t>header and footer 46</t>
+  </si>
+  <si>
+    <t>header and footer 47</t>
+  </si>
+  <si>
+    <t>header and footer 48</t>
+  </si>
+  <si>
+    <t>header and footer 49</t>
+  </si>
+  <si>
+    <t>header and footer 50</t>
+  </si>
+  <si>
+    <t>header and footer 51</t>
+  </si>
+  <si>
+    <t>header and footer 52</t>
+  </si>
+  <si>
+    <t>header and footer 53</t>
+  </si>
+  <si>
+    <t>header and footer 54</t>
+  </si>
+  <si>
+    <t>header and footer 55</t>
+  </si>
+  <si>
+    <t>header and footer 56</t>
+  </si>
+  <si>
+    <t>header and footer 57</t>
+  </si>
+  <si>
+    <t>header and footer 58</t>
+  </si>
+  <si>
+    <t>header and footer 59</t>
+  </si>
+  <si>
+    <t>header and footer 60</t>
+  </si>
+  <si>
+    <t>header and footer 61</t>
+  </si>
+  <si>
+    <t>header and footer 62</t>
+  </si>
+  <si>
+    <t>header and footer 63</t>
+  </si>
+  <si>
+    <t>header and footer 64</t>
+  </si>
+  <si>
+    <t>header and footer 65</t>
+  </si>
+  <si>
+    <t>header and footer 66</t>
+  </si>
+  <si>
+    <t>header and footer 67</t>
+  </si>
+  <si>
+    <t>header and footer 68</t>
+  </si>
+  <si>
+    <t>header and footer 69</t>
+  </si>
+  <si>
+    <t>header and footer 70</t>
+  </si>
+  <si>
+    <t>header and footer 71</t>
+  </si>
+  <si>
+    <t>header and footer 72</t>
+  </si>
+  <si>
+    <t>header and footer 73</t>
+  </si>
+  <si>
+    <t>header and footer 74</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.1</t>
+  </si>
+  <si>
+    <t>limit Test For Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and check for the limit text</t>
+  </si>
+  <si>
+    <t>header should not be uploaded</t>
+  </si>
+  <si>
+    <t>limit Test For Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and check for the limit text</t>
+  </si>
+  <si>
+    <t>footer should not uploaded</t>
+  </si>
+  <si>
+    <t>bold CheckForHeader</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>bold Check For Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>Italic check for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to italic</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>Italic check for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to italic</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>under line check for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to underline</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>under line check for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to underline</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>remove format for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed with font style</t>
+  </si>
+  <si>
+    <t>remove formate for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed with font style</t>
+  </si>
+  <si>
+    <t>alignment for header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for all alignments</t>
+  </si>
+  <si>
+    <t>alignment for footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for all alignments</t>
+  </si>
+  <si>
+    <t>undo and redo header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>undo and redo footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>number list header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for number list</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>number list footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for number list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>bullet list header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for bullet list</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>bullet list footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for bullet list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>increase And Decrease IndentHeader</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking indent</t>
+  </si>
+  <si>
+    <t>increase And Decrease Indent Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking indent</t>
+  </si>
+  <si>
+    <t>Source Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for source type</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>Source Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for source type</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>link Unlink Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>link Unlink Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>spell check header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>spell check should work properly and correct spelling should be displayed</t>
+  </si>
+  <si>
+    <t>spell check footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>paste from word header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header by paste from word</t>
+  </si>
+  <si>
+    <t>content from word should uploaded and displayed</t>
+  </si>
+  <si>
+    <t>paste from word footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer by paste from word</t>
+  </si>
+  <si>
+    <t>font Colour Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header colour should change </t>
+  </si>
+  <si>
+    <t>font Colour Footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer colour should change </t>
+  </si>
+  <si>
+    <t>font Size Header</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header size should change </t>
+  </si>
+  <si>
+    <t>font size footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer size should change </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,19 +1741,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1249,36 +1779,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1366,7 +1866,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1402,12 +1902,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1710,8 +2210,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1751,9 +2251,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,7 +2272,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1789,15 +2289,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,10 +2319,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1830,13 +2330,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1844,13 +2344,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -1858,13 +2358,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1872,13 +2372,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -1897,35 +2397,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP32"/>
+  <dimension ref="A1:CP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="false"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94" x14ac:dyDescent="0.25">
@@ -1957,259 +2457,259 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CC1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CK1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CL1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CM1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CN1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="CN1" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="CO1" s="9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP1" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.25">
@@ -2229,18 +2729,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>190</v>
+        <v>26</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2328,7 +2828,7 @@
     </row>
     <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2343,17 +2843,17 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>190</v>
+        <v>33</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>258</v>
+        <v>352</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -2391,124 +2891,124 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BA3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BE3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BF3" s="6" t="s">
+      <c r="BG3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BG3" s="6" t="s">
+      <c r="BH3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BH3" s="6" t="s">
+      <c r="BI3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BI3" s="6" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BJ3" s="6" t="s">
+      <c r="BK3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BN3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BP3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BR3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BS3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BT3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BX3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BY3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="CA3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CB3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="CB3" s="6" t="s">
+      <c r="CC3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CD3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CE3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CF3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="CF3" s="6" t="s">
+      <c r="CG3" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
@@ -2522,7 +3022,7 @@
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2534,17 +3034,17 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="1"/>
@@ -2623,32 +3123,32 @@
       <c r="CF4" s="11"/>
       <c r="CG4" s="11"/>
       <c r="CH4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="CI4" s="14" t="s">
+      <c r="CJ4" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="CK4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="CJ4" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK4" s="12" t="s">
+      <c r="CL4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="CL4" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="CM4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN4" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="CN4" s="30" t="s">
-        <v>158</v>
       </c>
       <c r="CO4" s="30"/>
       <c r="CP4" s="30"/>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -2660,17 +3160,17 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="1"/>
@@ -2749,32 +3249,32 @@
       <c r="CF5" s="11"/>
       <c r="CG5" s="11"/>
       <c r="CH5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI5" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="CI5" s="12" t="s">
-        <v>174</v>
-      </c>
       <c r="CJ5" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CK5" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CL5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="CM5" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CN5" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CO5" s="12"/>
       <c r="CP5" s="12"/>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -2786,17 +3286,17 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="1"/>
@@ -2875,11 +3375,11 @@
       <c r="CF6" s="11"/>
       <c r="CG6" s="11"/>
       <c r="CH6" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CI6" s="12"/>
       <c r="CJ6" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="CK6" s="12"/>
       <c r="CL6" s="12"/>
@@ -2890,10 +3390,10 @@
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2902,17 +3402,17 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>190</v>
+        <v>162</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -2991,16 +3491,16 @@
       <c r="CF7" s="11"/>
       <c r="CG7" s="11"/>
       <c r="CH7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CI7" s="12"/>
       <c r="CJ7" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CK7" s="12"/>
       <c r="CL7" s="12"/>
       <c r="CM7" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
@@ -3008,10 +3508,10 @@
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -3020,17 +3520,17 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>190</v>
+        <v>162</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -3109,16 +3609,16 @@
       <c r="CF8" s="11"/>
       <c r="CG8" s="11"/>
       <c r="CH8" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CI8" s="12"/>
       <c r="CJ8" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CK8" s="12"/>
       <c r="CL8" s="12"/>
       <c r="CM8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
@@ -3126,7 +3626,7 @@
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -3138,19 +3638,21 @@
         <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3187,7 +3689,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -3232,19 +3734,19 @@
         <v>313</v>
       </c>
       <c r="CI9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK9" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="CJ9" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="CK9" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="CL9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="CM9" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
@@ -3252,7 +3754,7 @@
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -3264,30 +3766,32 @@
         <v>17</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="16"/>
       <c r="O10" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P10" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -3296,7 +3800,7 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -3361,7 +3865,7 @@
       <c r="CF10" s="16"/>
       <c r="CG10" s="16"/>
       <c r="CH10" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CI10" s="18"/>
       <c r="CJ10" s="18"/>
@@ -3371,12 +3875,12 @@
       <c r="CN10" s="18"/>
       <c r="CO10" s="28"/>
       <c r="CP10" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -3388,21 +3892,23 @@
         <v>17</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -3416,7 +3922,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
@@ -3481,7 +3987,7 @@
       <c r="CF11" s="16"/>
       <c r="CG11" s="16"/>
       <c r="CH11" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CI11" s="18"/>
       <c r="CJ11" s="18"/>
@@ -3491,12 +3997,12 @@
       <c r="CN11" s="18"/>
       <c r="CO11" s="28"/>
       <c r="CP11" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -3508,21 +4014,21 @@
         <v>17</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>200</v>
-      </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="39" t="s">
-        <v>190</v>
+      <c r="I12" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -3536,7 +4042,7 @@
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
@@ -3601,7 +4107,7 @@
       <c r="CF12" s="16"/>
       <c r="CG12" s="16"/>
       <c r="CH12" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CI12" s="18"/>
       <c r="CJ12" s="18"/>
@@ -3611,12 +4117,12 @@
       <c r="CN12" s="18"/>
       <c r="CO12" s="28"/>
       <c r="CP12" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3628,21 +4134,23 @@
         <v>17</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -3656,7 +4164,7 @@
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
@@ -3721,7 +4229,7 @@
       <c r="CF13" s="16"/>
       <c r="CG13" s="16"/>
       <c r="CH13" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CI13" s="18"/>
       <c r="CJ13" s="18"/>
@@ -3731,12 +4239,12 @@
       <c r="CN13" s="18"/>
       <c r="CO13" s="28"/>
       <c r="CP13" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -3748,22 +4256,24 @@
         <v>17</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J14" s="17"/>
+      <c r="I14" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>346</v>
+      </c>
       <c r="K14" s="16"/>
       <c r="L14" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="16"/>
@@ -3776,7 +4286,7 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="29" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -3841,7 +4351,7 @@
       <c r="CF14" s="16"/>
       <c r="CG14" s="16"/>
       <c r="CH14" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CI14" s="18"/>
       <c r="CJ14" s="18"/>
@@ -3851,12 +4361,12 @@
       <c r="CN14" s="18"/>
       <c r="CO14" s="28"/>
       <c r="CP14" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -3868,59 +4378,59 @@
         <v>17</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="L15" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="P15" s="26" t="s">
+      <c r="S15" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="T15" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="U15" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="R15" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="S15" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="T15" s="26" t="s">
+      <c r="V15" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="U15" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="V15" s="28" t="s">
-        <v>245</v>
-      </c>
       <c r="W15" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -3985,7 +4495,7 @@
       <c r="CF15" s="26"/>
       <c r="CG15" s="26"/>
       <c r="CH15" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="CI15" s="28"/>
       <c r="CJ15" s="28"/>
@@ -3995,12 +4505,12 @@
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
       <c r="CP15" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -4012,51 +4522,51 @@
         <v>17</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="39" t="s">
-        <v>190</v>
+      <c r="I16" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P16" s="20"/>
       <c r="Q16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="S16" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="R16" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="S16" s="24" t="s">
+      <c r="T16" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="U16" s="24" t="s">
         <v>215</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>216</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="29" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -4121,7 +4631,7 @@
       <c r="CF16" s="22"/>
       <c r="CG16" s="22"/>
       <c r="CH16" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="CI16" s="24"/>
       <c r="CJ16" s="24"/>
@@ -4131,12 +4641,12 @@
       <c r="CN16" s="24"/>
       <c r="CO16" s="28"/>
       <c r="CP16" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -4148,19 +4658,21 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>345</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -4237,32 +4749,32 @@
       <c r="CF17" s="11"/>
       <c r="CG17" s="11"/>
       <c r="CH17" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI17" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="CI17" s="14" t="s">
+      <c r="CJ17" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="CK17" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="CJ17" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK17" s="12" t="s">
+      <c r="CL17" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="CL17" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="CM17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN17" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="CN17" s="30" t="s">
-        <v>158</v>
       </c>
       <c r="CO17" s="30"/>
       <c r="CP17" s="30"/>
     </row>
     <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -4274,15 +4786,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="39" t="s">
-        <v>190</v>
+      <c r="I18" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -4321,7 +4833,7 @@
       <c r="AR18" s="11"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
@@ -4367,7 +4879,7 @@
       </c>
       <c r="CI18" s="14"/>
       <c r="CJ18" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
@@ -4378,7 +4890,7 @@
     </row>
     <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -4390,17 +4902,19 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" s="13"/>
+      <c r="I19" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>347</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -4439,7 +4953,7 @@
       <c r="AR19" s="11"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
@@ -4494,10 +5008,10 @@
     </row>
     <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -4506,15 +5020,15 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="1"/>
@@ -4523,7 +5037,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -4555,20 +5069,20 @@
       <c r="AR20" s="11"/>
       <c r="AS20" s="11"/>
       <c r="AT20" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AU20" s="11"/>
       <c r="AV20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AX20" s="11"/>
       <c r="AY20" s="11"/>
       <c r="AZ20" s="11"/>
       <c r="BA20" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BB20" s="11"/>
       <c r="BC20" s="11"/>
@@ -4614,27 +5128,27 @@
     </row>
     <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4643,7 +5157,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -4675,16 +5189,16 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="34"/>
       <c r="AW21" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -4728,33 +5242,33 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP21" s="30"/>
     </row>
     <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4793,14 +5307,14 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="34"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -4844,33 +5358,33 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP22" s="30"/>
     </row>
     <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4908,21 +5422,21 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AV23" s="34"/>
       <c r="AW23" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -4966,33 +5480,33 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP23" s="30"/>
     </row>
     <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5031,16 +5545,16 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="34" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -5084,33 +5598,33 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP24" s="30"/>
     </row>
     <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5119,7 +5633,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5151,14 +5665,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="34"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -5202,33 +5716,33 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP25" s="30"/>
     </row>
     <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5238,7 +5752,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -5269,14 +5783,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="34"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -5320,33 +5834,33 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP26" s="30"/>
     </row>
     <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -5385,14 +5899,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="34"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -5436,33 +5950,33 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP27" s="30"/>
     </row>
     <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5501,14 +6015,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="34"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -5552,33 +6066,33 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP28" s="30"/>
     </row>
     <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5589,7 +6103,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -5619,14 +6133,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="34"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -5670,33 +6184,33 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP29" s="30"/>
     </row>
     <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5708,12 +6222,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -5739,14 +6253,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="34"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -5790,33 +6304,33 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP30" s="30"/>
     </row>
     <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -5829,10 +6343,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -5859,14 +6373,14 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="34"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -5910,33 +6424,33 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP31" s="30"/>
     </row>
     <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -5975,14 +6489,14 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6026,18 +6540,3871 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="CP32" s="30"/>
+    </row>
+    <row r="33" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW33" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP33" s="1"/>
+    </row>
+    <row r="34" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP34" s="1"/>
+    </row>
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP35" s="1"/>
+    </row>
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="35"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP36" s="1"/>
+    </row>
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="35"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP37" s="1"/>
+    </row>
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="35"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP38" s="1"/>
+    </row>
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP39" s="1"/>
+    </row>
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP40" s="1"/>
+    </row>
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="35"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP41" s="1"/>
+    </row>
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="35"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP42" s="1"/>
+    </row>
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="35"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP43" s="1"/>
+    </row>
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP44" s="1"/>
+    </row>
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="35"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP45" s="1"/>
+    </row>
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="35"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP46" s="1"/>
+    </row>
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP47" s="1"/>
+    </row>
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="35"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP48" s="1"/>
+    </row>
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="35"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP49" s="1"/>
+    </row>
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="35"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP50" s="1"/>
+    </row>
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP51" s="1"/>
+    </row>
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="35"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP52" s="1"/>
+    </row>
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP53" s="1"/>
+    </row>
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="35"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP54" s="1"/>
+    </row>
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP55" s="1"/>
+    </row>
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="35"/>
+      <c r="AX56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP56" s="1"/>
+    </row>
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="35"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP57" s="1"/>
+    </row>
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="35"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ58" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP58" s="1"/>
+    </row>
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="1"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP59" s="1"/>
+    </row>
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="35"/>
+      <c r="AX60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP60" s="1"/>
+    </row>
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="35"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP61" s="1"/>
+    </row>
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I62" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="35"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP62" s="1"/>
+    </row>
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="35"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP63" s="1"/>
+    </row>
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="35"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="1"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
     <hyperlink ref="W10" r:id="rId2"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="kchavan@zarca.com"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="514">
   <si>
     <t>Environment</t>
   </si>
@@ -1690,6 +1690,9 @@
   </si>
   <si>
     <t xml:space="preserve">footer size should change </t>
+  </si>
+  <si>
+    <t>Smoke_TC32</t>
   </si>
 </sst>
 </file>
@@ -2397,10 +2400,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP64"/>
+  <dimension ref="A1:CP65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3396,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -3511,7 +3514,7 @@
         <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -6544,34 +6547,22 @@
       </c>
       <c r="CP32" s="30"/>
     </row>
-    <row r="33" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>354</v>
+        <v>513</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>189</v>
-      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6608,20 +6599,12 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AW33" s="35" t="s">
-        <v>426</v>
-      </c>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-      <c r="AY33" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
@@ -6663,17 +6646,15 @@
       <c r="CL33" s="1"/>
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
-      <c r="CO33" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="30"/>
     </row>
     <row r="34" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -6685,13 +6666,13 @@
         <v>259</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I34" s="37" t="s">
         <v>189</v>
@@ -6733,21 +6714,21 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
+      <c r="AV34" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="AW34" s="35" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="AX34" s="1"/>
       <c r="AY34" s="1" t="s">
         <v>358</v>
       </c>
       <c r="AZ34" s="1"/>
-      <c r="BA34" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
@@ -6792,12 +6773,12 @@
       </c>
       <c r="CP34" s="1"/>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -6809,13 +6790,13 @@
         <v>259</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>435</v>
+        <v>431</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="I35" s="37" t="s">
         <v>189</v>
@@ -6857,17 +6838,21 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="35"/>
+      <c r="AW35" s="35" t="s">
+        <v>357</v>
+      </c>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
         <v>358</v>
       </c>
       <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
+      <c r="BA35" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
@@ -6914,10 +6899,10 @@
     </row>
     <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -6929,13 +6914,13 @@
         <v>259</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>435</v>
       </c>
       <c r="I36" s="37" t="s">
         <v>189</v>
@@ -6977,7 +6962,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -7034,10 +7019,10 @@
     </row>
     <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -7049,13 +7034,13 @@
         <v>259</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I37" s="37" t="s">
         <v>189</v>
@@ -7097,7 +7082,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -7154,10 +7139,10 @@
     </row>
     <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -7169,13 +7154,13 @@
         <v>259</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I38" s="37" t="s">
         <v>189</v>
@@ -7217,7 +7202,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
@@ -7274,10 +7259,10 @@
     </row>
     <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -7289,13 +7274,13 @@
         <v>259</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I39" s="37" t="s">
         <v>189</v>
@@ -7337,7 +7322,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -7394,10 +7379,10 @@
     </row>
     <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -7409,13 +7394,13 @@
         <v>259</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I40" s="37" t="s">
         <v>189</v>
@@ -7457,7 +7442,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
@@ -7514,10 +7499,10 @@
     </row>
     <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -7529,13 +7514,13 @@
         <v>259</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I41" s="37" t="s">
         <v>189</v>
@@ -7577,7 +7562,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -7634,10 +7619,10 @@
     </row>
     <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -7649,13 +7634,13 @@
         <v>259</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I42" s="37" t="s">
         <v>189</v>
@@ -7697,7 +7682,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
@@ -7754,10 +7739,10 @@
     </row>
     <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -7769,12 +7754,14 @@
         <v>259</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>455</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="I43" s="37" t="s">
         <v>189</v>
       </c>
@@ -7815,7 +7802,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
@@ -7872,10 +7859,10 @@
     </row>
     <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -7887,10 +7874,10 @@
         <v>259</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="37" t="s">
@@ -7933,7 +7920,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
@@ -7990,10 +7977,10 @@
     </row>
     <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -8005,10 +7992,10 @@
         <v>259</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="37" t="s">
@@ -8051,7 +8038,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
@@ -8108,10 +8095,10 @@
     </row>
     <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -8123,10 +8110,10 @@
         <v>259</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="37" t="s">
@@ -8169,7 +8156,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
@@ -8226,10 +8213,10 @@
     </row>
     <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -8241,14 +8228,12 @@
         <v>259</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="H47" s="1"/>
       <c r="I47" s="37" t="s">
         <v>189</v>
       </c>
@@ -8289,7 +8274,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -8346,10 +8331,10 @@
     </row>
     <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -8361,13 +8346,13 @@
         <v>259</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I48" s="37" t="s">
         <v>189</v>
@@ -8409,7 +8394,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
@@ -8466,10 +8451,10 @@
     </row>
     <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -8481,13 +8466,13 @@
         <v>259</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I49" s="37" t="s">
         <v>189</v>
@@ -8529,7 +8514,7 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
@@ -8586,10 +8571,10 @@
     </row>
     <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -8601,13 +8586,13 @@
         <v>259</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I50" s="37" t="s">
         <v>189</v>
@@ -8649,7 +8634,7 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
@@ -8706,10 +8691,10 @@
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -8721,12 +8706,14 @@
         <v>259</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>475</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="I51" s="37" t="s">
         <v>189</v>
       </c>
@@ -8767,7 +8754,7 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
@@ -8824,10 +8811,10 @@
     </row>
     <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -8839,10 +8826,10 @@
         <v>259</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="37" t="s">
@@ -8885,7 +8872,7 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
@@ -8942,10 +8929,10 @@
     </row>
     <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
@@ -8957,14 +8944,12 @@
         <v>259</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>483</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="37" t="s">
         <v>189</v>
       </c>
@@ -9005,7 +8990,7 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
@@ -9062,10 +9047,10 @@
     </row>
     <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -9077,13 +9062,13 @@
         <v>259</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I54" s="37" t="s">
         <v>189</v>
@@ -9125,7 +9110,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
@@ -9182,10 +9167,10 @@
     </row>
     <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>15</v>
@@ -9197,12 +9182,14 @@
         <v>259</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="I55" s="37" t="s">
         <v>189</v>
       </c>
@@ -9243,14 +9230,12 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="35"/>
-      <c r="AX55" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
         <v>358</v>
       </c>
@@ -9302,10 +9287,10 @@
     </row>
     <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -9317,10 +9302,10 @@
         <v>259</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="37" t="s">
@@ -9363,7 +9348,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
@@ -9422,10 +9407,10 @@
     </row>
     <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -9437,14 +9422,12 @@
         <v>259</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>493</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H57" s="1"/>
       <c r="I57" s="37" t="s">
         <v>189</v>
       </c>
@@ -9485,18 +9468,18 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="35"/>
-      <c r="AX57" s="1"/>
+      <c r="AX57" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="AY57" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AZ57" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
       <c r="BC57" s="1"/>
@@ -9544,10 +9527,10 @@
     </row>
     <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -9559,10 +9542,10 @@
         <v>259</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>493</v>
@@ -9607,7 +9590,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
@@ -9666,10 +9649,10 @@
     </row>
     <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -9681,13 +9664,13 @@
         <v>259</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I59" s="37" t="s">
         <v>189</v>
@@ -9729,18 +9712,18 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="35"/>
-      <c r="AX59" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AZ59" s="1"/>
+      <c r="AZ59" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
       <c r="BC59" s="1"/>
@@ -9788,10 +9771,10 @@
     </row>
     <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -9803,10 +9786,10 @@
         <v>259</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>498</v>
@@ -9851,7 +9834,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
@@ -9910,10 +9893,10 @@
     </row>
     <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -9925,13 +9908,13 @@
         <v>259</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I61" s="37" t="s">
         <v>189</v>
@@ -9973,19 +9956,19 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="35"/>
-      <c r="AX61" s="1"/>
+      <c r="AX61" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="AY61" s="1" t="s">
         <v>358</v>
       </c>
       <c r="AZ61" s="1"/>
-      <c r="BA61" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
@@ -10032,10 +10015,10 @@
     </row>
     <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -10047,13 +10030,13 @@
         <v>259</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I62" s="37" t="s">
         <v>189</v>
@@ -10095,7 +10078,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
@@ -10154,10 +10137,10 @@
     </row>
     <row r="63" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -10169,13 +10152,13 @@
         <v>259</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I63" s="37" t="s">
         <v>189</v>
@@ -10217,7 +10200,7 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
@@ -10227,8 +10210,8 @@
         <v>358</v>
       </c>
       <c r="AZ63" s="1"/>
-      <c r="BA63" s="1">
-        <v>28</v>
+      <c r="BA63" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="BB63" s="1"/>
       <c r="BC63" s="1"/>
@@ -10276,10 +10259,10 @@
     </row>
     <row r="64" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -10291,13 +10274,13 @@
         <v>259</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I64" s="37" t="s">
         <v>189</v>
@@ -10339,7 +10322,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
@@ -10396,6 +10379,128 @@
       </c>
       <c r="CP64" s="1"/>
     </row>
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I65" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="35"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
+      <c r="BG65" s="1"/>
+      <c r="BH65" s="1"/>
+      <c r="BI65" s="1"/>
+      <c r="BJ65" s="1"/>
+      <c r="BK65" s="1"/>
+      <c r="BL65" s="1"/>
+      <c r="BM65" s="1"/>
+      <c r="BN65" s="1"/>
+      <c r="BO65" s="1"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="1"/>
+      <c r="BR65" s="1"/>
+      <c r="BS65" s="1"/>
+      <c r="BT65" s="1"/>
+      <c r="BU65" s="1"/>
+      <c r="BV65" s="1"/>
+      <c r="BW65" s="1"/>
+      <c r="BX65" s="1"/>
+      <c r="BY65" s="1"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP65" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="573">
   <si>
     <t>Environment</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>amulla@zarca.com</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Your report has been emailed successfully. not present on page.</t>
   </si>
   <si>
@@ -1694,12 +1691,192 @@
   <si>
     <t>Smoke_TC32</t>
   </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>Merge DP</t>
+  </si>
+  <si>
+    <t>Smoke_TC33</t>
+  </si>
+  <si>
+    <t>CopyPaste</t>
+  </si>
+  <si>
+    <t>Adding All Questions in existing survey through copy paste feature</t>
+  </si>
+  <si>
+    <t>This is a sample textbox</t>
+  </si>
+  <si>
+    <t>This is a sample rb</t>
+  </si>
+  <si>
+    <t>This is a sample cb</t>
+  </si>
+  <si>
+    <t>This is a sample dd</t>
+  </si>
+  <si>
+    <t>CCP test</t>
+  </si>
+  <si>
+    <t>Hello this a sample descriptive text</t>
+  </si>
+  <si>
+    <t>Smoke_TC34</t>
+  </si>
+  <si>
+    <t>CreateCopyPaste</t>
+  </si>
+  <si>
+    <t>Creating Survey &amp; then Copy Paste Questions through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC35</t>
+  </si>
+  <si>
+    <t>DescriptiveText</t>
+  </si>
+  <si>
+    <t>Adding only Discriptive text through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC36</t>
+  </si>
+  <si>
+    <t>TextBoxQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Text Box Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC37</t>
+  </si>
+  <si>
+    <t>RadioButtonQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Radio Button Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC38</t>
+  </si>
+  <si>
+    <t>CheckBoxQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Check Box Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC39</t>
+  </si>
+  <si>
+    <t>DropDownQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Drop Down Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC40</t>
+  </si>
+  <si>
+    <t>RankingQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Ranking Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC41</t>
+  </si>
+  <si>
+    <t>DateQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Date Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC42</t>
+  </si>
+  <si>
+    <t>HorizontalRadioQuestion</t>
+  </si>
+  <si>
+    <t>Adding only Horizontal Radio Question through copy paste feature</t>
+  </si>
+  <si>
+    <t>PageBreakWithoutQuestions</t>
+  </si>
+  <si>
+    <t>Adding Page Break without any questions through copy paste feature</t>
+  </si>
+  <si>
+    <t>Smoke_TC433</t>
+  </si>
+  <si>
+    <t>Publishing &amp; giving response to two surveys,and then merging them both through merge feature</t>
+  </si>
+  <si>
+    <t>SelectTemplate</t>
+  </si>
+  <si>
+    <t>emailhost</t>
+  </si>
+  <si>
+    <t>stremailaddress</t>
+  </si>
+  <si>
+    <t>emailPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Smoke_TC75</t>
+  </si>
+  <si>
+    <t>Send Test Invitations</t>
+  </si>
+  <si>
+    <t>Test Invite Sample TextBox</t>
+  </si>
+  <si>
+    <t>g_golatkar@outlook.com</t>
+  </si>
+  <si>
+    <t>TestInvite</t>
+  </si>
+  <si>
+    <t>PMX DP English</t>
+  </si>
+  <si>
+    <t>selectET_133744</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>gvg3196@test</t>
+  </si>
+  <si>
+    <t>Your Voice Counts</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1741,11 +1918,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,11 +1976,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1852,6 +2047,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1869,7 +2088,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1908,9 +2127,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2400,10 +2631,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP65"/>
+  <dimension ref="A1:CV77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2662,7 @@
     <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>22</v>
@@ -2714,8 +2945,26 @@
       <c r="CP1" s="9" t="s">
         <v>218</v>
       </c>
+      <c r="CQ1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="CR1" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="CS1" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="CT1" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2738,7 +2987,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J2" s="13"/>
@@ -2828,8 +3077,14 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
       <c r="CP2" s="6"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2852,11 +3107,11 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
@@ -3022,8 +3277,14 @@
       <c r="CN3" s="6"/>
       <c r="CO3" s="6"/>
       <c r="CP3" s="6"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3046,7 +3307,7 @@
       <c r="H4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J4" s="13"/>
@@ -3148,8 +3409,14 @@
       </c>
       <c r="CO4" s="30"/>
       <c r="CP4" s="30"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -3172,7 +3439,7 @@
       <c r="H5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J5" s="12"/>
@@ -3274,8 +3541,14 @@
       </c>
       <c r="CO5" s="12"/>
       <c r="CP5" s="12"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -3298,7 +3571,7 @@
       <c r="H6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J6" s="13"/>
@@ -3390,8 +3663,14 @@
       <c r="CN6" s="12"/>
       <c r="CO6" s="12"/>
       <c r="CP6" s="12"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -3414,8 +3693,8 @@
       <c r="H7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>350</v>
+      <c r="I7" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="1"/>
@@ -3508,8 +3787,14 @@
       <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
       <c r="CP7" s="12"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -3532,8 +3817,8 @@
       <c r="H8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>350</v>
+      <c r="I8" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="1"/>
@@ -3626,8 +3911,14 @@
       <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
       <c r="CP8" s="12"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
@@ -3650,11 +3941,11 @@
       <c r="H9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3754,8 +4045,14 @@
       <c r="CN9" s="12"/>
       <c r="CO9" s="12"/>
       <c r="CP9" s="12"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
@@ -3778,11 +4075,11 @@
         <v>192</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="37" t="s">
-        <v>189</v>
+      <c r="I10" s="47" t="s">
+        <v>571</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>193</v>
@@ -3880,8 +4177,14 @@
       <c r="CP10" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
@@ -3904,8 +4207,8 @@
         <v>195</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="37" t="s">
-        <v>189</v>
+      <c r="I11" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>346</v>
@@ -4002,8 +4305,14 @@
       <c r="CP11" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
@@ -4026,8 +4335,8 @@
         <v>199</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="37" t="s">
-        <v>189</v>
+      <c r="I12" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
@@ -4122,8 +4431,14 @@
       <c r="CP12" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -4146,8 +4461,8 @@
         <v>203</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="37" t="s">
-        <v>189</v>
+      <c r="I13" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>346</v>
@@ -4244,8 +4559,14 @@
       <c r="CP13" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>205</v>
       </c>
@@ -4268,8 +4589,8 @@
         <v>207</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="37" t="s">
-        <v>189</v>
+      <c r="I14" s="47" t="s">
+        <v>571</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>346</v>
@@ -4366,8 +4687,14 @@
       <c r="CP14" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>208</v>
       </c>
@@ -4390,8 +4717,8 @@
         <v>210</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="37" t="s">
-        <v>189</v>
+      <c r="I15" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>255</v>
@@ -4510,8 +4837,14 @@
       <c r="CP15" s="28" t="s">
         <v>245</v>
       </c>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>216</v>
       </c>
@@ -4534,8 +4867,8 @@
         <v>231</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="37" t="s">
-        <v>189</v>
+      <c r="I16" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="22" t="s">
@@ -4646,8 +4979,14 @@
       <c r="CP16" s="24" t="s">
         <v>177</v>
       </c>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>217</v>
       </c>
@@ -4670,7 +5009,7 @@
       <c r="H17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -4774,8 +5113,14 @@
       </c>
       <c r="CO17" s="30"/>
       <c r="CP17" s="30"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -4796,8 +5141,8 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="37" t="s">
-        <v>189</v>
+      <c r="I18" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -4890,8 +5235,14 @@
       <c r="CN18" s="30"/>
       <c r="CO18" s="30"/>
       <c r="CP18" s="30"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>252</v>
       </c>
@@ -4912,8 +5263,8 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="37" t="s">
-        <v>189</v>
+      <c r="I19" s="46" t="s">
+        <v>572</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>347</v>
@@ -5008,8 +5359,14 @@
       <c r="CN19" s="30"/>
       <c r="CO19" s="30"/>
       <c r="CP19" s="30"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>258</v>
       </c>
@@ -5030,7 +5387,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J20" s="13"/>
@@ -5128,8 +5485,14 @@
       <c r="CN20" s="30"/>
       <c r="CO20" s="30"/>
       <c r="CP20" s="30"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>267</v>
       </c>
@@ -5150,7 +5513,7 @@
       <c r="H21" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J21" s="1"/>
@@ -5248,8 +5611,14 @@
         <v>279</v>
       </c>
       <c r="CP21" s="30"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>268</v>
       </c>
@@ -5270,7 +5639,7 @@
       <c r="H22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J22" s="1"/>
@@ -5364,8 +5733,14 @@
         <v>279</v>
       </c>
       <c r="CP22" s="30"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>269</v>
       </c>
@@ -5386,7 +5761,7 @@
       <c r="H23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J23" s="1"/>
@@ -5486,8 +5861,14 @@
         <v>279</v>
       </c>
       <c r="CP23" s="30"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>270</v>
       </c>
@@ -5508,7 +5889,7 @@
       <c r="H24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J24" s="1"/>
@@ -5604,8 +5985,14 @@
         <v>279</v>
       </c>
       <c r="CP24" s="30"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>271</v>
       </c>
@@ -5626,7 +6013,7 @@
       <c r="H25" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J25" s="1"/>
@@ -5722,8 +6109,14 @@
         <v>279</v>
       </c>
       <c r="CP25" s="30"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>272</v>
       </c>
@@ -5744,7 +6137,7 @@
       <c r="H26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J26" s="1"/>
@@ -5840,8 +6233,14 @@
         <v>279</v>
       </c>
       <c r="CP26" s="30"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -5862,7 +6261,7 @@
       <c r="H27" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J27" s="1"/>
@@ -5956,8 +6355,14 @@
         <v>279</v>
       </c>
       <c r="CP27" s="30"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>274</v>
       </c>
@@ -5978,7 +6383,7 @@
       <c r="H28" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I28" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J28" s="1"/>
@@ -6072,8 +6477,14 @@
         <v>279</v>
       </c>
       <c r="CP28" s="30"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>275</v>
       </c>
@@ -6094,7 +6505,7 @@
       <c r="H29" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J29" s="1"/>
@@ -6190,8 +6601,14 @@
         <v>279</v>
       </c>
       <c r="CP29" s="30"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>276</v>
       </c>
@@ -6212,7 +6629,7 @@
       <c r="H30" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J30" s="1"/>
@@ -6310,8 +6727,14 @@
         <v>279</v>
       </c>
       <c r="CP30" s="30"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>277</v>
       </c>
@@ -6332,7 +6755,7 @@
       <c r="H31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J31" s="1"/>
@@ -6430,8 +6853,14 @@
         <v>279</v>
       </c>
       <c r="CP31" s="30"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>278</v>
       </c>
@@ -6452,7 +6881,7 @@
       <c r="H32" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J32" s="1"/>
@@ -6546,23 +6975,39 @@
         <v>279</v>
       </c>
       <c r="CP32" s="30"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>555</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="37"/>
+      <c r="I33" s="48" t="s">
+        <v>189</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6648,33 +7093,37 @@
       <c r="CN33" s="1"/>
       <c r="CO33" s="1"/>
       <c r="CP33" s="30"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I34" s="37" t="s">
+      <c r="F34" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J34" s="1"/>
@@ -6682,11 +7131,19 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="O34" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="R34" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -6713,20 +7170,14 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
-      <c r="AT34" s="1" t="s">
-        <v>355</v>
+      <c r="AT34" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU34" s="1"/>
-      <c r="AV34" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AW34" s="35" t="s">
-        <v>426</v>
-      </c>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-      <c r="AY34" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
@@ -6768,37 +7219,41 @@
       <c r="CL34" s="1"/>
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
-      <c r="CO34" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="30"/>
+      <c r="CQ34" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>359</v>
+        <v>525</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I35" s="37" t="s">
+      <c r="F35" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J35" s="1"/>
@@ -6806,11 +7261,19 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="O35" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="R35" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -6837,22 +7300,16 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
-      <c r="AT35" s="1" t="s">
-        <v>360</v>
+      <c r="AT35" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
-      <c r="AW35" s="35" t="s">
-        <v>357</v>
-      </c>
+      <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-      <c r="AY35" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
-      <c r="BA35" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
@@ -6892,37 +7349,41 @@
       <c r="CL35" s="1"/>
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
-      <c r="CO35" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="30"/>
+      <c r="CQ35" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="I36" s="37" t="s">
+      <c r="F36" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J36" s="1"/>
@@ -6930,11 +7391,19 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="O36" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="R36" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -6961,16 +7430,14 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
-      <c r="AT36" s="1" t="s">
-        <v>395</v>
+      <c r="AT36" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="35"/>
+      <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AY36" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
@@ -7012,37 +7479,41 @@
       <c r="CL36" s="1"/>
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
-      <c r="CO36" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="30"/>
+      <c r="CQ36" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>531</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I37" s="37" t="s">
+      <c r="F37" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J37" s="1"/>
@@ -7050,11 +7521,19 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="O37" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="R37" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -7081,16 +7560,14 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
-      <c r="AT37" s="1" t="s">
-        <v>396</v>
+      <c r="AT37" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="35"/>
+      <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-      <c r="AY37" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
@@ -7132,37 +7609,41 @@
       <c r="CL37" s="1"/>
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
-      <c r="CO37" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="30"/>
+      <c r="CQ37" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>365</v>
+        <v>534</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I38" s="37" t="s">
+      <c r="F38" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J38" s="1"/>
@@ -7170,11 +7651,19 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="O38" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="R38" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -7201,16 +7690,14 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
-      <c r="AT38" s="1" t="s">
-        <v>397</v>
+      <c r="AT38" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="35"/>
+      <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
@@ -7252,37 +7739,41 @@
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
-      <c r="CO38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="30"/>
+      <c r="CQ38" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I39" s="37" t="s">
+      <c r="F39" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J39" s="1"/>
@@ -7290,11 +7781,19 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="O39" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="R39" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -7321,16 +7820,14 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
-      <c r="AT39" s="1" t="s">
-        <v>398</v>
+      <c r="AT39" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="35"/>
+      <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-      <c r="AY39" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
@@ -7372,37 +7869,41 @@
       <c r="CL39" s="1"/>
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
-      <c r="CO39" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="30"/>
+      <c r="CQ39" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>367</v>
+        <v>540</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I40" s="37" t="s">
+      <c r="F40" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J40" s="1"/>
@@ -7410,11 +7911,19 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="O40" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="R40" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -7441,16 +7950,14 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
-      <c r="AT40" s="1" t="s">
-        <v>399</v>
+      <c r="AT40" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="35"/>
+      <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
-      <c r="AY40" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
@@ -7492,37 +7999,41 @@
       <c r="CL40" s="1"/>
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
-      <c r="CO40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="30"/>
+      <c r="CQ40" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>368</v>
+        <v>543</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I41" s="37" t="s">
+      <c r="F41" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J41" s="1"/>
@@ -7530,11 +8041,19 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="O41" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="R41" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -7561,16 +8080,14 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
-      <c r="AT41" s="1" t="s">
-        <v>400</v>
+      <c r="AT41" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="35"/>
+      <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
-      <c r="AY41" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
@@ -7612,37 +8129,41 @@
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
-      <c r="CO41" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="30"/>
+      <c r="CQ41" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>369</v>
+        <v>546</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I42" s="37" t="s">
+      <c r="F42" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J42" s="1"/>
@@ -7650,11 +8171,19 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="O42" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="R42" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -7681,16 +8210,14 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
-      <c r="AT42" s="1" t="s">
-        <v>401</v>
+      <c r="AT42" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="35"/>
+      <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
-      <c r="AY42" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
@@ -7732,37 +8259,41 @@
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
-      <c r="CO42" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="30"/>
+      <c r="CQ42" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
+      <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>370</v>
+        <v>549</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I43" s="37" t="s">
+      <c r="F43" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J43" s="1"/>
@@ -7770,11 +8301,19 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="O43" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="R43" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -7801,16 +8340,14 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
-      <c r="AT43" s="1" t="s">
-        <v>402</v>
+      <c r="AT43" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
-      <c r="AW43" s="35"/>
+      <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-      <c r="AY43" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
@@ -7852,35 +8389,41 @@
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
-      <c r="CO43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="30"/>
+      <c r="CQ43" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
+      <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>371</v>
+        <v>554</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>458</v>
+      <c r="F44" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="37" t="s">
+      <c r="I44" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J44" s="1"/>
@@ -7888,11 +8431,19 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="O44" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>520</v>
+      </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="R44" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>522</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -7919,16 +8470,14 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-      <c r="AT44" s="1" t="s">
-        <v>403</v>
+      <c r="AT44" s="38" t="s">
+        <v>523</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="35"/>
+      <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
-      <c r="AY44" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
@@ -7970,14 +8519,20 @@
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
-      <c r="CO44" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="CP44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="30"/>
+      <c r="CQ44" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
+      <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:100" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -7992,13 +8547,15 @@
         <v>259</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I45" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J45" s="1"/>
@@ -8038,14 +8595,18 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="AU45" s="1"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="35"/>
+      <c r="AV45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW45" s="35" t="s">
+        <v>425</v>
+      </c>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8092,10 +8653,16 @@
         <v>279</v>
       </c>
       <c r="CP45" s="1"/>
+      <c r="CQ45" s="1"/>
+      <c r="CR45" s="1"/>
+      <c r="CS45" s="1"/>
+      <c r="CT45" s="1"/>
+      <c r="CU45" s="1"/>
+      <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:100" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -8110,13 +8677,15 @@
         <v>259</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I46" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J46" s="1"/>
@@ -8156,17 +8725,21 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="35"/>
+      <c r="AW46" s="35" t="s">
+        <v>356</v>
+      </c>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
+      <c r="BA46" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
@@ -8210,10 +8783,16 @@
         <v>279</v>
       </c>
       <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
+      <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
@@ -8228,13 +8807,15 @@
         <v>259</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="I47" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J47" s="1"/>
@@ -8274,14 +8855,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="35"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8328,10 +8909,16 @@
         <v>279</v>
       </c>
       <c r="CP47" s="1"/>
+      <c r="CQ47" s="1"/>
+      <c r="CR47" s="1"/>
+      <c r="CS47" s="1"/>
+      <c r="CT47" s="1"/>
+      <c r="CU47" s="1"/>
+      <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -8346,15 +8933,15 @@
         <v>259</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I48" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="I48" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="1"/>
@@ -8394,14 +8981,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="35"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -8448,10 +9035,16 @@
         <v>279</v>
       </c>
       <c r="CP48" s="1"/>
+      <c r="CQ48" s="1"/>
+      <c r="CR48" s="1"/>
+      <c r="CS48" s="1"/>
+      <c r="CT48" s="1"/>
+      <c r="CU48" s="1"/>
+      <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -8466,15 +9059,15 @@
         <v>259</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I49" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="I49" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J49" s="1"/>
@@ -8514,14 +9107,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="35"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -8568,10 +9161,16 @@
         <v>279</v>
       </c>
       <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -8586,15 +9185,15 @@
         <v>259</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I50" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I50" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J50" s="1"/>
@@ -8634,14 +9233,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="35"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -8688,10 +9287,16 @@
         <v>279</v>
       </c>
       <c r="CP50" s="1"/>
+      <c r="CQ50" s="1"/>
+      <c r="CR50" s="1"/>
+      <c r="CS50" s="1"/>
+      <c r="CT50" s="1"/>
+      <c r="CU50" s="1"/>
+      <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -8706,15 +9311,15 @@
         <v>259</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I51" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="I51" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J51" s="1"/>
@@ -8754,14 +9359,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="35"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -8808,10 +9413,16 @@
         <v>279</v>
       </c>
       <c r="CP51" s="1"/>
+      <c r="CQ51" s="1"/>
+      <c r="CR51" s="1"/>
+      <c r="CS51" s="1"/>
+      <c r="CT51" s="1"/>
+      <c r="CU51" s="1"/>
+      <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
@@ -8826,13 +9437,15 @@
         <v>259</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I52" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J52" s="1"/>
@@ -8872,14 +9485,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="35"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -8926,10 +9539,16 @@
         <v>279</v>
       </c>
       <c r="CP52" s="1"/>
+      <c r="CQ52" s="1"/>
+      <c r="CR52" s="1"/>
+      <c r="CS52" s="1"/>
+      <c r="CT52" s="1"/>
+      <c r="CU52" s="1"/>
+      <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
@@ -8944,13 +9563,15 @@
         <v>259</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I53" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J53" s="1"/>
@@ -8990,14 +9611,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="35"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9044,10 +9665,16 @@
         <v>279</v>
       </c>
       <c r="CP53" s="1"/>
+      <c r="CQ53" s="1"/>
+      <c r="CR53" s="1"/>
+      <c r="CS53" s="1"/>
+      <c r="CT53" s="1"/>
+      <c r="CU53" s="1"/>
+      <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
@@ -9062,15 +9689,15 @@
         <v>259</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I54" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="I54" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J54" s="1"/>
@@ -9110,14 +9737,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="35"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9164,10 +9791,16 @@
         <v>279</v>
       </c>
       <c r="CP54" s="1"/>
+      <c r="CQ54" s="1"/>
+      <c r="CR54" s="1"/>
+      <c r="CS54" s="1"/>
+      <c r="CT54" s="1"/>
+      <c r="CU54" s="1"/>
+      <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
@@ -9182,15 +9815,13 @@
         <v>259</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I55" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J55" s="1"/>
@@ -9230,14 +9861,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="35"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9284,10 +9915,16 @@
         <v>279</v>
       </c>
       <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
@@ -9302,13 +9939,13 @@
         <v>259</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="37" t="s">
+      <c r="I56" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1"/>
@@ -9348,16 +9985,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="35"/>
-      <c r="AX56" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -9404,10 +10039,16 @@
         <v>279</v>
       </c>
       <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
@@ -9422,13 +10063,13 @@
         <v>259</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="37" t="s">
+      <c r="I57" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J57" s="1"/>
@@ -9468,16 +10109,14 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="35"/>
-      <c r="AX57" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -9524,10 +10163,16 @@
         <v>279</v>
       </c>
       <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
@@ -9542,15 +10187,13 @@
         <v>259</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I58" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J58" s="1"/>
@@ -9590,18 +10233,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="35"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AZ58" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
       <c r="BC58" s="1"/>
@@ -9646,10 +10287,16 @@
         <v>279</v>
       </c>
       <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
+      <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
@@ -9664,15 +10311,15 @@
         <v>259</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I59" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="I59" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J59" s="1"/>
@@ -9712,18 +10359,16 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="35"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AZ59" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
       <c r="BC59" s="1"/>
@@ -9768,10 +10413,16 @@
         <v>279</v>
       </c>
       <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1"/>
+      <c r="CT59" s="1"/>
+      <c r="CU59" s="1"/>
+      <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -9786,15 +10437,15 @@
         <v>259</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I60" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="I60" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J60" s="1"/>
@@ -9834,16 +10485,14 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="35"/>
-      <c r="AX60" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -9890,10 +10539,16 @@
         <v>279</v>
       </c>
       <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
+      <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
@@ -9908,15 +10563,15 @@
         <v>259</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I61" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="I61" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J61" s="1"/>
@@ -9956,16 +10611,14 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="35"/>
-      <c r="AX61" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -10012,10 +10665,16 @@
         <v>279</v>
       </c>
       <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
+      <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
@@ -10030,15 +10689,15 @@
         <v>259</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I62" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="I62" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J62" s="1"/>
@@ -10078,19 +10737,17 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="35"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ62" s="1"/>
-      <c r="BA62" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
@@ -10134,10 +10791,16 @@
         <v>279</v>
       </c>
       <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
+      <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
@@ -10152,15 +10815,13 @@
         <v>259</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I63" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J63" s="1"/>
@@ -10200,19 +10861,17 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="35"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ63" s="1"/>
-      <c r="BA63" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
@@ -10256,10 +10915,16 @@
         <v>279</v>
       </c>
       <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="1"/>
+      <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
@@ -10274,15 +10939,13 @@
         <v>259</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I64" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J64" s="1"/>
@@ -10322,19 +10985,17 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="35"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ64" s="1"/>
-      <c r="BA64" s="1">
-        <v>28</v>
-      </c>
+      <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
       <c r="BC64" s="1"/>
       <c r="BD64" s="1"/>
@@ -10378,10 +11039,16 @@
         <v>279</v>
       </c>
       <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="1"/>
+      <c r="CV64" s="1"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
@@ -10396,15 +11063,15 @@
         <v>259</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I65" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="I65" s="48" t="s">
         <v>189</v>
       </c>
       <c r="J65" s="1"/>
@@ -10444,19 +11111,17 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="35"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ65" s="1"/>
-      <c r="BA65" s="1">
-        <v>28</v>
-      </c>
+      <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
@@ -10500,6 +11165,1548 @@
         <v>279</v>
       </c>
       <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="1"/>
+      <c r="CV65" s="1"/>
+    </row>
+    <row r="66" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="35"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
+      <c r="BG66" s="1"/>
+      <c r="BH66" s="1"/>
+      <c r="BI66" s="1"/>
+      <c r="BJ66" s="1"/>
+      <c r="BK66" s="1"/>
+      <c r="BL66" s="1"/>
+      <c r="BM66" s="1"/>
+      <c r="BN66" s="1"/>
+      <c r="BO66" s="1"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="1"/>
+      <c r="BR66" s="1"/>
+      <c r="BS66" s="1"/>
+      <c r="BT66" s="1"/>
+      <c r="BU66" s="1"/>
+      <c r="BV66" s="1"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
+      <c r="CC66" s="1"/>
+      <c r="CD66" s="1"/>
+      <c r="CE66" s="1"/>
+      <c r="CF66" s="1"/>
+      <c r="CG66" s="1"/>
+      <c r="CH66" s="1"/>
+      <c r="CI66" s="1"/>
+      <c r="CJ66" s="1"/>
+      <c r="CK66" s="1"/>
+      <c r="CL66" s="1"/>
+      <c r="CM66" s="1"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP66" s="1"/>
+      <c r="CQ66" s="1"/>
+      <c r="CR66" s="1"/>
+      <c r="CS66" s="1"/>
+      <c r="CT66" s="1"/>
+      <c r="CU66" s="1"/>
+      <c r="CV66" s="1"/>
+    </row>
+    <row r="67" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
+      <c r="CV67" s="1"/>
+    </row>
+    <row r="68" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="35"/>
+      <c r="AX68" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
+      <c r="CV68" s="1"/>
+    </row>
+    <row r="69" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I69" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="35"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ69" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
+    </row>
+    <row r="70" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I70" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="35"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ70" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
+    </row>
+    <row r="71" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I71" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="35"/>
+      <c r="AX71" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+    </row>
+    <row r="72" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I72" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="35"/>
+      <c r="AX72" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY72" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
+    </row>
+    <row r="73" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I73" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="35"/>
+      <c r="AX73" s="1"/>
+      <c r="AY73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
+      <c r="BH73" s="1"/>
+      <c r="BI73" s="1"/>
+      <c r="BJ73" s="1"/>
+      <c r="BK73" s="1"/>
+      <c r="BL73" s="1"/>
+      <c r="BM73" s="1"/>
+      <c r="BN73" s="1"/>
+      <c r="BO73" s="1"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="1"/>
+      <c r="BR73" s="1"/>
+      <c r="BS73" s="1"/>
+      <c r="BT73" s="1"/>
+      <c r="BU73" s="1"/>
+      <c r="BV73" s="1"/>
+      <c r="BW73" s="1"/>
+      <c r="BX73" s="1"/>
+      <c r="BY73" s="1"/>
+      <c r="BZ73" s="1"/>
+      <c r="CA73" s="1"/>
+      <c r="CB73" s="1"/>
+      <c r="CC73" s="1"/>
+      <c r="CD73" s="1"/>
+      <c r="CE73" s="1"/>
+      <c r="CF73" s="1"/>
+      <c r="CG73" s="1"/>
+      <c r="CH73" s="1"/>
+      <c r="CI73" s="1"/>
+      <c r="CJ73" s="1"/>
+      <c r="CK73" s="1"/>
+      <c r="CL73" s="1"/>
+      <c r="CM73" s="1"/>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP73" s="1"/>
+      <c r="CQ73" s="1"/>
+      <c r="CR73" s="1"/>
+      <c r="CS73" s="1"/>
+      <c r="CT73" s="1"/>
+      <c r="CU73" s="1"/>
+      <c r="CV73" s="1"/>
+    </row>
+    <row r="74" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I74" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="35"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+      <c r="BD74" s="1"/>
+      <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
+      <c r="BG74" s="1"/>
+      <c r="BH74" s="1"/>
+      <c r="BI74" s="1"/>
+      <c r="BJ74" s="1"/>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
+      <c r="BM74" s="1"/>
+      <c r="BN74" s="1"/>
+      <c r="BO74" s="1"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
+      <c r="BR74" s="1"/>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
+      <c r="BY74" s="1"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
+      <c r="CV74" s="1"/>
+    </row>
+    <row r="75" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I75" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="35"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+      <c r="BD75" s="1"/>
+      <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
+      <c r="BG75" s="1"/>
+      <c r="BH75" s="1"/>
+      <c r="BI75" s="1"/>
+      <c r="BJ75" s="1"/>
+      <c r="BK75" s="1"/>
+      <c r="BL75" s="1"/>
+      <c r="BM75" s="1"/>
+      <c r="BN75" s="1"/>
+      <c r="BO75" s="1"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="1"/>
+      <c r="BR75" s="1"/>
+      <c r="BS75" s="1"/>
+      <c r="BT75" s="1"/>
+      <c r="BU75" s="1"/>
+      <c r="BV75" s="1"/>
+      <c r="BW75" s="1"/>
+      <c r="BX75" s="1"/>
+      <c r="BY75" s="1"/>
+      <c r="BZ75" s="1"/>
+      <c r="CA75" s="1"/>
+      <c r="CB75" s="1"/>
+      <c r="CC75" s="1"/>
+      <c r="CD75" s="1"/>
+      <c r="CE75" s="1"/>
+      <c r="CF75" s="1"/>
+      <c r="CG75" s="1"/>
+      <c r="CH75" s="1"/>
+      <c r="CI75" s="1"/>
+      <c r="CJ75" s="1"/>
+      <c r="CK75" s="1"/>
+      <c r="CL75" s="1"/>
+      <c r="CM75" s="1"/>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP75" s="1"/>
+      <c r="CQ75" s="1"/>
+      <c r="CR75" s="1"/>
+      <c r="CS75" s="1"/>
+      <c r="CT75" s="1"/>
+      <c r="CU75" s="1"/>
+      <c r="CV75" s="1"/>
+    </row>
+    <row r="76" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="G76" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="42"/>
+      <c r="AK76" s="42"/>
+      <c r="AL76" s="42"/>
+      <c r="AM76" s="42"/>
+      <c r="AN76" s="42"/>
+      <c r="AO76" s="42"/>
+      <c r="AP76" s="42"/>
+      <c r="AQ76" s="42"/>
+      <c r="AR76" s="42"/>
+      <c r="AS76" s="42"/>
+      <c r="AT76" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU76" s="42"/>
+      <c r="AV76" s="42"/>
+      <c r="AW76" s="43"/>
+      <c r="AX76" s="42"/>
+      <c r="AY76" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ76" s="42"/>
+      <c r="BA76" s="42">
+        <v>28</v>
+      </c>
+      <c r="BB76" s="42"/>
+      <c r="BC76" s="42"/>
+      <c r="BD76" s="42"/>
+      <c r="BE76" s="42"/>
+      <c r="BF76" s="42"/>
+      <c r="BG76" s="42"/>
+      <c r="BH76" s="42"/>
+      <c r="BI76" s="42"/>
+      <c r="BJ76" s="42"/>
+      <c r="BK76" s="42"/>
+      <c r="BL76" s="42"/>
+      <c r="BM76" s="42"/>
+      <c r="BN76" s="42"/>
+      <c r="BO76" s="42"/>
+      <c r="BP76" s="42"/>
+      <c r="BQ76" s="42"/>
+      <c r="BR76" s="42"/>
+      <c r="BS76" s="42"/>
+      <c r="BT76" s="42"/>
+      <c r="BU76" s="42"/>
+      <c r="BV76" s="42"/>
+      <c r="BW76" s="42"/>
+      <c r="BX76" s="42"/>
+      <c r="BY76" s="42"/>
+      <c r="BZ76" s="42"/>
+      <c r="CA76" s="42"/>
+      <c r="CB76" s="42"/>
+      <c r="CC76" s="42"/>
+      <c r="CD76" s="42"/>
+      <c r="CE76" s="42"/>
+      <c r="CF76" s="42"/>
+      <c r="CG76" s="42"/>
+      <c r="CH76" s="42"/>
+      <c r="CI76" s="42"/>
+      <c r="CJ76" s="42"/>
+      <c r="CK76" s="42"/>
+      <c r="CL76" s="42"/>
+      <c r="CM76" s="42"/>
+      <c r="CN76" s="42"/>
+      <c r="CO76" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="CP76" s="42"/>
+      <c r="CQ76" s="42"/>
+      <c r="CR76" s="42"/>
+      <c r="CS76" s="42"/>
+      <c r="CT76" s="42"/>
+      <c r="CU76" s="42"/>
+      <c r="CV76" s="42"/>
+    </row>
+    <row r="77" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="44"/>
+      <c r="AD77" s="44"/>
+      <c r="AE77" s="44"/>
+      <c r="AF77" s="44"/>
+      <c r="AG77" s="44"/>
+      <c r="AH77" s="44"/>
+      <c r="AI77" s="44"/>
+      <c r="AJ77" s="44"/>
+      <c r="AK77" s="44"/>
+      <c r="AL77" s="44"/>
+      <c r="AM77" s="44"/>
+      <c r="AN77" s="44"/>
+      <c r="AO77" s="44"/>
+      <c r="AP77" s="44"/>
+      <c r="AQ77" s="44"/>
+      <c r="AR77" s="44"/>
+      <c r="AS77" s="44"/>
+      <c r="AT77" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="AU77" s="44"/>
+      <c r="AV77" s="44"/>
+      <c r="AW77" s="44"/>
+      <c r="AX77" s="44"/>
+      <c r="AY77" s="44"/>
+      <c r="AZ77" s="44"/>
+      <c r="BA77" s="44"/>
+      <c r="BB77" s="44"/>
+      <c r="BC77" s="44"/>
+      <c r="BD77" s="44"/>
+      <c r="BE77" s="44"/>
+      <c r="BF77" s="44"/>
+      <c r="BG77" s="44"/>
+      <c r="BH77" s="44"/>
+      <c r="BI77" s="44"/>
+      <c r="BJ77" s="44"/>
+      <c r="BK77" s="44"/>
+      <c r="BL77" s="44"/>
+      <c r="BM77" s="44"/>
+      <c r="BN77" s="44"/>
+      <c r="BO77" s="44"/>
+      <c r="BP77" s="44"/>
+      <c r="BQ77" s="44"/>
+      <c r="BR77" s="44"/>
+      <c r="BS77" s="44"/>
+      <c r="BT77" s="44"/>
+      <c r="BU77" s="44"/>
+      <c r="BV77" s="44"/>
+      <c r="BW77" s="44"/>
+      <c r="BX77" s="44"/>
+      <c r="BY77" s="44"/>
+      <c r="BZ77" s="44"/>
+      <c r="CA77" s="44"/>
+      <c r="CB77" s="44"/>
+      <c r="CC77" s="44"/>
+      <c r="CD77" s="44"/>
+      <c r="CE77" s="44"/>
+      <c r="CF77" s="44"/>
+      <c r="CG77" s="44"/>
+      <c r="CH77" s="44"/>
+      <c r="CI77" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="CJ77" s="44"/>
+      <c r="CK77" s="44"/>
+      <c r="CL77" s="44"/>
+      <c r="CM77" s="44"/>
+      <c r="CN77" s="44"/>
+      <c r="CO77" s="44"/>
+      <c r="CP77" s="44"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="CS77" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="CT77" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="CU77" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="CV77" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="575">
   <si>
     <t>Environment</t>
   </si>
@@ -1866,17 +1866,24 @@
     <t>Your Voice Counts</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>This is a sample ranking question</t>
+  </si>
+  <si>
+    <t>This is a sample Date</t>
+  </si>
+  <si>
+    <t>This is a sample Horizontal Radio Question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1934,8 +1941,24 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,7 +1999,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2088,7 +2141,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2140,8 +2193,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2444,8 +2501,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,9 +2542,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,10 +2585,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,33 +2690,33 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B2:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
@@ -2987,7 +3044,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J2" s="13"/>
@@ -3107,7 +3164,7 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -3307,7 +3364,7 @@
       <c r="H4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J4" s="13"/>
@@ -3439,7 +3496,7 @@
       <c r="H5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J5" s="12"/>
@@ -3571,7 +3628,7 @@
       <c r="H6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J6" s="13"/>
@@ -3693,7 +3750,7 @@
       <c r="H7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J7" s="12"/>
@@ -3817,7 +3874,7 @@
       <c r="H8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J8" s="13"/>
@@ -3941,7 +3998,7 @@
       <c r="H9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -4075,8 +4132,8 @@
         <v>192</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="47" t="s">
-        <v>571</v>
+      <c r="I10" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>350</v>
@@ -4207,8 +4264,8 @@
         <v>195</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="46" t="s">
-        <v>572</v>
+      <c r="I11" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J11" s="17" t="s">
         <v>346</v>
@@ -4335,8 +4392,8 @@
         <v>199</v>
       </c>
       <c r="H12" s="16"/>
-      <c r="I12" s="46" t="s">
-        <v>572</v>
+      <c r="I12" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="16" t="s">
@@ -4461,8 +4518,8 @@
         <v>203</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="46" t="s">
-        <v>572</v>
+      <c r="I13" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>346</v>
@@ -4589,8 +4646,8 @@
         <v>207</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="47" t="s">
-        <v>571</v>
+      <c r="I14" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>346</v>
@@ -4717,8 +4774,8 @@
         <v>210</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="46" t="s">
-        <v>572</v>
+      <c r="I15" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>255</v>
@@ -4867,8 +4924,8 @@
         <v>231</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="46" t="s">
-        <v>572</v>
+      <c r="I16" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="22" t="s">
@@ -5009,7 +5066,7 @@
       <c r="H17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -5141,8 +5198,8 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="46" t="s">
-        <v>572</v>
+      <c r="I18" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="1"/>
@@ -5263,8 +5320,8 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="46" t="s">
-        <v>572</v>
+      <c r="I19" s="51" t="s">
+        <v>189</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>347</v>
@@ -5387,7 +5444,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J20" s="13"/>
@@ -5513,7 +5570,7 @@
       <c r="H21" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J21" s="1"/>
@@ -5639,7 +5696,7 @@
       <c r="H22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J22" s="1"/>
@@ -5761,7 +5818,7 @@
       <c r="H23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J23" s="1"/>
@@ -5889,7 +5946,7 @@
       <c r="H24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J24" s="1"/>
@@ -6013,7 +6070,7 @@
       <c r="H25" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J25" s="1"/>
@@ -6137,7 +6194,7 @@
       <c r="H26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J26" s="1"/>
@@ -6261,7 +6318,7 @@
       <c r="H27" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J27" s="1"/>
@@ -6383,7 +6440,7 @@
       <c r="H28" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J28" s="1"/>
@@ -6505,7 +6562,7 @@
       <c r="H29" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J29" s="1"/>
@@ -6629,7 +6686,7 @@
       <c r="H30" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J30" s="1"/>
@@ -6755,7 +6812,7 @@
       <c r="H31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J31" s="1"/>
@@ -6881,7 +6938,7 @@
       <c r="H32" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J32" s="1"/>
@@ -7005,7 +7062,7 @@
         <v>555</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J33" s="1"/>
@@ -7123,7 +7180,7 @@
         <v>518</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J34" s="1"/>
@@ -7253,7 +7310,7 @@
         <v>527</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J35" s="1"/>
@@ -7383,7 +7440,7 @@
         <v>530</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J36" s="1"/>
@@ -7513,7 +7570,7 @@
         <v>533</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J37" s="1"/>
@@ -7643,7 +7700,7 @@
         <v>536</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J38" s="1"/>
@@ -7773,7 +7830,7 @@
         <v>539</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J39" s="1"/>
@@ -7903,7 +7960,7 @@
         <v>542</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J40" s="1"/>
@@ -8033,7 +8090,7 @@
         <v>545</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J41" s="1"/>
@@ -8099,7 +8156,9 @@
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
+      <c r="BK41" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL41" s="1"/>
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
@@ -8163,7 +8222,7 @@
         <v>548</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J42" s="1"/>
@@ -8225,7 +8284,9 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
+      <c r="BG42" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
@@ -8293,7 +8354,7 @@
         <v>551</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J43" s="1"/>
@@ -8373,7 +8434,9 @@
       <c r="BV43" s="1"/>
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
-      <c r="BY43" s="1"/>
+      <c r="BY43" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ43" s="1"/>
       <c r="CA43" s="1"/>
       <c r="CB43" s="1"/>
@@ -8423,7 +8486,7 @@
         <v>553</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J44" s="1"/>
@@ -8555,7 +8618,7 @@
       <c r="H45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J45" s="1"/>
@@ -8685,7 +8748,7 @@
       <c r="H46" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J46" s="1"/>
@@ -8815,7 +8878,7 @@
       <c r="H47" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J47" s="1"/>
@@ -8941,7 +9004,7 @@
       <c r="H48" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="1"/>
@@ -9067,7 +9130,7 @@
       <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="48" t="s">
+      <c r="I49" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J49" s="1"/>
@@ -9193,7 +9256,7 @@
       <c r="H50" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J50" s="1"/>
@@ -9319,7 +9382,7 @@
       <c r="H51" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J51" s="1"/>
@@ -9445,7 +9508,7 @@
       <c r="H52" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J52" s="1"/>
@@ -9571,7 +9634,7 @@
       <c r="H53" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J53" s="1"/>
@@ -9697,7 +9760,7 @@
       <c r="H54" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J54" s="1"/>
@@ -9821,7 +9884,7 @@
         <v>457</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J55" s="1"/>
@@ -9945,7 +10008,7 @@
         <v>459</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1"/>
@@ -10069,7 +10132,7 @@
         <v>461</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J57" s="1"/>
@@ -10193,7 +10256,7 @@
         <v>463</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J58" s="1"/>
@@ -10319,7 +10382,7 @@
       <c r="H59" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J59" s="1"/>
@@ -10445,7 +10508,7 @@
       <c r="H60" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J60" s="1"/>
@@ -10571,7 +10634,7 @@
       <c r="H61" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J61" s="1"/>
@@ -10697,7 +10760,7 @@
       <c r="H62" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J62" s="1"/>
@@ -10821,7 +10884,7 @@
         <v>477</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J63" s="1"/>
@@ -10945,7 +11008,7 @@
         <v>479</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J64" s="1"/>
@@ -11071,7 +11134,7 @@
       <c r="H65" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J65" s="1"/>
@@ -11197,7 +11260,7 @@
       <c r="H66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J66" s="1"/>
@@ -11321,7 +11384,7 @@
         <v>487</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="48" t="s">
+      <c r="I67" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J67" s="1"/>
@@ -11447,7 +11510,7 @@
         <v>489</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J68" s="1"/>
@@ -11575,7 +11638,7 @@
       <c r="H69" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J69" s="1"/>
@@ -11703,7 +11766,7 @@
       <c r="H70" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J70" s="1"/>
@@ -11831,7 +11894,7 @@
       <c r="H71" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I71" s="48" t="s">
+      <c r="I71" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J71" s="1"/>
@@ -11959,7 +12022,7 @@
       <c r="H72" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="I72" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J72" s="1"/>
@@ -12087,7 +12150,7 @@
       <c r="H73" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J73" s="1"/>
@@ -12215,7 +12278,7 @@
       <c r="H74" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I74" s="48" t="s">
+      <c r="I74" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J74" s="1"/>
@@ -12343,7 +12406,7 @@
       <c r="H75" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I75" s="48" t="s">
+      <c r="I75" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J75" s="1"/>
@@ -12471,7 +12534,7 @@
       <c r="H76" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="51" t="s">
         <v>189</v>
       </c>
       <c r="J76" s="42"/>
@@ -12578,7 +12641,7 @@
       <c r="A77" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -12597,7 +12660,9 @@
         <v>562</v>
       </c>
       <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
+      <c r="I77" s="46" t="s">
+        <v>571</v>
+      </c>
       <c r="J77" s="44"/>
       <c r="K77" s="44"/>
       <c r="L77" s="44"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="584">
   <si>
     <t>Environment</t>
   </si>
@@ -1877,13 +1877,39 @@
   <si>
     <t>This is a sample Horizontal Radio Question</t>
   </si>
+  <si>
+    <t>Smoke_TC76</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>filter management</t>
+  </si>
+  <si>
+    <t>1. It will create filters for the given survey</t>
+  </si>
+  <si>
+    <t>filters should be created and validated</t>
+  </si>
+  <si>
+    <t>SID: 1172, Copy (1) of Attach n resp trend</t>
+  </si>
+  <si>
+    <t>102.246.225.52</t>
+  </si>
+  <si>
+    <t>Attach n resp trend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1947,18 +1973,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1998,36 +2019,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -2038,7 +2029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2061,69 +2052,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2141,7 +2069,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2150,23 +2078,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2180,25 +2097,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2499,13 +2409,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2540,14 +2450,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2577,21 +2487,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>153</v>
       </c>
@@ -2633,8 +2543,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2647,8 +2557,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2661,8 +2571,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="22" t="s">
         <v>259</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2672,6 +2582,20 @@
         <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2679,47 +2603,48 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV77"/>
+  <dimension ref="A1:CV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B44"/>
+    <sheetView tabSelected="1" topLeftCell="AN64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AT78" sqref="AT78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,184 +2759,184 @@
       <c r="AL1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="3" t="s">
         <v>218</v>
       </c>
       <c r="CQ1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="CR1" s="40" t="s">
+      <c r="CR1" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="CS1" s="40" t="s">
+      <c r="CS1" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="CT1" s="40" t="s">
+      <c r="CT1" s="25" t="s">
         <v>558</v>
       </c>
       <c r="CU1" s="1" t="s">
@@ -3021,7 +2946,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3044,10 +2969,10 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
@@ -3141,7 +3066,7 @@
       <c r="CU2" s="1"/>
       <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3164,10 +3089,10 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>351</v>
       </c>
       <c r="K3" s="1"/>
@@ -3341,7 +3266,7 @@
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
         <v>181</v>
       </c>
@@ -3364,13 +3289,13 @@
       <c r="H4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3398,74 +3323,74 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="12" t="s">
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="CI4" s="14" t="s">
+      <c r="CI4" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="CJ4" s="15" t="s">
+      <c r="CJ4" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="CK4" s="12" t="s">
+      <c r="CK4" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="CL4" s="12" t="s">
+      <c r="CL4" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="CM4" s="12" t="s">
+      <c r="CM4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="CN4" s="30" t="s">
+      <c r="CN4" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="CO4" s="30"/>
-      <c r="CP4" s="30"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
       <c r="CQ4" s="1"/>
       <c r="CR4" s="1"/>
       <c r="CS4" s="1"/>
@@ -3473,7 +3398,7 @@
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -3496,13 +3421,13 @@
       <c r="H5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -3530,74 +3455,74 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="11"/>
-      <c r="CC5" s="11"/>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="11"/>
-      <c r="CG5" s="11"/>
-      <c r="CH5" s="12" t="s">
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="CI5" s="12" t="s">
+      <c r="CI5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="CJ5" s="12" t="s">
+      <c r="CJ5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="CK5" s="12" t="s">
+      <c r="CK5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="CL5" s="12" t="s">
+      <c r="CL5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="CM5" s="12" t="s">
+      <c r="CM5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="CN5" s="12" t="s">
+      <c r="CN5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="CO5" s="12"/>
-      <c r="CP5" s="12"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
       <c r="CS5" s="1"/>
@@ -3605,7 +3530,7 @@
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
@@ -3628,13 +3553,13 @@
       <c r="H6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -3662,64 +3587,64 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="12" t="s">
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="CI6" s="12"/>
-      <c r="CJ6" s="12" t="s">
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="CK6" s="12"/>
-      <c r="CL6" s="12"/>
-      <c r="CM6" s="12"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
-      <c r="CP6" s="12"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
@@ -3727,7 +3652,7 @@
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -3750,13 +3675,13 @@
       <c r="H7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3784,66 +3709,66 @@
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="11"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CB7" s="11"/>
-      <c r="CC7" s="11"/>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="12" t="s">
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12" t="s">
+      <c r="CI7" s="10"/>
+      <c r="CJ7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12" t="s">
+      <c r="CK7" s="10"/>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
       <c r="CQ7" s="1"/>
       <c r="CR7" s="1"/>
       <c r="CS7" s="1"/>
@@ -3851,7 +3776,7 @@
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
         <v>185</v>
       </c>
@@ -3874,13 +3799,13 @@
       <c r="H8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -3908,66 +3833,66 @@
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="1"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-      <c r="BL8" s="11"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="11"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="11"/>
-      <c r="BR8" s="11"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="11"/>
-      <c r="BY8" s="11"/>
-      <c r="BZ8" s="11"/>
-      <c r="CA8" s="11"/>
-      <c r="CB8" s="11"/>
-      <c r="CC8" s="11"/>
-      <c r="CD8" s="11"/>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="12" t="s">
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12" t="s">
+      <c r="CI8" s="10"/>
+      <c r="CJ8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12" t="s">
+      <c r="CK8" s="10"/>
+      <c r="CL8" s="10"/>
+      <c r="CM8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="12"/>
-      <c r="CP8" s="12"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
       <c r="CQ8" s="1"/>
       <c r="CR8" s="1"/>
       <c r="CS8" s="1"/>
@@ -3975,30 +3900,30 @@
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -4084,24 +4009,24 @@
       <c r="CH9" s="1">
         <v>313</v>
       </c>
-      <c r="CI9" s="12" t="s">
+      <c r="CI9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="CJ9" s="11" t="s">
+      <c r="CJ9" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="CK9" s="12" t="s">
+      <c r="CK9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="CL9" s="12" t="s">
+      <c r="CL9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="CM9" s="12" t="s">
+      <c r="CM9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="CN9" s="12"/>
-      <c r="CO9" s="12"/>
-      <c r="CP9" s="12"/>
+      <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
       <c r="CQ9" s="1"/>
       <c r="CR9" s="1"/>
       <c r="CS9" s="1"/>
@@ -4109,129 +4034,129 @@
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="31" t="s">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="29" t="s">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="16"/>
-      <c r="BA10" s="16"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="16"/>
-      <c r="BD10" s="16"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="16"/>
-      <c r="BG10" s="16"/>
-      <c r="BH10" s="16"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="16"/>
-      <c r="BK10" s="16"/>
-      <c r="BL10" s="16"/>
-      <c r="BM10" s="16"/>
-      <c r="BN10" s="16"/>
-      <c r="BO10" s="16"/>
-      <c r="BP10" s="16"/>
-      <c r="BQ10" s="16"/>
-      <c r="BR10" s="16"/>
-      <c r="BS10" s="16"/>
-      <c r="BT10" s="16"/>
-      <c r="BU10" s="16"/>
-      <c r="BV10" s="16"/>
-      <c r="BW10" s="16"/>
-      <c r="BX10" s="16"/>
-      <c r="BY10" s="16"/>
-      <c r="BZ10" s="16"/>
-      <c r="CA10" s="16"/>
-      <c r="CB10" s="16"/>
-      <c r="CC10" s="16"/>
-      <c r="CD10" s="16"/>
-      <c r="CE10" s="16"/>
-      <c r="CF10" s="16"/>
-      <c r="CG10" s="16"/>
-      <c r="CH10" s="18" t="s">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="15"/>
+      <c r="CH10" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="CI10" s="18"/>
-      <c r="CJ10" s="18"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="18"/>
-      <c r="CM10" s="18"/>
-      <c r="CN10" s="18"/>
-      <c r="CO10" s="28"/>
-      <c r="CP10" s="18" t="s">
+      <c r="CI10" s="17"/>
+      <c r="CJ10" s="17"/>
+      <c r="CK10" s="17"/>
+      <c r="CL10" s="17"/>
+      <c r="CM10" s="17"/>
+      <c r="CN10" s="17"/>
+      <c r="CO10" s="17"/>
+      <c r="CP10" s="17" t="s">
         <v>219</v>
       </c>
       <c r="CQ10" s="1"/>
@@ -4241,125 +4166,125 @@
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="29" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="16"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="16"/>
-      <c r="BD11" s="16"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="16"/>
-      <c r="BK11" s="16"/>
-      <c r="BL11" s="16"/>
-      <c r="BM11" s="16"/>
-      <c r="BN11" s="16"/>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
-      <c r="BR11" s="16"/>
-      <c r="BS11" s="16"/>
-      <c r="BT11" s="16"/>
-      <c r="BU11" s="16"/>
-      <c r="BV11" s="16"/>
-      <c r="BW11" s="16"/>
-      <c r="BX11" s="16"/>
-      <c r="BY11" s="16"/>
-      <c r="BZ11" s="16"/>
-      <c r="CA11" s="16"/>
-      <c r="CB11" s="16"/>
-      <c r="CC11" s="16"/>
-      <c r="CD11" s="16"/>
-      <c r="CE11" s="16"/>
-      <c r="CF11" s="16"/>
-      <c r="CG11" s="16"/>
-      <c r="CH11" s="18" t="s">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="15"/>
+      <c r="BU11" s="15"/>
+      <c r="BV11" s="15"/>
+      <c r="BW11" s="15"/>
+      <c r="BX11" s="15"/>
+      <c r="BY11" s="15"/>
+      <c r="BZ11" s="15"/>
+      <c r="CA11" s="15"/>
+      <c r="CB11" s="15"/>
+      <c r="CC11" s="15"/>
+      <c r="CD11" s="15"/>
+      <c r="CE11" s="15"/>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="15"/>
+      <c r="CH11" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="CI11" s="18"/>
-      <c r="CJ11" s="18"/>
-      <c r="CK11" s="18"/>
-      <c r="CL11" s="18"/>
-      <c r="CM11" s="18"/>
-      <c r="CN11" s="18"/>
-      <c r="CO11" s="28"/>
-      <c r="CP11" s="18" t="s">
+      <c r="CI11" s="17"/>
+      <c r="CJ11" s="17"/>
+      <c r="CK11" s="17"/>
+      <c r="CL11" s="17"/>
+      <c r="CM11" s="17"/>
+      <c r="CN11" s="17"/>
+      <c r="CO11" s="17"/>
+      <c r="CP11" s="17" t="s">
         <v>219</v>
       </c>
       <c r="CQ11" s="1"/>
@@ -4369,123 +4294,123 @@
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="29" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="16"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
-      <c r="BB12" s="16"/>
-      <c r="BC12" s="16"/>
-      <c r="BD12" s="16"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="16"/>
-      <c r="BG12" s="16"/>
-      <c r="BH12" s="16"/>
-      <c r="BI12" s="16"/>
-      <c r="BJ12" s="16"/>
-      <c r="BK12" s="16"/>
-      <c r="BL12" s="16"/>
-      <c r="BM12" s="16"/>
-      <c r="BN12" s="16"/>
-      <c r="BO12" s="16"/>
-      <c r="BP12" s="16"/>
-      <c r="BQ12" s="16"/>
-      <c r="BR12" s="16"/>
-      <c r="BS12" s="16"/>
-      <c r="BT12" s="16"/>
-      <c r="BU12" s="16"/>
-      <c r="BV12" s="16"/>
-      <c r="BW12" s="16"/>
-      <c r="BX12" s="16"/>
-      <c r="BY12" s="16"/>
-      <c r="BZ12" s="16"/>
-      <c r="CA12" s="16"/>
-      <c r="CB12" s="16"/>
-      <c r="CC12" s="16"/>
-      <c r="CD12" s="16"/>
-      <c r="CE12" s="16"/>
-      <c r="CF12" s="16"/>
-      <c r="CG12" s="16"/>
-      <c r="CH12" s="18" t="s">
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="15"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="15"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CH12" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="CI12" s="18"/>
-      <c r="CJ12" s="18"/>
-      <c r="CK12" s="18"/>
-      <c r="CL12" s="18"/>
-      <c r="CM12" s="18"/>
-      <c r="CN12" s="18"/>
-      <c r="CO12" s="28"/>
-      <c r="CP12" s="18" t="s">
+      <c r="CI12" s="17"/>
+      <c r="CJ12" s="17"/>
+      <c r="CK12" s="17"/>
+      <c r="CL12" s="17"/>
+      <c r="CM12" s="17"/>
+      <c r="CN12" s="17"/>
+      <c r="CO12" s="17"/>
+      <c r="CP12" s="17" t="s">
         <v>219</v>
       </c>
       <c r="CQ12" s="1"/>
@@ -4495,125 +4420,125 @@
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="29" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="16"/>
-      <c r="BA13" s="16"/>
-      <c r="BB13" s="16"/>
-      <c r="BC13" s="16"/>
-      <c r="BD13" s="16"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="16"/>
-      <c r="BN13" s="16"/>
-      <c r="BO13" s="16"/>
-      <c r="BP13" s="16"/>
-      <c r="BQ13" s="16"/>
-      <c r="BR13" s="16"/>
-      <c r="BS13" s="16"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="16"/>
-      <c r="CB13" s="16"/>
-      <c r="CC13" s="16"/>
-      <c r="CD13" s="16"/>
-      <c r="CE13" s="16"/>
-      <c r="CF13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="18" t="s">
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="CI13" s="18"/>
-      <c r="CJ13" s="18"/>
-      <c r="CK13" s="18"/>
-      <c r="CL13" s="18"/>
-      <c r="CM13" s="18"/>
-      <c r="CN13" s="18"/>
-      <c r="CO13" s="28"/>
-      <c r="CP13" s="18" t="s">
+      <c r="CI13" s="17"/>
+      <c r="CJ13" s="17"/>
+      <c r="CK13" s="17"/>
+      <c r="CL13" s="17"/>
+      <c r="CM13" s="17"/>
+      <c r="CN13" s="17"/>
+      <c r="CO13" s="17"/>
+      <c r="CP13" s="17" t="s">
         <v>219</v>
       </c>
       <c r="CQ13" s="1"/>
@@ -4623,125 +4548,125 @@
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100">
       <c r="A14" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="51" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="29" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="18"/>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="18"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
-      <c r="BS14" s="16"/>
-      <c r="BT14" s="16"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="16"/>
-      <c r="BW14" s="16"/>
-      <c r="BX14" s="16"/>
-      <c r="BY14" s="16"/>
-      <c r="BZ14" s="16"/>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="18" t="s">
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
+      <c r="BS14" s="15"/>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="15"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="15"/>
+      <c r="BX14" s="15"/>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="15"/>
+      <c r="CF14" s="15"/>
+      <c r="CG14" s="15"/>
+      <c r="CH14" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="CI14" s="18"/>
-      <c r="CJ14" s="18"/>
-      <c r="CK14" s="18"/>
-      <c r="CL14" s="18"/>
-      <c r="CM14" s="18"/>
-      <c r="CN14" s="18"/>
-      <c r="CO14" s="28"/>
-      <c r="CP14" s="18" t="s">
+      <c r="CI14" s="17"/>
+      <c r="CJ14" s="17"/>
+      <c r="CK14" s="17"/>
+      <c r="CL14" s="17"/>
+      <c r="CM14" s="17"/>
+      <c r="CN14" s="17"/>
+      <c r="CO14" s="17"/>
+      <c r="CP14" s="17" t="s">
         <v>219</v>
       </c>
       <c r="CQ14" s="1"/>
@@ -4751,147 +4676,147 @@
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:100">
+      <c r="A15" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="O15" s="28" t="s">
+      <c r="O15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="28" t="s">
+      <c r="Q15" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="R15" s="28" t="s">
+      <c r="R15" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="S15" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="T15" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="U15" s="28" t="s">
+      <c r="U15" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="28" t="s">
+      <c r="V15" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="W15" s="29" t="s">
+      <c r="W15" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15" s="26"/>
-      <c r="BP15" s="26"/>
-      <c r="BQ15" s="26"/>
-      <c r="BR15" s="26"/>
-      <c r="BS15" s="26"/>
-      <c r="BT15" s="26"/>
-      <c r="BU15" s="26"/>
-      <c r="BV15" s="26"/>
-      <c r="BW15" s="26"/>
-      <c r="BX15" s="26"/>
-      <c r="BY15" s="26"/>
-      <c r="BZ15" s="26"/>
-      <c r="CA15" s="26"/>
-      <c r="CB15" s="26"/>
-      <c r="CC15" s="26"/>
-      <c r="CD15" s="26"/>
-      <c r="CE15" s="26"/>
-      <c r="CF15" s="26"/>
-      <c r="CG15" s="26"/>
-      <c r="CH15" s="28" t="s">
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
+      <c r="BS15" s="15"/>
+      <c r="BT15" s="15"/>
+      <c r="BU15" s="15"/>
+      <c r="BV15" s="15"/>
+      <c r="BW15" s="15"/>
+      <c r="BX15" s="15"/>
+      <c r="BY15" s="15"/>
+      <c r="BZ15" s="15"/>
+      <c r="CA15" s="15"/>
+      <c r="CB15" s="15"/>
+      <c r="CC15" s="15"/>
+      <c r="CD15" s="15"/>
+      <c r="CE15" s="15"/>
+      <c r="CF15" s="15"/>
+      <c r="CG15" s="15"/>
+      <c r="CH15" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="CI15" s="28"/>
-      <c r="CJ15" s="28"/>
-      <c r="CK15" s="28"/>
-      <c r="CL15" s="28"/>
-      <c r="CM15" s="28"/>
-      <c r="CN15" s="28"/>
-      <c r="CO15" s="28"/>
-      <c r="CP15" s="28" t="s">
+      <c r="CI15" s="17"/>
+      <c r="CJ15" s="17"/>
+      <c r="CK15" s="17"/>
+      <c r="CL15" s="17"/>
+      <c r="CM15" s="17"/>
+      <c r="CN15" s="17"/>
+      <c r="CO15" s="17"/>
+      <c r="CP15" s="17" t="s">
         <v>245</v>
       </c>
       <c r="CQ15" s="1"/>
@@ -4901,139 +4826,139 @@
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:100">
+      <c r="A16" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="51" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="24" t="s">
+      <c r="N16" s="15"/>
+      <c r="O16" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="24" t="s">
+      <c r="P16" s="13"/>
+      <c r="Q16" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="29" t="s">
+      <c r="V16" s="17"/>
+      <c r="W16" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="22"/>
-      <c r="AQ16" s="22"/>
-      <c r="AR16" s="22"/>
-      <c r="AS16" s="22"/>
-      <c r="AT16" s="22"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="22"/>
-      <c r="AX16" s="22"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="22"/>
-      <c r="BA16" s="22"/>
-      <c r="BB16" s="22"/>
-      <c r="BC16" s="22"/>
-      <c r="BD16" s="22"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-      <c r="BL16" s="22"/>
-      <c r="BM16" s="22"/>
-      <c r="BN16" s="22"/>
-      <c r="BO16" s="22"/>
-      <c r="BP16" s="22"/>
-      <c r="BQ16" s="22"/>
-      <c r="BR16" s="22"/>
-      <c r="BS16" s="22"/>
-      <c r="BT16" s="22"/>
-      <c r="BU16" s="22"/>
-      <c r="BV16" s="22"/>
-      <c r="BW16" s="22"/>
-      <c r="BX16" s="22"/>
-      <c r="BY16" s="22"/>
-      <c r="BZ16" s="22"/>
-      <c r="CA16" s="22"/>
-      <c r="CB16" s="22"/>
-      <c r="CC16" s="22"/>
-      <c r="CD16" s="22"/>
-      <c r="CE16" s="22"/>
-      <c r="CF16" s="22"/>
-      <c r="CG16" s="22"/>
-      <c r="CH16" s="24" t="s">
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="CI16" s="24"/>
-      <c r="CJ16" s="24"/>
-      <c r="CK16" s="24"/>
-      <c r="CL16" s="24"/>
-      <c r="CM16" s="24"/>
-      <c r="CN16" s="24"/>
-      <c r="CO16" s="28"/>
-      <c r="CP16" s="24" t="s">
+      <c r="CI16" s="17"/>
+      <c r="CJ16" s="17"/>
+      <c r="CK16" s="17"/>
+      <c r="CL16" s="17"/>
+      <c r="CM16" s="17"/>
+      <c r="CN16" s="17"/>
+      <c r="CO16" s="17"/>
+      <c r="CP16" s="17" t="s">
         <v>177</v>
       </c>
       <c r="CQ16" s="1"/>
@@ -5043,7 +4968,7 @@
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
         <v>217</v>
       </c>
@@ -5066,15 +4991,15 @@
       <c r="H17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>345</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -5102,74 +5027,74 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="11"/>
-      <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
-      <c r="BL17" s="11"/>
-      <c r="BM17" s="11"/>
-      <c r="BN17" s="11"/>
-      <c r="BO17" s="11"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="11"/>
-      <c r="BR17" s="11"/>
-      <c r="BS17" s="11"/>
-      <c r="BT17" s="11"/>
-      <c r="BU17" s="11"/>
-      <c r="BV17" s="11"/>
-      <c r="BW17" s="11"/>
-      <c r="BX17" s="11"/>
-      <c r="BY17" s="11"/>
-      <c r="BZ17" s="11"/>
-      <c r="CA17" s="11"/>
-      <c r="CB17" s="11"/>
-      <c r="CC17" s="11"/>
-      <c r="CD17" s="11"/>
-      <c r="CE17" s="11"/>
-      <c r="CF17" s="11"/>
-      <c r="CG17" s="11"/>
-      <c r="CH17" s="12" t="s">
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="CI17" s="14" t="s">
+      <c r="CI17" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="CJ17" s="15" t="s">
+      <c r="CJ17" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="CK17" s="12" t="s">
+      <c r="CK17" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="CL17" s="12" t="s">
+      <c r="CL17" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="CM17" s="12" t="s">
+      <c r="CM17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="CN17" s="30" t="s">
+      <c r="CN17" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="CO17" s="30"/>
-      <c r="CP17" s="30"/>
+      <c r="CO17" s="19"/>
+      <c r="CP17" s="19"/>
       <c r="CQ17" s="1"/>
       <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
@@ -5177,7 +5102,7 @@
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -5198,13 +5123,13 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5232,66 +5157,66 @@
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11" t="s">
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="11"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="11"/>
-      <c r="BU18" s="11"/>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
-      <c r="CA18" s="11"/>
-      <c r="CB18" s="11"/>
-      <c r="CC18" s="11"/>
-      <c r="CD18" s="11"/>
-      <c r="CE18" s="11"/>
-      <c r="CF18" s="11"/>
-      <c r="CG18" s="11"/>
-      <c r="CH18" s="12">
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="10">
         <v>1340</v>
       </c>
-      <c r="CI18" s="14"/>
-      <c r="CJ18" s="15" t="s">
+      <c r="CI18" s="30"/>
+      <c r="CJ18" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="CK18" s="12"/>
-      <c r="CL18" s="12"/>
-      <c r="CM18" s="12"/>
-      <c r="CN18" s="30"/>
-      <c r="CO18" s="30"/>
-      <c r="CP18" s="30"/>
+      <c r="CK18" s="10"/>
+      <c r="CL18" s="10"/>
+      <c r="CM18" s="10"/>
+      <c r="CN18" s="19"/>
+      <c r="CO18" s="19"/>
+      <c r="CP18" s="19"/>
       <c r="CQ18" s="1"/>
       <c r="CR18" s="1"/>
       <c r="CS18" s="1"/>
@@ -5299,7 +5224,7 @@
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
         <v>252</v>
       </c>
@@ -5320,15 +5245,15 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>347</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -5358,64 +5283,64 @@
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11" t="s">
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-      <c r="BS19" s="11"/>
-      <c r="BT19" s="11"/>
-      <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="11"/>
-      <c r="CA19" s="11"/>
-      <c r="CB19" s="11"/>
-      <c r="CC19" s="11"/>
-      <c r="CD19" s="11"/>
-      <c r="CE19" s="11"/>
-      <c r="CF19" s="11"/>
-      <c r="CG19" s="11"/>
-      <c r="CH19" s="12">
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="10"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="9"/>
+      <c r="CA19" s="9"/>
+      <c r="CB19" s="9"/>
+      <c r="CC19" s="9"/>
+      <c r="CD19" s="9"/>
+      <c r="CE19" s="9"/>
+      <c r="CF19" s="9"/>
+      <c r="CG19" s="9"/>
+      <c r="CH19" s="10">
         <v>1278</v>
       </c>
-      <c r="CI19" s="14"/>
-      <c r="CJ19" s="15"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="30"/>
-      <c r="CO19" s="30"/>
-      <c r="CP19" s="30"/>
+      <c r="CI19" s="30"/>
+      <c r="CJ19" s="31"/>
+      <c r="CK19" s="10"/>
+      <c r="CL19" s="10"/>
+      <c r="CM19" s="10"/>
+      <c r="CN19" s="19"/>
+      <c r="CO19" s="19"/>
+      <c r="CP19" s="19"/>
       <c r="CQ19" s="1"/>
       <c r="CR19" s="1"/>
       <c r="CS19" s="1"/>
@@ -5423,7 +5348,7 @@
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
         <v>258</v>
       </c>
@@ -5444,13 +5369,13 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
@@ -5480,68 +5405,68 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="1"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
       <c r="AT20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="32" t="s">
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="21" t="s">
         <v>36</v>
       </c>
       <c r="AW20" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11" t="s">
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="11"/>
-      <c r="BR20" s="11"/>
-      <c r="BS20" s="11"/>
-      <c r="BT20" s="11"/>
-      <c r="BU20" s="11"/>
-      <c r="BV20" s="11"/>
-      <c r="BW20" s="11"/>
-      <c r="BX20" s="11"/>
-      <c r="BY20" s="11"/>
-      <c r="BZ20" s="11"/>
-      <c r="CA20" s="11"/>
-      <c r="CB20" s="11"/>
-      <c r="CC20" s="11"/>
-      <c r="CD20" s="11"/>
-      <c r="CE20" s="11"/>
-      <c r="CF20" s="11"/>
-      <c r="CG20" s="11"/>
-      <c r="CH20" s="12"/>
-      <c r="CI20" s="14"/>
-      <c r="CJ20" s="15"/>
-      <c r="CK20" s="12"/>
-      <c r="CL20" s="12"/>
-      <c r="CM20" s="12"/>
-      <c r="CN20" s="30"/>
-      <c r="CO20" s="30"/>
-      <c r="CP20" s="30"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="10"/>
+      <c r="CI20" s="30"/>
+      <c r="CJ20" s="31"/>
+      <c r="CK20" s="10"/>
+      <c r="CL20" s="10"/>
+      <c r="CM20" s="10"/>
+      <c r="CN20" s="19"/>
+      <c r="CO20" s="19"/>
+      <c r="CP20" s="19"/>
       <c r="CQ20" s="1"/>
       <c r="CR20" s="1"/>
       <c r="CS20" s="1"/>
@@ -5549,7 +5474,7 @@
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
         <v>267</v>
       </c>
@@ -5570,7 +5495,7 @@
       <c r="H21" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J21" s="1"/>
@@ -5615,7 +5540,7 @@
         <v>333</v>
       </c>
       <c r="AU21" s="1"/>
-      <c r="AV21" s="34"/>
+      <c r="AV21" s="23"/>
       <c r="AW21" s="1" t="s">
         <v>281</v>
       </c>
@@ -5667,7 +5592,7 @@
       <c r="CO21" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP21" s="30"/>
+      <c r="CP21" s="19"/>
       <c r="CQ21" s="1"/>
       <c r="CR21" s="1"/>
       <c r="CS21" s="1"/>
@@ -5675,7 +5600,7 @@
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
         <v>268</v>
       </c>
@@ -5696,7 +5621,7 @@
       <c r="H22" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J22" s="1"/>
@@ -5739,7 +5664,7 @@
         <v>334</v>
       </c>
       <c r="AU22" s="1"/>
-      <c r="AV22" s="34"/>
+      <c r="AV22" s="23"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
@@ -5789,7 +5714,7 @@
       <c r="CO22" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP22" s="30"/>
+      <c r="CP22" s="19"/>
       <c r="CQ22" s="1"/>
       <c r="CR22" s="1"/>
       <c r="CS22" s="1"/>
@@ -5797,7 +5722,7 @@
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
         <v>269</v>
       </c>
@@ -5818,7 +5743,7 @@
       <c r="H23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J23" s="1"/>
@@ -5865,7 +5790,7 @@
       <c r="AU23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AV23" s="34"/>
+      <c r="AV23" s="23"/>
       <c r="AW23" s="1" t="s">
         <v>281</v>
       </c>
@@ -5917,7 +5842,7 @@
       <c r="CO23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP23" s="30"/>
+      <c r="CP23" s="19"/>
       <c r="CQ23" s="1"/>
       <c r="CR23" s="1"/>
       <c r="CS23" s="1"/>
@@ -5925,7 +5850,7 @@
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
         <v>270</v>
       </c>
@@ -5946,7 +5871,7 @@
       <c r="H24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J24" s="1"/>
@@ -5989,7 +5914,7 @@
         <v>336</v>
       </c>
       <c r="AU24" s="1"/>
-      <c r="AV24" s="34" t="s">
+      <c r="AV24" s="23" t="s">
         <v>286</v>
       </c>
       <c r="AW24" s="1"/>
@@ -6041,7 +5966,7 @@
       <c r="CO24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP24" s="30"/>
+      <c r="CP24" s="19"/>
       <c r="CQ24" s="1"/>
       <c r="CR24" s="1"/>
       <c r="CS24" s="1"/>
@@ -6049,7 +5974,7 @@
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
         <v>271</v>
       </c>
@@ -6070,7 +5995,7 @@
       <c r="H25" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J25" s="1"/>
@@ -6115,7 +6040,7 @@
         <v>337</v>
       </c>
       <c r="AU25" s="1"/>
-      <c r="AV25" s="34"/>
+      <c r="AV25" s="23"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
@@ -6165,7 +6090,7 @@
       <c r="CO25" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP25" s="30"/>
+      <c r="CP25" s="19"/>
       <c r="CQ25" s="1"/>
       <c r="CR25" s="1"/>
       <c r="CS25" s="1"/>
@@ -6173,7 +6098,7 @@
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
         <v>272</v>
       </c>
@@ -6194,7 +6119,7 @@
       <c r="H26" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J26" s="1"/>
@@ -6239,7 +6164,7 @@
         <v>338</v>
       </c>
       <c r="AU26" s="1"/>
-      <c r="AV26" s="34"/>
+      <c r="AV26" s="23"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
@@ -6289,7 +6214,7 @@
       <c r="CO26" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP26" s="30"/>
+      <c r="CP26" s="19"/>
       <c r="CQ26" s="1"/>
       <c r="CR26" s="1"/>
       <c r="CS26" s="1"/>
@@ -6297,7 +6222,7 @@
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
         <v>273</v>
       </c>
@@ -6318,7 +6243,7 @@
       <c r="H27" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J27" s="1"/>
@@ -6361,7 +6286,7 @@
         <v>339</v>
       </c>
       <c r="AU27" s="1"/>
-      <c r="AV27" s="34"/>
+      <c r="AV27" s="23"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
@@ -6411,7 +6336,7 @@
       <c r="CO27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP27" s="30"/>
+      <c r="CP27" s="19"/>
       <c r="CQ27" s="1"/>
       <c r="CR27" s="1"/>
       <c r="CS27" s="1"/>
@@ -6419,7 +6344,7 @@
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
         <v>274</v>
       </c>
@@ -6440,7 +6365,7 @@
       <c r="H28" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J28" s="1"/>
@@ -6483,7 +6408,7 @@
         <v>340</v>
       </c>
       <c r="AU28" s="1"/>
-      <c r="AV28" s="34"/>
+      <c r="AV28" s="23"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
@@ -6533,7 +6458,7 @@
       <c r="CO28" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP28" s="30"/>
+      <c r="CP28" s="19"/>
       <c r="CQ28" s="1"/>
       <c r="CR28" s="1"/>
       <c r="CS28" s="1"/>
@@ -6541,7 +6466,7 @@
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
         <v>275</v>
       </c>
@@ -6562,7 +6487,7 @@
       <c r="H29" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J29" s="1"/>
@@ -6607,7 +6532,7 @@
         <v>341</v>
       </c>
       <c r="AU29" s="1"/>
-      <c r="AV29" s="34"/>
+      <c r="AV29" s="23"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
@@ -6657,7 +6582,7 @@
       <c r="CO29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP29" s="30"/>
+      <c r="CP29" s="19"/>
       <c r="CQ29" s="1"/>
       <c r="CR29" s="1"/>
       <c r="CS29" s="1"/>
@@ -6665,7 +6590,7 @@
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
         <v>276</v>
       </c>
@@ -6686,7 +6611,7 @@
       <c r="H30" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J30" s="1"/>
@@ -6733,7 +6658,7 @@
         <v>342</v>
       </c>
       <c r="AU30" s="1"/>
-      <c r="AV30" s="34"/>
+      <c r="AV30" s="23"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
@@ -6783,7 +6708,7 @@
       <c r="CO30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP30" s="30"/>
+      <c r="CP30" s="19"/>
       <c r="CQ30" s="1"/>
       <c r="CR30" s="1"/>
       <c r="CS30" s="1"/>
@@ -6791,7 +6716,7 @@
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
         <v>277</v>
       </c>
@@ -6812,7 +6737,7 @@
       <c r="H31" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I31" s="51" t="s">
+      <c r="I31" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J31" s="1"/>
@@ -6859,7 +6784,7 @@
         <v>343</v>
       </c>
       <c r="AU31" s="1"/>
-      <c r="AV31" s="34"/>
+      <c r="AV31" s="23"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
@@ -6909,7 +6834,7 @@
       <c r="CO31" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP31" s="30"/>
+      <c r="CP31" s="19"/>
       <c r="CQ31" s="1"/>
       <c r="CR31" s="1"/>
       <c r="CS31" s="1"/>
@@ -6917,7 +6842,7 @@
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:100">
       <c r="A32" s="1" t="s">
         <v>278</v>
       </c>
@@ -6938,7 +6863,7 @@
       <c r="H32" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J32" s="1"/>
@@ -7031,7 +6956,7 @@
       <c r="CO32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP32" s="30"/>
+      <c r="CP32" s="19"/>
       <c r="CQ32" s="1"/>
       <c r="CR32" s="1"/>
       <c r="CS32" s="1"/>
@@ -7039,7 +6964,7 @@
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:100">
       <c r="A33" s="1" t="s">
         <v>512</v>
       </c>
@@ -7058,11 +6983,11 @@
       <c r="F33" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="27" t="s">
         <v>555</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J33" s="1"/>
@@ -7149,7 +7074,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
       <c r="CO33" s="1"/>
-      <c r="CP33" s="30"/>
+      <c r="CP33" s="19"/>
       <c r="CQ33" s="1"/>
       <c r="CR33" s="1"/>
       <c r="CS33" s="1"/>
@@ -7157,7 +7082,7 @@
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:100">
       <c r="A34" s="1" t="s">
         <v>516</v>
       </c>
@@ -7173,14 +7098,14 @@
       <c r="E34" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="27" t="s">
         <v>518</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J34" s="1"/>
@@ -7188,17 +7113,17 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="38" t="s">
+      <c r="O34" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="P34" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q34" s="1"/>
-      <c r="R34" s="39" t="s">
+      <c r="R34" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S34" s="39" t="s">
+      <c r="S34" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T34" s="1"/>
@@ -7227,7 +7152,7 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
-      <c r="AT34" s="38" t="s">
+      <c r="AT34" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU34" s="1"/>
@@ -7277,8 +7202,8 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
       <c r="CO34" s="1"/>
-      <c r="CP34" s="30"/>
-      <c r="CQ34" s="38" t="s">
+      <c r="CP34" s="19"/>
+      <c r="CQ34" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR34" s="1"/>
@@ -7287,7 +7212,7 @@
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
         <v>525</v>
       </c>
@@ -7303,14 +7228,14 @@
       <c r="E35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="27" t="s">
         <v>527</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="51" t="s">
+      <c r="I35" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J35" s="1"/>
@@ -7318,17 +7243,17 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="38" t="s">
+      <c r="O35" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P35" s="39" t="s">
+      <c r="P35" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="39" t="s">
+      <c r="R35" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S35" s="39" t="s">
+      <c r="S35" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T35" s="1"/>
@@ -7357,7 +7282,7 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
-      <c r="AT35" s="38" t="s">
+      <c r="AT35" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU35" s="1"/>
@@ -7407,8 +7332,8 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
       <c r="CO35" s="1"/>
-      <c r="CP35" s="30"/>
-      <c r="CQ35" s="38" t="s">
+      <c r="CP35" s="19"/>
+      <c r="CQ35" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR35" s="1"/>
@@ -7417,7 +7342,7 @@
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
         <v>528</v>
       </c>
@@ -7433,14 +7358,14 @@
       <c r="E36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="27" t="s">
         <v>530</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J36" s="1"/>
@@ -7448,17 +7373,17 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="38" t="s">
+      <c r="O36" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="39" t="s">
+      <c r="R36" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S36" s="39" t="s">
+      <c r="S36" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T36" s="1"/>
@@ -7487,7 +7412,7 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
-      <c r="AT36" s="38" t="s">
+      <c r="AT36" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU36" s="1"/>
@@ -7537,8 +7462,8 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
-      <c r="CP36" s="30"/>
-      <c r="CQ36" s="38" t="s">
+      <c r="CP36" s="19"/>
+      <c r="CQ36" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR36" s="1"/>
@@ -7547,7 +7472,7 @@
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
         <v>531</v>
       </c>
@@ -7563,14 +7488,14 @@
       <c r="E37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="27" t="s">
         <v>533</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J37" s="1"/>
@@ -7578,17 +7503,17 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="38" t="s">
+      <c r="O37" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="P37" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="39" t="s">
+      <c r="R37" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S37" s="39" t="s">
+      <c r="S37" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T37" s="1"/>
@@ -7617,7 +7542,7 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
-      <c r="AT37" s="38" t="s">
+      <c r="AT37" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU37" s="1"/>
@@ -7667,8 +7592,8 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
       <c r="CO37" s="1"/>
-      <c r="CP37" s="30"/>
-      <c r="CQ37" s="38" t="s">
+      <c r="CP37" s="19"/>
+      <c r="CQ37" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR37" s="1"/>
@@ -7677,7 +7602,7 @@
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
         <v>534</v>
       </c>
@@ -7693,14 +7618,14 @@
       <c r="E38" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="27" t="s">
         <v>536</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J38" s="1"/>
@@ -7708,17 +7633,17 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="38" t="s">
+      <c r="O38" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="P38" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="39" t="s">
+      <c r="R38" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S38" s="39" t="s">
+      <c r="S38" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T38" s="1"/>
@@ -7747,7 +7672,7 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
-      <c r="AT38" s="38" t="s">
+      <c r="AT38" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU38" s="1"/>
@@ -7797,8 +7722,8 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
       <c r="CO38" s="1"/>
-      <c r="CP38" s="30"/>
-      <c r="CQ38" s="38" t="s">
+      <c r="CP38" s="19"/>
+      <c r="CQ38" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR38" s="1"/>
@@ -7807,7 +7732,7 @@
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
         <v>537</v>
       </c>
@@ -7823,14 +7748,14 @@
       <c r="E39" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="27" t="s">
         <v>539</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J39" s="1"/>
@@ -7838,17 +7763,17 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="38" t="s">
+      <c r="O39" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="P39" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="39" t="s">
+      <c r="R39" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S39" s="39" t="s">
+      <c r="S39" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T39" s="1"/>
@@ -7877,7 +7802,7 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
-      <c r="AT39" s="38" t="s">
+      <c r="AT39" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU39" s="1"/>
@@ -7927,8 +7852,8 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
-      <c r="CP39" s="30"/>
-      <c r="CQ39" s="38" t="s">
+      <c r="CP39" s="19"/>
+      <c r="CQ39" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR39" s="1"/>
@@ -7937,7 +7862,7 @@
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
         <v>540</v>
       </c>
@@ -7953,14 +7878,14 @@
       <c r="E40" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="27" t="s">
         <v>542</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="51" t="s">
+      <c r="I40" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J40" s="1"/>
@@ -7968,17 +7893,17 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="38" t="s">
+      <c r="O40" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S40" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T40" s="1"/>
@@ -8007,7 +7932,7 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
-      <c r="AT40" s="38" t="s">
+      <c r="AT40" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU40" s="1"/>
@@ -8057,8 +7982,8 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
-      <c r="CP40" s="30"/>
-      <c r="CQ40" s="38" t="s">
+      <c r="CP40" s="19"/>
+      <c r="CQ40" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR40" s="1"/>
@@ -8067,7 +7992,7 @@
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
         <v>543</v>
       </c>
@@ -8083,14 +8008,14 @@
       <c r="E41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="27" t="s">
         <v>545</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J41" s="1"/>
@@ -8098,17 +8023,17 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="38" t="s">
+      <c r="O41" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S41" s="39" t="s">
+      <c r="S41" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T41" s="1"/>
@@ -8137,7 +8062,7 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
-      <c r="AT41" s="38" t="s">
+      <c r="AT41" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU41" s="1"/>
@@ -8189,8 +8114,8 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="30"/>
-      <c r="CQ41" s="38" t="s">
+      <c r="CP41" s="19"/>
+      <c r="CQ41" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR41" s="1"/>
@@ -8199,7 +8124,7 @@
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
         <v>546</v>
       </c>
@@ -8215,14 +8140,14 @@
       <c r="E42" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="27" t="s">
         <v>548</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="51" t="s">
+      <c r="I42" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J42" s="1"/>
@@ -8230,17 +8155,17 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="38" t="s">
+      <c r="O42" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="P42" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="39" t="s">
+      <c r="R42" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S42" s="39" t="s">
+      <c r="S42" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T42" s="1"/>
@@ -8269,7 +8194,7 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
-      <c r="AT42" s="38" t="s">
+      <c r="AT42" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU42" s="1"/>
@@ -8321,8 +8246,8 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="30"/>
-      <c r="CQ42" s="38" t="s">
+      <c r="CP42" s="19"/>
+      <c r="CQ42" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR42" s="1"/>
@@ -8331,7 +8256,7 @@
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
         <v>549</v>
       </c>
@@ -8347,14 +8272,14 @@
       <c r="E43" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="27" t="s">
         <v>551</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="51" t="s">
+      <c r="I43" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J43" s="1"/>
@@ -8362,17 +8287,17 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="38" t="s">
+      <c r="O43" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="P43" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="39" t="s">
+      <c r="R43" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S43" s="39" t="s">
+      <c r="S43" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T43" s="1"/>
@@ -8401,7 +8326,7 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
-      <c r="AT43" s="38" t="s">
+      <c r="AT43" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU43" s="1"/>
@@ -8453,8 +8378,8 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="30"/>
-      <c r="CQ43" s="38" t="s">
+      <c r="CP43" s="19"/>
+      <c r="CQ43" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR43" s="1"/>
@@ -8463,7 +8388,7 @@
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
         <v>554</v>
       </c>
@@ -8479,14 +8404,14 @@
       <c r="E44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="27" t="s">
         <v>553</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="51" t="s">
+      <c r="I44" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J44" s="1"/>
@@ -8494,17 +8419,17 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="38" t="s">
+      <c r="O44" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="P44" s="39" t="s">
+      <c r="P44" s="27" t="s">
         <v>520</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="39" t="s">
+      <c r="R44" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="S44" s="39" t="s">
+      <c r="S44" s="27" t="s">
         <v>522</v>
       </c>
       <c r="T44" s="1"/>
@@ -8533,7 +8458,7 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-      <c r="AT44" s="38" t="s">
+      <c r="AT44" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AU44" s="1"/>
@@ -8583,8 +8508,8 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="30"/>
-      <c r="CQ44" s="38" t="s">
+      <c r="CP44" s="19"/>
+      <c r="CQ44" s="27" t="s">
         <v>524</v>
       </c>
       <c r="CR44" s="1"/>
@@ -8593,7 +8518,7 @@
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:100" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:100" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>353</v>
       </c>
@@ -8618,7 +8543,7 @@
       <c r="H45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I45" s="51" t="s">
+      <c r="I45" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J45" s="1"/>
@@ -8664,7 +8589,7 @@
       <c r="AV45" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AW45" s="35" t="s">
+      <c r="AW45" s="24" t="s">
         <v>425</v>
       </c>
       <c r="AX45" s="1"/>
@@ -8723,7 +8648,7 @@
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:100" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:100" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>358</v>
       </c>
@@ -8748,7 +8673,7 @@
       <c r="H46" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I46" s="51" t="s">
+      <c r="I46" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J46" s="1"/>
@@ -8792,7 +8717,7 @@
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="35" t="s">
+      <c r="AW46" s="24" t="s">
         <v>356</v>
       </c>
       <c r="AX46" s="1"/>
@@ -8853,7 +8778,7 @@
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
         <v>360</v>
       </c>
@@ -8875,10 +8800,10 @@
       <c r="G47" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J47" s="1"/>
@@ -8922,7 +8847,7 @@
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
-      <c r="AW47" s="35"/>
+      <c r="AW47" s="24"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
         <v>357</v>
@@ -8979,7 +8904,7 @@
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
         <v>363</v>
       </c>
@@ -9004,7 +8929,7 @@
       <c r="H48" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I48" s="51" t="s">
+      <c r="I48" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J48" s="1"/>
@@ -9048,7 +8973,7 @@
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="35"/>
+      <c r="AW48" s="24"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
         <v>357</v>
@@ -9105,7 +9030,7 @@
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
         <v>364</v>
       </c>
@@ -9130,7 +9055,7 @@
       <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J49" s="1"/>
@@ -9174,7 +9099,7 @@
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
-      <c r="AW49" s="35"/>
+      <c r="AW49" s="24"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
         <v>357</v>
@@ -9231,7 +9156,7 @@
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
         <v>365</v>
       </c>
@@ -9256,7 +9181,7 @@
       <c r="H50" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="I50" s="51" t="s">
+      <c r="I50" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J50" s="1"/>
@@ -9300,7 +9225,7 @@
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
-      <c r="AW50" s="35"/>
+      <c r="AW50" s="24"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
         <v>357</v>
@@ -9357,7 +9282,7 @@
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
         <v>366</v>
       </c>
@@ -9382,7 +9307,7 @@
       <c r="H51" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J51" s="1"/>
@@ -9426,7 +9351,7 @@
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
-      <c r="AW51" s="35"/>
+      <c r="AW51" s="24"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
         <v>357</v>
@@ -9483,7 +9408,7 @@
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
         <v>367</v>
       </c>
@@ -9508,7 +9433,7 @@
       <c r="H52" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I52" s="51" t="s">
+      <c r="I52" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J52" s="1"/>
@@ -9552,7 +9477,7 @@
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
-      <c r="AW52" s="35"/>
+      <c r="AW52" s="24"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
         <v>357</v>
@@ -9609,7 +9534,7 @@
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
         <v>368</v>
       </c>
@@ -9634,7 +9559,7 @@
       <c r="H53" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J53" s="1"/>
@@ -9678,7 +9603,7 @@
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
-      <c r="AW53" s="35"/>
+      <c r="AW53" s="24"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
         <v>357</v>
@@ -9735,7 +9660,7 @@
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
         <v>369</v>
       </c>
@@ -9760,7 +9685,7 @@
       <c r="H54" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I54" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J54" s="1"/>
@@ -9804,7 +9729,7 @@
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
-      <c r="AW54" s="35"/>
+      <c r="AW54" s="24"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
         <v>357</v>
@@ -9861,7 +9786,7 @@
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
         <v>370</v>
       </c>
@@ -9884,7 +9809,7 @@
         <v>457</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="51" t="s">
+      <c r="I55" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J55" s="1"/>
@@ -9928,7 +9853,7 @@
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
-      <c r="AW55" s="35"/>
+      <c r="AW55" s="24"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
         <v>357</v>
@@ -9985,7 +9910,7 @@
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
         <v>371</v>
       </c>
@@ -10008,7 +9933,7 @@
         <v>459</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="51" t="s">
+      <c r="I56" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1"/>
@@ -10052,7 +9977,7 @@
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
-      <c r="AW56" s="35"/>
+      <c r="AW56" s="24"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
         <v>357</v>
@@ -10109,7 +10034,7 @@
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
         <v>372</v>
       </c>
@@ -10132,7 +10057,7 @@
         <v>461</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="51" t="s">
+      <c r="I57" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J57" s="1"/>
@@ -10176,7 +10101,7 @@
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
-      <c r="AW57" s="35"/>
+      <c r="AW57" s="24"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
         <v>357</v>
@@ -10233,7 +10158,7 @@
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
         <v>373</v>
       </c>
@@ -10256,7 +10181,7 @@
         <v>463</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="51" t="s">
+      <c r="I58" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J58" s="1"/>
@@ -10300,7 +10225,7 @@
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
-      <c r="AW58" s="35"/>
+      <c r="AW58" s="24"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1" t="s">
         <v>357</v>
@@ -10357,7 +10282,7 @@
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
         <v>374</v>
       </c>
@@ -10382,7 +10307,7 @@
       <c r="H59" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J59" s="1"/>
@@ -10426,7 +10351,7 @@
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
-      <c r="AW59" s="35"/>
+      <c r="AW59" s="24"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
         <v>357</v>
@@ -10483,7 +10408,7 @@
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
         <v>375</v>
       </c>
@@ -10508,7 +10433,7 @@
       <c r="H60" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I60" s="51" t="s">
+      <c r="I60" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J60" s="1"/>
@@ -10552,7 +10477,7 @@
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
-      <c r="AW60" s="35"/>
+      <c r="AW60" s="24"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
         <v>357</v>
@@ -10609,7 +10534,7 @@
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
         <v>376</v>
       </c>
@@ -10634,7 +10559,7 @@
       <c r="H61" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J61" s="1"/>
@@ -10678,7 +10603,7 @@
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
-      <c r="AW61" s="35"/>
+      <c r="AW61" s="24"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
         <v>357</v>
@@ -10735,7 +10660,7 @@
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
         <v>377</v>
       </c>
@@ -10760,7 +10685,7 @@
       <c r="H62" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I62" s="51" t="s">
+      <c r="I62" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J62" s="1"/>
@@ -10804,7 +10729,7 @@
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
-      <c r="AW62" s="35"/>
+      <c r="AW62" s="24"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
         <v>357</v>
@@ -10861,7 +10786,7 @@
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:100">
       <c r="A63" s="1" t="s">
         <v>378</v>
       </c>
@@ -10884,7 +10809,7 @@
         <v>477</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="51" t="s">
+      <c r="I63" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J63" s="1"/>
@@ -10928,7 +10853,7 @@
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
-      <c r="AW63" s="35"/>
+      <c r="AW63" s="24"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
         <v>357</v>
@@ -10985,7 +10910,7 @@
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
         <v>379</v>
       </c>
@@ -11008,7 +10933,7 @@
         <v>479</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="51" t="s">
+      <c r="I64" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J64" s="1"/>
@@ -11052,7 +10977,7 @@
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
-      <c r="AW64" s="35"/>
+      <c r="AW64" s="24"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
         <v>357</v>
@@ -11109,7 +11034,7 @@
       <c r="CU64" s="1"/>
       <c r="CV64" s="1"/>
     </row>
-    <row r="65" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:100">
       <c r="A65" s="1" t="s">
         <v>380</v>
       </c>
@@ -11134,7 +11059,7 @@
       <c r="H65" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J65" s="1"/>
@@ -11178,7 +11103,7 @@
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
-      <c r="AW65" s="35"/>
+      <c r="AW65" s="24"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
         <v>357</v>
@@ -11235,7 +11160,7 @@
       <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
     </row>
-    <row r="66" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
         <v>381</v>
       </c>
@@ -11260,7 +11185,7 @@
       <c r="H66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I66" s="51" t="s">
+      <c r="I66" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J66" s="1"/>
@@ -11304,7 +11229,7 @@
       </c>
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
-      <c r="AW66" s="35"/>
+      <c r="AW66" s="24"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1" t="s">
         <v>357</v>
@@ -11361,7 +11286,7 @@
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
     </row>
-    <row r="67" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:100">
       <c r="A67" s="1" t="s">
         <v>382</v>
       </c>
@@ -11384,7 +11309,7 @@
         <v>487</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="51" t="s">
+      <c r="I67" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J67" s="1"/>
@@ -11428,7 +11353,7 @@
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
-      <c r="AW67" s="35"/>
+      <c r="AW67" s="24"/>
       <c r="AX67" s="1" t="s">
         <v>361</v>
       </c>
@@ -11487,7 +11412,7 @@
       <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
     </row>
-    <row r="68" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:100">
       <c r="A68" s="1" t="s">
         <v>383</v>
       </c>
@@ -11510,7 +11435,7 @@
         <v>489</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="51" t="s">
+      <c r="I68" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J68" s="1"/>
@@ -11554,7 +11479,7 @@
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
-      <c r="AW68" s="35"/>
+      <c r="AW68" s="24"/>
       <c r="AX68" s="1" t="s">
         <v>361</v>
       </c>
@@ -11613,7 +11538,7 @@
       <c r="CU68" s="1"/>
       <c r="CV68" s="1"/>
     </row>
-    <row r="69" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:100">
       <c r="A69" s="1" t="s">
         <v>384</v>
       </c>
@@ -11638,7 +11563,7 @@
       <c r="H69" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I69" s="51" t="s">
+      <c r="I69" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J69" s="1"/>
@@ -11682,7 +11607,7 @@
       </c>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
-      <c r="AW69" s="35"/>
+      <c r="AW69" s="24"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1" t="s">
         <v>357</v>
@@ -11741,7 +11666,7 @@
       <c r="CU69" s="1"/>
       <c r="CV69" s="1"/>
     </row>
-    <row r="70" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:100">
       <c r="A70" s="1" t="s">
         <v>385</v>
       </c>
@@ -11766,7 +11691,7 @@
       <c r="H70" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I70" s="51" t="s">
+      <c r="I70" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J70" s="1"/>
@@ -11810,7 +11735,7 @@
       </c>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
-      <c r="AW70" s="35"/>
+      <c r="AW70" s="24"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1" t="s">
         <v>357</v>
@@ -11869,7 +11794,7 @@
       <c r="CU70" s="1"/>
       <c r="CV70" s="1"/>
     </row>
-    <row r="71" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:100">
       <c r="A71" s="1" t="s">
         <v>386</v>
       </c>
@@ -11894,7 +11819,7 @@
       <c r="H71" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I71" s="51" t="s">
+      <c r="I71" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J71" s="1"/>
@@ -11938,7 +11863,7 @@
       </c>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
-      <c r="AW71" s="35"/>
+      <c r="AW71" s="24"/>
       <c r="AX71" s="1" t="s">
         <v>361</v>
       </c>
@@ -11997,7 +11922,7 @@
       <c r="CU71" s="1"/>
       <c r="CV71" s="1"/>
     </row>
-    <row r="72" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:100">
       <c r="A72" s="1" t="s">
         <v>387</v>
       </c>
@@ -12022,7 +11947,7 @@
       <c r="H72" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I72" s="51" t="s">
+      <c r="I72" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J72" s="1"/>
@@ -12066,7 +11991,7 @@
       </c>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
-      <c r="AW72" s="35"/>
+      <c r="AW72" s="24"/>
       <c r="AX72" s="1" t="s">
         <v>361</v>
       </c>
@@ -12125,7 +12050,7 @@
       <c r="CU72" s="1"/>
       <c r="CV72" s="1"/>
     </row>
-    <row r="73" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:100">
       <c r="A73" s="1" t="s">
         <v>388</v>
       </c>
@@ -12150,7 +12075,7 @@
       <c r="H73" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I73" s="51" t="s">
+      <c r="I73" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J73" s="1"/>
@@ -12194,7 +12119,7 @@
       </c>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
-      <c r="AW73" s="35"/>
+      <c r="AW73" s="24"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1" t="s">
         <v>357</v>
@@ -12253,7 +12178,7 @@
       <c r="CU73" s="1"/>
       <c r="CV73" s="1"/>
     </row>
-    <row r="74" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:100">
       <c r="A74" s="1" t="s">
         <v>389</v>
       </c>
@@ -12278,7 +12203,7 @@
       <c r="H74" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I74" s="51" t="s">
+      <c r="I74" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J74" s="1"/>
@@ -12322,7 +12247,7 @@
       </c>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="35"/>
+      <c r="AW74" s="24"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1" t="s">
         <v>357</v>
@@ -12381,7 +12306,7 @@
       <c r="CU74" s="1"/>
       <c r="CV74" s="1"/>
     </row>
-    <row r="75" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:100">
       <c r="A75" s="1" t="s">
         <v>390</v>
       </c>
@@ -12406,7 +12331,7 @@
       <c r="H75" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I75" s="51" t="s">
+      <c r="I75" s="29" t="s">
         <v>189</v>
       </c>
       <c r="J75" s="1"/>
@@ -12450,7 +12375,7 @@
       </c>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="35"/>
+      <c r="AW75" s="24"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1" t="s">
         <v>357</v>
@@ -12509,139 +12434,139 @@
       <c r="CU75" s="1"/>
       <c r="CV75" s="1"/>
     </row>
-    <row r="76" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+    <row r="76" spans="1:100">
+      <c r="A76" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="42" t="s">
+      <c r="E76" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G76" s="42" t="s">
+      <c r="G76" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H76" s="42" t="s">
+      <c r="H76" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I76" s="51" t="s">
+      <c r="I76" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="42"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="42"/>
-      <c r="AJ76" s="42"/>
-      <c r="AK76" s="42"/>
-      <c r="AL76" s="42"/>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
-      <c r="AQ76" s="42"/>
-      <c r="AR76" s="42"/>
-      <c r="AS76" s="42"/>
-      <c r="AT76" s="42" t="s">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AU76" s="42"/>
-      <c r="AV76" s="42"/>
-      <c r="AW76" s="43"/>
-      <c r="AX76" s="42"/>
-      <c r="AY76" s="42" t="s">
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="24"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AZ76" s="42"/>
-      <c r="BA76" s="42">
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1">
         <v>28</v>
       </c>
-      <c r="BB76" s="42"/>
-      <c r="BC76" s="42"/>
-      <c r="BD76" s="42"/>
-      <c r="BE76" s="42"/>
-      <c r="BF76" s="42"/>
-      <c r="BG76" s="42"/>
-      <c r="BH76" s="42"/>
-      <c r="BI76" s="42"/>
-      <c r="BJ76" s="42"/>
-      <c r="BK76" s="42"/>
-      <c r="BL76" s="42"/>
-      <c r="BM76" s="42"/>
-      <c r="BN76" s="42"/>
-      <c r="BO76" s="42"/>
-      <c r="BP76" s="42"/>
-      <c r="BQ76" s="42"/>
-      <c r="BR76" s="42"/>
-      <c r="BS76" s="42"/>
-      <c r="BT76" s="42"/>
-      <c r="BU76" s="42"/>
-      <c r="BV76" s="42"/>
-      <c r="BW76" s="42"/>
-      <c r="BX76" s="42"/>
-      <c r="BY76" s="42"/>
-      <c r="BZ76" s="42"/>
-      <c r="CA76" s="42"/>
-      <c r="CB76" s="42"/>
-      <c r="CC76" s="42"/>
-      <c r="CD76" s="42"/>
-      <c r="CE76" s="42"/>
-      <c r="CF76" s="42"/>
-      <c r="CG76" s="42"/>
-      <c r="CH76" s="42"/>
-      <c r="CI76" s="42"/>
-      <c r="CJ76" s="42"/>
-      <c r="CK76" s="42"/>
-      <c r="CL76" s="42"/>
-      <c r="CM76" s="42"/>
-      <c r="CN76" s="42"/>
-      <c r="CO76" s="42" t="s">
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CP76" s="42"/>
-      <c r="CQ76" s="42"/>
-      <c r="CR76" s="42"/>
-      <c r="CS76" s="42"/>
-      <c r="CT76" s="42"/>
-      <c r="CU76" s="42"/>
-      <c r="CV76" s="42"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1"/>
     </row>
-    <row r="77" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:100">
       <c r="A77" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -12653,125 +12578,261 @@
       <c r="E77" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G77" s="44" t="s">
+      <c r="G77" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="H77" s="44"/>
-      <c r="I77" s="46" t="s">
+      <c r="H77" s="27"/>
+      <c r="I77" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44" t="s">
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44"/>
-      <c r="W77" s="41" t="s">
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="X77" s="44"/>
-      <c r="Y77" s="44"/>
-      <c r="Z77" s="44"/>
-      <c r="AA77" s="44"/>
-      <c r="AB77" s="44"/>
-      <c r="AC77" s="44"/>
-      <c r="AD77" s="44"/>
-      <c r="AE77" s="44"/>
-      <c r="AF77" s="44"/>
-      <c r="AG77" s="44"/>
-      <c r="AH77" s="44"/>
-      <c r="AI77" s="44"/>
-      <c r="AJ77" s="44"/>
-      <c r="AK77" s="44"/>
-      <c r="AL77" s="44"/>
-      <c r="AM77" s="44"/>
-      <c r="AN77" s="44"/>
-      <c r="AO77" s="44"/>
-      <c r="AP77" s="44"/>
-      <c r="AQ77" s="44"/>
-      <c r="AR77" s="44"/>
-      <c r="AS77" s="44"/>
-      <c r="AT77" s="44" t="s">
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+      <c r="AF77" s="27"/>
+      <c r="AG77" s="27"/>
+      <c r="AH77" s="27"/>
+      <c r="AI77" s="27"/>
+      <c r="AJ77" s="27"/>
+      <c r="AK77" s="27"/>
+      <c r="AL77" s="27"/>
+      <c r="AM77" s="27"/>
+      <c r="AN77" s="27"/>
+      <c r="AO77" s="27"/>
+      <c r="AP77" s="27"/>
+      <c r="AQ77" s="27"/>
+      <c r="AR77" s="27"/>
+      <c r="AS77" s="27"/>
+      <c r="AT77" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="AU77" s="44"/>
-      <c r="AV77" s="44"/>
-      <c r="AW77" s="44"/>
-      <c r="AX77" s="44"/>
-      <c r="AY77" s="44"/>
-      <c r="AZ77" s="44"/>
-      <c r="BA77" s="44"/>
-      <c r="BB77" s="44"/>
-      <c r="BC77" s="44"/>
-      <c r="BD77" s="44"/>
-      <c r="BE77" s="44"/>
-      <c r="BF77" s="44"/>
-      <c r="BG77" s="44"/>
-      <c r="BH77" s="44"/>
-      <c r="BI77" s="44"/>
-      <c r="BJ77" s="44"/>
-      <c r="BK77" s="44"/>
-      <c r="BL77" s="44"/>
-      <c r="BM77" s="44"/>
-      <c r="BN77" s="44"/>
-      <c r="BO77" s="44"/>
-      <c r="BP77" s="44"/>
-      <c r="BQ77" s="44"/>
-      <c r="BR77" s="44"/>
-      <c r="BS77" s="44"/>
-      <c r="BT77" s="44"/>
-      <c r="BU77" s="44"/>
-      <c r="BV77" s="44"/>
-      <c r="BW77" s="44"/>
-      <c r="BX77" s="44"/>
-      <c r="BY77" s="44"/>
-      <c r="BZ77" s="44"/>
-      <c r="CA77" s="44"/>
-      <c r="CB77" s="44"/>
-      <c r="CC77" s="44"/>
-      <c r="CD77" s="44"/>
-      <c r="CE77" s="44"/>
-      <c r="CF77" s="44"/>
-      <c r="CG77" s="44"/>
-      <c r="CH77" s="44"/>
-      <c r="CI77" s="45" t="s">
+      <c r="AU77" s="27"/>
+      <c r="AV77" s="27"/>
+      <c r="AW77" s="27"/>
+      <c r="AX77" s="27"/>
+      <c r="AY77" s="27"/>
+      <c r="AZ77" s="27"/>
+      <c r="BA77" s="27"/>
+      <c r="BB77" s="27"/>
+      <c r="BC77" s="27"/>
+      <c r="BD77" s="27"/>
+      <c r="BE77" s="27"/>
+      <c r="BF77" s="27"/>
+      <c r="BG77" s="27"/>
+      <c r="BH77" s="27"/>
+      <c r="BI77" s="27"/>
+      <c r="BJ77" s="27"/>
+      <c r="BK77" s="27"/>
+      <c r="BL77" s="27"/>
+      <c r="BM77" s="27"/>
+      <c r="BN77" s="27"/>
+      <c r="BO77" s="27"/>
+      <c r="BP77" s="27"/>
+      <c r="BQ77" s="27"/>
+      <c r="BR77" s="27"/>
+      <c r="BS77" s="27"/>
+      <c r="BT77" s="27"/>
+      <c r="BU77" s="27"/>
+      <c r="BV77" s="27"/>
+      <c r="BW77" s="27"/>
+      <c r="BX77" s="27"/>
+      <c r="BY77" s="27"/>
+      <c r="BZ77" s="27"/>
+      <c r="CA77" s="27"/>
+      <c r="CB77" s="27"/>
+      <c r="CC77" s="27"/>
+      <c r="CD77" s="27"/>
+      <c r="CE77" s="27"/>
+      <c r="CF77" s="27"/>
+      <c r="CG77" s="27"/>
+      <c r="CH77" s="27"/>
+      <c r="CI77" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="CJ77" s="44"/>
-      <c r="CK77" s="44"/>
-      <c r="CL77" s="44"/>
-      <c r="CM77" s="44"/>
-      <c r="CN77" s="44"/>
-      <c r="CO77" s="44"/>
-      <c r="CP77" s="44"/>
+      <c r="CJ77" s="27"/>
+      <c r="CK77" s="27"/>
+      <c r="CL77" s="27"/>
+      <c r="CM77" s="27"/>
+      <c r="CN77" s="27"/>
+      <c r="CO77" s="27"/>
+      <c r="CP77" s="27"/>
       <c r="CQ77" s="1"/>
-      <c r="CR77" s="44" t="s">
+      <c r="CR77" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="CS77" s="40" t="s">
+      <c r="CS77" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="CT77" s="41" t="s">
+      <c r="CT77" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="CU77" s="34" t="s">
+      <c r="CU77" s="23" t="s">
         <v>569</v>
       </c>
       <c r="CV77" s="1" t="s">
         <v>570</v>
       </c>
+    </row>
+    <row r="78" spans="1:100">
+      <c r="A78" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I78" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="35">
+        <v>44743</v>
+      </c>
+      <c r="P78" s="35">
+        <v>44749</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="24"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ78" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BA78" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="BB78" s="1">
+        <v>10</v>
+      </c>
+      <c r="BC78" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD78" s="27"/>
+      <c r="BE78" s="27"/>
+      <c r="BF78" s="27"/>
+      <c r="BG78" s="27"/>
+      <c r="BH78" s="27"/>
+      <c r="BI78" s="27"/>
+      <c r="BJ78" s="27"/>
+      <c r="BK78" s="27"/>
+      <c r="BL78" s="27"/>
+      <c r="BM78" s="27"/>
+      <c r="BN78" s="27"/>
+      <c r="BO78" s="27"/>
+      <c r="BP78" s="27"/>
+      <c r="BQ78" s="27"/>
+      <c r="BR78" s="27"/>
+      <c r="BS78" s="27"/>
+      <c r="BT78" s="27"/>
+      <c r="BU78" s="27"/>
+      <c r="BV78" s="27"/>
+      <c r="BW78" s="27"/>
+      <c r="BX78" s="27"/>
+      <c r="BY78" s="27"/>
+      <c r="BZ78" s="27"/>
+      <c r="CA78" s="27"/>
+      <c r="CB78" s="27"/>
+      <c r="CC78" s="27"/>
+      <c r="CD78" s="27"/>
+      <c r="CE78" s="27"/>
+      <c r="CF78" s="27"/>
+      <c r="CG78" s="27"/>
+      <c r="CH78" s="27"/>
+      <c r="CI78" s="28"/>
+      <c r="CJ78" s="27"/>
+      <c r="CK78" s="27"/>
+      <c r="CL78" s="27"/>
+      <c r="CM78" s="27"/>
+      <c r="CN78" s="27"/>
+      <c r="CO78" s="27"/>
+      <c r="CP78" s="27"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="27"/>
+      <c r="CS78" s="25"/>
+      <c r="CT78" s="26"/>
+      <c r="CU78" s="23"/>
+      <c r="CV78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="584">
   <si>
     <t>Environment</t>
   </si>
@@ -2615,8 +2615,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AT78" sqref="AT78"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7167,11 +7167,15 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
+      <c r="BG34" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
+      <c r="BK34" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
@@ -7185,7 +7189,9 @@
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
+      <c r="BY34" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
@@ -7297,11 +7303,15 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
+      <c r="BG35" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
+      <c r="BK35" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
@@ -7315,7 +7325,9 @@
       <c r="BV35" s="1"/>
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
+      <c r="BY35" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
       <c r="CB35" s="1"/>
@@ -7427,11 +7439,15 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
+      <c r="BG36" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
+      <c r="BK36" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
@@ -7445,7 +7461,9 @@
       <c r="BV36" s="1"/>
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
+      <c r="BY36" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
       <c r="CB36" s="1"/>
@@ -7557,11 +7575,15 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
+      <c r="BG37" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
+      <c r="BK37" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
@@ -7575,7 +7597,9 @@
       <c r="BV37" s="1"/>
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
+      <c r="BY37" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
       <c r="CB37" s="1"/>
@@ -7687,11 +7711,15 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
+      <c r="BG38" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
+      <c r="BK38" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
@@ -7705,7 +7733,9 @@
       <c r="BV38" s="1"/>
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
+      <c r="BY38" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
       <c r="CB38" s="1"/>
@@ -7817,11 +7847,15 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
+      <c r="BG39" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
+      <c r="BK39" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
@@ -7835,7 +7869,9 @@
       <c r="BV39" s="1"/>
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
+      <c r="BY39" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
       <c r="CB39" s="1"/>
@@ -7947,11 +7983,15 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
+      <c r="BG40" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
+      <c r="BK40" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
@@ -7965,7 +8005,9 @@
       <c r="BV40" s="1"/>
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
-      <c r="BY40" s="1"/>
+      <c r="BY40" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
       <c r="CB40" s="1"/>
@@ -8077,7 +8119,9 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
+      <c r="BG41" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
@@ -8097,7 +8141,9 @@
       <c r="BV41" s="1"/>
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
+      <c r="BY41" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
       <c r="CB41" s="1"/>
@@ -8215,7 +8261,9 @@
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
+      <c r="BK42" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
@@ -8229,7 +8277,9 @@
       <c r="BV42" s="1"/>
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
-      <c r="BY42" s="1"/>
+      <c r="BY42" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
       <c r="CB42" s="1"/>
@@ -8341,11 +8391,15 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
+      <c r="BG43" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
+      <c r="BK43" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
@@ -8473,11 +8527,15 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
+      <c r="BG44" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
+      <c r="BK44" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
@@ -8491,7 +8549,9 @@
       <c r="BV44" s="1"/>
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
-      <c r="BY44" s="1"/>
+      <c r="BY44" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
       <c r="CB44" s="1"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="584">
   <si>
     <t>Environment</t>
   </si>
@@ -2615,8 +2615,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3071,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3129,7 +3129,9 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
+      <c r="AS3" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="AT3" s="6" t="s">
         <v>34</v>
       </c>
@@ -7167,15 +7169,11 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
@@ -7189,9 +7187,7 @@
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
-      <c r="BY34" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY34" s="1"/>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
@@ -7303,15 +7299,11 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BG35" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
@@ -7325,9 +7317,7 @@
       <c r="BV35" s="1"/>
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
-      <c r="BY35" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY35" s="1"/>
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
       <c r="CB35" s="1"/>
@@ -7439,15 +7429,11 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BG36" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
@@ -7461,9 +7447,7 @@
       <c r="BV36" s="1"/>
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
-      <c r="BY36" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY36" s="1"/>
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
       <c r="CB36" s="1"/>
@@ -7575,15 +7559,11 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
@@ -7597,9 +7577,7 @@
       <c r="BV37" s="1"/>
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
-      <c r="BY37" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY37" s="1"/>
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
       <c r="CB37" s="1"/>
@@ -7711,15 +7689,11 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BG38" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
@@ -7733,9 +7707,7 @@
       <c r="BV38" s="1"/>
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
-      <c r="BY38" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
       <c r="CB38" s="1"/>
@@ -7847,15 +7819,11 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BG39" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
@@ -7869,9 +7837,7 @@
       <c r="BV39" s="1"/>
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
-      <c r="BY39" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY39" s="1"/>
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
       <c r="CB39" s="1"/>
@@ -7983,15 +7949,11 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
-      <c r="BG40" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
@@ -8005,9 +7967,7 @@
       <c r="BV40" s="1"/>
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
-      <c r="BY40" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
       <c r="CB40" s="1"/>
@@ -8119,9 +8079,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
-      <c r="BG41" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
@@ -8141,9 +8099,7 @@
       <c r="BV41" s="1"/>
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
-      <c r="BY41" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
       <c r="CB41" s="1"/>
@@ -8261,9 +8217,7 @@
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
@@ -8277,9 +8231,7 @@
       <c r="BV42" s="1"/>
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
-      <c r="BY42" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY42" s="1"/>
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
       <c r="CB42" s="1"/>
@@ -8391,15 +8343,11 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
-      <c r="BG43" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
@@ -8527,15 +8475,11 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
-      <c r="BG44" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
@@ -8549,9 +8493,7 @@
       <c r="BV44" s="1"/>
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
-      <c r="BY44" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="BY44" s="1"/>
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
       <c r="CB44" s="1"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="584">
   <si>
     <t>Environment</t>
   </si>
@@ -2615,8 +2615,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3071,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -3129,9 +3129,7 @@
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
-      <c r="AS3" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
         <v>34</v>
       </c>
@@ -7169,11 +7167,15 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
+      <c r="BG34" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
+      <c r="BK34" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
@@ -7187,7 +7189,9 @@
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
+      <c r="BY34" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
@@ -7299,11 +7303,15 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
+      <c r="BG35" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
+      <c r="BK35" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
@@ -7317,7 +7325,9 @@
       <c r="BV35" s="1"/>
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
+      <c r="BY35" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
       <c r="CB35" s="1"/>
@@ -7429,11 +7439,15 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
+      <c r="BG36" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
+      <c r="BK36" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
@@ -7447,7 +7461,9 @@
       <c r="BV36" s="1"/>
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
+      <c r="BY36" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
       <c r="CB36" s="1"/>
@@ -7559,11 +7575,15 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
+      <c r="BG37" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
+      <c r="BK37" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
@@ -7577,7 +7597,9 @@
       <c r="BV37" s="1"/>
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
+      <c r="BY37" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
       <c r="CB37" s="1"/>
@@ -7689,11 +7711,15 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
+      <c r="BG38" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
+      <c r="BK38" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
@@ -7707,7 +7733,9 @@
       <c r="BV38" s="1"/>
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
+      <c r="BY38" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
       <c r="CB38" s="1"/>
@@ -7819,11 +7847,15 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
+      <c r="BG39" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
+      <c r="BK39" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
@@ -7837,7 +7869,9 @@
       <c r="BV39" s="1"/>
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
+      <c r="BY39" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
       <c r="CB39" s="1"/>
@@ -7949,11 +7983,15 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
+      <c r="BG40" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
+      <c r="BK40" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
@@ -7967,7 +8005,9 @@
       <c r="BV40" s="1"/>
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
-      <c r="BY40" s="1"/>
+      <c r="BY40" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
       <c r="CB40" s="1"/>
@@ -8079,7 +8119,9 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
+      <c r="BG41" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
@@ -8099,7 +8141,9 @@
       <c r="BV41" s="1"/>
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
+      <c r="BY41" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
       <c r="CB41" s="1"/>
@@ -8217,7 +8261,9 @@
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
+      <c r="BK42" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
@@ -8231,7 +8277,9 @@
       <c r="BV42" s="1"/>
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
-      <c r="BY42" s="1"/>
+      <c r="BY42" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
       <c r="CB42" s="1"/>
@@ -8343,11 +8391,15 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
+      <c r="BG43" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
+      <c r="BK43" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
@@ -8475,11 +8527,15 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
+      <c r="BG44" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
+      <c r="BK44" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
@@ -8493,7 +8549,9 @@
       <c r="BV44" s="1"/>
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
-      <c r="BY44" s="1"/>
+      <c r="BY44" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
       <c r="CB44" s="1"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB03B3-51FA-4B86-8172-303CBE4BAD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="576">
   <si>
     <t>Environment</t>
   </si>
@@ -67,9 +68,6 @@
   </si>
   <si>
     <t>Lead</t>
-  </si>
-  <si>
-    <t>Nadeem</t>
   </si>
   <si>
     <t>Owner</t>
@@ -868,9 +866,6 @@
     <t>Data Export</t>
   </si>
   <si>
-    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
-  </si>
-  <si>
     <t>DP - Segment Group</t>
   </si>
   <si>
@@ -1138,28 +1133,10 @@
     <t>Survey-Logo-31</t>
   </si>
   <si>
-    <t xml:space="preserve"> Loader did not disappear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to find element Report Icon on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Response No Fieldis not present on page.</t>
-  </si>
-  <si>
     <t>amulla@zarca.com,vgrandhi@zarca.com</t>
   </si>
   <si>
     <t>amulla@zarca.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Your report has been emailed successfully. not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Answer Options not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Single Use Link not present on page.</t>
   </si>
   <si>
     <t>Smoke_TC43</t>
@@ -1692,9 +1669,6 @@
     <t>Smoke_TC32</t>
   </si>
   <si>
-    <t>Sajid</t>
-  </si>
-  <si>
     <t>Anas</t>
   </si>
   <si>
@@ -1866,9 +1840,6 @@
     <t>Your Voice Counts</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>This is a sample ranking question</t>
   </si>
   <si>
@@ -1903,12 +1874,18 @@
   </si>
   <si>
     <t>Attach n resp trend</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Vivek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1964,6 +1941,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -1972,14 +1955,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="-Apple-System"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2015,11 +1992,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -2069,7 +2041,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2101,30 +2073,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4"/>
-    <cellStyle name="Hyperlink 2 2" xfId="11"/>
-    <cellStyle name="Hyperlink 3" xfId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 3 2" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 5 2" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2401,7 +2371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2431,7 +2401,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2443,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2473,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -2485,7 +2455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2520,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -2531,13 +2501,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2545,13 +2515,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2559,13 +2529,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2573,13 +2543,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2587,13 +2557,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B7" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>249</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>250</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -2602,8 +2572,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2611,12 +2581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2655,295 +2625,295 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="CN1" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="CO1" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="CR1" s="25" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="CS1" s="25" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="CT1" s="25" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:100">
@@ -2954,27 +2924,27 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>189</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -3068,33 +3038,31 @@
     </row>
     <row r="3" spans="1:100">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>351</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="11"/>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3131,124 +3099,124 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AV3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AW3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AW3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AY3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BA3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BB3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BD3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BE3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BF3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BF3" s="6" t="s">
+      <c r="BG3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BG3" s="6" t="s">
+      <c r="BH3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BH3" s="6" t="s">
+      <c r="BI3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="6" t="s">
+      <c r="BJ3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BJ3" s="6" t="s">
+      <c r="BK3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BL3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BL3" s="6" t="s">
+      <c r="BM3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BN3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BN3" s="6" t="s">
+      <c r="BO3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BP3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BP3" s="6" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BR3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BR3" s="6" t="s">
+      <c r="BS3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BT3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BT3" s="6" t="s">
+      <c r="BU3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BV3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BV3" s="6" t="s">
+      <c r="BW3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BX3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BY3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="CA3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CB3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CB3" s="6" t="s">
+      <c r="CC3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CD3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CE3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CF3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="CF3" s="6" t="s">
+      <c r="CG3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
@@ -3268,29 +3236,29 @@
     </row>
     <row r="4" spans="1:100">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="1"/>
@@ -3369,25 +3337,25 @@
       <c r="CF4" s="9"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="CI4" s="30" t="s">
+      <c r="CJ4" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK4" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="CJ4" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK4" s="10" t="s">
+      <c r="CL4" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="CL4" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="CM4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN4" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="CN4" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="CO4" s="19"/>
       <c r="CP4" s="19"/>
@@ -3400,29 +3368,29 @@
     </row>
     <row r="5" spans="1:100">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="1"/>
@@ -3501,25 +3469,25 @@
       <c r="CF5" s="9"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="CI5" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="CI5" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="CJ5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CK5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CL5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CM5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CN5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CO5" s="10"/>
       <c r="CP5" s="10"/>
@@ -3532,29 +3500,29 @@
     </row>
     <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>189</v>
+        <v>154</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="1"/>
@@ -3633,11 +3601,11 @@
       <c r="CF6" s="9"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CI6" s="10"/>
       <c r="CJ6" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CK6" s="10"/>
       <c r="CL6" s="10"/>
@@ -3654,29 +3622,29 @@
     </row>
     <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>189</v>
+        <v>161</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="1"/>
@@ -3755,16 +3723,16 @@
       <c r="CF7" s="9"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CI7" s="10"/>
       <c r="CJ7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CK7" s="10"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
@@ -3778,29 +3746,29 @@
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>189</v>
+        <v>161</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="1"/>
@@ -3879,16 +3847,16 @@
       <c r="CF8" s="9"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CI8" s="10"/>
       <c r="CJ8" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="CK8" s="10"/>
       <c r="CL8" s="10"/>
       <c r="CM8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
@@ -3902,33 +3870,31 @@
     </row>
     <row r="9" spans="1:100">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
+      <c r="C9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3965,7 +3931,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -4010,19 +3976,19 @@
         <v>313</v>
       </c>
       <c r="CI9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="CJ9" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="CK9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="CJ9" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="CK9" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="CL9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CM9" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
@@ -4036,44 +4002,42 @@
     </row>
     <row r="10" spans="1:100">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>17</v>
+      <c r="C10" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="15"/>
       <c r="O10" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4082,7 +4046,7 @@
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -4147,7 +4111,7 @@
       <c r="CF10" s="15"/>
       <c r="CG10" s="15"/>
       <c r="CH10" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CI10" s="17"/>
       <c r="CJ10" s="17"/>
@@ -4157,7 +4121,7 @@
       <c r="CN10" s="17"/>
       <c r="CO10" s="17"/>
       <c r="CP10" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CQ10" s="1"/>
       <c r="CR10" s="1"/>
@@ -4168,35 +4132,33 @@
     </row>
     <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>17</v>
+      <c r="C11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -4210,7 +4172,7 @@
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
@@ -4275,7 +4237,7 @@
       <c r="CF11" s="15"/>
       <c r="CG11" s="15"/>
       <c r="CH11" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CI11" s="17"/>
       <c r="CJ11" s="17"/>
@@ -4285,7 +4247,7 @@
       <c r="CN11" s="17"/>
       <c r="CO11" s="17"/>
       <c r="CP11" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
@@ -4296,33 +4258,33 @@
     </row>
     <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
+      <c r="C12" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>199</v>
-      </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="29" t="s">
-        <v>189</v>
+      <c r="I12" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -4336,7 +4298,7 @@
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -4401,7 +4363,7 @@
       <c r="CF12" s="15"/>
       <c r="CG12" s="15"/>
       <c r="CH12" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CI12" s="17"/>
       <c r="CJ12" s="17"/>
@@ -4411,7 +4373,7 @@
       <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
       <c r="CP12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1"/>
@@ -4422,35 +4384,33 @@
     </row>
     <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>17</v>
+      <c r="C13" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -4464,7 +4424,7 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -4529,7 +4489,7 @@
       <c r="CF13" s="15"/>
       <c r="CG13" s="15"/>
       <c r="CH13" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CI13" s="17"/>
       <c r="CJ13" s="17"/>
@@ -4539,7 +4499,7 @@
       <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
       <c r="CP13" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1"/>
@@ -4550,36 +4510,34 @@
     </row>
     <row r="14" spans="1:100">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>17</v>
+      <c r="C14" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>207</v>
-      </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>346</v>
-      </c>
+      <c r="I14" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="16"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="15"/>
@@ -4592,7 +4550,7 @@
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="18" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -4657,7 +4615,7 @@
       <c r="CF14" s="15"/>
       <c r="CG14" s="15"/>
       <c r="CH14" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CI14" s="17"/>
       <c r="CJ14" s="17"/>
@@ -4667,7 +4625,7 @@
       <c r="CN14" s="17"/>
       <c r="CO14" s="17"/>
       <c r="CP14" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CQ14" s="1"/>
       <c r="CR14" s="1"/>
@@ -4678,71 +4636,69 @@
     </row>
     <row r="15" spans="1:100">
       <c r="A15" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>17</v>
+      <c r="C15" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q15" s="17" t="s">
+      <c r="S15" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="T15" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="R15" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="T15" s="15" t="s">
+      <c r="U15" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="V15" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="W15" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
@@ -4807,7 +4763,7 @@
       <c r="CF15" s="15"/>
       <c r="CG15" s="15"/>
       <c r="CH15" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CI15" s="17"/>
       <c r="CJ15" s="17"/>
@@ -4817,7 +4773,7 @@
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
       <c r="CP15" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CQ15" s="1"/>
       <c r="CR15" s="1"/>
@@ -4828,63 +4784,63 @@
     </row>
     <row r="16" spans="1:100">
       <c r="A16" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
+      <c r="C16" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>231</v>
-      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="29" t="s">
-        <v>189</v>
+      <c r="I16" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="S16" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="S16" s="17" t="s">
+      <c r="T16" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="U16" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
@@ -4949,7 +4905,7 @@
       <c r="CF16" s="15"/>
       <c r="CG16" s="15"/>
       <c r="CH16" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CI16" s="17"/>
       <c r="CJ16" s="17"/>
@@ -4959,7 +4915,7 @@
       <c r="CN16" s="17"/>
       <c r="CO16" s="17"/>
       <c r="CP16" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CQ16" s="1"/>
       <c r="CR16" s="1"/>
@@ -4970,33 +4926,31 @@
     </row>
     <row r="17" spans="1:100">
       <c r="A17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>345</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="11"/>
       <c r="K17" s="1"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -5073,25 +5027,25 @@
       <c r="CF17" s="9"/>
       <c r="CG17" s="9"/>
       <c r="CH17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI17" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="CI17" s="30" t="s">
+      <c r="CJ17" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK17" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="CJ17" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK17" s="10" t="s">
+      <c r="CL17" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="CL17" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="CM17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="CN17" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="CN17" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="CO17" s="19"/>
       <c r="CP17" s="19"/>
@@ -5104,27 +5058,27 @@
     </row>
     <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="29" t="s">
-        <v>189</v>
+      <c r="I18" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="1"/>
@@ -5163,7 +5117,7 @@
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
@@ -5207,9 +5161,9 @@
       <c r="CH18" s="10">
         <v>1340</v>
       </c>
-      <c r="CI18" s="30"/>
-      <c r="CJ18" s="31" t="s">
-        <v>251</v>
+      <c r="CI18" s="29"/>
+      <c r="CJ18" s="30" t="s">
+        <v>250</v>
       </c>
       <c r="CK18" s="10"/>
       <c r="CL18" s="10"/>
@@ -5226,31 +5180,29 @@
     </row>
     <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>347</v>
-      </c>
+      <c r="I19" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="11"/>
       <c r="K19" s="1"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -5289,7 +5241,7 @@
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
@@ -5333,8 +5285,8 @@
       <c r="CH19" s="10">
         <v>1278</v>
       </c>
-      <c r="CI19" s="30"/>
-      <c r="CJ19" s="31"/>
+      <c r="CI19" s="29"/>
+      <c r="CJ19" s="30"/>
       <c r="CK19" s="10"/>
       <c r="CL19" s="10"/>
       <c r="CM19" s="10"/>
@@ -5350,27 +5302,27 @@
     </row>
     <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>574</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="29" t="s">
-        <v>189</v>
+      <c r="I20" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="1"/>
@@ -5379,7 +5331,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5411,20 +5363,20 @@
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AU20" s="9"/>
       <c r="AV20" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
       <c r="AZ20" s="9"/>
       <c r="BA20" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
@@ -5459,8 +5411,8 @@
       <c r="CF20" s="9"/>
       <c r="CG20" s="9"/>
       <c r="CH20" s="10"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="31"/>
+      <c r="CI20" s="29"/>
+      <c r="CJ20" s="30"/>
       <c r="CK20" s="10"/>
       <c r="CL20" s="10"/>
       <c r="CM20" s="10"/>
@@ -5476,27 +5428,31 @@
     </row>
     <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>189</v>
+      <c r="I21" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -5505,7 +5461,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5537,16 +5493,16 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="23"/>
       <c r="AW21" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5590,7 +5546,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP21" s="19"/>
       <c r="CQ21" s="1"/>
@@ -5602,27 +5558,31 @@
     </row>
     <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>189</v>
+      <c r="I22" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -5661,14 +5621,14 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="23"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5712,7 +5672,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP22" s="19"/>
       <c r="CQ22" s="1"/>
@@ -5724,27 +5684,31 @@
     </row>
     <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>189</v>
+        <v>302</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -5782,21 +5746,21 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AV23" s="23"/>
       <c r="AW23" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -5840,7 +5804,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP23" s="19"/>
       <c r="CQ23" s="1"/>
@@ -5852,27 +5816,31 @@
     </row>
     <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>189</v>
+        <v>302</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5911,16 +5879,16 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -5964,7 +5932,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP24" s="19"/>
       <c r="CQ24" s="1"/>
@@ -5976,27 +5944,31 @@
     </row>
     <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>189</v>
+        <v>305</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -6005,7 +5977,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -6037,14 +6009,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="23"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -6088,7 +6060,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP25" s="19"/>
       <c r="CQ25" s="1"/>
@@ -6100,27 +6072,31 @@
     </row>
     <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>189</v>
+        <v>305</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -6130,7 +6106,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -6161,14 +6137,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="23"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -6212,7 +6188,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP26" s="19"/>
       <c r="CQ26" s="1"/>
@@ -6224,27 +6200,31 @@
     </row>
     <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>189</v>
+      <c r="I27" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -6283,14 +6263,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="23"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -6334,7 +6314,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP27" s="19"/>
       <c r="CQ27" s="1"/>
@@ -6346,27 +6326,31 @@
     </row>
     <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>189</v>
+      <c r="I28" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -6405,14 +6389,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="23"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -6456,7 +6440,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP28" s="19"/>
       <c r="CQ28" s="1"/>
@@ -6468,27 +6452,31 @@
     </row>
     <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>189</v>
+        <v>305</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -6499,7 +6487,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6529,14 +6517,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="23"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -6580,7 +6568,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP29" s="19"/>
       <c r="CQ29" s="1"/>
@@ -6592,27 +6580,31 @@
     </row>
     <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>189</v>
+      <c r="I30" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -6624,12 +6616,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -6655,14 +6647,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="23"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -6706,7 +6698,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP30" s="19"/>
       <c r="CQ30" s="1"/>
@@ -6718,27 +6710,31 @@
     </row>
     <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>189</v>
+      <c r="I31" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6751,10 +6747,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -6781,14 +6777,14 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="23"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -6832,7 +6828,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP31" s="19"/>
       <c r="CQ31" s="1"/>
@@ -6844,27 +6840,31 @@
     </row>
     <row r="32" spans="1:100">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>189</v>
+        <v>302</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -6903,14 +6903,14 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6954,7 +6954,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP32" s="19"/>
       <c r="CQ32" s="1"/>
@@ -6966,29 +6966,29 @@
     </row>
     <row r="33" spans="1:100">
       <c r="A33" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="29" t="s">
-        <v>189</v>
+      <c r="I33" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -7084,29 +7084,29 @@
     </row>
     <row r="34" spans="1:100">
       <c r="A34" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="29" t="s">
-        <v>189</v>
+      <c r="I34" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -7114,17 +7114,17 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -7153,7 +7153,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
@@ -7168,13 +7168,13 @@
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
@@ -7190,7 +7190,7 @@
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
@@ -7210,7 +7210,7 @@
       <c r="CO34" s="1"/>
       <c r="CP34" s="19"/>
       <c r="CQ34" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR34" s="1"/>
       <c r="CS34" s="1"/>
@@ -7220,29 +7220,29 @@
     </row>
     <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="29" t="s">
-        <v>189</v>
+      <c r="I35" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7250,17 +7250,17 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -7289,7 +7289,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
@@ -7304,13 +7304,13 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
       <c r="BG35" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
@@ -7326,7 +7326,7 @@
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
       <c r="BY35" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
@@ -7346,7 +7346,7 @@
       <c r="CO35" s="1"/>
       <c r="CP35" s="19"/>
       <c r="CQ35" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR35" s="1"/>
       <c r="CS35" s="1"/>
@@ -7356,29 +7356,29 @@
     </row>
     <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="29" t="s">
-        <v>189</v>
+      <c r="I36" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7386,17 +7386,17 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -7425,7 +7425,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -7440,13 +7440,13 @@
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
       <c r="BG36" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
@@ -7462,7 +7462,7 @@
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
       <c r="BY36" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
@@ -7482,7 +7482,7 @@
       <c r="CO36" s="1"/>
       <c r="CP36" s="19"/>
       <c r="CQ36" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR36" s="1"/>
       <c r="CS36" s="1"/>
@@ -7492,29 +7492,29 @@
     </row>
     <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="29" t="s">
-        <v>189</v>
+      <c r="I37" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7522,17 +7522,17 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -7561,7 +7561,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -7576,13 +7576,13 @@
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
       <c r="BG37" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
@@ -7598,7 +7598,7 @@
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
       <c r="BY37" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
@@ -7618,7 +7618,7 @@
       <c r="CO37" s="1"/>
       <c r="CP37" s="19"/>
       <c r="CQ37" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR37" s="1"/>
       <c r="CS37" s="1"/>
@@ -7628,29 +7628,29 @@
     </row>
     <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="29" t="s">
-        <v>189</v>
+      <c r="I38" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7658,17 +7658,17 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S38" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -7697,7 +7697,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
@@ -7712,13 +7712,13 @@
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
       <c r="BG38" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
@@ -7734,7 +7734,7 @@
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
@@ -7754,7 +7754,7 @@
       <c r="CO38" s="1"/>
       <c r="CP38" s="19"/>
       <c r="CQ38" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR38" s="1"/>
       <c r="CS38" s="1"/>
@@ -7764,29 +7764,29 @@
     </row>
     <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="29" t="s">
-        <v>189</v>
+      <c r="I39" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7794,17 +7794,17 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S39" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -7833,7 +7833,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -7848,13 +7848,13 @@
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
       <c r="BG39" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
@@ -7870,7 +7870,7 @@
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
@@ -7890,7 +7890,7 @@
       <c r="CO39" s="1"/>
       <c r="CP39" s="19"/>
       <c r="CQ39" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR39" s="1"/>
       <c r="CS39" s="1"/>
@@ -7900,29 +7900,29 @@
     </row>
     <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="29" t="s">
-        <v>189</v>
+      <c r="I40" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -7930,17 +7930,17 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -7969,7 +7969,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
@@ -7984,13 +7984,13 @@
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
       <c r="BG40" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
@@ -8006,7 +8006,7 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
@@ -8026,7 +8026,7 @@
       <c r="CO40" s="1"/>
       <c r="CP40" s="19"/>
       <c r="CQ40" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR40" s="1"/>
       <c r="CS40" s="1"/>
@@ -8036,29 +8036,29 @@
     </row>
     <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="29" t="s">
-        <v>189</v>
+      <c r="I41" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -8066,17 +8066,17 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P41" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -8105,7 +8105,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -8120,13 +8120,13 @@
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL41" s="1"/>
       <c r="BM41" s="1"/>
@@ -8142,7 +8142,7 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
@@ -8162,7 +8162,7 @@
       <c r="CO41" s="1"/>
       <c r="CP41" s="19"/>
       <c r="CQ41" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR41" s="1"/>
       <c r="CS41" s="1"/>
@@ -8172,29 +8172,29 @@
     </row>
     <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="29" t="s">
-        <v>189</v>
+      <c r="I42" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -8202,17 +8202,17 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S42" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -8241,7 +8241,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
@@ -8256,13 +8256,13 @@
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
       <c r="BG42" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
@@ -8278,7 +8278,7 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
@@ -8298,7 +8298,7 @@
       <c r="CO42" s="1"/>
       <c r="CP42" s="19"/>
       <c r="CQ42" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR42" s="1"/>
       <c r="CS42" s="1"/>
@@ -8308,29 +8308,29 @@
     </row>
     <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="29" t="s">
-        <v>189</v>
+      <c r="I43" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -8338,17 +8338,17 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S43" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -8377,7 +8377,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
@@ -8392,13 +8392,13 @@
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
       <c r="BG43" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
@@ -8414,7 +8414,7 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ43" s="1"/>
       <c r="CA43" s="1"/>
@@ -8434,7 +8434,7 @@
       <c r="CO43" s="1"/>
       <c r="CP43" s="19"/>
       <c r="CQ43" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR43" s="1"/>
       <c r="CS43" s="1"/>
@@ -8444,29 +8444,29 @@
     </row>
     <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="29" t="s">
-        <v>189</v>
+      <c r="I44" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -8474,17 +8474,17 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="27" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="27" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="S44" s="27" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -8513,7 +8513,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="27" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
@@ -8528,13 +8528,13 @@
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
       <c r="BG44" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
@@ -8550,7 +8550,7 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
@@ -8570,7 +8570,7 @@
       <c r="CO44" s="1"/>
       <c r="CP44" s="19"/>
       <c r="CQ44" s="27" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="CR44" s="1"/>
       <c r="CS44" s="1"/>
@@ -8580,31 +8580,31 @@
     </row>
     <row r="45" spans="1:100" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>189</v>
+        <v>420</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8643,18 +8643,18 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AW45" s="24" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8698,7 +8698,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP45" s="1"/>
       <c r="CQ45" s="1"/>
@@ -8710,31 +8710,31 @@
     </row>
     <row r="46" spans="1:100" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>189</v>
+        <v>423</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -8773,20 +8773,20 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="24" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
@@ -8828,7 +8828,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP46" s="1"/>
       <c r="CQ46" s="1"/>
@@ -8840,31 +8840,31 @@
     </row>
     <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>189</v>
+        <v>426</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -8903,14 +8903,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="24"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8954,7 +8954,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP47" s="1"/>
       <c r="CQ47" s="1"/>
@@ -8966,31 +8966,31 @@
     </row>
     <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>189</v>
+        <v>429</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -9029,14 +9029,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="24"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -9080,7 +9080,7 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP48" s="1"/>
       <c r="CQ48" s="1"/>
@@ -9092,31 +9092,31 @@
     </row>
     <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I49" s="29" t="s">
-        <v>189</v>
+        <v>432</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -9155,14 +9155,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="24"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9206,7 +9206,7 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP49" s="1"/>
       <c r="CQ49" s="1"/>
@@ -9218,31 +9218,31 @@
     </row>
     <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>189</v>
+        <v>435</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -9281,14 +9281,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="24"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9332,7 +9332,7 @@
       <c r="CM50" s="1"/>
       <c r="CN50" s="1"/>
       <c r="CO50" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP50" s="1"/>
       <c r="CQ50" s="1"/>
@@ -9344,31 +9344,31 @@
     </row>
     <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>189</v>
+        <v>438</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9407,14 +9407,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="24"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9458,7 +9458,7 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP51" s="1"/>
       <c r="CQ51" s="1"/>
@@ -9470,31 +9470,31 @@
     </row>
     <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>189</v>
+        <v>441</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9533,14 +9533,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="24"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9584,7 +9584,7 @@
       <c r="CM52" s="1"/>
       <c r="CN52" s="1"/>
       <c r="CO52" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP52" s="1"/>
       <c r="CQ52" s="1"/>
@@ -9596,31 +9596,31 @@
     </row>
     <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>189</v>
+        <v>444</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -9659,14 +9659,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="24"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9710,7 +9710,7 @@
       <c r="CM53" s="1"/>
       <c r="CN53" s="1"/>
       <c r="CO53" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP53" s="1"/>
       <c r="CQ53" s="1"/>
@@ -9722,31 +9722,31 @@
     </row>
     <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>189</v>
+        <v>447</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -9785,14 +9785,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="24"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9836,7 +9836,7 @@
       <c r="CM54" s="1"/>
       <c r="CN54" s="1"/>
       <c r="CO54" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP54" s="1"/>
       <c r="CQ54" s="1"/>
@@ -9848,29 +9848,29 @@
     </row>
     <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="29" t="s">
-        <v>189</v>
+      <c r="I55" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -9909,14 +9909,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="24"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9960,7 +9960,7 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP55" s="1"/>
       <c r="CQ55" s="1"/>
@@ -9972,29 +9972,29 @@
     </row>
     <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="29" t="s">
-        <v>189</v>
+      <c r="I56" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -10033,14 +10033,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="24"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -10084,7 +10084,7 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP56" s="1"/>
       <c r="CQ56" s="1"/>
@@ -10096,29 +10096,29 @@
     </row>
     <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="29" t="s">
-        <v>189</v>
+      <c r="I57" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -10157,14 +10157,14 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="24"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10208,7 +10208,7 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP57" s="1"/>
       <c r="CQ57" s="1"/>
@@ -10220,29 +10220,29 @@
     </row>
     <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="29" t="s">
-        <v>189</v>
+      <c r="I58" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -10281,14 +10281,14 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="24"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10332,7 +10332,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP58" s="1"/>
       <c r="CQ58" s="1"/>
@@ -10344,31 +10344,31 @@
     </row>
     <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>189</v>
+        <v>458</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -10407,14 +10407,14 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="24"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10458,7 +10458,7 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP59" s="1"/>
       <c r="CQ59" s="1"/>
@@ -10470,31 +10470,31 @@
     </row>
     <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>189</v>
+        <v>461</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -10533,14 +10533,14 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="24"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -10584,7 +10584,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP60" s="1"/>
       <c r="CQ60" s="1"/>
@@ -10596,31 +10596,31 @@
     </row>
     <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>189</v>
+        <v>464</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -10659,14 +10659,14 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="24"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -10710,7 +10710,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP61" s="1"/>
       <c r="CQ61" s="1"/>
@@ -10722,31 +10722,31 @@
     </row>
     <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>189</v>
+        <v>467</v>
+      </c>
+      <c r="I62" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -10785,14 +10785,14 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="24"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
@@ -10836,7 +10836,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP62" s="1"/>
       <c r="CQ62" s="1"/>
@@ -10848,29 +10848,29 @@
     </row>
     <row r="63" spans="1:100">
       <c r="A63" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="29" t="s">
-        <v>189</v>
+      <c r="I63" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -10909,14 +10909,14 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="24"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
@@ -10960,7 +10960,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP63" s="1"/>
       <c r="CQ63" s="1"/>
@@ -10972,29 +10972,29 @@
     </row>
     <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="29" t="s">
-        <v>189</v>
+      <c r="I64" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -11033,14 +11033,14 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="24"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
@@ -11084,7 +11084,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP64" s="1"/>
       <c r="CQ64" s="1"/>
@@ -11096,31 +11096,31 @@
     </row>
     <row r="65" spans="1:100">
       <c r="A65" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I65" s="29" t="s">
-        <v>189</v>
+        <v>474</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -11159,14 +11159,14 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="24"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
@@ -11210,7 +11210,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP65" s="1"/>
       <c r="CQ65" s="1"/>
@@ -11222,31 +11222,31 @@
     </row>
     <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>189</v>
+        <v>477</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -11285,14 +11285,14 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
       <c r="AT66" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="24"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
@@ -11336,7 +11336,7 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP66" s="1"/>
       <c r="CQ66" s="1"/>
@@ -11348,29 +11348,29 @@
     </row>
     <row r="67" spans="1:100">
       <c r="A67" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="29" t="s">
-        <v>189</v>
+      <c r="I67" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -11409,16 +11409,16 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
       <c r="AW67" s="24"/>
       <c r="AX67" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AY67" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
@@ -11462,7 +11462,7 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP67" s="1"/>
       <c r="CQ67" s="1"/>
@@ -11474,29 +11474,29 @@
     </row>
     <row r="68" spans="1:100">
       <c r="A68" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="29" t="s">
-        <v>189</v>
+      <c r="I68" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -11535,16 +11535,16 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="24"/>
       <c r="AX68" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AY68" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
@@ -11588,7 +11588,7 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
@@ -11600,31 +11600,31 @@
     </row>
     <row r="69" spans="1:100">
       <c r="A69" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I69" s="29" t="s">
-        <v>189</v>
+        <v>484</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -11663,17 +11663,17 @@
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
       <c r="AT69" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="24"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ69" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
@@ -11716,7 +11716,7 @@
       <c r="CM69" s="1"/>
       <c r="CN69" s="1"/>
       <c r="CO69" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP69" s="1"/>
       <c r="CQ69" s="1"/>
@@ -11728,31 +11728,31 @@
     </row>
     <row r="70" spans="1:100">
       <c r="A70" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>189</v>
+        <v>484</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -11791,17 +11791,17 @@
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
       <c r="AT70" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="24"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ70" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
@@ -11844,7 +11844,7 @@
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
       <c r="CO70" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP70" s="1"/>
       <c r="CQ70" s="1"/>
@@ -11856,31 +11856,31 @@
     </row>
     <row r="71" spans="1:100">
       <c r="A71" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I71" s="29" t="s">
-        <v>189</v>
+        <v>489</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -11919,16 +11919,16 @@
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
       <c r="AT71" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="24"/>
       <c r="AX71" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AY71" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
@@ -11972,7 +11972,7 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP71" s="1"/>
       <c r="CQ71" s="1"/>
@@ -11984,31 +11984,31 @@
     </row>
     <row r="72" spans="1:100">
       <c r="A72" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I72" s="29" t="s">
-        <v>189</v>
+        <v>489</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -12047,16 +12047,16 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
       <c r="AT72" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="24"/>
       <c r="AX72" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AY72" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
@@ -12100,7 +12100,7 @@
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
       <c r="CO72" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP72" s="1"/>
       <c r="CQ72" s="1"/>
@@ -12112,31 +12112,31 @@
     </row>
     <row r="73" spans="1:100">
       <c r="A73" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I73" s="29" t="s">
-        <v>189</v>
+        <v>494</v>
+      </c>
+      <c r="I73" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -12175,18 +12175,18 @@
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
       <c r="AT73" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="24"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="BB73" s="1"/>
       <c r="BC73" s="1"/>
@@ -12228,7 +12228,7 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
       <c r="CO73" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP73" s="1"/>
       <c r="CQ73" s="1"/>
@@ -12240,31 +12240,31 @@
     </row>
     <row r="74" spans="1:100">
       <c r="A74" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="I74" s="29" t="s">
-        <v>189</v>
+        <v>497</v>
+      </c>
+      <c r="I74" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -12303,18 +12303,18 @@
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
       <c r="AT74" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
       <c r="AW74" s="24"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="BB74" s="1"/>
       <c r="BC74" s="1"/>
@@ -12356,7 +12356,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP74" s="1"/>
       <c r="CQ74" s="1"/>
@@ -12368,31 +12368,31 @@
     </row>
     <row r="75" spans="1:100">
       <c r="A75" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I75" s="29" t="s">
-        <v>189</v>
+        <v>500</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -12431,14 +12431,14 @@
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
       <c r="AT75" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
       <c r="AW75" s="24"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1">
@@ -12484,7 +12484,7 @@
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
       <c r="CO75" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP75" s="1"/>
       <c r="CQ75" s="1"/>
@@ -12496,31 +12496,31 @@
     </row>
     <row r="76" spans="1:100">
       <c r="A76" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>574</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I76" s="29" t="s">
-        <v>189</v>
+        <v>503</v>
+      </c>
+      <c r="I76" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -12559,14 +12559,14 @@
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
       <c r="AT76" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="24"/>
       <c r="AX76" s="1"/>
       <c r="AY76" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1">
@@ -12612,7 +12612,7 @@
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
       <c r="CO76" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CP76" s="1"/>
       <c r="CQ76" s="1"/>
@@ -12624,29 +12624,29 @@
     </row>
     <row r="77" spans="1:100">
       <c r="A77" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="32" t="s">
-        <v>571</v>
+      <c r="I77" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
@@ -12654,7 +12654,7 @@
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
       <c r="O77" s="27" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
@@ -12664,7 +12664,7 @@
       <c r="U77" s="27"/>
       <c r="V77" s="27"/>
       <c r="W77" s="26" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="X77" s="27"/>
       <c r="Y77" s="27"/>
@@ -12689,7 +12689,7 @@
       <c r="AR77" s="27"/>
       <c r="AS77" s="27"/>
       <c r="AT77" s="27" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="AU77" s="27"/>
       <c r="AV77" s="27"/>
@@ -12732,7 +12732,7 @@
       <c r="CG77" s="27"/>
       <c r="CH77" s="27"/>
       <c r="CI77" s="28" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="CJ77" s="27"/>
       <c r="CK77" s="27"/>
@@ -12743,58 +12743,58 @@
       <c r="CP77" s="27"/>
       <c r="CQ77" s="1"/>
       <c r="CR77" s="27" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="CS77" s="25" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="CT77" s="26" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="CU77" s="23" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="CV77" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:100">
       <c r="A78" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>3</v>
+        <v>565</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>189</v>
+        <v>570</v>
+      </c>
+      <c r="I78" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="35">
+      <c r="O78" s="31">
         <v>44743</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="31">
         <v>44749</v>
       </c>
       <c r="Q78" s="1"/>
@@ -12827,7 +12827,7 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
       <c r="AT78" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
@@ -12837,10 +12837,10 @@
         <v>1</v>
       </c>
       <c r="AZ78" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="BA78" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="BB78" s="1">
         <v>10</v>
@@ -12897,10 +12897,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com"/>
-    <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB03B3-51FA-4B86-8172-303CBE4BAD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="582">
   <si>
     <t>Environment</t>
   </si>
@@ -730,9 +729,6 @@
   </si>
   <si>
     <t>All Question survey</t>
-  </si>
-  <si>
-    <t>Q6. DD: What's your household income?</t>
   </si>
   <si>
     <t>10</t>
@@ -869,9 +865,6 @@
     <t>DP - Segment Group</t>
   </si>
   <si>
-    <t>Q 5. CB: Which types of meat do you like?</t>
-  </si>
-  <si>
     <t>Smoke_TC19</t>
   </si>
   <si>
@@ -1881,12 +1874,37 @@
   <si>
     <t>Vivek</t>
   </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Q 5. Which types of meat do you like?</t>
+  </si>
+  <si>
+    <t>Q7. DD: What's your household income?</t>
+  </si>
+  <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,8 +1973,52 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1996,12 +2058,142 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2024,6 +2216,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2041,7 +2246,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2078,23 +2283,53 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11"/>
+    <cellStyle name="Hyperlink 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 5 2" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2371,7 +2606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2381,8 +2616,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2413,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,9 +2657,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2455,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2465,10 +2700,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2529,13 +2764,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -2543,13 +2778,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -2557,13 +2792,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -2572,8 +2807,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2581,37 +2816,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV78"/>
+  <dimension ref="A1:CV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100">
@@ -2643,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>21</v>
@@ -2892,28 +3127,28 @@
         <v>151</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="CP1" s="3" t="s">
         <v>217</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CR1" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="CS1" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="CT1" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="CS1" s="25" t="s">
+      <c r="CU1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="CT1" s="25" t="s">
+      <c r="CV1" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:100">
@@ -2924,10 +3159,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2939,7 +3174,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3044,10 +3279,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -3059,7 +3294,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3242,10 +3477,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>152</v>
@@ -3257,7 +3492,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3343,7 +3578,7 @@
         <v>168</v>
       </c>
       <c r="CJ4" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CK4" s="10" t="s">
         <v>169</v>
@@ -3374,10 +3609,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>152</v>
@@ -3389,7 +3624,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3475,16 +3710,16 @@
         <v>172</v>
       </c>
       <c r="CJ5" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CK5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CL5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="CM5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CN5" s="10" t="s">
         <v>172</v>
@@ -3506,10 +3741,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>152</v>
@@ -3521,7 +3756,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3628,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>152</v>
@@ -3643,7 +3878,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -3727,12 +3962,12 @@
       </c>
       <c r="CI7" s="10"/>
       <c r="CJ7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CK7" s="10"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
@@ -3748,14 +3983,14 @@
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>152</v>
@@ -3767,7 +4002,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -3872,14 +4107,14 @@
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>152</v>
@@ -3891,7 +4126,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -3979,7 +4214,7 @@
         <v>172</v>
       </c>
       <c r="CJ9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CK9" s="10" t="s">
         <v>173</v>
@@ -4004,14 +4239,14 @@
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>189</v>
@@ -4023,7 +4258,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J10" s="16"/>
@@ -4034,10 +4269,10 @@
       <c r="M10" s="16"/>
       <c r="N10" s="15"/>
       <c r="O10" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>575</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4046,7 +4281,7 @@
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
       <c r="W10" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -4134,14 +4369,14 @@
       <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>189</v>
@@ -4153,7 +4388,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J11" s="16"/>
@@ -4172,7 +4407,7 @@
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
       <c r="W11" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
@@ -4260,14 +4495,14 @@
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>189</v>
@@ -4279,7 +4514,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J12" s="16"/>
@@ -4298,7 +4533,7 @@
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -4386,14 +4621,14 @@
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>189</v>
@@ -4405,7 +4640,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J13" s="16"/>
@@ -4424,7 +4659,7 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -4512,14 +4747,14 @@
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>189</v>
@@ -4531,13 +4766,13 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16" t="s">
-        <v>219</v>
+        <v>576</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="15"/>
@@ -4550,7 +4785,7 @@
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -4638,14 +4873,14 @@
       <c r="A15" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>189</v>
@@ -4657,7 +4892,7 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J15" s="16"/>
@@ -4665,22 +4900,22 @@
         <v>210</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M15" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="P15" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="O15" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15" s="15" t="s">
+      <c r="Q15" s="17" t="s">
         <v>238</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>239</v>
       </c>
       <c r="R15" s="17" t="s">
         <v>211</v>
@@ -4689,16 +4924,16 @@
         <v>212</v>
       </c>
       <c r="T15" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="U15" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="V15" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="V15" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="W15" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
@@ -4763,7 +4998,7 @@
       <c r="CF15" s="15"/>
       <c r="CG15" s="15"/>
       <c r="CH15" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CI15" s="17"/>
       <c r="CJ15" s="17"/>
@@ -4773,7 +5008,7 @@
       <c r="CN15" s="17"/>
       <c r="CO15" s="17"/>
       <c r="CP15" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CQ15" s="1"/>
       <c r="CR15" s="1"/>
@@ -4786,26 +5021,26 @@
       <c r="A16" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>189</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>230</v>
-      </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J16" s="13"/>
@@ -4813,21 +5048,21 @@
         <v>177</v>
       </c>
       <c r="L16" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="17" t="s">
         <v>211</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S16" s="17" t="s">
         <v>212</v>
@@ -4840,7 +5075,7 @@
       </c>
       <c r="V16" s="17"/>
       <c r="W16" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
@@ -4905,7 +5140,7 @@
       <c r="CF16" s="15"/>
       <c r="CG16" s="15"/>
       <c r="CH16" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CI16" s="17"/>
       <c r="CJ16" s="17"/>
@@ -4928,26 +5163,26 @@
       <c r="A17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5033,7 +5268,7 @@
         <v>168</v>
       </c>
       <c r="CJ17" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CK17" s="10" t="s">
         <v>169</v>
@@ -5058,26 +5293,26 @@
     </row>
     <row r="18" spans="1:100">
       <c r="A18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J18" s="11"/>
@@ -5117,7 +5352,7 @@
       <c r="AR18" s="9"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AU18" s="9"/>
       <c r="AV18" s="9"/>
@@ -5163,7 +5398,7 @@
       </c>
       <c r="CI18" s="29"/>
       <c r="CJ18" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CK18" s="10"/>
       <c r="CL18" s="10"/>
@@ -5180,26 +5415,26 @@
     </row>
     <row r="19" spans="1:100">
       <c r="A19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J19" s="11"/>
@@ -5241,7 +5476,7 @@
       <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
@@ -5302,26 +5537,26 @@
     </row>
     <row r="20" spans="1:100">
       <c r="A20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5331,7 +5566,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5363,20 +5598,20 @@
       <c r="AR20" s="9"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AU20" s="9"/>
       <c r="AV20" s="21" t="s">
         <v>35</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AX20" s="9"/>
       <c r="AY20" s="9"/>
       <c r="AZ20" s="9"/>
       <c r="BA20" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
@@ -5428,30 +5663,30 @@
     </row>
     <row r="21" spans="1:100">
       <c r="A21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5461,7 +5696,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5493,16 +5728,16 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="23"/>
       <c r="AW21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -5546,7 +5781,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP21" s="19"/>
       <c r="CQ21" s="1"/>
@@ -5558,30 +5793,30 @@
     </row>
     <row r="22" spans="1:100">
       <c r="A22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -5621,14 +5856,14 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="23"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -5672,7 +5907,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP22" s="19"/>
       <c r="CQ22" s="1"/>
@@ -5684,30 +5919,30 @@
     </row>
     <row r="23" spans="1:100">
       <c r="A23" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I23" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -5746,21 +5981,21 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AV23" s="23"/>
       <c r="AW23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -5804,7 +6039,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP23" s="19"/>
       <c r="CQ23" s="1"/>
@@ -5816,30 +6051,30 @@
     </row>
     <row r="24" spans="1:100">
       <c r="A24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I24" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I24" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -5879,16 +6114,16 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -5932,7 +6167,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP24" s="19"/>
       <c r="CQ24" s="1"/>
@@ -5944,30 +6179,30 @@
     </row>
     <row r="25" spans="1:100">
       <c r="A25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I25" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -5977,7 +6212,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -6009,14 +6244,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="23"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -6060,7 +6295,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP25" s="19"/>
       <c r="CQ25" s="1"/>
@@ -6072,30 +6307,30 @@
     </row>
     <row r="26" spans="1:100">
       <c r="A26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I26" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I26" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6106,7 +6341,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -6137,14 +6372,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="23"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -6188,7 +6423,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP26" s="19"/>
       <c r="CQ26" s="1"/>
@@ -6200,30 +6435,30 @@
     </row>
     <row r="27" spans="1:100">
       <c r="A27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6263,14 +6498,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="23"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -6314,7 +6549,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP27" s="19"/>
       <c r="CQ27" s="1"/>
@@ -6326,30 +6561,30 @@
     </row>
     <row r="28" spans="1:100">
       <c r="A28" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6389,14 +6624,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="23"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -6440,7 +6675,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP28" s="19"/>
       <c r="CQ28" s="1"/>
@@ -6452,30 +6687,30 @@
     </row>
     <row r="29" spans="1:100">
       <c r="A29" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I29" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="I29" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6487,7 +6722,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6517,14 +6752,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="23"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -6568,7 +6803,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP29" s="19"/>
       <c r="CQ29" s="1"/>
@@ -6580,30 +6815,30 @@
     </row>
     <row r="30" spans="1:100">
       <c r="A30" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -6616,12 +6851,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -6647,14 +6882,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="23"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -6698,7 +6933,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP30" s="19"/>
       <c r="CQ30" s="1"/>
@@ -6710,30 +6945,30 @@
     </row>
     <row r="31" spans="1:100">
       <c r="A31" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -6747,10 +6982,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -6777,14 +7012,14 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="23"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -6828,7 +7063,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP31" s="19"/>
       <c r="CQ31" s="1"/>
@@ -6840,30 +7075,30 @@
     </row>
     <row r="32" spans="1:100">
       <c r="A32" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I32" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="I32" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -6903,14 +7138,14 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6954,7 +7189,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP32" s="19"/>
       <c r="CQ32" s="1"/>
@@ -6966,28 +7201,28 @@
     </row>
     <row r="33" spans="1:100">
       <c r="A33" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="1"/>
@@ -7084,28 +7319,28 @@
     </row>
     <row r="34" spans="1:100">
       <c r="A34" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7114,17 +7349,17 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P34" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S34" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -7153,7 +7388,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
       <c r="AT34" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
@@ -7168,13 +7403,13 @@
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
       <c r="BG34" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
@@ -7190,7 +7425,7 @@
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
@@ -7210,7 +7445,7 @@
       <c r="CO34" s="1"/>
       <c r="CP34" s="19"/>
       <c r="CQ34" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR34" s="1"/>
       <c r="CS34" s="1"/>
@@ -7220,28 +7455,28 @@
     </row>
     <row r="35" spans="1:100">
       <c r="A35" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7250,17 +7485,17 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P35" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S35" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -7289,7 +7524,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
@@ -7304,13 +7539,13 @@
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
       <c r="BG35" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
@@ -7326,7 +7561,7 @@
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
       <c r="BY35" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ35" s="1"/>
       <c r="CA35" s="1"/>
@@ -7346,7 +7581,7 @@
       <c r="CO35" s="1"/>
       <c r="CP35" s="19"/>
       <c r="CQ35" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR35" s="1"/>
       <c r="CS35" s="1"/>
@@ -7356,28 +7591,28 @@
     </row>
     <row r="36" spans="1:100">
       <c r="A36" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7386,17 +7621,17 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P36" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S36" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -7425,7 +7660,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
@@ -7440,13 +7675,13 @@
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
       <c r="BG36" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
@@ -7462,7 +7697,7 @@
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
       <c r="BY36" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ36" s="1"/>
       <c r="CA36" s="1"/>
@@ -7482,7 +7717,7 @@
       <c r="CO36" s="1"/>
       <c r="CP36" s="19"/>
       <c r="CQ36" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR36" s="1"/>
       <c r="CS36" s="1"/>
@@ -7492,28 +7727,28 @@
     </row>
     <row r="37" spans="1:100">
       <c r="A37" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7522,17 +7757,17 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P37" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S37" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -7561,7 +7796,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
@@ -7576,13 +7811,13 @@
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
       <c r="BG37" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
@@ -7598,7 +7833,7 @@
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
       <c r="BY37" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ37" s="1"/>
       <c r="CA37" s="1"/>
@@ -7618,7 +7853,7 @@
       <c r="CO37" s="1"/>
       <c r="CP37" s="19"/>
       <c r="CQ37" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR37" s="1"/>
       <c r="CS37" s="1"/>
@@ -7628,28 +7863,28 @@
     </row>
     <row r="38" spans="1:100">
       <c r="A38" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -7658,17 +7893,17 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P38" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S38" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -7697,7 +7932,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
@@ -7712,13 +7947,13 @@
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
       <c r="BG38" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL38" s="1"/>
       <c r="BM38" s="1"/>
@@ -7734,7 +7969,7 @@
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ38" s="1"/>
       <c r="CA38" s="1"/>
@@ -7754,7 +7989,7 @@
       <c r="CO38" s="1"/>
       <c r="CP38" s="19"/>
       <c r="CQ38" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR38" s="1"/>
       <c r="CS38" s="1"/>
@@ -7764,28 +7999,28 @@
     </row>
     <row r="39" spans="1:100">
       <c r="A39" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -7794,17 +8029,17 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S39" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -7833,7 +8068,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -7848,13 +8083,13 @@
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
       <c r="BG39" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL39" s="1"/>
       <c r="BM39" s="1"/>
@@ -7870,7 +8105,7 @@
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ39" s="1"/>
       <c r="CA39" s="1"/>
@@ -7890,7 +8125,7 @@
       <c r="CO39" s="1"/>
       <c r="CP39" s="19"/>
       <c r="CQ39" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR39" s="1"/>
       <c r="CS39" s="1"/>
@@ -7900,28 +8135,28 @@
     </row>
     <row r="40" spans="1:100">
       <c r="A40" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -7930,17 +8165,17 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P40" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S40" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -7969,7 +8204,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
@@ -7984,13 +8219,13 @@
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
       <c r="BG40" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL40" s="1"/>
       <c r="BM40" s="1"/>
@@ -8006,7 +8241,7 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ40" s="1"/>
       <c r="CA40" s="1"/>
@@ -8026,7 +8261,7 @@
       <c r="CO40" s="1"/>
       <c r="CP40" s="19"/>
       <c r="CQ40" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR40" s="1"/>
       <c r="CS40" s="1"/>
@@ -8036,28 +8271,28 @@
     </row>
     <row r="41" spans="1:100">
       <c r="A41" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8066,17 +8301,17 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P41" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -8105,7 +8340,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
@@ -8120,13 +8355,13 @@
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL41" s="1"/>
       <c r="BM41" s="1"/>
@@ -8142,7 +8377,7 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ41" s="1"/>
       <c r="CA41" s="1"/>
@@ -8162,7 +8397,7 @@
       <c r="CO41" s="1"/>
       <c r="CP41" s="19"/>
       <c r="CQ41" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR41" s="1"/>
       <c r="CS41" s="1"/>
@@ -8172,28 +8407,28 @@
     </row>
     <row r="42" spans="1:100">
       <c r="A42" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8202,17 +8437,17 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S42" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -8241,7 +8476,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
@@ -8256,13 +8491,13 @@
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
       <c r="BG42" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL42" s="1"/>
       <c r="BM42" s="1"/>
@@ -8278,7 +8513,7 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ42" s="1"/>
       <c r="CA42" s="1"/>
@@ -8298,7 +8533,7 @@
       <c r="CO42" s="1"/>
       <c r="CP42" s="19"/>
       <c r="CQ42" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR42" s="1"/>
       <c r="CS42" s="1"/>
@@ -8308,28 +8543,28 @@
     </row>
     <row r="43" spans="1:100">
       <c r="A43" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8338,17 +8573,17 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P43" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S43" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -8377,7 +8612,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
@@ -8392,13 +8627,13 @@
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
       <c r="BG43" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
@@ -8414,7 +8649,7 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ43" s="1"/>
       <c r="CA43" s="1"/>
@@ -8434,7 +8669,7 @@
       <c r="CO43" s="1"/>
       <c r="CP43" s="19"/>
       <c r="CQ43" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR43" s="1"/>
       <c r="CS43" s="1"/>
@@ -8444,28 +8679,28 @@
     </row>
     <row r="44" spans="1:100">
       <c r="A44" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8474,17 +8709,17 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P44" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="S44" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -8513,7 +8748,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
@@ -8528,13 +8763,13 @@
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
       <c r="BG44" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
@@ -8550,7 +8785,7 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BZ44" s="1"/>
       <c r="CA44" s="1"/>
@@ -8570,7 +8805,7 @@
       <c r="CO44" s="1"/>
       <c r="CP44" s="19"/>
       <c r="CQ44" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CR44" s="1"/>
       <c r="CS44" s="1"/>
@@ -8580,30 +8815,30 @@
     </row>
     <row r="45" spans="1:100" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -8643,18 +8878,18 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AW45" s="24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8698,7 +8933,7 @@
       <c r="CM45" s="1"/>
       <c r="CN45" s="1"/>
       <c r="CO45" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP45" s="1"/>
       <c r="CQ45" s="1"/>
@@ -8710,30 +8945,30 @@
     </row>
     <row r="46" spans="1:100" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="I46" s="34" t="s">
+      <c r="I46" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -8773,20 +9008,20 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
@@ -8828,7 +9063,7 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP46" s="1"/>
       <c r="CQ46" s="1"/>
@@ -8840,30 +9075,30 @@
     </row>
     <row r="47" spans="1:100">
       <c r="A47" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="I47" s="34" t="s">
+      <c r="I47" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -8903,14 +9138,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="24"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8954,7 +9189,7 @@
       <c r="CM47" s="1"/>
       <c r="CN47" s="1"/>
       <c r="CO47" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP47" s="1"/>
       <c r="CQ47" s="1"/>
@@ -8966,30 +9201,30 @@
     </row>
     <row r="48" spans="1:100">
       <c r="A48" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9029,14 +9264,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="24"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -9080,7 +9315,7 @@
       <c r="CM48" s="1"/>
       <c r="CN48" s="1"/>
       <c r="CO48" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP48" s="1"/>
       <c r="CQ48" s="1"/>
@@ -9092,30 +9327,30 @@
     </row>
     <row r="49" spans="1:100">
       <c r="A49" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9155,14 +9390,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="24"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9206,7 +9441,7 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP49" s="1"/>
       <c r="CQ49" s="1"/>
@@ -9218,30 +9453,30 @@
     </row>
     <row r="50" spans="1:100">
       <c r="A50" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9281,14 +9516,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="24"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9332,7 +9567,7 @@
       <c r="CM50" s="1"/>
       <c r="CN50" s="1"/>
       <c r="CO50" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP50" s="1"/>
       <c r="CQ50" s="1"/>
@@ -9344,30 +9579,30 @@
     </row>
     <row r="51" spans="1:100">
       <c r="A51" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9407,14 +9642,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="24"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9458,7 +9693,7 @@
       <c r="CM51" s="1"/>
       <c r="CN51" s="1"/>
       <c r="CO51" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP51" s="1"/>
       <c r="CQ51" s="1"/>
@@ -9470,30 +9705,30 @@
     </row>
     <row r="52" spans="1:100">
       <c r="A52" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9533,14 +9768,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="24"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9584,7 +9819,7 @@
       <c r="CM52" s="1"/>
       <c r="CN52" s="1"/>
       <c r="CO52" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP52" s="1"/>
       <c r="CQ52" s="1"/>
@@ -9596,30 +9831,30 @@
     </row>
     <row r="53" spans="1:100">
       <c r="A53" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -9659,14 +9894,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="24"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9710,7 +9945,7 @@
       <c r="CM53" s="1"/>
       <c r="CN53" s="1"/>
       <c r="CO53" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP53" s="1"/>
       <c r="CQ53" s="1"/>
@@ -9722,30 +9957,30 @@
     </row>
     <row r="54" spans="1:100">
       <c r="A54" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -9785,14 +10020,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="24"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9836,7 +10071,7 @@
       <c r="CM54" s="1"/>
       <c r="CN54" s="1"/>
       <c r="CO54" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP54" s="1"/>
       <c r="CQ54" s="1"/>
@@ -9848,28 +10083,28 @@
     </row>
     <row r="55" spans="1:100">
       <c r="A55" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="34" t="s">
+      <c r="I55" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -9909,14 +10144,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="24"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9960,7 +10195,7 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP55" s="1"/>
       <c r="CQ55" s="1"/>
@@ -9972,28 +10207,28 @@
     </row>
     <row r="56" spans="1:100">
       <c r="A56" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="34" t="s">
+      <c r="I56" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10033,14 +10268,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="24"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -10084,7 +10319,7 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP56" s="1"/>
       <c r="CQ56" s="1"/>
@@ -10096,28 +10331,28 @@
     </row>
     <row r="57" spans="1:100">
       <c r="A57" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="34" t="s">
+      <c r="I57" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10157,14 +10392,14 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="24"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10208,7 +10443,7 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP57" s="1"/>
       <c r="CQ57" s="1"/>
@@ -10220,28 +10455,28 @@
     </row>
     <row r="58" spans="1:100">
       <c r="A58" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10281,14 +10516,14 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="24"/>
       <c r="AX58" s="1"/>
       <c r="AY58" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10332,7 +10567,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP58" s="1"/>
       <c r="CQ58" s="1"/>
@@ -10344,30 +10579,30 @@
     </row>
     <row r="59" spans="1:100">
       <c r="A59" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I59" s="34" t="s">
+      <c r="I59" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10407,14 +10642,14 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="24"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
@@ -10458,7 +10693,7 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP59" s="1"/>
       <c r="CQ59" s="1"/>
@@ -10470,30 +10705,30 @@
     </row>
     <row r="60" spans="1:100">
       <c r="A60" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="I60" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10533,14 +10768,14 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="24"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
@@ -10584,7 +10819,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP60" s="1"/>
       <c r="CQ60" s="1"/>
@@ -10596,30 +10831,30 @@
     </row>
     <row r="61" spans="1:100">
       <c r="A61" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I61" s="34" t="s">
+      <c r="I61" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -10659,14 +10894,14 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="24"/>
       <c r="AX61" s="1"/>
       <c r="AY61" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -10710,7 +10945,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP61" s="1"/>
       <c r="CQ61" s="1"/>
@@ -10722,30 +10957,30 @@
     </row>
     <row r="62" spans="1:100">
       <c r="A62" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -10785,14 +11020,14 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="24"/>
       <c r="AX62" s="1"/>
       <c r="AY62" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
@@ -10836,7 +11071,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP62" s="1"/>
       <c r="CQ62" s="1"/>
@@ -10848,28 +11083,28 @@
     </row>
     <row r="63" spans="1:100">
       <c r="A63" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -10909,14 +11144,14 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="24"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
@@ -10960,7 +11195,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP63" s="1"/>
       <c r="CQ63" s="1"/>
@@ -10972,28 +11207,28 @@
     </row>
     <row r="64" spans="1:100">
       <c r="A64" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11033,14 +11268,14 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="24"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
@@ -11084,7 +11319,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP64" s="1"/>
       <c r="CQ64" s="1"/>
@@ -11096,30 +11331,30 @@
     </row>
     <row r="65" spans="1:100">
       <c r="A65" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I65" s="34" t="s">
+      <c r="I65" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11159,14 +11394,14 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="24"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
@@ -11210,7 +11445,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP65" s="1"/>
       <c r="CQ65" s="1"/>
@@ -11222,30 +11457,30 @@
     </row>
     <row r="66" spans="1:100">
       <c r="A66" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11285,14 +11520,14 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
       <c r="AT66" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
       <c r="AW66" s="24"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
@@ -11336,7 +11571,7 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP66" s="1"/>
       <c r="CQ66" s="1"/>
@@ -11348,28 +11583,28 @@
     </row>
     <row r="67" spans="1:100">
       <c r="A67" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11409,16 +11644,16 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
       <c r="AW67" s="24"/>
       <c r="AX67" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AY67" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
@@ -11462,7 +11697,7 @@
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
       <c r="CO67" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP67" s="1"/>
       <c r="CQ67" s="1"/>
@@ -11474,28 +11709,28 @@
     </row>
     <row r="68" spans="1:100">
       <c r="A68" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="34" t="s">
+      <c r="I68" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11535,16 +11770,16 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="24"/>
       <c r="AX68" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AY68" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
@@ -11588,7 +11823,7 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
@@ -11600,30 +11835,30 @@
     </row>
     <row r="69" spans="1:100">
       <c r="A69" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -11663,17 +11898,17 @@
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
       <c r="AT69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="24"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ69" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
@@ -11716,7 +11951,7 @@
       <c r="CM69" s="1"/>
       <c r="CN69" s="1"/>
       <c r="CO69" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP69" s="1"/>
       <c r="CQ69" s="1"/>
@@ -11728,30 +11963,30 @@
     </row>
     <row r="70" spans="1:100">
       <c r="A70" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I70" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="I70" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -11791,17 +12026,17 @@
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
       <c r="AT70" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="24"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ70" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
@@ -11844,7 +12079,7 @@
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
       <c r="CO70" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP70" s="1"/>
       <c r="CQ70" s="1"/>
@@ -11856,30 +12091,30 @@
     </row>
     <row r="71" spans="1:100">
       <c r="A71" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I71" s="34" t="s">
+      <c r="I71" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -11919,16 +12154,16 @@
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
       <c r="AT71" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="24"/>
       <c r="AX71" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AY71" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
@@ -11972,7 +12207,7 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP71" s="1"/>
       <c r="CQ71" s="1"/>
@@ -11984,30 +12219,30 @@
     </row>
     <row r="72" spans="1:100">
       <c r="A72" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I72" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="I72" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12047,16 +12282,16 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
       <c r="AT72" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="24"/>
       <c r="AX72" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AY72" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
@@ -12100,7 +12335,7 @@
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
       <c r="CO72" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP72" s="1"/>
       <c r="CQ72" s="1"/>
@@ -12112,30 +12347,30 @@
     </row>
     <row r="73" spans="1:100">
       <c r="A73" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12175,18 +12410,18 @@
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
       <c r="AT73" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="24"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BB73" s="1"/>
       <c r="BC73" s="1"/>
@@ -12228,7 +12463,7 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
       <c r="CO73" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP73" s="1"/>
       <c r="CQ73" s="1"/>
@@ -12240,30 +12475,30 @@
     </row>
     <row r="74" spans="1:100">
       <c r="A74" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I74" s="34" t="s">
+      <c r="I74" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12303,18 +12538,18 @@
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
       <c r="AT74" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
       <c r="AW74" s="24"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BB74" s="1"/>
       <c r="BC74" s="1"/>
@@ -12356,7 +12591,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP74" s="1"/>
       <c r="CQ74" s="1"/>
@@ -12368,30 +12603,30 @@
     </row>
     <row r="75" spans="1:100">
       <c r="A75" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I75" s="34" t="s">
+      <c r="I75" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12431,14 +12666,14 @@
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
       <c r="AT75" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
       <c r="AW75" s="24"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1">
@@ -12484,7 +12719,7 @@
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
       <c r="CO75" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP75" s="1"/>
       <c r="CQ75" s="1"/>
@@ -12496,30 +12731,30 @@
     </row>
     <row r="76" spans="1:100">
       <c r="A76" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I76" s="34" t="s">
+      <c r="I76" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -12559,14 +12794,14 @@
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
       <c r="AT76" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="24"/>
       <c r="AX76" s="1"/>
       <c r="AY76" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1">
@@ -12612,7 +12847,7 @@
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
       <c r="CO76" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="CP76" s="1"/>
       <c r="CQ76" s="1"/>
@@ -12624,28 +12859,28 @@
     </row>
     <row r="77" spans="1:100">
       <c r="A77" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F77" s="27" t="s">
         <v>174</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="33" t="s">
+      <c r="I77" s="61" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -12654,7 +12889,7 @@
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
       <c r="O77" s="27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
@@ -12664,7 +12899,7 @@
       <c r="U77" s="27"/>
       <c r="V77" s="27"/>
       <c r="W77" s="26" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X77" s="27"/>
       <c r="Y77" s="27"/>
@@ -12689,7 +12924,7 @@
       <c r="AR77" s="27"/>
       <c r="AS77" s="27"/>
       <c r="AT77" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AU77" s="27"/>
       <c r="AV77" s="27"/>
@@ -12732,7 +12967,7 @@
       <c r="CG77" s="27"/>
       <c r="CH77" s="27"/>
       <c r="CI77" s="28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="CJ77" s="27"/>
       <c r="CK77" s="27"/>
@@ -12743,164 +12978,396 @@
       <c r="CP77" s="27"/>
       <c r="CQ77" s="1"/>
       <c r="CR77" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="CS77" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="CT77" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="CU77" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="CS77" s="25" t="s">
+      <c r="CV77" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="CT77" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="CU77" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="CV77" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:100">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="E78" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="F78" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="G78" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="H78" s="36" t="s">
         <v>568</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="31">
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="37">
         <v>44743</v>
       </c>
-      <c r="P78" s="31">
+      <c r="P78" s="37">
         <v>44749</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="1" t="s">
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
+      <c r="AC78" s="36"/>
+      <c r="AD78" s="36"/>
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="36"/>
+      <c r="AG78" s="36"/>
+      <c r="AH78" s="36"/>
+      <c r="AI78" s="36"/>
+      <c r="AJ78" s="36"/>
+      <c r="AK78" s="36"/>
+      <c r="AL78" s="36"/>
+      <c r="AM78" s="36"/>
+      <c r="AN78" s="36"/>
+      <c r="AO78" s="36"/>
+      <c r="AP78" s="36"/>
+      <c r="AQ78" s="36"/>
+      <c r="AR78" s="36"/>
+      <c r="AS78" s="36"/>
+      <c r="AT78" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU78" s="36"/>
+      <c r="AV78" s="36"/>
+      <c r="AW78" s="38"/>
+      <c r="AX78" s="36"/>
+      <c r="AY78" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ78" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="BA78" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="24"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ78" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="BA78" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="BB78" s="1">
+      <c r="BB78" s="36">
         <v>10</v>
       </c>
-      <c r="BC78" s="1">
+      <c r="BC78" s="36">
         <v>50</v>
       </c>
-      <c r="BD78" s="27"/>
-      <c r="BE78" s="27"/>
-      <c r="BF78" s="27"/>
-      <c r="BG78" s="27"/>
-      <c r="BH78" s="27"/>
-      <c r="BI78" s="27"/>
-      <c r="BJ78" s="27"/>
-      <c r="BK78" s="27"/>
-      <c r="BL78" s="27"/>
-      <c r="BM78" s="27"/>
-      <c r="BN78" s="27"/>
-      <c r="BO78" s="27"/>
-      <c r="BP78" s="27"/>
-      <c r="BQ78" s="27"/>
-      <c r="BR78" s="27"/>
-      <c r="BS78" s="27"/>
-      <c r="BT78" s="27"/>
-      <c r="BU78" s="27"/>
-      <c r="BV78" s="27"/>
-      <c r="BW78" s="27"/>
-      <c r="BX78" s="27"/>
-      <c r="BY78" s="27"/>
-      <c r="BZ78" s="27"/>
-      <c r="CA78" s="27"/>
-      <c r="CB78" s="27"/>
-      <c r="CC78" s="27"/>
-      <c r="CD78" s="27"/>
-      <c r="CE78" s="27"/>
-      <c r="CF78" s="27"/>
-      <c r="CG78" s="27"/>
-      <c r="CH78" s="27"/>
-      <c r="CI78" s="28"/>
-      <c r="CJ78" s="27"/>
-      <c r="CK78" s="27"/>
-      <c r="CL78" s="27"/>
-      <c r="CM78" s="27"/>
-      <c r="CN78" s="27"/>
-      <c r="CO78" s="27"/>
-      <c r="CP78" s="27"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="27"/>
-      <c r="CS78" s="25"/>
-      <c r="CT78" s="26"/>
-      <c r="CU78" s="23"/>
-      <c r="CV78" s="1"/>
+      <c r="BD78" s="39"/>
+      <c r="BE78" s="39"/>
+      <c r="BF78" s="39"/>
+      <c r="BG78" s="39"/>
+      <c r="BH78" s="39"/>
+      <c r="BI78" s="39"/>
+      <c r="BJ78" s="39"/>
+      <c r="BK78" s="39"/>
+      <c r="BL78" s="39"/>
+      <c r="BM78" s="39"/>
+      <c r="BN78" s="39"/>
+      <c r="BO78" s="39"/>
+      <c r="BP78" s="39"/>
+      <c r="BQ78" s="39"/>
+      <c r="BR78" s="39"/>
+      <c r="BS78" s="39"/>
+      <c r="BT78" s="39"/>
+      <c r="BU78" s="39"/>
+      <c r="BV78" s="39"/>
+      <c r="BW78" s="39"/>
+      <c r="BX78" s="39"/>
+      <c r="BY78" s="39"/>
+      <c r="BZ78" s="39"/>
+      <c r="CA78" s="39"/>
+      <c r="CB78" s="39"/>
+      <c r="CC78" s="39"/>
+      <c r="CD78" s="39"/>
+      <c r="CE78" s="39"/>
+      <c r="CF78" s="39"/>
+      <c r="CG78" s="39"/>
+      <c r="CH78" s="39"/>
+      <c r="CI78" s="40"/>
+      <c r="CJ78" s="39"/>
+      <c r="CK78" s="39"/>
+      <c r="CL78" s="39"/>
+      <c r="CM78" s="39"/>
+      <c r="CN78" s="39"/>
+      <c r="CO78" s="39"/>
+      <c r="CP78" s="39"/>
+      <c r="CQ78" s="36"/>
+      <c r="CR78" s="39"/>
+      <c r="CS78" s="41"/>
+      <c r="CT78" s="42"/>
+      <c r="CU78" s="43"/>
+      <c r="CV78" s="36"/>
+    </row>
+    <row r="79" spans="1:100">
+      <c r="A79" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="24"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="27"/>
+      <c r="BE79" s="27"/>
+      <c r="BF79" s="27"/>
+      <c r="BG79" s="27"/>
+      <c r="BH79" s="27"/>
+      <c r="BI79" s="27"/>
+      <c r="BJ79" s="27"/>
+      <c r="BK79" s="27"/>
+      <c r="BL79" s="27"/>
+      <c r="BM79" s="27"/>
+      <c r="BN79" s="27"/>
+      <c r="BO79" s="27"/>
+      <c r="BP79" s="27"/>
+      <c r="BQ79" s="27"/>
+      <c r="BR79" s="27"/>
+      <c r="BS79" s="27"/>
+      <c r="BT79" s="27"/>
+      <c r="BU79" s="27"/>
+      <c r="BV79" s="27"/>
+      <c r="BW79" s="27"/>
+      <c r="BX79" s="27"/>
+      <c r="BY79" s="27"/>
+      <c r="BZ79" s="27"/>
+      <c r="CA79" s="27"/>
+      <c r="CB79" s="27"/>
+      <c r="CC79" s="27"/>
+      <c r="CD79" s="27"/>
+      <c r="CE79" s="27"/>
+      <c r="CF79" s="27"/>
+      <c r="CG79" s="27"/>
+      <c r="CH79" s="27"/>
+      <c r="CI79" s="28"/>
+      <c r="CJ79" s="27"/>
+      <c r="CK79" s="27"/>
+      <c r="CL79" s="27"/>
+      <c r="CM79" s="27"/>
+      <c r="CN79" s="27"/>
+      <c r="CO79" s="27"/>
+      <c r="CP79" s="27"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="27"/>
+      <c r="CS79" s="25"/>
+      <c r="CT79" s="26"/>
+      <c r="CU79" s="23"/>
+      <c r="CV79" s="1"/>
+    </row>
+    <row r="80" spans="1:100">
+      <c r="A80" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="24"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="27"/>
+      <c r="BE80" s="27"/>
+      <c r="BF80" s="27"/>
+      <c r="BG80" s="27"/>
+      <c r="BH80" s="27"/>
+      <c r="BI80" s="27"/>
+      <c r="BJ80" s="27"/>
+      <c r="BK80" s="27"/>
+      <c r="BL80" s="27"/>
+      <c r="BM80" s="27"/>
+      <c r="BN80" s="27"/>
+      <c r="BO80" s="27"/>
+      <c r="BP80" s="27"/>
+      <c r="BQ80" s="27"/>
+      <c r="BR80" s="27"/>
+      <c r="BS80" s="27"/>
+      <c r="BT80" s="27"/>
+      <c r="BU80" s="27"/>
+      <c r="BV80" s="27"/>
+      <c r="BW80" s="27"/>
+      <c r="BX80" s="27"/>
+      <c r="BY80" s="27"/>
+      <c r="BZ80" s="27"/>
+      <c r="CA80" s="27"/>
+      <c r="CB80" s="27"/>
+      <c r="CC80" s="27"/>
+      <c r="CD80" s="27"/>
+      <c r="CE80" s="27"/>
+      <c r="CF80" s="27"/>
+      <c r="CG80" s="27"/>
+      <c r="CH80" s="27"/>
+      <c r="CI80" s="28"/>
+      <c r="CJ80" s="27"/>
+      <c r="CK80" s="27"/>
+      <c r="CL80" s="27"/>
+      <c r="CM80" s="27"/>
+      <c r="CN80" s="27"/>
+      <c r="CO80" s="27"/>
+      <c r="CP80" s="27"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="27"/>
+      <c r="CS80" s="25"/>
+      <c r="CT80" s="26"/>
+      <c r="CU80" s="23"/>
+      <c r="CV80" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="582">
   <si>
     <t>Environment</t>
   </si>
@@ -1904,7 +1904,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1984,41 +1984,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2065,96 +2032,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2246,7 +2123,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2295,25 +2172,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2820,8 +2684,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3174,7 +3038,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3294,7 +3158,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3492,7 +3356,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3624,7 +3488,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3756,7 +3620,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3878,7 +3742,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -4002,7 +3866,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -4126,7 +3990,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -4240,7 +4104,7 @@
         <v>186</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>572</v>
@@ -4258,8 +4122,8 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="61" t="s">
-        <v>188</v>
+      <c r="I10" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="15" t="s">
@@ -4370,7 +4234,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>572</v>
@@ -4388,8 +4252,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="61" t="s">
-        <v>188</v>
+      <c r="I11" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="15" t="s">
@@ -4496,7 +4360,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>572</v>
@@ -4514,8 +4378,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="61" t="s">
-        <v>188</v>
+      <c r="I12" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="15" t="s">
@@ -4622,7 +4486,7 @@
         <v>200</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>572</v>
@@ -4640,8 +4504,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="61" t="s">
-        <v>188</v>
+      <c r="I13" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="15" t="s">
@@ -4748,7 +4612,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>572</v>
@@ -4766,8 +4630,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="61" t="s">
-        <v>188</v>
+      <c r="I14" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
@@ -4874,7 +4738,7 @@
         <v>207</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>572</v>
@@ -4892,8 +4756,8 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="61" t="s">
-        <v>188</v>
+      <c r="I15" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15" t="s">
@@ -5022,7 +4886,7 @@
         <v>215</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>572</v>
@@ -5040,8 +4904,8 @@
         <v>229</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="61" t="s">
-        <v>188</v>
+      <c r="I16" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15" t="s">
@@ -5182,7 +5046,7 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5296,7 +5160,7 @@
         <v>226</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>572</v>
@@ -5312,8 +5176,8 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="61" t="s">
-        <v>188</v>
+      <c r="I18" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="1"/>
@@ -5418,7 +5282,7 @@
         <v>250</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>572</v>
@@ -5434,8 +5298,8 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="61" t="s">
-        <v>188</v>
+      <c r="I19" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="1"/>
@@ -5556,7 +5420,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5686,7 +5550,7 @@
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="I21" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5816,7 +5680,7 @@
       <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -5942,7 +5806,7 @@
       <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -6074,7 +5938,7 @@
       <c r="H24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -6202,7 +6066,7 @@
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -6330,7 +6194,7 @@
       <c r="H26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6458,7 +6322,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6584,7 +6448,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="I28" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6710,7 +6574,7 @@
       <c r="H29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6838,7 +6702,7 @@
       <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="I30" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -6968,7 +6832,7 @@
       <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="I31" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -7098,7 +6962,7 @@
       <c r="H32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -7204,7 +7068,7 @@
         <v>502</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>572</v>
@@ -7222,8 +7086,8 @@
         <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="61" t="s">
-        <v>188</v>
+      <c r="I33" s="46" t="s">
+        <v>574</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -7340,7 +7204,7 @@
         <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7476,7 +7340,7 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="61" t="s">
+      <c r="I35" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7612,7 +7476,7 @@
         <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="61" t="s">
+      <c r="I36" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7748,7 +7612,7 @@
         <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="61" t="s">
+      <c r="I37" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7884,7 +7748,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -8020,7 +7884,7 @@
         <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -8156,7 +8020,7 @@
         <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -8292,7 +8156,7 @@
         <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8428,7 +8292,7 @@
         <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8564,7 +8428,7 @@
         <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="61" t="s">
+      <c r="I43" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8700,7 +8564,7 @@
         <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="61" t="s">
+      <c r="I44" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8838,7 +8702,7 @@
       <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I45" s="61" t="s">
+      <c r="I45" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -8968,7 +8832,7 @@
       <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I46" s="61" t="s">
+      <c r="I46" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -9098,7 +8962,7 @@
       <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I47" s="61" t="s">
+      <c r="I47" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -9224,7 +9088,7 @@
       <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I48" s="61" t="s">
+      <c r="I48" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9350,7 +9214,7 @@
       <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="61" t="s">
+      <c r="I49" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9476,7 +9340,7 @@
       <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I50" s="61" t="s">
+      <c r="I50" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9602,7 +9466,7 @@
       <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="61" t="s">
+      <c r="I51" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9728,7 +9592,7 @@
       <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="61" t="s">
+      <c r="I52" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9854,7 +9718,7 @@
       <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="I53" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -9980,7 +9844,7 @@
       <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I54" s="61" t="s">
+      <c r="I54" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -10104,7 +9968,7 @@
         <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="61" t="s">
+      <c r="I55" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -10228,7 +10092,7 @@
         <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="61" t="s">
+      <c r="I56" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10352,7 +10216,7 @@
         <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="61" t="s">
+      <c r="I57" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10476,7 +10340,7 @@
         <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="61" t="s">
+      <c r="I58" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10602,7 +10466,7 @@
       <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I59" s="61" t="s">
+      <c r="I59" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10728,7 +10592,7 @@
       <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="61" t="s">
+      <c r="I60" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10854,7 +10718,7 @@
       <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="61" t="s">
+      <c r="I61" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -10980,7 +10844,7 @@
       <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="61" t="s">
+      <c r="I62" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -11104,7 +10968,7 @@
         <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="61" t="s">
+      <c r="I63" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -11228,7 +11092,7 @@
         <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="61" t="s">
+      <c r="I64" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11354,7 +11218,7 @@
       <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I65" s="61" t="s">
+      <c r="I65" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11480,7 +11344,7 @@
       <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I66" s="61" t="s">
+      <c r="I66" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11604,7 +11468,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="61" t="s">
+      <c r="I67" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11730,7 +11594,7 @@
         <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="61" t="s">
+      <c r="I68" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11858,7 +11722,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="61" t="s">
+      <c r="I69" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -11986,7 +11850,7 @@
       <c r="H70" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="61" t="s">
+      <c r="I70" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -12114,7 +11978,7 @@
       <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I71" s="61" t="s">
+      <c r="I71" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -12242,7 +12106,7 @@
       <c r="H72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="61" t="s">
+      <c r="I72" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12370,7 +12234,7 @@
       <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I73" s="61" t="s">
+      <c r="I73" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12498,7 +12362,7 @@
       <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I74" s="61" t="s">
+      <c r="I74" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12626,7 +12490,7 @@
       <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="61" t="s">
+      <c r="I75" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12754,7 +12618,7 @@
       <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="61" t="s">
+      <c r="I76" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -12880,7 +12744,7 @@
         <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="61" t="s">
+      <c r="I77" s="48" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -13133,8 +12997,8 @@
       <c r="A79" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>3</v>
+      <c r="B79" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>579</v>
@@ -13150,8 +13014,8 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="59" t="s">
-        <v>574</v>
+      <c r="I79" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -13249,8 +13113,8 @@
       <c r="A80" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B80" s="35" t="s">
-        <v>3</v>
+      <c r="B80" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>579</v>
@@ -13266,8 +13130,8 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="59" t="s">
-        <v>574</v>
+      <c r="I80" s="48" t="s">
+        <v>188</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="655">
   <si>
     <t>Environment</t>
   </si>
@@ -1875,28 +1875,247 @@
     <t>Vivek</t>
   </si>
   <si>
+    <t>Q 5. Which types of meat do you like?</t>
+  </si>
+  <si>
+    <t>Q7. DD: What's your household income?</t>
+  </si>
+  <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
+  <si>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Q 5. Which types of meat do you like?</t>
-  </si>
-  <si>
-    <t>Q7. DD: What's your household income?</t>
-  </si>
-  <si>
-    <t>Smoke_TC77</t>
-  </si>
-  <si>
-    <t>Smoke_TC78</t>
-  </si>
-  <si>
-    <t>Sajid</t>
-  </si>
-  <si>
-    <t>Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Valid Credentials</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,6 +2193,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1985,7 +2209,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2030,8 +2254,13 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2123,7 +2352,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2172,12 +2401,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2682,10 +2915,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV80"/>
+  <dimension ref="A1:CW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2713,7 +2946,7 @@
     <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:101">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3014,8 +3247,11 @@
       <c r="CV1" s="1" t="s">
         <v>549</v>
       </c>
+      <c r="CW1" s="25" t="s">
+        <v>653</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:101">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3038,7 +3274,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3134,8 +3370,9 @@
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
       <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:101">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3158,7 +3395,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3332,8 +3569,9 @@
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:101">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -3356,7 +3594,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3464,8 +3702,9 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:101">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -3488,7 +3727,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3596,8 +3835,9 @@
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:101">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -3620,7 +3860,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3718,8 +3958,9 @@
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:101">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -3742,7 +3983,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -3842,12 +4083,13 @@
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:101">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3866,7 +4108,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -3966,12 +4208,13 @@
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:101">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3990,7 +4233,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -4098,13 +4341,14 @@
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:101">
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>572</v>
@@ -4122,8 +4366,8 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="46" t="s">
-        <v>574</v>
+      <c r="I10" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="15" t="s">
@@ -4136,7 +4380,7 @@
         <v>253</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -4228,13 +4472,14 @@
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:101">
       <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>3</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>572</v>
@@ -4252,8 +4497,8 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="46" t="s">
-        <v>574</v>
+      <c r="I11" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="15" t="s">
@@ -4354,13 +4599,14 @@
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:101">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>3</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>572</v>
@@ -4378,8 +4624,8 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="46" t="s">
-        <v>574</v>
+      <c r="I12" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="15" t="s">
@@ -4480,13 +4726,14 @@
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:101">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>3</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>572</v>
@@ -4504,8 +4751,8 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="46" t="s">
-        <v>574</v>
+      <c r="I13" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="15" t="s">
@@ -4606,13 +4853,14 @@
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:101">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>3</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>572</v>
@@ -4630,13 +4878,13 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="46" t="s">
-        <v>574</v>
+      <c r="I14" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="15"/>
@@ -4732,13 +4980,14 @@
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:101">
       <c r="A15" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>3</v>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>572</v>
@@ -4756,8 +5005,8 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="46" t="s">
-        <v>574</v>
+      <c r="I15" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15" t="s">
@@ -4880,13 +5129,14 @@
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:101">
       <c r="A16" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>3</v>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>572</v>
@@ -4904,8 +5154,8 @@
         <v>229</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="46" t="s">
-        <v>574</v>
+      <c r="I16" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15" t="s">
@@ -5022,12 +5272,13 @@
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17" spans="1:101">
       <c r="A17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5046,7 +5297,7 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5154,13 +5405,14 @@
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18" spans="1:101">
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>3</v>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>572</v>
@@ -5176,8 +5428,8 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="46" t="s">
-        <v>574</v>
+      <c r="I18" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="1"/>
@@ -5276,13 +5528,14 @@
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:101">
       <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>3</v>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>572</v>
@@ -5298,8 +5551,8 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="46" t="s">
-        <v>574</v>
+      <c r="I19" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="1"/>
@@ -5398,12 +5651,13 @@
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20" spans="1:101">
       <c r="A20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5420,7 +5674,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5524,12 +5778,13 @@
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21" spans="1:101">
       <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5550,7 +5805,7 @@
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5654,12 +5909,13 @@
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:101">
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5680,7 +5936,7 @@
       <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -5780,12 +6036,13 @@
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:101">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5806,7 +6063,7 @@
       <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -5912,12 +6169,13 @@
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24" spans="1:101">
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5938,7 +6196,7 @@
       <c r="H24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -6040,12 +6298,13 @@
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25" spans="1:101">
       <c r="A25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -6066,7 +6325,7 @@
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -6168,12 +6427,13 @@
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:101">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6194,7 +6454,7 @@
       <c r="H26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6296,12 +6556,13 @@
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:101">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -6322,7 +6583,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6422,8 +6683,9 @@
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
+      <c r="CW27" s="1"/>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:101">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -6448,7 +6710,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6548,8 +6810,9 @@
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:101">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
@@ -6574,7 +6837,7 @@
       <c r="H29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6676,8 +6939,9 @@
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
     </row>
-    <row r="30" spans="1:100">
+    <row r="30" spans="1:101">
       <c r="A30" s="1" t="s">
         <v>272</v>
       </c>
@@ -6702,7 +6966,7 @@
       <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -6806,8 +7070,9 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
     </row>
-    <row r="31" spans="1:100">
+    <row r="31" spans="1:101">
       <c r="A31" s="1" t="s">
         <v>273</v>
       </c>
@@ -6832,7 +7097,7 @@
       <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -6936,8 +7201,9 @@
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:101">
       <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
@@ -6962,7 +7228,7 @@
       <c r="H32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -7062,13 +7328,14 @@
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
     </row>
-    <row r="33" spans="1:100">
+    <row r="33" spans="1:101">
       <c r="A33" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>572</v>
@@ -7086,8 +7353,8 @@
         <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="46" t="s">
-        <v>574</v>
+      <c r="I33" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -7180,8 +7447,9 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
     </row>
-    <row r="34" spans="1:100">
+    <row r="34" spans="1:101">
       <c r="A34" s="1" t="s">
         <v>505</v>
       </c>
@@ -7204,7 +7472,7 @@
         <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7316,8 +7584,9 @@
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:101">
       <c r="A35" s="1" t="s">
         <v>514</v>
       </c>
@@ -7340,7 +7609,7 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7452,8 +7721,9 @@
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:101">
       <c r="A36" s="1" t="s">
         <v>517</v>
       </c>
@@ -7476,7 +7746,7 @@
         <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7588,8 +7858,9 @@
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:101">
       <c r="A37" s="1" t="s">
         <v>520</v>
       </c>
@@ -7612,7 +7883,7 @@
         <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7724,8 +7995,9 @@
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
     </row>
-    <row r="38" spans="1:100">
+    <row r="38" spans="1:101">
       <c r="A38" s="1" t="s">
         <v>523</v>
       </c>
@@ -7748,7 +8020,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -7860,8 +8132,9 @@
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
     </row>
-    <row r="39" spans="1:100">
+    <row r="39" spans="1:101">
       <c r="A39" s="1" t="s">
         <v>526</v>
       </c>
@@ -7884,7 +8157,7 @@
         <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -7996,8 +8269,9 @@
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
     </row>
-    <row r="40" spans="1:100">
+    <row r="40" spans="1:101">
       <c r="A40" s="1" t="s">
         <v>529</v>
       </c>
@@ -8020,7 +8294,7 @@
         <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -8132,8 +8406,9 @@
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
     </row>
-    <row r="41" spans="1:100">
+    <row r="41" spans="1:101">
       <c r="A41" s="1" t="s">
         <v>532</v>
       </c>
@@ -8156,7 +8431,7 @@
         <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8268,8 +8543,9 @@
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
     </row>
-    <row r="42" spans="1:100">
+    <row r="42" spans="1:101">
       <c r="A42" s="1" t="s">
         <v>535</v>
       </c>
@@ -8292,7 +8568,7 @@
         <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8404,8 +8680,9 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
     </row>
-    <row r="43" spans="1:100">
+    <row r="43" spans="1:101">
       <c r="A43" s="1" t="s">
         <v>538</v>
       </c>
@@ -8428,7 +8705,7 @@
         <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8540,8 +8817,9 @@
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
     </row>
-    <row r="44" spans="1:100">
+    <row r="44" spans="1:101">
       <c r="A44" s="1" t="s">
         <v>543</v>
       </c>
@@ -8564,7 +8842,7 @@
         <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8676,8 +8954,9 @@
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
     </row>
-    <row r="45" spans="1:100" ht="19.5" customHeight="1">
+    <row r="45" spans="1:101" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>343</v>
       </c>
@@ -8702,7 +8981,7 @@
       <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -8806,8 +9085,9 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
     </row>
-    <row r="46" spans="1:100" ht="19.5" customHeight="1">
+    <row r="46" spans="1:101" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>348</v>
       </c>
@@ -8832,7 +9112,7 @@
       <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -8936,8 +9216,9 @@
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
     </row>
-    <row r="47" spans="1:100">
+    <row r="47" spans="1:101">
       <c r="A47" s="1" t="s">
         <v>350</v>
       </c>
@@ -8962,7 +9243,7 @@
       <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -9062,8 +9343,9 @@
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
     </row>
-    <row r="48" spans="1:100">
+    <row r="48" spans="1:101">
       <c r="A48" s="1" t="s">
         <v>353</v>
       </c>
@@ -9088,7 +9370,7 @@
       <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9188,8 +9470,9 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
     </row>
-    <row r="49" spans="1:100">
+    <row r="49" spans="1:101">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -9214,7 +9497,7 @@
       <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="48" t="s">
+      <c r="I49" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9314,8 +9597,9 @@
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
     </row>
-    <row r="50" spans="1:100">
+    <row r="50" spans="1:101">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -9340,7 +9624,7 @@
       <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9440,8 +9724,9 @@
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
     </row>
-    <row r="51" spans="1:100">
+    <row r="51" spans="1:101">
       <c r="A51" s="1" t="s">
         <v>356</v>
       </c>
@@ -9466,7 +9751,7 @@
       <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9566,8 +9851,9 @@
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
     </row>
-    <row r="52" spans="1:100">
+    <row r="52" spans="1:101">
       <c r="A52" s="1" t="s">
         <v>357</v>
       </c>
@@ -9592,7 +9878,7 @@
       <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9692,8 +9978,9 @@
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
     </row>
-    <row r="53" spans="1:100">
+    <row r="53" spans="1:101">
       <c r="A53" s="1" t="s">
         <v>358</v>
       </c>
@@ -9718,7 +10005,7 @@
       <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -9818,8 +10105,9 @@
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
     </row>
-    <row r="54" spans="1:100">
+    <row r="54" spans="1:101">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -9844,7 +10132,7 @@
       <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -9944,8 +10232,9 @@
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
+      <c r="CW54" s="1"/>
     </row>
-    <row r="55" spans="1:100">
+    <row r="55" spans="1:101">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -9968,7 +10257,7 @@
         <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -10068,8 +10357,9 @@
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
     </row>
-    <row r="56" spans="1:100">
+    <row r="56" spans="1:101">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -10092,7 +10382,7 @@
         <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10192,8 +10482,9 @@
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
     </row>
-    <row r="57" spans="1:100">
+    <row r="57" spans="1:101">
       <c r="A57" s="1" t="s">
         <v>362</v>
       </c>
@@ -10216,7 +10507,7 @@
         <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10316,8 +10607,9 @@
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
     </row>
-    <row r="58" spans="1:100">
+    <row r="58" spans="1:101">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -10340,7 +10632,7 @@
         <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10440,8 +10732,9 @@
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
+      <c r="CW58" s="1"/>
     </row>
-    <row r="59" spans="1:100">
+    <row r="59" spans="1:101">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -10466,7 +10759,7 @@
       <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10566,8 +10859,9 @@
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
+      <c r="CW59" s="1"/>
     </row>
-    <row r="60" spans="1:100">
+    <row r="60" spans="1:101">
       <c r="A60" s="1" t="s">
         <v>365</v>
       </c>
@@ -10592,7 +10886,7 @@
       <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10692,8 +10986,9 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
+      <c r="CW60" s="1"/>
     </row>
-    <row r="61" spans="1:100">
+    <row r="61" spans="1:101">
       <c r="A61" s="1" t="s">
         <v>366</v>
       </c>
@@ -10718,7 +11013,7 @@
       <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -10818,8 +11113,9 @@
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
+      <c r="CW61" s="1"/>
     </row>
-    <row r="62" spans="1:100">
+    <row r="62" spans="1:101">
       <c r="A62" s="1" t="s">
         <v>367</v>
       </c>
@@ -10844,7 +11140,7 @@
       <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -10944,8 +11240,9 @@
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
+      <c r="CW62" s="1"/>
     </row>
-    <row r="63" spans="1:100">
+    <row r="63" spans="1:101">
       <c r="A63" s="1" t="s">
         <v>368</v>
       </c>
@@ -10968,7 +11265,7 @@
         <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -11068,8 +11365,9 @@
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
+      <c r="CW63" s="1"/>
     </row>
-    <row r="64" spans="1:100">
+    <row r="64" spans="1:101">
       <c r="A64" s="1" t="s">
         <v>369</v>
       </c>
@@ -11092,7 +11390,7 @@
         <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11192,8 +11490,9 @@
       <c r="CT64" s="1"/>
       <c r="CU64" s="1"/>
       <c r="CV64" s="1"/>
+      <c r="CW64" s="1"/>
     </row>
-    <row r="65" spans="1:100">
+    <row r="65" spans="1:101">
       <c r="A65" s="1" t="s">
         <v>370</v>
       </c>
@@ -11218,7 +11517,7 @@
       <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11318,8 +11617,9 @@
       <c r="CT65" s="1"/>
       <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
+      <c r="CW65" s="1"/>
     </row>
-    <row r="66" spans="1:100">
+    <row r="66" spans="1:101">
       <c r="A66" s="1" t="s">
         <v>371</v>
       </c>
@@ -11344,7 +11644,7 @@
       <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11444,8 +11744,9 @@
       <c r="CT66" s="1"/>
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
+      <c r="CW66" s="1"/>
     </row>
-    <row r="67" spans="1:100">
+    <row r="67" spans="1:101">
       <c r="A67" s="1" t="s">
         <v>372</v>
       </c>
@@ -11468,7 +11769,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="48" t="s">
+      <c r="I67" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11570,8 +11871,9 @@
       <c r="CT67" s="1"/>
       <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
+      <c r="CW67" s="1"/>
     </row>
-    <row r="68" spans="1:100">
+    <row r="68" spans="1:101">
       <c r="A68" s="1" t="s">
         <v>373</v>
       </c>
@@ -11594,7 +11896,7 @@
         <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11696,8 +11998,9 @@
       <c r="CT68" s="1"/>
       <c r="CU68" s="1"/>
       <c r="CV68" s="1"/>
+      <c r="CW68" s="1"/>
     </row>
-    <row r="69" spans="1:100">
+    <row r="69" spans="1:101">
       <c r="A69" s="1" t="s">
         <v>374</v>
       </c>
@@ -11722,7 +12025,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -11824,8 +12127,9 @@
       <c r="CT69" s="1"/>
       <c r="CU69" s="1"/>
       <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
     </row>
-    <row r="70" spans="1:100">
+    <row r="70" spans="1:101">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -11850,7 +12154,7 @@
       <c r="H70" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -11952,8 +12256,9 @@
       <c r="CT70" s="1"/>
       <c r="CU70" s="1"/>
       <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
     </row>
-    <row r="71" spans="1:100">
+    <row r="71" spans="1:101">
       <c r="A71" s="1" t="s">
         <v>376</v>
       </c>
@@ -11978,7 +12283,7 @@
       <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I71" s="48" t="s">
+      <c r="I71" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -12080,8 +12385,9 @@
       <c r="CT71" s="1"/>
       <c r="CU71" s="1"/>
       <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
     </row>
-    <row r="72" spans="1:100">
+    <row r="72" spans="1:101">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -12106,7 +12412,7 @@
       <c r="H72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="I72" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12208,8 +12514,9 @@
       <c r="CT72" s="1"/>
       <c r="CU72" s="1"/>
       <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
     </row>
-    <row r="73" spans="1:100">
+    <row r="73" spans="1:101">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -12234,7 +12541,7 @@
       <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12336,8 +12643,9 @@
       <c r="CT73" s="1"/>
       <c r="CU73" s="1"/>
       <c r="CV73" s="1"/>
+      <c r="CW73" s="1"/>
     </row>
-    <row r="74" spans="1:100">
+    <row r="74" spans="1:101">
       <c r="A74" s="1" t="s">
         <v>379</v>
       </c>
@@ -12362,7 +12670,7 @@
       <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I74" s="48" t="s">
+      <c r="I74" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12464,8 +12772,9 @@
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
       <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
     </row>
-    <row r="75" spans="1:100">
+    <row r="75" spans="1:101">
       <c r="A75" s="1" t="s">
         <v>380</v>
       </c>
@@ -12490,7 +12799,7 @@
       <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="48" t="s">
+      <c r="I75" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12592,8 +12901,9 @@
       <c r="CT75" s="1"/>
       <c r="CU75" s="1"/>
       <c r="CV75" s="1"/>
+      <c r="CW75" s="1"/>
     </row>
-    <row r="76" spans="1:100">
+    <row r="76" spans="1:101">
       <c r="A76" s="1" t="s">
         <v>381</v>
       </c>
@@ -12618,7 +12928,7 @@
       <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -12720,8 +13030,9 @@
       <c r="CT76" s="1"/>
       <c r="CU76" s="1"/>
       <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
     </row>
-    <row r="77" spans="1:100">
+    <row r="77" spans="1:101">
       <c r="A77" s="1" t="s">
         <v>550</v>
       </c>
@@ -12744,7 +13055,7 @@
         <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="48" t="s">
+      <c r="I77" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -12856,8 +13167,9 @@
       <c r="CV77" s="1" t="s">
         <v>559</v>
       </c>
+      <c r="CW77" s="1"/>
     </row>
-    <row r="78" spans="1:100">
+    <row r="78" spans="1:101">
       <c r="A78" s="36" t="s">
         <v>563</v>
       </c>
@@ -12992,16 +13304,17 @@
       <c r="CT78" s="42"/>
       <c r="CU78" s="43"/>
       <c r="CV78" s="36"/>
+      <c r="CW78" s="1"/>
     </row>
-    <row r="79" spans="1:100">
+    <row r="79" spans="1:101">
       <c r="A79" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B79" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D79" s="35" t="s">
         <v>503</v>
@@ -13010,11 +13323,11 @@
         <v>255</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="48" t="s">
+      <c r="I79" s="52" t="s">
         <v>188</v>
       </c>
       <c r="J79" s="1"/>
@@ -13108,122 +13421,3076 @@
       <c r="CT79" s="26"/>
       <c r="CU79" s="23"/>
       <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
     </row>
-    <row r="80" spans="1:100">
-      <c r="A80" s="1" t="s">
-        <v>578</v>
+    <row r="80" spans="1:101">
+      <c r="A80" s="36" t="s">
+        <v>577</v>
       </c>
       <c r="B80" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="35" t="s">
-        <v>579</v>
-      </c>
-      <c r="D80" s="35" t="s">
+      <c r="C80" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
+      <c r="AC80" s="36"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="36"/>
+      <c r="AG80" s="36"/>
+      <c r="AH80" s="36"/>
+      <c r="AI80" s="36"/>
+      <c r="AJ80" s="36"/>
+      <c r="AK80" s="36"/>
+      <c r="AL80" s="36"/>
+      <c r="AM80" s="36"/>
+      <c r="AN80" s="36"/>
+      <c r="AO80" s="36"/>
+      <c r="AP80" s="36"/>
+      <c r="AQ80" s="36"/>
+      <c r="AR80" s="36"/>
+      <c r="AS80" s="36"/>
+      <c r="AT80" s="36"/>
+      <c r="AU80" s="36"/>
+      <c r="AV80" s="36"/>
+      <c r="AW80" s="38"/>
+      <c r="AX80" s="36"/>
+      <c r="AY80" s="36"/>
+      <c r="AZ80" s="36"/>
+      <c r="BA80" s="36"/>
+      <c r="BB80" s="36"/>
+      <c r="BC80" s="36"/>
+      <c r="BD80" s="39"/>
+      <c r="BE80" s="39"/>
+      <c r="BF80" s="39"/>
+      <c r="BG80" s="39"/>
+      <c r="BH80" s="39"/>
+      <c r="BI80" s="39"/>
+      <c r="BJ80" s="39"/>
+      <c r="BK80" s="39"/>
+      <c r="BL80" s="39"/>
+      <c r="BM80" s="39"/>
+      <c r="BN80" s="39"/>
+      <c r="BO80" s="39"/>
+      <c r="BP80" s="39"/>
+      <c r="BQ80" s="39"/>
+      <c r="BR80" s="39"/>
+      <c r="BS80" s="39"/>
+      <c r="BT80" s="39"/>
+      <c r="BU80" s="39"/>
+      <c r="BV80" s="39"/>
+      <c r="BW80" s="39"/>
+      <c r="BX80" s="39"/>
+      <c r="BY80" s="39"/>
+      <c r="BZ80" s="39"/>
+      <c r="CA80" s="39"/>
+      <c r="CB80" s="39"/>
+      <c r="CC80" s="39"/>
+      <c r="CD80" s="39"/>
+      <c r="CE80" s="39"/>
+      <c r="CF80" s="39"/>
+      <c r="CG80" s="39"/>
+      <c r="CH80" s="39"/>
+      <c r="CI80" s="40"/>
+      <c r="CJ80" s="39"/>
+      <c r="CK80" s="39"/>
+      <c r="CL80" s="39"/>
+      <c r="CM80" s="39"/>
+      <c r="CN80" s="39"/>
+      <c r="CO80" s="39"/>
+      <c r="CP80" s="39"/>
+      <c r="CQ80" s="36"/>
+      <c r="CR80" s="39"/>
+      <c r="CS80" s="41"/>
+      <c r="CT80" s="42"/>
+      <c r="CU80" s="43"/>
+      <c r="CV80" s="36"/>
+      <c r="CW80" s="1"/>
+    </row>
+    <row r="81" spans="1:101" ht="15" customHeight="1">
+      <c r="A81" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="48" t="s">
+      <c r="B81" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AV80" s="1"/>
-      <c r="AW80" s="24"/>
-      <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="1"/>
-      <c r="BD80" s="27"/>
-      <c r="BE80" s="27"/>
-      <c r="BF80" s="27"/>
-      <c r="BG80" s="27"/>
-      <c r="BH80" s="27"/>
-      <c r="BI80" s="27"/>
-      <c r="BJ80" s="27"/>
-      <c r="BK80" s="27"/>
-      <c r="BL80" s="27"/>
-      <c r="BM80" s="27"/>
-      <c r="BN80" s="27"/>
-      <c r="BO80" s="27"/>
-      <c r="BP80" s="27"/>
-      <c r="BQ80" s="27"/>
-      <c r="BR80" s="27"/>
-      <c r="BS80" s="27"/>
-      <c r="BT80" s="27"/>
-      <c r="BU80" s="27"/>
-      <c r="BV80" s="27"/>
-      <c r="BW80" s="27"/>
-      <c r="BX80" s="27"/>
-      <c r="BY80" s="27"/>
-      <c r="BZ80" s="27"/>
-      <c r="CA80" s="27"/>
-      <c r="CB80" s="27"/>
-      <c r="CC80" s="27"/>
-      <c r="CD80" s="27"/>
-      <c r="CE80" s="27"/>
-      <c r="CF80" s="27"/>
-      <c r="CG80" s="27"/>
-      <c r="CH80" s="27"/>
-      <c r="CI80" s="28"/>
-      <c r="CJ80" s="27"/>
-      <c r="CK80" s="27"/>
-      <c r="CL80" s="27"/>
-      <c r="CM80" s="27"/>
-      <c r="CN80" s="27"/>
-      <c r="CO80" s="27"/>
-      <c r="CP80" s="27"/>
-      <c r="CQ80" s="1"/>
-      <c r="CR80" s="27"/>
-      <c r="CS80" s="25"/>
-      <c r="CT80" s="26"/>
-      <c r="CU80" s="23"/>
-      <c r="CV80" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="27"/>
+      <c r="BE81" s="27"/>
+      <c r="BF81" s="27"/>
+      <c r="BG81" s="27"/>
+      <c r="BH81" s="27"/>
+      <c r="BI81" s="27"/>
+      <c r="BJ81" s="27"/>
+      <c r="BK81" s="27"/>
+      <c r="BL81" s="27"/>
+      <c r="BM81" s="27"/>
+      <c r="BN81" s="27"/>
+      <c r="BO81" s="27"/>
+      <c r="BP81" s="27"/>
+      <c r="BQ81" s="27"/>
+      <c r="BR81" s="27"/>
+      <c r="BS81" s="27"/>
+      <c r="BT81" s="27"/>
+      <c r="BU81" s="27"/>
+      <c r="BV81" s="27"/>
+      <c r="BW81" s="27"/>
+      <c r="BX81" s="27"/>
+      <c r="BY81" s="27"/>
+      <c r="BZ81" s="27"/>
+      <c r="CA81" s="27"/>
+      <c r="CB81" s="27"/>
+      <c r="CC81" s="27"/>
+      <c r="CD81" s="27"/>
+      <c r="CE81" s="27"/>
+      <c r="CF81" s="27"/>
+      <c r="CG81" s="27"/>
+      <c r="CH81" s="27"/>
+      <c r="CI81" s="28"/>
+      <c r="CJ81" s="27"/>
+      <c r="CK81" s="27"/>
+      <c r="CL81" s="27"/>
+      <c r="CM81" s="27"/>
+      <c r="CN81" s="27"/>
+      <c r="CO81" s="27"/>
+      <c r="CP81" s="27"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="27"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="26"/>
+      <c r="CU81" s="23"/>
+      <c r="CV81" s="1"/>
+      <c r="CW81" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101" ht="15.75" customHeight="1">
+      <c r="A82" s="44" t="s">
+        <v>582</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="27"/>
+      <c r="BE82" s="27"/>
+      <c r="BF82" s="27"/>
+      <c r="BG82" s="27"/>
+      <c r="BH82" s="27"/>
+      <c r="BI82" s="27"/>
+      <c r="BJ82" s="27"/>
+      <c r="BK82" s="27"/>
+      <c r="BL82" s="27"/>
+      <c r="BM82" s="27"/>
+      <c r="BN82" s="27"/>
+      <c r="BO82" s="27"/>
+      <c r="BP82" s="27"/>
+      <c r="BQ82" s="27"/>
+      <c r="BR82" s="27"/>
+      <c r="BS82" s="27"/>
+      <c r="BT82" s="27"/>
+      <c r="BU82" s="27"/>
+      <c r="BV82" s="27"/>
+      <c r="BW82" s="27"/>
+      <c r="BX82" s="27"/>
+      <c r="BY82" s="27"/>
+      <c r="BZ82" s="27"/>
+      <c r="CA82" s="27"/>
+      <c r="CB82" s="27"/>
+      <c r="CC82" s="27"/>
+      <c r="CD82" s="27"/>
+      <c r="CE82" s="27"/>
+      <c r="CF82" s="27"/>
+      <c r="CG82" s="27"/>
+      <c r="CH82" s="27"/>
+      <c r="CI82" s="28"/>
+      <c r="CJ82" s="27"/>
+      <c r="CK82" s="27"/>
+      <c r="CL82" s="27"/>
+      <c r="CM82" s="27"/>
+      <c r="CN82" s="27"/>
+      <c r="CO82" s="27"/>
+      <c r="CP82" s="27"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="27"/>
+      <c r="CS82" s="25"/>
+      <c r="CT82" s="26"/>
+      <c r="CU82" s="23"/>
+      <c r="CV82" s="1"/>
+      <c r="CW82" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101" ht="17.25" customHeight="1">
+      <c r="A83" s="44" t="s">
+        <v>583</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="27"/>
+      <c r="BE83" s="27"/>
+      <c r="BF83" s="27"/>
+      <c r="BG83" s="27"/>
+      <c r="BH83" s="27"/>
+      <c r="BI83" s="27"/>
+      <c r="BJ83" s="27"/>
+      <c r="BK83" s="27"/>
+      <c r="BL83" s="27"/>
+      <c r="BM83" s="27"/>
+      <c r="BN83" s="27"/>
+      <c r="BO83" s="27"/>
+      <c r="BP83" s="27"/>
+      <c r="BQ83" s="27"/>
+      <c r="BR83" s="27"/>
+      <c r="BS83" s="27"/>
+      <c r="BT83" s="27"/>
+      <c r="BU83" s="27"/>
+      <c r="BV83" s="27"/>
+      <c r="BW83" s="27"/>
+      <c r="BX83" s="27"/>
+      <c r="BY83" s="27"/>
+      <c r="BZ83" s="27"/>
+      <c r="CA83" s="27"/>
+      <c r="CB83" s="27"/>
+      <c r="CC83" s="27"/>
+      <c r="CD83" s="27"/>
+      <c r="CE83" s="27"/>
+      <c r="CF83" s="27"/>
+      <c r="CG83" s="27"/>
+      <c r="CH83" s="27"/>
+      <c r="CI83" s="28"/>
+      <c r="CJ83" s="27"/>
+      <c r="CK83" s="27"/>
+      <c r="CL83" s="27"/>
+      <c r="CM83" s="27"/>
+      <c r="CN83" s="27"/>
+      <c r="CO83" s="27"/>
+      <c r="CP83" s="27"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="27"/>
+      <c r="CS83" s="25"/>
+      <c r="CT83" s="26"/>
+      <c r="CU83" s="23"/>
+      <c r="CV83" s="1"/>
+      <c r="CW83" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:101" ht="15" customHeight="1">
+      <c r="A84" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E84" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="27"/>
+      <c r="BE84" s="27"/>
+      <c r="BF84" s="27"/>
+      <c r="BG84" s="27"/>
+      <c r="BH84" s="27"/>
+      <c r="BI84" s="27"/>
+      <c r="BJ84" s="27"/>
+      <c r="BK84" s="27"/>
+      <c r="BL84" s="27"/>
+      <c r="BM84" s="27"/>
+      <c r="BN84" s="27"/>
+      <c r="BO84" s="27"/>
+      <c r="BP84" s="27"/>
+      <c r="BQ84" s="27"/>
+      <c r="BR84" s="27"/>
+      <c r="BS84" s="27"/>
+      <c r="BT84" s="27"/>
+      <c r="BU84" s="27"/>
+      <c r="BV84" s="27"/>
+      <c r="BW84" s="27"/>
+      <c r="BX84" s="27"/>
+      <c r="BY84" s="27"/>
+      <c r="BZ84" s="27"/>
+      <c r="CA84" s="27"/>
+      <c r="CB84" s="27"/>
+      <c r="CC84" s="27"/>
+      <c r="CD84" s="27"/>
+      <c r="CE84" s="27"/>
+      <c r="CF84" s="27"/>
+      <c r="CG84" s="27"/>
+      <c r="CH84" s="27"/>
+      <c r="CI84" s="28"/>
+      <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="27"/>
+      <c r="CM84" s="27"/>
+      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
+      <c r="CP84" s="27"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="27"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="26"/>
+      <c r="CU84" s="23"/>
+      <c r="CV84" s="1"/>
+      <c r="CW84" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:101">
+      <c r="A85" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="27"/>
+      <c r="BE85" s="27"/>
+      <c r="BF85" s="27"/>
+      <c r="BG85" s="27"/>
+      <c r="BH85" s="27"/>
+      <c r="BI85" s="27"/>
+      <c r="BJ85" s="27"/>
+      <c r="BK85" s="27"/>
+      <c r="BL85" s="27"/>
+      <c r="BM85" s="27"/>
+      <c r="BN85" s="27"/>
+      <c r="BO85" s="27"/>
+      <c r="BP85" s="27"/>
+      <c r="BQ85" s="27"/>
+      <c r="BR85" s="27"/>
+      <c r="BS85" s="27"/>
+      <c r="BT85" s="27"/>
+      <c r="BU85" s="27"/>
+      <c r="BV85" s="27"/>
+      <c r="BW85" s="27"/>
+      <c r="BX85" s="27"/>
+      <c r="BY85" s="27"/>
+      <c r="BZ85" s="27"/>
+      <c r="CA85" s="27"/>
+      <c r="CB85" s="27"/>
+      <c r="CC85" s="27"/>
+      <c r="CD85" s="27"/>
+      <c r="CE85" s="27"/>
+      <c r="CF85" s="27"/>
+      <c r="CG85" s="27"/>
+      <c r="CH85" s="27"/>
+      <c r="CI85" s="28"/>
+      <c r="CJ85" s="27"/>
+      <c r="CK85" s="27"/>
+      <c r="CL85" s="27"/>
+      <c r="CM85" s="27"/>
+      <c r="CN85" s="27"/>
+      <c r="CO85" s="27"/>
+      <c r="CP85" s="27"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="27"/>
+      <c r="CS85" s="25"/>
+      <c r="CT85" s="26"/>
+      <c r="CU85" s="23"/>
+      <c r="CV85" s="1"/>
+      <c r="CW85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:101" ht="15.75" customHeight="1">
+      <c r="A86" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="27"/>
+      <c r="BE86" s="27"/>
+      <c r="BF86" s="27"/>
+      <c r="BG86" s="27"/>
+      <c r="BH86" s="27"/>
+      <c r="BI86" s="27"/>
+      <c r="BJ86" s="27"/>
+      <c r="BK86" s="27"/>
+      <c r="BL86" s="27"/>
+      <c r="BM86" s="27"/>
+      <c r="BN86" s="27"/>
+      <c r="BO86" s="27"/>
+      <c r="BP86" s="27"/>
+      <c r="BQ86" s="27"/>
+      <c r="BR86" s="27"/>
+      <c r="BS86" s="27"/>
+      <c r="BT86" s="27"/>
+      <c r="BU86" s="27"/>
+      <c r="BV86" s="27"/>
+      <c r="BW86" s="27"/>
+      <c r="BX86" s="27"/>
+      <c r="BY86" s="27"/>
+      <c r="BZ86" s="27"/>
+      <c r="CA86" s="27"/>
+      <c r="CB86" s="27"/>
+      <c r="CC86" s="27"/>
+      <c r="CD86" s="27"/>
+      <c r="CE86" s="27"/>
+      <c r="CF86" s="27"/>
+      <c r="CG86" s="27"/>
+      <c r="CH86" s="27"/>
+      <c r="CI86" s="28"/>
+      <c r="CJ86" s="27"/>
+      <c r="CK86" s="27"/>
+      <c r="CL86" s="27"/>
+      <c r="CM86" s="27"/>
+      <c r="CN86" s="27"/>
+      <c r="CO86" s="27"/>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="27"/>
+      <c r="CS86" s="25"/>
+      <c r="CT86" s="26"/>
+      <c r="CU86" s="23"/>
+      <c r="CV86" s="1"/>
+      <c r="CW86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:101">
+      <c r="A87" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D87" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="27"/>
+      <c r="BE87" s="27"/>
+      <c r="BF87" s="27"/>
+      <c r="BG87" s="27"/>
+      <c r="BH87" s="27"/>
+      <c r="BI87" s="27"/>
+      <c r="BJ87" s="27"/>
+      <c r="BK87" s="27"/>
+      <c r="BL87" s="27"/>
+      <c r="BM87" s="27"/>
+      <c r="BN87" s="27"/>
+      <c r="BO87" s="27"/>
+      <c r="BP87" s="27"/>
+      <c r="BQ87" s="27"/>
+      <c r="BR87" s="27"/>
+      <c r="BS87" s="27"/>
+      <c r="BT87" s="27"/>
+      <c r="BU87" s="27"/>
+      <c r="BV87" s="27"/>
+      <c r="BW87" s="27"/>
+      <c r="BX87" s="27"/>
+      <c r="BY87" s="27"/>
+      <c r="BZ87" s="27"/>
+      <c r="CA87" s="27"/>
+      <c r="CB87" s="27"/>
+      <c r="CC87" s="27"/>
+      <c r="CD87" s="27"/>
+      <c r="CE87" s="27"/>
+      <c r="CF87" s="27"/>
+      <c r="CG87" s="27"/>
+      <c r="CH87" s="27"/>
+      <c r="CI87" s="28"/>
+      <c r="CJ87" s="27"/>
+      <c r="CK87" s="27"/>
+      <c r="CL87" s="27"/>
+      <c r="CM87" s="27"/>
+      <c r="CN87" s="27"/>
+      <c r="CO87" s="27"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="27"/>
+      <c r="CS87" s="25"/>
+      <c r="CT87" s="26"/>
+      <c r="CU87" s="23"/>
+      <c r="CV87" s="1"/>
+      <c r="CW87" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:101">
+      <c r="A88" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="27"/>
+      <c r="BE88" s="27"/>
+      <c r="BF88" s="27"/>
+      <c r="BG88" s="27"/>
+      <c r="BH88" s="27"/>
+      <c r="BI88" s="27"/>
+      <c r="BJ88" s="27"/>
+      <c r="BK88" s="27"/>
+      <c r="BL88" s="27"/>
+      <c r="BM88" s="27"/>
+      <c r="BN88" s="27"/>
+      <c r="BO88" s="27"/>
+      <c r="BP88" s="27"/>
+      <c r="BQ88" s="27"/>
+      <c r="BR88" s="27"/>
+      <c r="BS88" s="27"/>
+      <c r="BT88" s="27"/>
+      <c r="BU88" s="27"/>
+      <c r="BV88" s="27"/>
+      <c r="BW88" s="27"/>
+      <c r="BX88" s="27"/>
+      <c r="BY88" s="27"/>
+      <c r="BZ88" s="27"/>
+      <c r="CA88" s="27"/>
+      <c r="CB88" s="27"/>
+      <c r="CC88" s="27"/>
+      <c r="CD88" s="27"/>
+      <c r="CE88" s="27"/>
+      <c r="CF88" s="27"/>
+      <c r="CG88" s="27"/>
+      <c r="CH88" s="27"/>
+      <c r="CI88" s="28"/>
+      <c r="CJ88" s="27"/>
+      <c r="CK88" s="27"/>
+      <c r="CL88" s="27"/>
+      <c r="CM88" s="27"/>
+      <c r="CN88" s="27"/>
+      <c r="CO88" s="27"/>
+      <c r="CP88" s="27"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="27"/>
+      <c r="CS88" s="25"/>
+      <c r="CT88" s="26"/>
+      <c r="CU88" s="23"/>
+      <c r="CV88" s="1"/>
+      <c r="CW88" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:101">
+      <c r="A89" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="27"/>
+      <c r="BE89" s="27"/>
+      <c r="BF89" s="27"/>
+      <c r="BG89" s="27"/>
+      <c r="BH89" s="27"/>
+      <c r="BI89" s="27"/>
+      <c r="BJ89" s="27"/>
+      <c r="BK89" s="27"/>
+      <c r="BL89" s="27"/>
+      <c r="BM89" s="27"/>
+      <c r="BN89" s="27"/>
+      <c r="BO89" s="27"/>
+      <c r="BP89" s="27"/>
+      <c r="BQ89" s="27"/>
+      <c r="BR89" s="27"/>
+      <c r="BS89" s="27"/>
+      <c r="BT89" s="27"/>
+      <c r="BU89" s="27"/>
+      <c r="BV89" s="27"/>
+      <c r="BW89" s="27"/>
+      <c r="BX89" s="27"/>
+      <c r="BY89" s="27"/>
+      <c r="BZ89" s="27"/>
+      <c r="CA89" s="27"/>
+      <c r="CB89" s="27"/>
+      <c r="CC89" s="27"/>
+      <c r="CD89" s="27"/>
+      <c r="CE89" s="27"/>
+      <c r="CF89" s="27"/>
+      <c r="CG89" s="27"/>
+      <c r="CH89" s="27"/>
+      <c r="CI89" s="28"/>
+      <c r="CJ89" s="27"/>
+      <c r="CK89" s="27"/>
+      <c r="CL89" s="27"/>
+      <c r="CM89" s="27"/>
+      <c r="CN89" s="27"/>
+      <c r="CO89" s="27"/>
+      <c r="CP89" s="27"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="27"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="26"/>
+      <c r="CU89" s="23"/>
+      <c r="CV89" s="1"/>
+      <c r="CW89" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:101">
+      <c r="A90" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="27"/>
+      <c r="BE90" s="27"/>
+      <c r="BF90" s="27"/>
+      <c r="BG90" s="27"/>
+      <c r="BH90" s="27"/>
+      <c r="BI90" s="27"/>
+      <c r="BJ90" s="27"/>
+      <c r="BK90" s="27"/>
+      <c r="BL90" s="27"/>
+      <c r="BM90" s="27"/>
+      <c r="BN90" s="27"/>
+      <c r="BO90" s="27"/>
+      <c r="BP90" s="27"/>
+      <c r="BQ90" s="27"/>
+      <c r="BR90" s="27"/>
+      <c r="BS90" s="27"/>
+      <c r="BT90" s="27"/>
+      <c r="BU90" s="27"/>
+      <c r="BV90" s="27"/>
+      <c r="BW90" s="27"/>
+      <c r="BX90" s="27"/>
+      <c r="BY90" s="27"/>
+      <c r="BZ90" s="27"/>
+      <c r="CA90" s="27"/>
+      <c r="CB90" s="27"/>
+      <c r="CC90" s="27"/>
+      <c r="CD90" s="27"/>
+      <c r="CE90" s="27"/>
+      <c r="CF90" s="27"/>
+      <c r="CG90" s="27"/>
+      <c r="CH90" s="27"/>
+      <c r="CI90" s="28"/>
+      <c r="CJ90" s="27"/>
+      <c r="CK90" s="27"/>
+      <c r="CL90" s="27"/>
+      <c r="CM90" s="27"/>
+      <c r="CN90" s="27"/>
+      <c r="CO90" s="27"/>
+      <c r="CP90" s="27"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="27"/>
+      <c r="CS90" s="25"/>
+      <c r="CT90" s="26"/>
+      <c r="CU90" s="23"/>
+      <c r="CV90" s="1"/>
+      <c r="CW90" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:101">
+      <c r="A91" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="27"/>
+      <c r="BE91" s="27"/>
+      <c r="BF91" s="27"/>
+      <c r="BG91" s="27"/>
+      <c r="BH91" s="27"/>
+      <c r="BI91" s="27"/>
+      <c r="BJ91" s="27"/>
+      <c r="BK91" s="27"/>
+      <c r="BL91" s="27"/>
+      <c r="BM91" s="27"/>
+      <c r="BN91" s="27"/>
+      <c r="BO91" s="27"/>
+      <c r="BP91" s="27"/>
+      <c r="BQ91" s="27"/>
+      <c r="BR91" s="27"/>
+      <c r="BS91" s="27"/>
+      <c r="BT91" s="27"/>
+      <c r="BU91" s="27"/>
+      <c r="BV91" s="27"/>
+      <c r="BW91" s="27"/>
+      <c r="BX91" s="27"/>
+      <c r="BY91" s="27"/>
+      <c r="BZ91" s="27"/>
+      <c r="CA91" s="27"/>
+      <c r="CB91" s="27"/>
+      <c r="CC91" s="27"/>
+      <c r="CD91" s="27"/>
+      <c r="CE91" s="27"/>
+      <c r="CF91" s="27"/>
+      <c r="CG91" s="27"/>
+      <c r="CH91" s="27"/>
+      <c r="CI91" s="28"/>
+      <c r="CJ91" s="27"/>
+      <c r="CK91" s="27"/>
+      <c r="CL91" s="27"/>
+      <c r="CM91" s="27"/>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="25"/>
+      <c r="CT91" s="26"/>
+      <c r="CU91" s="23"/>
+      <c r="CV91" s="1"/>
+      <c r="CW91" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:101" ht="15" customHeight="1">
+      <c r="A92" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="27"/>
+      <c r="BE92" s="27"/>
+      <c r="BF92" s="27"/>
+      <c r="BG92" s="27"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+      <c r="BJ92" s="27"/>
+      <c r="BK92" s="27"/>
+      <c r="BL92" s="27"/>
+      <c r="BM92" s="27"/>
+      <c r="BN92" s="27"/>
+      <c r="BO92" s="27"/>
+      <c r="BP92" s="27"/>
+      <c r="BQ92" s="27"/>
+      <c r="BR92" s="27"/>
+      <c r="BS92" s="27"/>
+      <c r="BT92" s="27"/>
+      <c r="BU92" s="27"/>
+      <c r="BV92" s="27"/>
+      <c r="BW92" s="27"/>
+      <c r="BX92" s="27"/>
+      <c r="BY92" s="27"/>
+      <c r="BZ92" s="27"/>
+      <c r="CA92" s="27"/>
+      <c r="CB92" s="27"/>
+      <c r="CC92" s="27"/>
+      <c r="CD92" s="27"/>
+      <c r="CE92" s="27"/>
+      <c r="CF92" s="27"/>
+      <c r="CG92" s="27"/>
+      <c r="CH92" s="27"/>
+      <c r="CI92" s="28"/>
+      <c r="CJ92" s="27"/>
+      <c r="CK92" s="27"/>
+      <c r="CL92" s="27"/>
+      <c r="CM92" s="27"/>
+      <c r="CN92" s="27"/>
+      <c r="CO92" s="27"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="27"/>
+      <c r="CS92" s="25"/>
+      <c r="CT92" s="26"/>
+      <c r="CU92" s="23"/>
+      <c r="CV92" s="1"/>
+      <c r="CW92" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:101">
+      <c r="A93" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="27"/>
+      <c r="BE93" s="27"/>
+      <c r="BF93" s="27"/>
+      <c r="BG93" s="27"/>
+      <c r="BH93" s="27"/>
+      <c r="BI93" s="27"/>
+      <c r="BJ93" s="27"/>
+      <c r="BK93" s="27"/>
+      <c r="BL93" s="27"/>
+      <c r="BM93" s="27"/>
+      <c r="BN93" s="27"/>
+      <c r="BO93" s="27"/>
+      <c r="BP93" s="27"/>
+      <c r="BQ93" s="27"/>
+      <c r="BR93" s="27"/>
+      <c r="BS93" s="27"/>
+      <c r="BT93" s="27"/>
+      <c r="BU93" s="27"/>
+      <c r="BV93" s="27"/>
+      <c r="BW93" s="27"/>
+      <c r="BX93" s="27"/>
+      <c r="BY93" s="27"/>
+      <c r="BZ93" s="27"/>
+      <c r="CA93" s="27"/>
+      <c r="CB93" s="27"/>
+      <c r="CC93" s="27"/>
+      <c r="CD93" s="27"/>
+      <c r="CE93" s="27"/>
+      <c r="CF93" s="27"/>
+      <c r="CG93" s="27"/>
+      <c r="CH93" s="27"/>
+      <c r="CI93" s="28"/>
+      <c r="CJ93" s="27"/>
+      <c r="CK93" s="27"/>
+      <c r="CL93" s="27"/>
+      <c r="CM93" s="27"/>
+      <c r="CN93" s="27"/>
+      <c r="CO93" s="27"/>
+      <c r="CP93" s="27"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="27"/>
+      <c r="CS93" s="25"/>
+      <c r="CT93" s="26"/>
+      <c r="CU93" s="23"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:101">
+      <c r="A94" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E94" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F94" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="27"/>
+      <c r="BE94" s="27"/>
+      <c r="BF94" s="27"/>
+      <c r="BG94" s="27"/>
+      <c r="BH94" s="27"/>
+      <c r="BI94" s="27"/>
+      <c r="BJ94" s="27"/>
+      <c r="BK94" s="27"/>
+      <c r="BL94" s="27"/>
+      <c r="BM94" s="27"/>
+      <c r="BN94" s="27"/>
+      <c r="BO94" s="27"/>
+      <c r="BP94" s="27"/>
+      <c r="BQ94" s="27"/>
+      <c r="BR94" s="27"/>
+      <c r="BS94" s="27"/>
+      <c r="BT94" s="27"/>
+      <c r="BU94" s="27"/>
+      <c r="BV94" s="27"/>
+      <c r="BW94" s="27"/>
+      <c r="BX94" s="27"/>
+      <c r="BY94" s="27"/>
+      <c r="BZ94" s="27"/>
+      <c r="CA94" s="27"/>
+      <c r="CB94" s="27"/>
+      <c r="CC94" s="27"/>
+      <c r="CD94" s="27"/>
+      <c r="CE94" s="27"/>
+      <c r="CF94" s="27"/>
+      <c r="CG94" s="27"/>
+      <c r="CH94" s="27"/>
+      <c r="CI94" s="28"/>
+      <c r="CJ94" s="27"/>
+      <c r="CK94" s="27"/>
+      <c r="CL94" s="27"/>
+      <c r="CM94" s="27"/>
+      <c r="CN94" s="27"/>
+      <c r="CO94" s="27"/>
+      <c r="CP94" s="27"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="27"/>
+      <c r="CS94" s="25"/>
+      <c r="CT94" s="26"/>
+      <c r="CU94" s="23"/>
+      <c r="CV94" s="1"/>
+      <c r="CW94" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:101" ht="14.25" customHeight="1">
+      <c r="A95" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="27"/>
+      <c r="BE95" s="27"/>
+      <c r="BF95" s="27"/>
+      <c r="BG95" s="27"/>
+      <c r="BH95" s="27"/>
+      <c r="BI95" s="27"/>
+      <c r="BJ95" s="27"/>
+      <c r="BK95" s="27"/>
+      <c r="BL95" s="27"/>
+      <c r="BM95" s="27"/>
+      <c r="BN95" s="27"/>
+      <c r="BO95" s="27"/>
+      <c r="BP95" s="27"/>
+      <c r="BQ95" s="27"/>
+      <c r="BR95" s="27"/>
+      <c r="BS95" s="27"/>
+      <c r="BT95" s="27"/>
+      <c r="BU95" s="27"/>
+      <c r="BV95" s="27"/>
+      <c r="BW95" s="27"/>
+      <c r="BX95" s="27"/>
+      <c r="BY95" s="27"/>
+      <c r="BZ95" s="27"/>
+      <c r="CA95" s="27"/>
+      <c r="CB95" s="27"/>
+      <c r="CC95" s="27"/>
+      <c r="CD95" s="27"/>
+      <c r="CE95" s="27"/>
+      <c r="CF95" s="27"/>
+      <c r="CG95" s="27"/>
+      <c r="CH95" s="27"/>
+      <c r="CI95" s="28"/>
+      <c r="CJ95" s="27"/>
+      <c r="CK95" s="27"/>
+      <c r="CL95" s="27"/>
+      <c r="CM95" s="27"/>
+      <c r="CN95" s="27"/>
+      <c r="CO95" s="27"/>
+      <c r="CP95" s="27"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="27"/>
+      <c r="CS95" s="25"/>
+      <c r="CT95" s="26"/>
+      <c r="CU95" s="23"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:101" ht="16.5" customHeight="1">
+      <c r="A96" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E96" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="27"/>
+      <c r="BE96" s="27"/>
+      <c r="BF96" s="27"/>
+      <c r="BG96" s="27"/>
+      <c r="BH96" s="27"/>
+      <c r="BI96" s="27"/>
+      <c r="BJ96" s="27"/>
+      <c r="BK96" s="27"/>
+      <c r="BL96" s="27"/>
+      <c r="BM96" s="27"/>
+      <c r="BN96" s="27"/>
+      <c r="BO96" s="27"/>
+      <c r="BP96" s="27"/>
+      <c r="BQ96" s="27"/>
+      <c r="BR96" s="27"/>
+      <c r="BS96" s="27"/>
+      <c r="BT96" s="27"/>
+      <c r="BU96" s="27"/>
+      <c r="BV96" s="27"/>
+      <c r="BW96" s="27"/>
+      <c r="BX96" s="27"/>
+      <c r="BY96" s="27"/>
+      <c r="BZ96" s="27"/>
+      <c r="CA96" s="27"/>
+      <c r="CB96" s="27"/>
+      <c r="CC96" s="27"/>
+      <c r="CD96" s="27"/>
+      <c r="CE96" s="27"/>
+      <c r="CF96" s="27"/>
+      <c r="CG96" s="27"/>
+      <c r="CH96" s="27"/>
+      <c r="CI96" s="28"/>
+      <c r="CJ96" s="27"/>
+      <c r="CK96" s="27"/>
+      <c r="CL96" s="27"/>
+      <c r="CM96" s="27"/>
+      <c r="CN96" s="27"/>
+      <c r="CO96" s="27"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="27"/>
+      <c r="CS96" s="25"/>
+      <c r="CT96" s="26"/>
+      <c r="CU96" s="23"/>
+      <c r="CV96" s="1"/>
+      <c r="CW96" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:101">
+      <c r="A97" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D97" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="27"/>
+      <c r="BE97" s="27"/>
+      <c r="BF97" s="27"/>
+      <c r="BG97" s="27"/>
+      <c r="BH97" s="27"/>
+      <c r="BI97" s="27"/>
+      <c r="BJ97" s="27"/>
+      <c r="BK97" s="27"/>
+      <c r="BL97" s="27"/>
+      <c r="BM97" s="27"/>
+      <c r="BN97" s="27"/>
+      <c r="BO97" s="27"/>
+      <c r="BP97" s="27"/>
+      <c r="BQ97" s="27"/>
+      <c r="BR97" s="27"/>
+      <c r="BS97" s="27"/>
+      <c r="BT97" s="27"/>
+      <c r="BU97" s="27"/>
+      <c r="BV97" s="27"/>
+      <c r="BW97" s="27"/>
+      <c r="BX97" s="27"/>
+      <c r="BY97" s="27"/>
+      <c r="BZ97" s="27"/>
+      <c r="CA97" s="27"/>
+      <c r="CB97" s="27"/>
+      <c r="CC97" s="27"/>
+      <c r="CD97" s="27"/>
+      <c r="CE97" s="27"/>
+      <c r="CF97" s="27"/>
+      <c r="CG97" s="27"/>
+      <c r="CH97" s="27"/>
+      <c r="CI97" s="28"/>
+      <c r="CJ97" s="27"/>
+      <c r="CK97" s="27"/>
+      <c r="CL97" s="27"/>
+      <c r="CM97" s="27"/>
+      <c r="CN97" s="27"/>
+      <c r="CO97" s="27"/>
+      <c r="CP97" s="27"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="27"/>
+      <c r="CS97" s="25"/>
+      <c r="CT97" s="26"/>
+      <c r="CU97" s="23"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:101">
+      <c r="A98" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="24" t="s">
+        <v>646</v>
+      </c>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="27"/>
+      <c r="BE98" s="27"/>
+      <c r="BF98" s="27"/>
+      <c r="BG98" s="27"/>
+      <c r="BH98" s="27"/>
+      <c r="BI98" s="27"/>
+      <c r="BJ98" s="27"/>
+      <c r="BK98" s="27"/>
+      <c r="BL98" s="27"/>
+      <c r="BM98" s="27"/>
+      <c r="BN98" s="27"/>
+      <c r="BO98" s="27"/>
+      <c r="BP98" s="27"/>
+      <c r="BQ98" s="27"/>
+      <c r="BR98" s="27"/>
+      <c r="BS98" s="27"/>
+      <c r="BT98" s="27"/>
+      <c r="BU98" s="27"/>
+      <c r="BV98" s="27"/>
+      <c r="BW98" s="27"/>
+      <c r="BX98" s="27"/>
+      <c r="BY98" s="27"/>
+      <c r="BZ98" s="27"/>
+      <c r="CA98" s="27"/>
+      <c r="CB98" s="27"/>
+      <c r="CC98" s="27"/>
+      <c r="CD98" s="27"/>
+      <c r="CE98" s="27"/>
+      <c r="CF98" s="27"/>
+      <c r="CG98" s="27"/>
+      <c r="CH98" s="27"/>
+      <c r="CI98" s="28"/>
+      <c r="CJ98" s="27"/>
+      <c r="CK98" s="27"/>
+      <c r="CL98" s="27"/>
+      <c r="CM98" s="27"/>
+      <c r="CN98" s="27"/>
+      <c r="CO98" s="27"/>
+      <c r="CP98" s="27"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="27"/>
+      <c r="CS98" s="25"/>
+      <c r="CT98" s="26"/>
+      <c r="CU98" s="23"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:101">
+      <c r="A99" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D99" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="27"/>
+      <c r="BE99" s="27"/>
+      <c r="BF99" s="27"/>
+      <c r="BG99" s="27"/>
+      <c r="BH99" s="27"/>
+      <c r="BI99" s="27"/>
+      <c r="BJ99" s="27"/>
+      <c r="BK99" s="27"/>
+      <c r="BL99" s="27"/>
+      <c r="BM99" s="27"/>
+      <c r="BN99" s="27"/>
+      <c r="BO99" s="27"/>
+      <c r="BP99" s="27"/>
+      <c r="BQ99" s="27"/>
+      <c r="BR99" s="27"/>
+      <c r="BS99" s="27"/>
+      <c r="BT99" s="27"/>
+      <c r="BU99" s="27"/>
+      <c r="BV99" s="27"/>
+      <c r="BW99" s="27"/>
+      <c r="BX99" s="27"/>
+      <c r="BY99" s="27"/>
+      <c r="BZ99" s="27"/>
+      <c r="CA99" s="27"/>
+      <c r="CB99" s="27"/>
+      <c r="CC99" s="27"/>
+      <c r="CD99" s="27"/>
+      <c r="CE99" s="27"/>
+      <c r="CF99" s="27"/>
+      <c r="CG99" s="27"/>
+      <c r="CH99" s="27"/>
+      <c r="CI99" s="28"/>
+      <c r="CJ99" s="27"/>
+      <c r="CK99" s="27"/>
+      <c r="CL99" s="27"/>
+      <c r="CM99" s="27"/>
+      <c r="CN99" s="27"/>
+      <c r="CO99" s="27"/>
+      <c r="CP99" s="27"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="27"/>
+      <c r="CS99" s="25"/>
+      <c r="CT99" s="26"/>
+      <c r="CU99" s="23"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:101" ht="15.75" customHeight="1">
+      <c r="A100" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="27"/>
+      <c r="BE100" s="27"/>
+      <c r="BF100" s="27"/>
+      <c r="BG100" s="27"/>
+      <c r="BH100" s="27"/>
+      <c r="BI100" s="27"/>
+      <c r="BJ100" s="27"/>
+      <c r="BK100" s="27"/>
+      <c r="BL100" s="27"/>
+      <c r="BM100" s="27"/>
+      <c r="BN100" s="27"/>
+      <c r="BO100" s="27"/>
+      <c r="BP100" s="27"/>
+      <c r="BQ100" s="27"/>
+      <c r="BR100" s="27"/>
+      <c r="BS100" s="27"/>
+      <c r="BT100" s="27"/>
+      <c r="BU100" s="27"/>
+      <c r="BV100" s="27"/>
+      <c r="BW100" s="27"/>
+      <c r="BX100" s="27"/>
+      <c r="BY100" s="27"/>
+      <c r="BZ100" s="27"/>
+      <c r="CA100" s="27"/>
+      <c r="CB100" s="27"/>
+      <c r="CC100" s="27"/>
+      <c r="CD100" s="27"/>
+      <c r="CE100" s="27"/>
+      <c r="CF100" s="27"/>
+      <c r="CG100" s="27"/>
+      <c r="CH100" s="27"/>
+      <c r="CI100" s="28"/>
+      <c r="CJ100" s="27"/>
+      <c r="CK100" s="27"/>
+      <c r="CL100" s="27"/>
+      <c r="CM100" s="27"/>
+      <c r="CN100" s="27"/>
+      <c r="CO100" s="27"/>
+      <c r="CP100" s="27"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="27"/>
+      <c r="CS100" s="25"/>
+      <c r="CT100" s="26"/>
+      <c r="CU100" s="23"/>
+      <c r="CV100" s="1"/>
+      <c r="CW100" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:101" ht="15.75" customHeight="1">
+      <c r="A101" s="44" t="s">
+        <v>601</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="27"/>
+      <c r="BE101" s="27"/>
+      <c r="BF101" s="27"/>
+      <c r="BG101" s="27"/>
+      <c r="BH101" s="27"/>
+      <c r="BI101" s="27"/>
+      <c r="BJ101" s="27"/>
+      <c r="BK101" s="27"/>
+      <c r="BL101" s="27"/>
+      <c r="BM101" s="27"/>
+      <c r="BN101" s="27"/>
+      <c r="BO101" s="27"/>
+      <c r="BP101" s="27"/>
+      <c r="BQ101" s="27"/>
+      <c r="BR101" s="27"/>
+      <c r="BS101" s="27"/>
+      <c r="BT101" s="27"/>
+      <c r="BU101" s="27"/>
+      <c r="BV101" s="27"/>
+      <c r="BW101" s="27"/>
+      <c r="BX101" s="27"/>
+      <c r="BY101" s="27"/>
+      <c r="BZ101" s="27"/>
+      <c r="CA101" s="27"/>
+      <c r="CB101" s="27"/>
+      <c r="CC101" s="27"/>
+      <c r="CD101" s="27"/>
+      <c r="CE101" s="27"/>
+      <c r="CF101" s="27"/>
+      <c r="CG101" s="27"/>
+      <c r="CH101" s="27"/>
+      <c r="CI101" s="28"/>
+      <c r="CJ101" s="27"/>
+      <c r="CK101" s="27"/>
+      <c r="CL101" s="27"/>
+      <c r="CM101" s="27"/>
+      <c r="CN101" s="27"/>
+      <c r="CO101" s="27"/>
+      <c r="CP101" s="27"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="27"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="26"/>
+      <c r="CU101" s="23"/>
+      <c r="CV101" s="1"/>
+      <c r="CW101" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:101">
+      <c r="A102" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E102" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="27"/>
+      <c r="BE102" s="27"/>
+      <c r="BF102" s="27"/>
+      <c r="BG102" s="27"/>
+      <c r="BH102" s="27"/>
+      <c r="BI102" s="27"/>
+      <c r="BJ102" s="27"/>
+      <c r="BK102" s="27"/>
+      <c r="BL102" s="27"/>
+      <c r="BM102" s="27"/>
+      <c r="BN102" s="27"/>
+      <c r="BO102" s="27"/>
+      <c r="BP102" s="27"/>
+      <c r="BQ102" s="27"/>
+      <c r="BR102" s="27"/>
+      <c r="BS102" s="27"/>
+      <c r="BT102" s="27"/>
+      <c r="BU102" s="27"/>
+      <c r="BV102" s="27"/>
+      <c r="BW102" s="27"/>
+      <c r="BX102" s="27"/>
+      <c r="BY102" s="27"/>
+      <c r="BZ102" s="27"/>
+      <c r="CA102" s="27"/>
+      <c r="CB102" s="27"/>
+      <c r="CC102" s="27"/>
+      <c r="CD102" s="27"/>
+      <c r="CE102" s="27"/>
+      <c r="CF102" s="27"/>
+      <c r="CG102" s="27"/>
+      <c r="CH102" s="27"/>
+      <c r="CI102" s="28"/>
+      <c r="CJ102" s="27"/>
+      <c r="CK102" s="27"/>
+      <c r="CL102" s="27"/>
+      <c r="CM102" s="27"/>
+      <c r="CN102" s="27"/>
+      <c r="CO102" s="27"/>
+      <c r="CP102" s="27"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="27"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="26"/>
+      <c r="CU102" s="23"/>
+      <c r="CV102" s="1"/>
+      <c r="CW102" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:101" ht="14.25" customHeight="1">
+      <c r="A103" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="27"/>
+      <c r="BE103" s="27"/>
+      <c r="BF103" s="27"/>
+      <c r="BG103" s="27"/>
+      <c r="BH103" s="27"/>
+      <c r="BI103" s="27"/>
+      <c r="BJ103" s="27"/>
+      <c r="BK103" s="27"/>
+      <c r="BL103" s="27"/>
+      <c r="BM103" s="27"/>
+      <c r="BN103" s="27"/>
+      <c r="BO103" s="27"/>
+      <c r="BP103" s="27"/>
+      <c r="BQ103" s="27"/>
+      <c r="BR103" s="27"/>
+      <c r="BS103" s="27"/>
+      <c r="BT103" s="27"/>
+      <c r="BU103" s="27"/>
+      <c r="BV103" s="27"/>
+      <c r="BW103" s="27"/>
+      <c r="BX103" s="27"/>
+      <c r="BY103" s="27"/>
+      <c r="BZ103" s="27"/>
+      <c r="CA103" s="27"/>
+      <c r="CB103" s="27"/>
+      <c r="CC103" s="27"/>
+      <c r="CD103" s="27"/>
+      <c r="CE103" s="27"/>
+      <c r="CF103" s="27"/>
+      <c r="CG103" s="27"/>
+      <c r="CH103" s="27"/>
+      <c r="CI103" s="28"/>
+      <c r="CJ103" s="27"/>
+      <c r="CK103" s="27"/>
+      <c r="CL103" s="27"/>
+      <c r="CM103" s="27"/>
+      <c r="CN103" s="27"/>
+      <c r="CO103" s="27"/>
+      <c r="CP103" s="27"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="27"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="26"/>
+      <c r="CU103" s="23"/>
+      <c r="CV103" s="1"/>
+      <c r="CW103" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:101" ht="16.5" customHeight="1">
+      <c r="A104" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BD104" s="27"/>
+      <c r="BE104" s="27"/>
+      <c r="BF104" s="27"/>
+      <c r="BG104" s="27"/>
+      <c r="BH104" s="27"/>
+      <c r="BI104" s="27"/>
+      <c r="BJ104" s="27"/>
+      <c r="BK104" s="27"/>
+      <c r="BL104" s="27"/>
+      <c r="BM104" s="27"/>
+      <c r="BN104" s="27"/>
+      <c r="BO104" s="27"/>
+      <c r="BP104" s="27"/>
+      <c r="BQ104" s="27"/>
+      <c r="BR104" s="27"/>
+      <c r="BS104" s="27"/>
+      <c r="BT104" s="27"/>
+      <c r="BU104" s="27"/>
+      <c r="BV104" s="27"/>
+      <c r="BW104" s="27"/>
+      <c r="BX104" s="27"/>
+      <c r="BY104" s="27"/>
+      <c r="BZ104" s="27"/>
+      <c r="CA104" s="27"/>
+      <c r="CB104" s="27"/>
+      <c r="CC104" s="27"/>
+      <c r="CD104" s="27"/>
+      <c r="CE104" s="27"/>
+      <c r="CF104" s="27"/>
+      <c r="CG104" s="27"/>
+      <c r="CH104" s="27"/>
+      <c r="CI104" s="28"/>
+      <c r="CJ104" s="27"/>
+      <c r="CK104" s="27"/>
+      <c r="CL104" s="27"/>
+      <c r="CM104" s="27"/>
+      <c r="CN104" s="27"/>
+      <c r="CO104" s="27"/>
+      <c r="CP104" s="27"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="27"/>
+      <c r="CS104" s="25"/>
+      <c r="CT104" s="26"/>
+      <c r="CU104" s="23"/>
+      <c r="CV104" s="1"/>
+      <c r="CW104" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E8F22-1D16-4DDB-96C6-C6751B363B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="582">
   <si>
     <t>Environment</t>
   </si>
@@ -1902,9 +1903,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,6 +1975,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1985,7 +1992,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2032,6 +2039,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2123,7 +2135,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2135,7 +2147,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyBorder="1"/>
@@ -2156,7 +2168,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2173,27 +2185,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4"/>
-    <cellStyle name="Hyperlink 2 2" xfId="11"/>
-    <cellStyle name="Hyperlink 3" xfId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 3 2" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 5 2" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2470,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2512,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2554,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2671,8 +2685,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2680,12 +2694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CV80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CS10" sqref="CS10:CU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3038,7 +3052,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3158,7 +3172,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3356,7 +3370,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3488,7 +3502,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3620,7 +3634,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3742,7 +3756,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -3847,7 +3861,7 @@
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3866,7 +3880,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -3971,7 +3985,7 @@
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3990,7 +4004,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -4103,7 +4117,7 @@
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4122,7 +4136,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="48" t="s">
         <v>574</v>
       </c>
       <c r="J10" s="16"/>
@@ -4144,8 +4158,8 @@
       <c r="T10" s="15"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="18" t="s">
-        <v>341</v>
+      <c r="W10" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -4224,16 +4238,20 @@
       </c>
       <c r="CQ10" s="1"/>
       <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
+      <c r="CS10" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
+      <c r="CU10" s="47" t="s">
+        <v>558</v>
+      </c>
       <c r="CV10" s="1"/>
     </row>
     <row r="11" spans="1:100">
       <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4252,7 +4270,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="48" t="s">
         <v>574</v>
       </c>
       <c r="J11" s="16"/>
@@ -4270,8 +4288,8 @@
       <c r="T11" s="15"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="18" t="s">
-        <v>341</v>
+      <c r="W11" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
@@ -4350,16 +4368,20 @@
       </c>
       <c r="CQ11" s="1"/>
       <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
+      <c r="CS11" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
+      <c r="CU11" s="47" t="s">
+        <v>558</v>
+      </c>
       <c r="CV11" s="1"/>
     </row>
     <row r="12" spans="1:100">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4378,7 +4400,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="48" t="s">
         <v>574</v>
       </c>
       <c r="J12" s="16"/>
@@ -4396,8 +4418,8 @@
       <c r="T12" s="15"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="18" t="s">
-        <v>341</v>
+      <c r="W12" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -4476,16 +4498,20 @@
       </c>
       <c r="CQ12" s="1"/>
       <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
+      <c r="CS12" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="CT12" s="1"/>
-      <c r="CU12" s="1"/>
+      <c r="CU12" s="47" t="s">
+        <v>558</v>
+      </c>
       <c r="CV12" s="1"/>
     </row>
     <row r="13" spans="1:100">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4504,7 +4530,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="48" t="s">
         <v>574</v>
       </c>
       <c r="J13" s="16"/>
@@ -4522,8 +4548,8 @@
       <c r="T13" s="15"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="18" t="s">
-        <v>341</v>
+      <c r="W13" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -4602,17 +4628,21 @@
       </c>
       <c r="CQ13" s="1"/>
       <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
+      <c r="CS13" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
+      <c r="CU13" s="47" t="s">
+        <v>558</v>
+      </c>
       <c r="CV13" s="1"/>
     </row>
     <row r="14" spans="1:100">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>3</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>572</v>
@@ -4630,8 +4660,8 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="46" t="s">
-        <v>574</v>
+      <c r="I14" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="15"/>
@@ -4737,8 +4767,8 @@
       <c r="A15" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>3</v>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>572</v>
@@ -4756,8 +4786,8 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="46" t="s">
-        <v>574</v>
+      <c r="I15" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="15" t="s">
@@ -4885,8 +4915,8 @@
       <c r="A16" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>3</v>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>572</v>
@@ -4904,8 +4934,8 @@
         <v>229</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="46" t="s">
-        <v>574</v>
+      <c r="I16" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15" t="s">
@@ -5027,7 +5057,7 @@
       <c r="A17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -5046,7 +5076,7 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5159,8 +5189,8 @@
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>3</v>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>572</v>
@@ -5176,8 +5206,8 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="46" t="s">
-        <v>574</v>
+      <c r="I18" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="1"/>
@@ -5281,8 +5311,8 @@
       <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>3</v>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>572</v>
@@ -5298,8 +5328,8 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="46" t="s">
-        <v>574</v>
+      <c r="I19" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="1"/>
@@ -5403,7 +5433,7 @@
       <c r="A20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -5420,7 +5450,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5529,7 +5559,7 @@
       <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -5550,7 +5580,7 @@
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5659,7 +5689,7 @@
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -5680,7 +5710,7 @@
       <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -5785,7 +5815,7 @@
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5806,7 +5836,7 @@
       <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -5917,7 +5947,7 @@
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5938,7 +5968,7 @@
       <c r="H24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -6045,7 +6075,7 @@
       <c r="A25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -6066,7 +6096,7 @@
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -6173,7 +6203,7 @@
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6194,7 +6224,7 @@
       <c r="H26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6301,7 +6331,7 @@
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -6322,7 +6352,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6448,7 +6478,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6574,7 +6604,7 @@
       <c r="H29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6702,7 +6732,7 @@
       <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -6832,7 +6862,7 @@
       <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -6962,7 +6992,7 @@
       <c r="H32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -7068,7 +7098,7 @@
         <v>502</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>572</v>
@@ -7086,8 +7116,8 @@
         <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="46" t="s">
-        <v>574</v>
+      <c r="I33" s="50" t="s">
+        <v>188</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -7204,7 +7234,7 @@
         <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7340,7 +7370,7 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7476,7 +7506,7 @@
         <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7612,7 +7642,7 @@
         <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7748,7 +7778,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -7884,7 +7914,7 @@
         <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -8020,7 +8050,7 @@
         <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -8156,7 +8186,7 @@
         <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8292,7 +8322,7 @@
         <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8428,7 +8458,7 @@
         <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8564,7 +8594,7 @@
         <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8702,7 +8732,7 @@
       <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -8832,7 +8862,7 @@
       <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -8962,7 +8992,7 @@
       <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -9088,7 +9118,7 @@
       <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9214,7 +9244,7 @@
       <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="48" t="s">
+      <c r="I49" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9340,7 +9370,7 @@
       <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9466,7 +9496,7 @@
       <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9592,7 +9622,7 @@
       <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9718,7 +9748,7 @@
       <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -9844,7 +9874,7 @@
       <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -9968,7 +9998,7 @@
         <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -10092,7 +10122,7 @@
         <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10216,7 +10246,7 @@
         <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10340,7 +10370,7 @@
         <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10466,7 +10496,7 @@
       <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10592,7 +10622,7 @@
       <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10718,7 +10748,7 @@
       <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -10844,7 +10874,7 @@
       <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -10968,7 +10998,7 @@
         <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -11092,7 +11122,7 @@
         <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11218,7 +11248,7 @@
       <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11344,7 +11374,7 @@
       <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11468,7 +11498,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="48" t="s">
+      <c r="I67" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11594,7 +11624,7 @@
         <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11722,7 +11752,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -11850,7 +11880,7 @@
       <c r="H70" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="I70" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -11978,7 +12008,7 @@
       <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I71" s="48" t="s">
+      <c r="I71" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -12106,7 +12136,7 @@
       <c r="H72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="I72" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12234,7 +12264,7 @@
       <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12362,7 +12392,7 @@
       <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I74" s="48" t="s">
+      <c r="I74" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12490,7 +12520,7 @@
       <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="48" t="s">
+      <c r="I75" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12618,7 +12648,7 @@
       <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -12744,7 +12774,7 @@
         <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="48" t="s">
+      <c r="I77" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -12861,7 +12891,7 @@
       <c r="A78" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="36" t="s">
@@ -12997,7 +13027,7 @@
       <c r="A79" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="35" t="s">
@@ -13014,7 +13044,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="48" t="s">
+      <c r="I79" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J79" s="1"/>
@@ -13113,7 +13143,7 @@
       <c r="A80" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="35" t="s">
@@ -13130,7 +13160,7 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="48" t="s">
+      <c r="I80" s="50" t="s">
         <v>188</v>
       </c>
       <c r="J80" s="1"/>
@@ -13228,12 +13258,19 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="amulla@zarca.com,vgrandhi@zarca.com"/>
-    <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W11:W16" r:id="rId2" display="amulla@zarca.com,vgrandhi@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="W10" r:id="rId4" display="ayadav@zarca.com" xr:uid="{7E315314-162D-48D2-A54E-BDA672EE5F35}"/>
+    <hyperlink ref="W11" r:id="rId5" display="ayadav@zarca.com" xr:uid="{AC56E8BF-CE80-486D-BACA-E21CCB75B917}"/>
+    <hyperlink ref="W12" r:id="rId6" display="ayadav@zarca.com" xr:uid="{2272B8D0-F69B-4F19-9CD3-9D7D1478CEB2}"/>
+    <hyperlink ref="W13" r:id="rId7" display="ayadav@zarca.com" xr:uid="{15258BD1-E46B-4AA1-8C46-49A5AB57F971}"/>
+    <hyperlink ref="CU10" r:id="rId8" xr:uid="{CB2D456C-6B6D-4B78-8FCE-7F365AE87228}"/>
+    <hyperlink ref="CU11" r:id="rId9" xr:uid="{52EC5122-497E-44F3-AC5E-394905BB2BCC}"/>
+    <hyperlink ref="CU12" r:id="rId10" xr:uid="{3D7E0F51-C5D3-4868-A8E8-06210C686C08}"/>
+    <hyperlink ref="CU13" r:id="rId11" xr:uid="{13AF6389-2348-4972-B647-1E24F2576CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E8F22-1D16-4DDB-96C6-C6751B363B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB3D49-7AE3-4AC5-98B2-08013A5732C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="655">
   <si>
     <t>Environment</t>
   </si>
@@ -1899,13 +1899,231 @@
   <si>
     <t>Valid Credentials</t>
   </si>
+  <si>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1971,28 +2189,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2037,38 +2244,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2135,7 +2317,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2184,14 +2366,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="11" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2494,8 +2677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2535,9 +2718,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2578,10 +2761,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2696,38 +2879,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV80"/>
+  <dimension ref="A1:CW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CS10" sqref="CS10:CU13"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CR8" sqref="CR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="93" max="93" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:101">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3010,26 +3193,29 @@
       <c r="CP1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="CR1" s="25" t="s">
+      <c r="CR1" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="CS1" s="25" t="s">
+      <c r="CS1" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="CT1" s="25" t="s">
+      <c r="CT1" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="3" t="s">
         <v>549</v>
       </c>
+      <c r="CW1" s="3" t="s">
+        <v>654</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:101">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3052,7 +3238,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3148,8 +3334,9 @@
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
       <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:101">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3172,7 +3359,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3346,8 +3533,9 @@
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:101">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -3370,7 +3558,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3478,8 +3666,9 @@
       <c r="CT4" s="1"/>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:101">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -3502,7 +3691,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3610,8 +3799,9 @@
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:101">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -3634,7 +3824,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3732,8 +3922,9 @@
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:101">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -3756,7 +3947,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -3856,8 +4047,9 @@
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:101">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -3880,7 +4072,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -3980,8 +4172,9 @@
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:101">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
@@ -4004,7 +4197,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -4112,8 +4305,9 @@
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:101">
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
@@ -4136,7 +4330,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="46" t="s">
         <v>574</v>
       </c>
       <c r="J10" s="16"/>
@@ -4158,7 +4352,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="46" t="s">
+      <c r="W10" s="44" t="s">
         <v>553</v>
       </c>
       <c r="X10" s="17"/>
@@ -4242,12 +4436,13 @@
         <v>557</v>
       </c>
       <c r="CT10" s="1"/>
-      <c r="CU10" s="47" t="s">
+      <c r="CU10" s="45" t="s">
         <v>558</v>
       </c>
       <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:101">
       <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
@@ -4270,7 +4465,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="46" t="s">
         <v>574</v>
       </c>
       <c r="J11" s="16"/>
@@ -4288,7 +4483,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="46" t="s">
+      <c r="W11" s="44" t="s">
         <v>553</v>
       </c>
       <c r="X11" s="17"/>
@@ -4372,12 +4567,13 @@
         <v>557</v>
       </c>
       <c r="CT11" s="1"/>
-      <c r="CU11" s="47" t="s">
+      <c r="CU11" s="45" t="s">
         <v>558</v>
       </c>
       <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:101">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -4400,7 +4596,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="46" t="s">
         <v>574</v>
       </c>
       <c r="J12" s="16"/>
@@ -4418,7 +4614,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="46" t="s">
+      <c r="W12" s="44" t="s">
         <v>553</v>
       </c>
       <c r="X12" s="17"/>
@@ -4502,12 +4698,13 @@
         <v>557</v>
       </c>
       <c r="CT12" s="1"/>
-      <c r="CU12" s="47" t="s">
+      <c r="CU12" s="45" t="s">
         <v>558</v>
       </c>
       <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:101">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -4530,7 +4727,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="46" t="s">
         <v>574</v>
       </c>
       <c r="J13" s="16"/>
@@ -4548,7 +4745,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="46" t="s">
+      <c r="W13" s="44" t="s">
         <v>553</v>
       </c>
       <c r="X13" s="17"/>
@@ -4632,12 +4829,13 @@
         <v>557</v>
       </c>
       <c r="CT13" s="1"/>
-      <c r="CU13" s="47" t="s">
+      <c r="CU13" s="45" t="s">
         <v>558</v>
       </c>
       <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:101">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -4660,7 +4858,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J14" s="16"/>
@@ -4762,8 +4960,9 @@
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:101">
       <c r="A15" s="14" t="s">
         <v>207</v>
       </c>
@@ -4786,7 +4985,7 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J15" s="16"/>
@@ -4910,8 +5109,9 @@
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:101">
       <c r="A16" s="13" t="s">
         <v>215</v>
       </c>
@@ -4934,7 +5134,7 @@
         <v>229</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J16" s="13"/>
@@ -5052,8 +5252,9 @@
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17" spans="1:101">
       <c r="A17" s="1" t="s">
         <v>216</v>
       </c>
@@ -5076,7 +5277,7 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5184,8 +5385,9 @@
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18" spans="1:101">
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
@@ -5206,7 +5408,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J18" s="11"/>
@@ -5306,8 +5508,9 @@
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:101">
       <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
@@ -5328,7 +5531,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J19" s="11"/>
@@ -5428,8 +5631,9 @@
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20" spans="1:101">
       <c r="A20" s="1" t="s">
         <v>254</v>
       </c>
@@ -5450,7 +5654,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5554,8 +5758,9 @@
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21" spans="1:101">
       <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
@@ -5580,7 +5785,7 @@
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5684,8 +5889,9 @@
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:101">
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
@@ -5710,7 +5916,7 @@
       <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -5810,8 +6016,9 @@
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:101">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -5836,7 +6043,7 @@
       <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -5942,8 +6149,9 @@
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24" spans="1:101">
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
@@ -5968,7 +6176,7 @@
       <c r="H24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -6070,8 +6278,9 @@
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25" spans="1:101">
       <c r="A25" s="1" t="s">
         <v>267</v>
       </c>
@@ -6096,7 +6305,7 @@
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -6198,8 +6407,9 @@
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:101">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
@@ -6224,7 +6434,7 @@
       <c r="H26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6326,8 +6536,9 @@
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:101">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
@@ -6352,7 +6563,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6452,8 +6663,9 @@
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
+      <c r="CW27" s="1"/>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:101">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -6478,7 +6690,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6578,8 +6790,9 @@
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:101">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
@@ -6604,7 +6817,7 @@
       <c r="H29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="50" t="s">
+      <c r="I29" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6706,8 +6919,9 @@
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
     </row>
-    <row r="30" spans="1:100">
+    <row r="30" spans="1:101">
       <c r="A30" s="1" t="s">
         <v>272</v>
       </c>
@@ -6732,7 +6946,7 @@
       <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="50" t="s">
+      <c r="I30" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -6836,8 +7050,9 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
     </row>
-    <row r="31" spans="1:100">
+    <row r="31" spans="1:101">
       <c r="A31" s="1" t="s">
         <v>273</v>
       </c>
@@ -6862,7 +7077,7 @@
       <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -6966,8 +7181,9 @@
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:101">
       <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
@@ -6992,7 +7208,7 @@
       <c r="H32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -7092,8 +7308,9 @@
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
     </row>
-    <row r="33" spans="1:100">
+    <row r="33" spans="1:101">
       <c r="A33" s="1" t="s">
         <v>502</v>
       </c>
@@ -7116,7 +7333,7 @@
         <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="1"/>
@@ -7210,8 +7427,9 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
     </row>
-    <row r="34" spans="1:100">
+    <row r="34" spans="1:101">
       <c r="A34" s="1" t="s">
         <v>505</v>
       </c>
@@ -7234,7 +7452,7 @@
         <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="50" t="s">
+      <c r="I34" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7346,8 +7564,9 @@
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:101">
       <c r="A35" s="1" t="s">
         <v>514</v>
       </c>
@@ -7370,7 +7589,7 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7482,8 +7701,9 @@
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:101">
       <c r="A36" s="1" t="s">
         <v>517</v>
       </c>
@@ -7506,7 +7726,7 @@
         <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7618,8 +7838,9 @@
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:101">
       <c r="A37" s="1" t="s">
         <v>520</v>
       </c>
@@ -7642,7 +7863,7 @@
         <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7754,8 +7975,9 @@
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
     </row>
-    <row r="38" spans="1:100">
+    <row r="38" spans="1:101">
       <c r="A38" s="1" t="s">
         <v>523</v>
       </c>
@@ -7778,7 +8000,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -7890,8 +8112,9 @@
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
     </row>
-    <row r="39" spans="1:100">
+    <row r="39" spans="1:101">
       <c r="A39" s="1" t="s">
         <v>526</v>
       </c>
@@ -7914,7 +8137,7 @@
         <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -8026,8 +8249,9 @@
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
     </row>
-    <row r="40" spans="1:100">
+    <row r="40" spans="1:101">
       <c r="A40" s="1" t="s">
         <v>529</v>
       </c>
@@ -8050,7 +8274,7 @@
         <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="50" t="s">
+      <c r="I40" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -8162,8 +8386,9 @@
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
     </row>
-    <row r="41" spans="1:100">
+    <row r="41" spans="1:101">
       <c r="A41" s="1" t="s">
         <v>532</v>
       </c>
@@ -8186,7 +8411,7 @@
         <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="50" t="s">
+      <c r="I41" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8298,8 +8523,9 @@
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
     </row>
-    <row r="42" spans="1:100">
+    <row r="42" spans="1:101">
       <c r="A42" s="1" t="s">
         <v>535</v>
       </c>
@@ -8322,7 +8548,7 @@
         <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8434,8 +8660,9 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
     </row>
-    <row r="43" spans="1:100">
+    <row r="43" spans="1:101">
       <c r="A43" s="1" t="s">
         <v>538</v>
       </c>
@@ -8458,7 +8685,7 @@
         <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="50" t="s">
+      <c r="I43" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8570,8 +8797,9 @@
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
     </row>
-    <row r="44" spans="1:100">
+    <row r="44" spans="1:101">
       <c r="A44" s="1" t="s">
         <v>543</v>
       </c>
@@ -8594,7 +8822,7 @@
         <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="50" t="s">
+      <c r="I44" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8706,8 +8934,9 @@
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
     </row>
-    <row r="45" spans="1:100" ht="19.5" customHeight="1">
+    <row r="45" spans="1:101" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>343</v>
       </c>
@@ -8732,7 +8961,7 @@
       <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -8836,8 +9065,9 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
     </row>
-    <row r="46" spans="1:100" ht="19.5" customHeight="1">
+    <row r="46" spans="1:101" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>348</v>
       </c>
@@ -8862,7 +9092,7 @@
       <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -8966,8 +9196,9 @@
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
     </row>
-    <row r="47" spans="1:100">
+    <row r="47" spans="1:101">
       <c r="A47" s="1" t="s">
         <v>350</v>
       </c>
@@ -8992,7 +9223,7 @@
       <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I47" s="50" t="s">
+      <c r="I47" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -9092,8 +9323,9 @@
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
     </row>
-    <row r="48" spans="1:100">
+    <row r="48" spans="1:101">
       <c r="A48" s="1" t="s">
         <v>353</v>
       </c>
@@ -9118,7 +9350,7 @@
       <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I48" s="50" t="s">
+      <c r="I48" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9218,8 +9450,9 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
     </row>
-    <row r="49" spans="1:100">
+    <row r="49" spans="1:101">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -9244,7 +9477,7 @@
       <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9344,8 +9577,9 @@
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
     </row>
-    <row r="50" spans="1:100">
+    <row r="50" spans="1:101">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -9370,7 +9604,7 @@
       <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9470,8 +9704,9 @@
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
     </row>
-    <row r="51" spans="1:100">
+    <row r="51" spans="1:101">
       <c r="A51" s="1" t="s">
         <v>356</v>
       </c>
@@ -9496,7 +9731,7 @@
       <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="50" t="s">
+      <c r="I51" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9596,8 +9831,9 @@
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
     </row>
-    <row r="52" spans="1:100">
+    <row r="52" spans="1:101">
       <c r="A52" s="1" t="s">
         <v>357</v>
       </c>
@@ -9622,7 +9858,7 @@
       <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9722,8 +9958,9 @@
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
     </row>
-    <row r="53" spans="1:100">
+    <row r="53" spans="1:101">
       <c r="A53" s="1" t="s">
         <v>358</v>
       </c>
@@ -9748,7 +9985,7 @@
       <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I53" s="50" t="s">
+      <c r="I53" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -9848,8 +10085,9 @@
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
     </row>
-    <row r="54" spans="1:100">
+    <row r="54" spans="1:101">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -9874,7 +10112,7 @@
       <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -9974,8 +10212,9 @@
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
+      <c r="CW54" s="1"/>
     </row>
-    <row r="55" spans="1:100">
+    <row r="55" spans="1:101">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -9998,7 +10237,7 @@
         <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -10098,8 +10337,9 @@
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
     </row>
-    <row r="56" spans="1:100">
+    <row r="56" spans="1:101">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -10122,7 +10362,7 @@
         <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="50" t="s">
+      <c r="I56" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10222,8 +10462,9 @@
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
     </row>
-    <row r="57" spans="1:100">
+    <row r="57" spans="1:101">
       <c r="A57" s="1" t="s">
         <v>362</v>
       </c>
@@ -10246,7 +10487,7 @@
         <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10346,8 +10587,9 @@
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
     </row>
-    <row r="58" spans="1:100">
+    <row r="58" spans="1:101">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -10370,7 +10612,7 @@
         <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10470,8 +10712,9 @@
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
+      <c r="CW58" s="1"/>
     </row>
-    <row r="59" spans="1:100">
+    <row r="59" spans="1:101">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -10496,7 +10739,7 @@
       <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I59" s="50" t="s">
+      <c r="I59" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10596,8 +10839,9 @@
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
+      <c r="CW59" s="1"/>
     </row>
-    <row r="60" spans="1:100">
+    <row r="60" spans="1:101">
       <c r="A60" s="1" t="s">
         <v>365</v>
       </c>
@@ -10622,7 +10866,7 @@
       <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10722,8 +10966,9 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
+      <c r="CW60" s="1"/>
     </row>
-    <row r="61" spans="1:100">
+    <row r="61" spans="1:101">
       <c r="A61" s="1" t="s">
         <v>366</v>
       </c>
@@ -10748,7 +10993,7 @@
       <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -10848,8 +11093,9 @@
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
+      <c r="CW61" s="1"/>
     </row>
-    <row r="62" spans="1:100">
+    <row r="62" spans="1:101">
       <c r="A62" s="1" t="s">
         <v>367</v>
       </c>
@@ -10874,7 +11120,7 @@
       <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="50" t="s">
+      <c r="I62" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -10974,8 +11220,9 @@
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
+      <c r="CW62" s="1"/>
     </row>
-    <row r="63" spans="1:100">
+    <row r="63" spans="1:101">
       <c r="A63" s="1" t="s">
         <v>368</v>
       </c>
@@ -10998,7 +11245,7 @@
         <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="50" t="s">
+      <c r="I63" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -11098,8 +11345,9 @@
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
+      <c r="CW63" s="1"/>
     </row>
-    <row r="64" spans="1:100">
+    <row r="64" spans="1:101">
       <c r="A64" s="1" t="s">
         <v>369</v>
       </c>
@@ -11122,7 +11370,7 @@
         <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11222,8 +11470,9 @@
       <c r="CT64" s="1"/>
       <c r="CU64" s="1"/>
       <c r="CV64" s="1"/>
+      <c r="CW64" s="1"/>
     </row>
-    <row r="65" spans="1:100">
+    <row r="65" spans="1:101">
       <c r="A65" s="1" t="s">
         <v>370</v>
       </c>
@@ -11248,7 +11497,7 @@
       <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I65" s="50" t="s">
+      <c r="I65" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11348,8 +11597,9 @@
       <c r="CT65" s="1"/>
       <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
+      <c r="CW65" s="1"/>
     </row>
-    <row r="66" spans="1:100">
+    <row r="66" spans="1:101">
       <c r="A66" s="1" t="s">
         <v>371</v>
       </c>
@@ -11374,7 +11624,7 @@
       <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11474,8 +11724,9 @@
       <c r="CT66" s="1"/>
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
+      <c r="CW66" s="1"/>
     </row>
-    <row r="67" spans="1:100">
+    <row r="67" spans="1:101">
       <c r="A67" s="1" t="s">
         <v>372</v>
       </c>
@@ -11498,7 +11749,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="50" t="s">
+      <c r="I67" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11600,8 +11851,9 @@
       <c r="CT67" s="1"/>
       <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
+      <c r="CW67" s="1"/>
     </row>
-    <row r="68" spans="1:100">
+    <row r="68" spans="1:101">
       <c r="A68" s="1" t="s">
         <v>373</v>
       </c>
@@ -11624,7 +11876,7 @@
         <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="50" t="s">
+      <c r="I68" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11726,8 +11978,9 @@
       <c r="CT68" s="1"/>
       <c r="CU68" s="1"/>
       <c r="CV68" s="1"/>
+      <c r="CW68" s="1"/>
     </row>
-    <row r="69" spans="1:100">
+    <row r="69" spans="1:101">
       <c r="A69" s="1" t="s">
         <v>374</v>
       </c>
@@ -11752,7 +12005,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="50" t="s">
+      <c r="I69" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -11854,8 +12107,9 @@
       <c r="CT69" s="1"/>
       <c r="CU69" s="1"/>
       <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
     </row>
-    <row r="70" spans="1:100">
+    <row r="70" spans="1:101">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -11880,7 +12134,7 @@
       <c r="H70" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="50" t="s">
+      <c r="I70" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -11982,8 +12236,9 @@
       <c r="CT70" s="1"/>
       <c r="CU70" s="1"/>
       <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
     </row>
-    <row r="71" spans="1:100">
+    <row r="71" spans="1:101">
       <c r="A71" s="1" t="s">
         <v>376</v>
       </c>
@@ -12008,7 +12263,7 @@
       <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I71" s="50" t="s">
+      <c r="I71" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -12110,8 +12365,9 @@
       <c r="CT71" s="1"/>
       <c r="CU71" s="1"/>
       <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
     </row>
-    <row r="72" spans="1:100">
+    <row r="72" spans="1:101">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -12136,7 +12392,7 @@
       <c r="H72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="50" t="s">
+      <c r="I72" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12238,8 +12494,9 @@
       <c r="CT72" s="1"/>
       <c r="CU72" s="1"/>
       <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
     </row>
-    <row r="73" spans="1:100">
+    <row r="73" spans="1:101">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -12264,7 +12521,7 @@
       <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I73" s="50" t="s">
+      <c r="I73" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12366,8 +12623,9 @@
       <c r="CT73" s="1"/>
       <c r="CU73" s="1"/>
       <c r="CV73" s="1"/>
+      <c r="CW73" s="1"/>
     </row>
-    <row r="74" spans="1:100">
+    <row r="74" spans="1:101">
       <c r="A74" s="1" t="s">
         <v>379</v>
       </c>
@@ -12392,7 +12650,7 @@
       <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I74" s="50" t="s">
+      <c r="I74" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12494,8 +12752,9 @@
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
       <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
     </row>
-    <row r="75" spans="1:100">
+    <row r="75" spans="1:101">
       <c r="A75" s="1" t="s">
         <v>380</v>
       </c>
@@ -12520,7 +12779,7 @@
       <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="50" t="s">
+      <c r="I75" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12622,8 +12881,9 @@
       <c r="CT75" s="1"/>
       <c r="CU75" s="1"/>
       <c r="CV75" s="1"/>
+      <c r="CW75" s="1"/>
     </row>
-    <row r="76" spans="1:100">
+    <row r="76" spans="1:101">
       <c r="A76" s="1" t="s">
         <v>381</v>
       </c>
@@ -12648,7 +12908,7 @@
       <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="50" t="s">
+      <c r="I76" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -12750,8 +13010,9 @@
       <c r="CT76" s="1"/>
       <c r="CU76" s="1"/>
       <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
     </row>
-    <row r="77" spans="1:100">
+    <row r="77" spans="1:101">
       <c r="A77" s="1" t="s">
         <v>550</v>
       </c>
@@ -12774,7 +13035,7 @@
         <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -12886,8 +13147,9 @@
       <c r="CV77" s="1" t="s">
         <v>559</v>
       </c>
+      <c r="CW77" s="1"/>
     </row>
-    <row r="78" spans="1:100">
+    <row r="78" spans="1:101">
       <c r="A78" s="36" t="s">
         <v>563</v>
       </c>
@@ -13022,8 +13284,9 @@
       <c r="CT78" s="42"/>
       <c r="CU78" s="43"/>
       <c r="CV78" s="36"/>
+      <c r="CW78" s="1"/>
     </row>
-    <row r="79" spans="1:100">
+    <row r="79" spans="1:101">
       <c r="A79" s="1" t="s">
         <v>577</v>
       </c>
@@ -13044,7 +13307,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="50" t="s">
+      <c r="I79" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J79" s="1"/>
@@ -13138,8 +13401,9 @@
       <c r="CT79" s="26"/>
       <c r="CU79" s="23"/>
       <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
     </row>
-    <row r="80" spans="1:100">
+    <row r="80" spans="1:101">
       <c r="A80" s="1" t="s">
         <v>578</v>
       </c>
@@ -13160,7 +13424,7 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="50" t="s">
+      <c r="I80" s="47" t="s">
         <v>188</v>
       </c>
       <c r="J80" s="1"/>
@@ -13254,6 +13518,2959 @@
       <c r="CT80" s="26"/>
       <c r="CU80" s="23"/>
       <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+    </row>
+    <row r="81" spans="1:101" ht="45">
+      <c r="A81" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="B81" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="27"/>
+      <c r="BE81" s="27"/>
+      <c r="BF81" s="27"/>
+      <c r="BG81" s="27"/>
+      <c r="BH81" s="27"/>
+      <c r="BI81" s="27"/>
+      <c r="BJ81" s="27"/>
+      <c r="BK81" s="27"/>
+      <c r="BL81" s="27"/>
+      <c r="BM81" s="27"/>
+      <c r="BN81" s="27"/>
+      <c r="BO81" s="27"/>
+      <c r="BP81" s="27"/>
+      <c r="BQ81" s="27"/>
+      <c r="BR81" s="27"/>
+      <c r="BS81" s="27"/>
+      <c r="BT81" s="27"/>
+      <c r="BU81" s="27"/>
+      <c r="BV81" s="27"/>
+      <c r="BW81" s="27"/>
+      <c r="BX81" s="27"/>
+      <c r="BY81" s="27"/>
+      <c r="BZ81" s="27"/>
+      <c r="CA81" s="27"/>
+      <c r="CB81" s="27"/>
+      <c r="CC81" s="27"/>
+      <c r="CD81" s="27"/>
+      <c r="CE81" s="27"/>
+      <c r="CF81" s="27"/>
+      <c r="CG81" s="27"/>
+      <c r="CH81" s="27"/>
+      <c r="CI81" s="28"/>
+      <c r="CJ81" s="27"/>
+      <c r="CK81" s="27"/>
+      <c r="CL81" s="27"/>
+      <c r="CM81" s="27"/>
+      <c r="CN81" s="27"/>
+      <c r="CO81" s="27"/>
+      <c r="CP81" s="27"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="27"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="51"/>
+      <c r="CU81" s="23"/>
+      <c r="CV81" s="1"/>
+      <c r="CW81" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:101" ht="30">
+      <c r="A82" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="B82" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="27"/>
+      <c r="BE82" s="27"/>
+      <c r="BF82" s="27"/>
+      <c r="BG82" s="27"/>
+      <c r="BH82" s="27"/>
+      <c r="BI82" s="27"/>
+      <c r="BJ82" s="27"/>
+      <c r="BK82" s="27"/>
+      <c r="BL82" s="27"/>
+      <c r="BM82" s="27"/>
+      <c r="BN82" s="27"/>
+      <c r="BO82" s="27"/>
+      <c r="BP82" s="27"/>
+      <c r="BQ82" s="27"/>
+      <c r="BR82" s="27"/>
+      <c r="BS82" s="27"/>
+      <c r="BT82" s="27"/>
+      <c r="BU82" s="27"/>
+      <c r="BV82" s="27"/>
+      <c r="BW82" s="27"/>
+      <c r="BX82" s="27"/>
+      <c r="BY82" s="27"/>
+      <c r="BZ82" s="27"/>
+      <c r="CA82" s="27"/>
+      <c r="CB82" s="27"/>
+      <c r="CC82" s="27"/>
+      <c r="CD82" s="27"/>
+      <c r="CE82" s="27"/>
+      <c r="CF82" s="27"/>
+      <c r="CG82" s="27"/>
+      <c r="CH82" s="27"/>
+      <c r="CI82" s="28"/>
+      <c r="CJ82" s="27"/>
+      <c r="CK82" s="27"/>
+      <c r="CL82" s="27"/>
+      <c r="CM82" s="27"/>
+      <c r="CN82" s="27"/>
+      <c r="CO82" s="27"/>
+      <c r="CP82" s="27"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="27"/>
+      <c r="CS82" s="25"/>
+      <c r="CT82" s="51"/>
+      <c r="CU82" s="23"/>
+      <c r="CV82" s="1"/>
+      <c r="CW82" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:101" ht="30">
+      <c r="A83" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D83" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="27"/>
+      <c r="BE83" s="27"/>
+      <c r="BF83" s="27"/>
+      <c r="BG83" s="27"/>
+      <c r="BH83" s="27"/>
+      <c r="BI83" s="27"/>
+      <c r="BJ83" s="27"/>
+      <c r="BK83" s="27"/>
+      <c r="BL83" s="27"/>
+      <c r="BM83" s="27"/>
+      <c r="BN83" s="27"/>
+      <c r="BO83" s="27"/>
+      <c r="BP83" s="27"/>
+      <c r="BQ83" s="27"/>
+      <c r="BR83" s="27"/>
+      <c r="BS83" s="27"/>
+      <c r="BT83" s="27"/>
+      <c r="BU83" s="27"/>
+      <c r="BV83" s="27"/>
+      <c r="BW83" s="27"/>
+      <c r="BX83" s="27"/>
+      <c r="BY83" s="27"/>
+      <c r="BZ83" s="27"/>
+      <c r="CA83" s="27"/>
+      <c r="CB83" s="27"/>
+      <c r="CC83" s="27"/>
+      <c r="CD83" s="27"/>
+      <c r="CE83" s="27"/>
+      <c r="CF83" s="27"/>
+      <c r="CG83" s="27"/>
+      <c r="CH83" s="27"/>
+      <c r="CI83" s="28"/>
+      <c r="CJ83" s="27"/>
+      <c r="CK83" s="27"/>
+      <c r="CL83" s="27"/>
+      <c r="CM83" s="27"/>
+      <c r="CN83" s="27"/>
+      <c r="CO83" s="27"/>
+      <c r="CP83" s="27"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="27"/>
+      <c r="CS83" s="25"/>
+      <c r="CT83" s="51"/>
+      <c r="CU83" s="23"/>
+      <c r="CV83" s="1"/>
+      <c r="CW83" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:101" ht="30">
+      <c r="A84" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D84" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E84" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="27"/>
+      <c r="BE84" s="27"/>
+      <c r="BF84" s="27"/>
+      <c r="BG84" s="27"/>
+      <c r="BH84" s="27"/>
+      <c r="BI84" s="27"/>
+      <c r="BJ84" s="27"/>
+      <c r="BK84" s="27"/>
+      <c r="BL84" s="27"/>
+      <c r="BM84" s="27"/>
+      <c r="BN84" s="27"/>
+      <c r="BO84" s="27"/>
+      <c r="BP84" s="27"/>
+      <c r="BQ84" s="27"/>
+      <c r="BR84" s="27"/>
+      <c r="BS84" s="27"/>
+      <c r="BT84" s="27"/>
+      <c r="BU84" s="27"/>
+      <c r="BV84" s="27"/>
+      <c r="BW84" s="27"/>
+      <c r="BX84" s="27"/>
+      <c r="BY84" s="27"/>
+      <c r="BZ84" s="27"/>
+      <c r="CA84" s="27"/>
+      <c r="CB84" s="27"/>
+      <c r="CC84" s="27"/>
+      <c r="CD84" s="27"/>
+      <c r="CE84" s="27"/>
+      <c r="CF84" s="27"/>
+      <c r="CG84" s="27"/>
+      <c r="CH84" s="27"/>
+      <c r="CI84" s="28"/>
+      <c r="CJ84" s="27"/>
+      <c r="CK84" s="27"/>
+      <c r="CL84" s="27"/>
+      <c r="CM84" s="27"/>
+      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
+      <c r="CP84" s="27"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="27"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="51"/>
+      <c r="CU84" s="23"/>
+      <c r="CV84" s="1"/>
+      <c r="CW84" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:101">
+      <c r="A85" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E85" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="27"/>
+      <c r="BE85" s="27"/>
+      <c r="BF85" s="27"/>
+      <c r="BG85" s="27"/>
+      <c r="BH85" s="27"/>
+      <c r="BI85" s="27"/>
+      <c r="BJ85" s="27"/>
+      <c r="BK85" s="27"/>
+      <c r="BL85" s="27"/>
+      <c r="BM85" s="27"/>
+      <c r="BN85" s="27"/>
+      <c r="BO85" s="27"/>
+      <c r="BP85" s="27"/>
+      <c r="BQ85" s="27"/>
+      <c r="BR85" s="27"/>
+      <c r="BS85" s="27"/>
+      <c r="BT85" s="27"/>
+      <c r="BU85" s="27"/>
+      <c r="BV85" s="27"/>
+      <c r="BW85" s="27"/>
+      <c r="BX85" s="27"/>
+      <c r="BY85" s="27"/>
+      <c r="BZ85" s="27"/>
+      <c r="CA85" s="27"/>
+      <c r="CB85" s="27"/>
+      <c r="CC85" s="27"/>
+      <c r="CD85" s="27"/>
+      <c r="CE85" s="27"/>
+      <c r="CF85" s="27"/>
+      <c r="CG85" s="27"/>
+      <c r="CH85" s="27"/>
+      <c r="CI85" s="28"/>
+      <c r="CJ85" s="27"/>
+      <c r="CK85" s="27"/>
+      <c r="CL85" s="27"/>
+      <c r="CM85" s="27"/>
+      <c r="CN85" s="27"/>
+      <c r="CO85" s="27"/>
+      <c r="CP85" s="27"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="27"/>
+      <c r="CS85" s="25"/>
+      <c r="CT85" s="51"/>
+      <c r="CU85" s="23"/>
+      <c r="CV85" s="1"/>
+      <c r="CW85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:101" ht="30">
+      <c r="A86" s="48" t="s">
+        <v>598</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="27"/>
+      <c r="BE86" s="27"/>
+      <c r="BF86" s="27"/>
+      <c r="BG86" s="27"/>
+      <c r="BH86" s="27"/>
+      <c r="BI86" s="27"/>
+      <c r="BJ86" s="27"/>
+      <c r="BK86" s="27"/>
+      <c r="BL86" s="27"/>
+      <c r="BM86" s="27"/>
+      <c r="BN86" s="27"/>
+      <c r="BO86" s="27"/>
+      <c r="BP86" s="27"/>
+      <c r="BQ86" s="27"/>
+      <c r="BR86" s="27"/>
+      <c r="BS86" s="27"/>
+      <c r="BT86" s="27"/>
+      <c r="BU86" s="27"/>
+      <c r="BV86" s="27"/>
+      <c r="BW86" s="27"/>
+      <c r="BX86" s="27"/>
+      <c r="BY86" s="27"/>
+      <c r="BZ86" s="27"/>
+      <c r="CA86" s="27"/>
+      <c r="CB86" s="27"/>
+      <c r="CC86" s="27"/>
+      <c r="CD86" s="27"/>
+      <c r="CE86" s="27"/>
+      <c r="CF86" s="27"/>
+      <c r="CG86" s="27"/>
+      <c r="CH86" s="27"/>
+      <c r="CI86" s="28"/>
+      <c r="CJ86" s="27"/>
+      <c r="CK86" s="27"/>
+      <c r="CL86" s="27"/>
+      <c r="CM86" s="27"/>
+      <c r="CN86" s="27"/>
+      <c r="CO86" s="27"/>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="27"/>
+      <c r="CS86" s="25"/>
+      <c r="CT86" s="51"/>
+      <c r="CU86" s="23"/>
+      <c r="CV86" s="1"/>
+      <c r="CW86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:101">
+      <c r="A87" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="27"/>
+      <c r="BE87" s="27"/>
+      <c r="BF87" s="27"/>
+      <c r="BG87" s="27"/>
+      <c r="BH87" s="27"/>
+      <c r="BI87" s="27"/>
+      <c r="BJ87" s="27"/>
+      <c r="BK87" s="27"/>
+      <c r="BL87" s="27"/>
+      <c r="BM87" s="27"/>
+      <c r="BN87" s="27"/>
+      <c r="BO87" s="27"/>
+      <c r="BP87" s="27"/>
+      <c r="BQ87" s="27"/>
+      <c r="BR87" s="27"/>
+      <c r="BS87" s="27"/>
+      <c r="BT87" s="27"/>
+      <c r="BU87" s="27"/>
+      <c r="BV87" s="27"/>
+      <c r="BW87" s="27"/>
+      <c r="BX87" s="27"/>
+      <c r="BY87" s="27"/>
+      <c r="BZ87" s="27"/>
+      <c r="CA87" s="27"/>
+      <c r="CB87" s="27"/>
+      <c r="CC87" s="27"/>
+      <c r="CD87" s="27"/>
+      <c r="CE87" s="27"/>
+      <c r="CF87" s="27"/>
+      <c r="CG87" s="27"/>
+      <c r="CH87" s="27"/>
+      <c r="CI87" s="28"/>
+      <c r="CJ87" s="27"/>
+      <c r="CK87" s="27"/>
+      <c r="CL87" s="27"/>
+      <c r="CM87" s="27"/>
+      <c r="CN87" s="27"/>
+      <c r="CO87" s="27"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="27"/>
+      <c r="CS87" s="25"/>
+      <c r="CT87" s="51"/>
+      <c r="CU87" s="23"/>
+      <c r="CV87" s="1"/>
+      <c r="CW87" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:101">
+      <c r="A88" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="27"/>
+      <c r="BE88" s="27"/>
+      <c r="BF88" s="27"/>
+      <c r="BG88" s="27"/>
+      <c r="BH88" s="27"/>
+      <c r="BI88" s="27"/>
+      <c r="BJ88" s="27"/>
+      <c r="BK88" s="27"/>
+      <c r="BL88" s="27"/>
+      <c r="BM88" s="27"/>
+      <c r="BN88" s="27"/>
+      <c r="BO88" s="27"/>
+      <c r="BP88" s="27"/>
+      <c r="BQ88" s="27"/>
+      <c r="BR88" s="27"/>
+      <c r="BS88" s="27"/>
+      <c r="BT88" s="27"/>
+      <c r="BU88" s="27"/>
+      <c r="BV88" s="27"/>
+      <c r="BW88" s="27"/>
+      <c r="BX88" s="27"/>
+      <c r="BY88" s="27"/>
+      <c r="BZ88" s="27"/>
+      <c r="CA88" s="27"/>
+      <c r="CB88" s="27"/>
+      <c r="CC88" s="27"/>
+      <c r="CD88" s="27"/>
+      <c r="CE88" s="27"/>
+      <c r="CF88" s="27"/>
+      <c r="CG88" s="27"/>
+      <c r="CH88" s="27"/>
+      <c r="CI88" s="28"/>
+      <c r="CJ88" s="27"/>
+      <c r="CK88" s="27"/>
+      <c r="CL88" s="27"/>
+      <c r="CM88" s="27"/>
+      <c r="CN88" s="27"/>
+      <c r="CO88" s="27"/>
+      <c r="CP88" s="27"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="27"/>
+      <c r="CS88" s="25"/>
+      <c r="CT88" s="51"/>
+      <c r="CU88" s="23"/>
+      <c r="CV88" s="1"/>
+      <c r="CW88" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:101">
+      <c r="A89" s="48" t="s">
+        <v>606</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="27"/>
+      <c r="BE89" s="27"/>
+      <c r="BF89" s="27"/>
+      <c r="BG89" s="27"/>
+      <c r="BH89" s="27"/>
+      <c r="BI89" s="27"/>
+      <c r="BJ89" s="27"/>
+      <c r="BK89" s="27"/>
+      <c r="BL89" s="27"/>
+      <c r="BM89" s="27"/>
+      <c r="BN89" s="27"/>
+      <c r="BO89" s="27"/>
+      <c r="BP89" s="27"/>
+      <c r="BQ89" s="27"/>
+      <c r="BR89" s="27"/>
+      <c r="BS89" s="27"/>
+      <c r="BT89" s="27"/>
+      <c r="BU89" s="27"/>
+      <c r="BV89" s="27"/>
+      <c r="BW89" s="27"/>
+      <c r="BX89" s="27"/>
+      <c r="BY89" s="27"/>
+      <c r="BZ89" s="27"/>
+      <c r="CA89" s="27"/>
+      <c r="CB89" s="27"/>
+      <c r="CC89" s="27"/>
+      <c r="CD89" s="27"/>
+      <c r="CE89" s="27"/>
+      <c r="CF89" s="27"/>
+      <c r="CG89" s="27"/>
+      <c r="CH89" s="27"/>
+      <c r="CI89" s="28"/>
+      <c r="CJ89" s="27"/>
+      <c r="CK89" s="27"/>
+      <c r="CL89" s="27"/>
+      <c r="CM89" s="27"/>
+      <c r="CN89" s="27"/>
+      <c r="CO89" s="27"/>
+      <c r="CP89" s="27"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="27"/>
+      <c r="CS89" s="25"/>
+      <c r="CT89" s="51"/>
+      <c r="CU89" s="23"/>
+      <c r="CV89" s="1"/>
+      <c r="CW89" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:101">
+      <c r="A90" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E90" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="27"/>
+      <c r="BE90" s="27"/>
+      <c r="BF90" s="27"/>
+      <c r="BG90" s="27"/>
+      <c r="BH90" s="27"/>
+      <c r="BI90" s="27"/>
+      <c r="BJ90" s="27"/>
+      <c r="BK90" s="27"/>
+      <c r="BL90" s="27"/>
+      <c r="BM90" s="27"/>
+      <c r="BN90" s="27"/>
+      <c r="BO90" s="27"/>
+      <c r="BP90" s="27"/>
+      <c r="BQ90" s="27"/>
+      <c r="BR90" s="27"/>
+      <c r="BS90" s="27"/>
+      <c r="BT90" s="27"/>
+      <c r="BU90" s="27"/>
+      <c r="BV90" s="27"/>
+      <c r="BW90" s="27"/>
+      <c r="BX90" s="27"/>
+      <c r="BY90" s="27"/>
+      <c r="BZ90" s="27"/>
+      <c r="CA90" s="27"/>
+      <c r="CB90" s="27"/>
+      <c r="CC90" s="27"/>
+      <c r="CD90" s="27"/>
+      <c r="CE90" s="27"/>
+      <c r="CF90" s="27"/>
+      <c r="CG90" s="27"/>
+      <c r="CH90" s="27"/>
+      <c r="CI90" s="28"/>
+      <c r="CJ90" s="27"/>
+      <c r="CK90" s="27"/>
+      <c r="CL90" s="27"/>
+      <c r="CM90" s="27"/>
+      <c r="CN90" s="27"/>
+      <c r="CO90" s="27"/>
+      <c r="CP90" s="27"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="27"/>
+      <c r="CS90" s="25"/>
+      <c r="CT90" s="51"/>
+      <c r="CU90" s="23"/>
+      <c r="CV90" s="1"/>
+      <c r="CW90" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:101">
+      <c r="A91" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E91" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="27"/>
+      <c r="BE91" s="27"/>
+      <c r="BF91" s="27"/>
+      <c r="BG91" s="27"/>
+      <c r="BH91" s="27"/>
+      <c r="BI91" s="27"/>
+      <c r="BJ91" s="27"/>
+      <c r="BK91" s="27"/>
+      <c r="BL91" s="27"/>
+      <c r="BM91" s="27"/>
+      <c r="BN91" s="27"/>
+      <c r="BO91" s="27"/>
+      <c r="BP91" s="27"/>
+      <c r="BQ91" s="27"/>
+      <c r="BR91" s="27"/>
+      <c r="BS91" s="27"/>
+      <c r="BT91" s="27"/>
+      <c r="BU91" s="27"/>
+      <c r="BV91" s="27"/>
+      <c r="BW91" s="27"/>
+      <c r="BX91" s="27"/>
+      <c r="BY91" s="27"/>
+      <c r="BZ91" s="27"/>
+      <c r="CA91" s="27"/>
+      <c r="CB91" s="27"/>
+      <c r="CC91" s="27"/>
+      <c r="CD91" s="27"/>
+      <c r="CE91" s="27"/>
+      <c r="CF91" s="27"/>
+      <c r="CG91" s="27"/>
+      <c r="CH91" s="27"/>
+      <c r="CI91" s="28"/>
+      <c r="CJ91" s="27"/>
+      <c r="CK91" s="27"/>
+      <c r="CL91" s="27"/>
+      <c r="CM91" s="27"/>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="27"/>
+      <c r="CS91" s="25"/>
+      <c r="CT91" s="51"/>
+      <c r="CU91" s="23"/>
+      <c r="CV91" s="1"/>
+      <c r="CW91" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:101" ht="30">
+      <c r="A92" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="27"/>
+      <c r="BE92" s="27"/>
+      <c r="BF92" s="27"/>
+      <c r="BG92" s="27"/>
+      <c r="BH92" s="27"/>
+      <c r="BI92" s="27"/>
+      <c r="BJ92" s="27"/>
+      <c r="BK92" s="27"/>
+      <c r="BL92" s="27"/>
+      <c r="BM92" s="27"/>
+      <c r="BN92" s="27"/>
+      <c r="BO92" s="27"/>
+      <c r="BP92" s="27"/>
+      <c r="BQ92" s="27"/>
+      <c r="BR92" s="27"/>
+      <c r="BS92" s="27"/>
+      <c r="BT92" s="27"/>
+      <c r="BU92" s="27"/>
+      <c r="BV92" s="27"/>
+      <c r="BW92" s="27"/>
+      <c r="BX92" s="27"/>
+      <c r="BY92" s="27"/>
+      <c r="BZ92" s="27"/>
+      <c r="CA92" s="27"/>
+      <c r="CB92" s="27"/>
+      <c r="CC92" s="27"/>
+      <c r="CD92" s="27"/>
+      <c r="CE92" s="27"/>
+      <c r="CF92" s="27"/>
+      <c r="CG92" s="27"/>
+      <c r="CH92" s="27"/>
+      <c r="CI92" s="28"/>
+      <c r="CJ92" s="27"/>
+      <c r="CK92" s="27"/>
+      <c r="CL92" s="27"/>
+      <c r="CM92" s="27"/>
+      <c r="CN92" s="27"/>
+      <c r="CO92" s="27"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="27"/>
+      <c r="CS92" s="25"/>
+      <c r="CT92" s="51"/>
+      <c r="CU92" s="23"/>
+      <c r="CV92" s="1"/>
+      <c r="CW92" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:101">
+      <c r="A93" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="27"/>
+      <c r="BE93" s="27"/>
+      <c r="BF93" s="27"/>
+      <c r="BG93" s="27"/>
+      <c r="BH93" s="27"/>
+      <c r="BI93" s="27"/>
+      <c r="BJ93" s="27"/>
+      <c r="BK93" s="27"/>
+      <c r="BL93" s="27"/>
+      <c r="BM93" s="27"/>
+      <c r="BN93" s="27"/>
+      <c r="BO93" s="27"/>
+      <c r="BP93" s="27"/>
+      <c r="BQ93" s="27"/>
+      <c r="BR93" s="27"/>
+      <c r="BS93" s="27"/>
+      <c r="BT93" s="27"/>
+      <c r="BU93" s="27"/>
+      <c r="BV93" s="27"/>
+      <c r="BW93" s="27"/>
+      <c r="BX93" s="27"/>
+      <c r="BY93" s="27"/>
+      <c r="BZ93" s="27"/>
+      <c r="CA93" s="27"/>
+      <c r="CB93" s="27"/>
+      <c r="CC93" s="27"/>
+      <c r="CD93" s="27"/>
+      <c r="CE93" s="27"/>
+      <c r="CF93" s="27"/>
+      <c r="CG93" s="27"/>
+      <c r="CH93" s="27"/>
+      <c r="CI93" s="28"/>
+      <c r="CJ93" s="27"/>
+      <c r="CK93" s="27"/>
+      <c r="CL93" s="27"/>
+      <c r="CM93" s="27"/>
+      <c r="CN93" s="27"/>
+      <c r="CO93" s="27"/>
+      <c r="CP93" s="27"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="27"/>
+      <c r="CS93" s="25"/>
+      <c r="CT93" s="51"/>
+      <c r="CU93" s="23"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:101">
+      <c r="A94" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F94" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G94" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="27"/>
+      <c r="BE94" s="27"/>
+      <c r="BF94" s="27"/>
+      <c r="BG94" s="27"/>
+      <c r="BH94" s="27"/>
+      <c r="BI94" s="27"/>
+      <c r="BJ94" s="27"/>
+      <c r="BK94" s="27"/>
+      <c r="BL94" s="27"/>
+      <c r="BM94" s="27"/>
+      <c r="BN94" s="27"/>
+      <c r="BO94" s="27"/>
+      <c r="BP94" s="27"/>
+      <c r="BQ94" s="27"/>
+      <c r="BR94" s="27"/>
+      <c r="BS94" s="27"/>
+      <c r="BT94" s="27"/>
+      <c r="BU94" s="27"/>
+      <c r="BV94" s="27"/>
+      <c r="BW94" s="27"/>
+      <c r="BX94" s="27"/>
+      <c r="BY94" s="27"/>
+      <c r="BZ94" s="27"/>
+      <c r="CA94" s="27"/>
+      <c r="CB94" s="27"/>
+      <c r="CC94" s="27"/>
+      <c r="CD94" s="27"/>
+      <c r="CE94" s="27"/>
+      <c r="CF94" s="27"/>
+      <c r="CG94" s="27"/>
+      <c r="CH94" s="27"/>
+      <c r="CI94" s="28"/>
+      <c r="CJ94" s="27"/>
+      <c r="CK94" s="27"/>
+      <c r="CL94" s="27"/>
+      <c r="CM94" s="27"/>
+      <c r="CN94" s="27"/>
+      <c r="CO94" s="27"/>
+      <c r="CP94" s="27"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="27"/>
+      <c r="CS94" s="25"/>
+      <c r="CT94" s="51"/>
+      <c r="CU94" s="23"/>
+      <c r="CV94" s="1"/>
+      <c r="CW94" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:101" ht="30">
+      <c r="A95" s="48" t="s">
+        <v>624</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="27"/>
+      <c r="BE95" s="27"/>
+      <c r="BF95" s="27"/>
+      <c r="BG95" s="27"/>
+      <c r="BH95" s="27"/>
+      <c r="BI95" s="27"/>
+      <c r="BJ95" s="27"/>
+      <c r="BK95" s="27"/>
+      <c r="BL95" s="27"/>
+      <c r="BM95" s="27"/>
+      <c r="BN95" s="27"/>
+      <c r="BO95" s="27"/>
+      <c r="BP95" s="27"/>
+      <c r="BQ95" s="27"/>
+      <c r="BR95" s="27"/>
+      <c r="BS95" s="27"/>
+      <c r="BT95" s="27"/>
+      <c r="BU95" s="27"/>
+      <c r="BV95" s="27"/>
+      <c r="BW95" s="27"/>
+      <c r="BX95" s="27"/>
+      <c r="BY95" s="27"/>
+      <c r="BZ95" s="27"/>
+      <c r="CA95" s="27"/>
+      <c r="CB95" s="27"/>
+      <c r="CC95" s="27"/>
+      <c r="CD95" s="27"/>
+      <c r="CE95" s="27"/>
+      <c r="CF95" s="27"/>
+      <c r="CG95" s="27"/>
+      <c r="CH95" s="27"/>
+      <c r="CI95" s="28"/>
+      <c r="CJ95" s="27"/>
+      <c r="CK95" s="27"/>
+      <c r="CL95" s="27"/>
+      <c r="CM95" s="27"/>
+      <c r="CN95" s="27"/>
+      <c r="CO95" s="27"/>
+      <c r="CP95" s="27"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="27"/>
+      <c r="CS95" s="25"/>
+      <c r="CT95" s="51"/>
+      <c r="CU95" s="23"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:101" ht="30">
+      <c r="A96" s="48" t="s">
+        <v>627</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="27"/>
+      <c r="BE96" s="27"/>
+      <c r="BF96" s="27"/>
+      <c r="BG96" s="27"/>
+      <c r="BH96" s="27"/>
+      <c r="BI96" s="27"/>
+      <c r="BJ96" s="27"/>
+      <c r="BK96" s="27"/>
+      <c r="BL96" s="27"/>
+      <c r="BM96" s="27"/>
+      <c r="BN96" s="27"/>
+      <c r="BO96" s="27"/>
+      <c r="BP96" s="27"/>
+      <c r="BQ96" s="27"/>
+      <c r="BR96" s="27"/>
+      <c r="BS96" s="27"/>
+      <c r="BT96" s="27"/>
+      <c r="BU96" s="27"/>
+      <c r="BV96" s="27"/>
+      <c r="BW96" s="27"/>
+      <c r="BX96" s="27"/>
+      <c r="BY96" s="27"/>
+      <c r="BZ96" s="27"/>
+      <c r="CA96" s="27"/>
+      <c r="CB96" s="27"/>
+      <c r="CC96" s="27"/>
+      <c r="CD96" s="27"/>
+      <c r="CE96" s="27"/>
+      <c r="CF96" s="27"/>
+      <c r="CG96" s="27"/>
+      <c r="CH96" s="27"/>
+      <c r="CI96" s="28"/>
+      <c r="CJ96" s="27"/>
+      <c r="CK96" s="27"/>
+      <c r="CL96" s="27"/>
+      <c r="CM96" s="27"/>
+      <c r="CN96" s="27"/>
+      <c r="CO96" s="27"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="27"/>
+      <c r="CS96" s="25"/>
+      <c r="CT96" s="51"/>
+      <c r="CU96" s="23"/>
+      <c r="CV96" s="1"/>
+      <c r="CW96" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:101">
+      <c r="A97" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B97" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D97" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1"/>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="27"/>
+      <c r="BE97" s="27"/>
+      <c r="BF97" s="27"/>
+      <c r="BG97" s="27"/>
+      <c r="BH97" s="27"/>
+      <c r="BI97" s="27"/>
+      <c r="BJ97" s="27"/>
+      <c r="BK97" s="27"/>
+      <c r="BL97" s="27"/>
+      <c r="BM97" s="27"/>
+      <c r="BN97" s="27"/>
+      <c r="BO97" s="27"/>
+      <c r="BP97" s="27"/>
+      <c r="BQ97" s="27"/>
+      <c r="BR97" s="27"/>
+      <c r="BS97" s="27"/>
+      <c r="BT97" s="27"/>
+      <c r="BU97" s="27"/>
+      <c r="BV97" s="27"/>
+      <c r="BW97" s="27"/>
+      <c r="BX97" s="27"/>
+      <c r="BY97" s="27"/>
+      <c r="BZ97" s="27"/>
+      <c r="CA97" s="27"/>
+      <c r="CB97" s="27"/>
+      <c r="CC97" s="27"/>
+      <c r="CD97" s="27"/>
+      <c r="CE97" s="27"/>
+      <c r="CF97" s="27"/>
+      <c r="CG97" s="27"/>
+      <c r="CH97" s="27"/>
+      <c r="CI97" s="28"/>
+      <c r="CJ97" s="27"/>
+      <c r="CK97" s="27"/>
+      <c r="CL97" s="27"/>
+      <c r="CM97" s="27"/>
+      <c r="CN97" s="27"/>
+      <c r="CO97" s="27"/>
+      <c r="CP97" s="27"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="27"/>
+      <c r="CS97" s="25"/>
+      <c r="CT97" s="51"/>
+      <c r="CU97" s="23"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:101">
+      <c r="A98" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D98" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1"/>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="27"/>
+      <c r="BE98" s="27"/>
+      <c r="BF98" s="27"/>
+      <c r="BG98" s="27"/>
+      <c r="BH98" s="27"/>
+      <c r="BI98" s="27"/>
+      <c r="BJ98" s="27"/>
+      <c r="BK98" s="27"/>
+      <c r="BL98" s="27"/>
+      <c r="BM98" s="27"/>
+      <c r="BN98" s="27"/>
+      <c r="BO98" s="27"/>
+      <c r="BP98" s="27"/>
+      <c r="BQ98" s="27"/>
+      <c r="BR98" s="27"/>
+      <c r="BS98" s="27"/>
+      <c r="BT98" s="27"/>
+      <c r="BU98" s="27"/>
+      <c r="BV98" s="27"/>
+      <c r="BW98" s="27"/>
+      <c r="BX98" s="27"/>
+      <c r="BY98" s="27"/>
+      <c r="BZ98" s="27"/>
+      <c r="CA98" s="27"/>
+      <c r="CB98" s="27"/>
+      <c r="CC98" s="27"/>
+      <c r="CD98" s="27"/>
+      <c r="CE98" s="27"/>
+      <c r="CF98" s="27"/>
+      <c r="CG98" s="27"/>
+      <c r="CH98" s="27"/>
+      <c r="CI98" s="28"/>
+      <c r="CJ98" s="27"/>
+      <c r="CK98" s="27"/>
+      <c r="CL98" s="27"/>
+      <c r="CM98" s="27"/>
+      <c r="CN98" s="27"/>
+      <c r="CO98" s="27"/>
+      <c r="CP98" s="27"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="27"/>
+      <c r="CS98" s="25"/>
+      <c r="CT98" s="51"/>
+      <c r="CU98" s="23"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:101">
+      <c r="A99" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="B99" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D99" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1"/>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="27"/>
+      <c r="BE99" s="27"/>
+      <c r="BF99" s="27"/>
+      <c r="BG99" s="27"/>
+      <c r="BH99" s="27"/>
+      <c r="BI99" s="27"/>
+      <c r="BJ99" s="27"/>
+      <c r="BK99" s="27"/>
+      <c r="BL99" s="27"/>
+      <c r="BM99" s="27"/>
+      <c r="BN99" s="27"/>
+      <c r="BO99" s="27"/>
+      <c r="BP99" s="27"/>
+      <c r="BQ99" s="27"/>
+      <c r="BR99" s="27"/>
+      <c r="BS99" s="27"/>
+      <c r="BT99" s="27"/>
+      <c r="BU99" s="27"/>
+      <c r="BV99" s="27"/>
+      <c r="BW99" s="27"/>
+      <c r="BX99" s="27"/>
+      <c r="BY99" s="27"/>
+      <c r="BZ99" s="27"/>
+      <c r="CA99" s="27"/>
+      <c r="CB99" s="27"/>
+      <c r="CC99" s="27"/>
+      <c r="CD99" s="27"/>
+      <c r="CE99" s="27"/>
+      <c r="CF99" s="27"/>
+      <c r="CG99" s="27"/>
+      <c r="CH99" s="27"/>
+      <c r="CI99" s="28"/>
+      <c r="CJ99" s="27"/>
+      <c r="CK99" s="27"/>
+      <c r="CL99" s="27"/>
+      <c r="CM99" s="27"/>
+      <c r="CN99" s="27"/>
+      <c r="CO99" s="27"/>
+      <c r="CP99" s="27"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="27"/>
+      <c r="CS99" s="25"/>
+      <c r="CT99" s="51"/>
+      <c r="CU99" s="23"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:101" ht="30">
+      <c r="A100" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D100" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F100" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1"/>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1"/>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1"/>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="27"/>
+      <c r="BE100" s="27"/>
+      <c r="BF100" s="27"/>
+      <c r="BG100" s="27"/>
+      <c r="BH100" s="27"/>
+      <c r="BI100" s="27"/>
+      <c r="BJ100" s="27"/>
+      <c r="BK100" s="27"/>
+      <c r="BL100" s="27"/>
+      <c r="BM100" s="27"/>
+      <c r="BN100" s="27"/>
+      <c r="BO100" s="27"/>
+      <c r="BP100" s="27"/>
+      <c r="BQ100" s="27"/>
+      <c r="BR100" s="27"/>
+      <c r="BS100" s="27"/>
+      <c r="BT100" s="27"/>
+      <c r="BU100" s="27"/>
+      <c r="BV100" s="27"/>
+      <c r="BW100" s="27"/>
+      <c r="BX100" s="27"/>
+      <c r="BY100" s="27"/>
+      <c r="BZ100" s="27"/>
+      <c r="CA100" s="27"/>
+      <c r="CB100" s="27"/>
+      <c r="CC100" s="27"/>
+      <c r="CD100" s="27"/>
+      <c r="CE100" s="27"/>
+      <c r="CF100" s="27"/>
+      <c r="CG100" s="27"/>
+      <c r="CH100" s="27"/>
+      <c r="CI100" s="28"/>
+      <c r="CJ100" s="27"/>
+      <c r="CK100" s="27"/>
+      <c r="CL100" s="27"/>
+      <c r="CM100" s="27"/>
+      <c r="CN100" s="27"/>
+      <c r="CO100" s="27"/>
+      <c r="CP100" s="27"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="27"/>
+      <c r="CS100" s="25"/>
+      <c r="CT100" s="51"/>
+      <c r="CU100" s="23"/>
+      <c r="CV100" s="1"/>
+      <c r="CW100" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:101" ht="30">
+      <c r="A101" s="48" t="s">
+        <v>642</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D101" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F101" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="31"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="1"/>
+      <c r="AO101" s="1"/>
+      <c r="AP101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AR101" s="1"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="1"/>
+      <c r="AU101" s="1"/>
+      <c r="AV101" s="1"/>
+      <c r="AW101" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="AX101" s="1"/>
+      <c r="AY101" s="1"/>
+      <c r="AZ101" s="1"/>
+      <c r="BA101" s="1"/>
+      <c r="BB101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BD101" s="27"/>
+      <c r="BE101" s="27"/>
+      <c r="BF101" s="27"/>
+      <c r="BG101" s="27"/>
+      <c r="BH101" s="27"/>
+      <c r="BI101" s="27"/>
+      <c r="BJ101" s="27"/>
+      <c r="BK101" s="27"/>
+      <c r="BL101" s="27"/>
+      <c r="BM101" s="27"/>
+      <c r="BN101" s="27"/>
+      <c r="BO101" s="27"/>
+      <c r="BP101" s="27"/>
+      <c r="BQ101" s="27"/>
+      <c r="BR101" s="27"/>
+      <c r="BS101" s="27"/>
+      <c r="BT101" s="27"/>
+      <c r="BU101" s="27"/>
+      <c r="BV101" s="27"/>
+      <c r="BW101" s="27"/>
+      <c r="BX101" s="27"/>
+      <c r="BY101" s="27"/>
+      <c r="BZ101" s="27"/>
+      <c r="CA101" s="27"/>
+      <c r="CB101" s="27"/>
+      <c r="CC101" s="27"/>
+      <c r="CD101" s="27"/>
+      <c r="CE101" s="27"/>
+      <c r="CF101" s="27"/>
+      <c r="CG101" s="27"/>
+      <c r="CH101" s="27"/>
+      <c r="CI101" s="28"/>
+      <c r="CJ101" s="27"/>
+      <c r="CK101" s="27"/>
+      <c r="CL101" s="27"/>
+      <c r="CM101" s="27"/>
+      <c r="CN101" s="27"/>
+      <c r="CO101" s="27"/>
+      <c r="CP101" s="27"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="27"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="51"/>
+      <c r="CU101" s="23"/>
+      <c r="CV101" s="1"/>
+      <c r="CW101" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:101">
+      <c r="A102" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="B102" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="31"/>
+      <c r="P102" s="31"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="1"/>
+      <c r="AO102" s="1"/>
+      <c r="AP102" s="1"/>
+      <c r="AQ102" s="1"/>
+      <c r="AR102" s="1"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="1"/>
+      <c r="AU102" s="1"/>
+      <c r="AV102" s="1"/>
+      <c r="AW102" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX102" s="1"/>
+      <c r="AY102" s="1"/>
+      <c r="AZ102" s="1"/>
+      <c r="BA102" s="1"/>
+      <c r="BB102" s="1"/>
+      <c r="BC102" s="1"/>
+      <c r="BD102" s="27"/>
+      <c r="BE102" s="27"/>
+      <c r="BF102" s="27"/>
+      <c r="BG102" s="27"/>
+      <c r="BH102" s="27"/>
+      <c r="BI102" s="27"/>
+      <c r="BJ102" s="27"/>
+      <c r="BK102" s="27"/>
+      <c r="BL102" s="27"/>
+      <c r="BM102" s="27"/>
+      <c r="BN102" s="27"/>
+      <c r="BO102" s="27"/>
+      <c r="BP102" s="27"/>
+      <c r="BQ102" s="27"/>
+      <c r="BR102" s="27"/>
+      <c r="BS102" s="27"/>
+      <c r="BT102" s="27"/>
+      <c r="BU102" s="27"/>
+      <c r="BV102" s="27"/>
+      <c r="BW102" s="27"/>
+      <c r="BX102" s="27"/>
+      <c r="BY102" s="27"/>
+      <c r="BZ102" s="27"/>
+      <c r="CA102" s="27"/>
+      <c r="CB102" s="27"/>
+      <c r="CC102" s="27"/>
+      <c r="CD102" s="27"/>
+      <c r="CE102" s="27"/>
+      <c r="CF102" s="27"/>
+      <c r="CG102" s="27"/>
+      <c r="CH102" s="27"/>
+      <c r="CI102" s="28"/>
+      <c r="CJ102" s="27"/>
+      <c r="CK102" s="27"/>
+      <c r="CL102" s="27"/>
+      <c r="CM102" s="27"/>
+      <c r="CN102" s="27"/>
+      <c r="CO102" s="27"/>
+      <c r="CP102" s="27"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="27"/>
+      <c r="CS102" s="25"/>
+      <c r="CT102" s="51"/>
+      <c r="CU102" s="23"/>
+      <c r="CV102" s="1"/>
+      <c r="CW102" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:101" ht="30">
+      <c r="A103" s="48" t="s">
+        <v>648</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D103" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="31"/>
+      <c r="P103" s="31"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="1"/>
+      <c r="AO103" s="1"/>
+      <c r="AP103" s="1"/>
+      <c r="AQ103" s="1"/>
+      <c r="AR103" s="1"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="1"/>
+      <c r="AU103" s="1"/>
+      <c r="AV103" s="1"/>
+      <c r="AW103" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX103" s="1"/>
+      <c r="AY103" s="1"/>
+      <c r="AZ103" s="1"/>
+      <c r="BA103" s="1"/>
+      <c r="BB103" s="1"/>
+      <c r="BC103" s="1"/>
+      <c r="BD103" s="27"/>
+      <c r="BE103" s="27"/>
+      <c r="BF103" s="27"/>
+      <c r="BG103" s="27"/>
+      <c r="BH103" s="27"/>
+      <c r="BI103" s="27"/>
+      <c r="BJ103" s="27"/>
+      <c r="BK103" s="27"/>
+      <c r="BL103" s="27"/>
+      <c r="BM103" s="27"/>
+      <c r="BN103" s="27"/>
+      <c r="BO103" s="27"/>
+      <c r="BP103" s="27"/>
+      <c r="BQ103" s="27"/>
+      <c r="BR103" s="27"/>
+      <c r="BS103" s="27"/>
+      <c r="BT103" s="27"/>
+      <c r="BU103" s="27"/>
+      <c r="BV103" s="27"/>
+      <c r="BW103" s="27"/>
+      <c r="BX103" s="27"/>
+      <c r="BY103" s="27"/>
+      <c r="BZ103" s="27"/>
+      <c r="CA103" s="27"/>
+      <c r="CB103" s="27"/>
+      <c r="CC103" s="27"/>
+      <c r="CD103" s="27"/>
+      <c r="CE103" s="27"/>
+      <c r="CF103" s="27"/>
+      <c r="CG103" s="27"/>
+      <c r="CH103" s="27"/>
+      <c r="CI103" s="28"/>
+      <c r="CJ103" s="27"/>
+      <c r="CK103" s="27"/>
+      <c r="CL103" s="27"/>
+      <c r="CM103" s="27"/>
+      <c r="CN103" s="27"/>
+      <c r="CO103" s="27"/>
+      <c r="CP103" s="27"/>
+      <c r="CQ103" s="1"/>
+      <c r="CR103" s="27"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="51"/>
+      <c r="CU103" s="23"/>
+      <c r="CV103" s="1"/>
+      <c r="CW103" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:101" ht="30">
+      <c r="A104" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="B104" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D104" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" s="48" t="s">
+        <v>583</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>652</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="1"/>
+      <c r="AO104" s="1"/>
+      <c r="AP104" s="1"/>
+      <c r="AQ104" s="1"/>
+      <c r="AR104" s="1"/>
+      <c r="AS104" s="1"/>
+      <c r="AT104" s="1"/>
+      <c r="AU104" s="1"/>
+      <c r="AV104" s="1"/>
+      <c r="AW104" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="AX104" s="1"/>
+      <c r="AY104" s="1"/>
+      <c r="AZ104" s="1"/>
+      <c r="BA104" s="1"/>
+      <c r="BB104" s="1"/>
+      <c r="BC104" s="1"/>
+      <c r="BD104" s="27"/>
+      <c r="BE104" s="27"/>
+      <c r="BF104" s="27"/>
+      <c r="BG104" s="27"/>
+      <c r="BH104" s="27"/>
+      <c r="BI104" s="27"/>
+      <c r="BJ104" s="27"/>
+      <c r="BK104" s="27"/>
+      <c r="BL104" s="27"/>
+      <c r="BM104" s="27"/>
+      <c r="BN104" s="27"/>
+      <c r="BO104" s="27"/>
+      <c r="BP104" s="27"/>
+      <c r="BQ104" s="27"/>
+      <c r="BR104" s="27"/>
+      <c r="BS104" s="27"/>
+      <c r="BT104" s="27"/>
+      <c r="BU104" s="27"/>
+      <c r="BV104" s="27"/>
+      <c r="BW104" s="27"/>
+      <c r="BX104" s="27"/>
+      <c r="BY104" s="27"/>
+      <c r="BZ104" s="27"/>
+      <c r="CA104" s="27"/>
+      <c r="CB104" s="27"/>
+      <c r="CC104" s="27"/>
+      <c r="CD104" s="27"/>
+      <c r="CE104" s="27"/>
+      <c r="CF104" s="27"/>
+      <c r="CG104" s="27"/>
+      <c r="CH104" s="27"/>
+      <c r="CI104" s="28"/>
+      <c r="CJ104" s="27"/>
+      <c r="CK104" s="27"/>
+      <c r="CL104" s="27"/>
+      <c r="CM104" s="27"/>
+      <c r="CN104" s="27"/>
+      <c r="CO104" s="27"/>
+      <c r="CP104" s="27"/>
+      <c r="CQ104" s="1"/>
+      <c r="CR104" s="27"/>
+      <c r="CS104" s="25"/>
+      <c r="CT104" s="51"/>
+      <c r="CU104" s="23"/>
+      <c r="CV104" s="1"/>
+      <c r="CW104" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDB3D49-7AE3-4AC5-98B2-08013A5732C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="660">
   <si>
     <t>Environment</t>
   </si>
@@ -2118,11 +2117,26 @@
   <si>
     <t>account_id</t>
   </si>
+  <si>
+    <t>SID: 1382, mqb</t>
+  </si>
+  <si>
+    <t>Multi Question Branching data testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page </t>
+  </si>
+  <si>
+    <t>Qtitle, AnswerOptions, Page no validation</t>
+  </si>
+  <si>
+    <t>Smoke_TC109</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2378,19 +2392,19 @@
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
+    <cellStyle name="Hyperlink 2 2" xfId="11"/>
+    <cellStyle name="Hyperlink 3" xfId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 4 2" xfId="10"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 5 2" xfId="13"/>
+    <cellStyle name="Normal 6" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2667,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2709,7 +2723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2868,8 +2882,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2877,12 +2891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CW104"/>
+  <dimension ref="A1:CW105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CR8" sqref="CR8"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16472,20 +16486,145 @@
         <v>178</v>
       </c>
     </row>
+    <row r="105" spans="1:101">
+      <c r="A105" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="B105" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D105" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="F105" s="48" t="s">
+        <v>656</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="1"/>
+      <c r="AO105" s="1"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+      <c r="AR105" s="1"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AU105" s="1"/>
+      <c r="AV105" s="1"/>
+      <c r="AW105" s="24"/>
+      <c r="AX105" s="1"/>
+      <c r="AY105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ105" s="1"/>
+      <c r="BA105" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BB105" s="1"/>
+      <c r="BC105" s="1"/>
+      <c r="BD105" s="27"/>
+      <c r="BE105" s="27"/>
+      <c r="BF105" s="27"/>
+      <c r="BG105" s="27"/>
+      <c r="BH105" s="27"/>
+      <c r="BI105" s="27"/>
+      <c r="BJ105" s="27"/>
+      <c r="BK105" s="27"/>
+      <c r="BL105" s="27"/>
+      <c r="BM105" s="27"/>
+      <c r="BN105" s="27"/>
+      <c r="BO105" s="27"/>
+      <c r="BP105" s="27"/>
+      <c r="BQ105" s="27"/>
+      <c r="BR105" s="27"/>
+      <c r="BS105" s="27"/>
+      <c r="BT105" s="27"/>
+      <c r="BU105" s="27"/>
+      <c r="BV105" s="27"/>
+      <c r="BW105" s="27"/>
+      <c r="BX105" s="27"/>
+      <c r="BY105" s="27"/>
+      <c r="BZ105" s="27"/>
+      <c r="CA105" s="27"/>
+      <c r="CB105" s="27"/>
+      <c r="CC105" s="27"/>
+      <c r="CD105" s="27"/>
+      <c r="CE105" s="27"/>
+      <c r="CF105" s="27"/>
+      <c r="CG105" s="27"/>
+      <c r="CH105" s="27"/>
+      <c r="CI105" s="28"/>
+      <c r="CJ105" s="27"/>
+      <c r="CK105" s="27"/>
+      <c r="CL105" s="27"/>
+      <c r="CM105" s="27"/>
+      <c r="CN105" s="27"/>
+      <c r="CO105" s="27"/>
+      <c r="CP105" s="27"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="27"/>
+      <c r="CS105" s="25"/>
+      <c r="CT105" s="51"/>
+      <c r="CU105" s="23"/>
+      <c r="CV105" s="1"/>
+      <c r="CW105" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W11:W16" r:id="rId2" display="amulla@zarca.com,vgrandhi@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="W10" r:id="rId4" display="ayadav@zarca.com" xr:uid="{7E315314-162D-48D2-A54E-BDA672EE5F35}"/>
-    <hyperlink ref="W11" r:id="rId5" display="ayadav@zarca.com" xr:uid="{AC56E8BF-CE80-486D-BACA-E21CCB75B917}"/>
-    <hyperlink ref="W12" r:id="rId6" display="ayadav@zarca.com" xr:uid="{2272B8D0-F69B-4F19-9CD3-9D7D1478CEB2}"/>
-    <hyperlink ref="W13" r:id="rId7" display="ayadav@zarca.com" xr:uid="{15258BD1-E46B-4AA1-8C46-49A5AB57F971}"/>
-    <hyperlink ref="CU10" r:id="rId8" xr:uid="{CB2D456C-6B6D-4B78-8FCE-7F365AE87228}"/>
-    <hyperlink ref="CU11" r:id="rId9" xr:uid="{52EC5122-497E-44F3-AC5E-394905BB2BCC}"/>
-    <hyperlink ref="CU12" r:id="rId10" xr:uid="{3D7E0F51-C5D3-4868-A8E8-06210C686C08}"/>
-    <hyperlink ref="CU13" r:id="rId11" xr:uid="{13AF6389-2348-4972-B647-1E24F2576CB1}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W11:W16" r:id="rId2" display="amulla@zarca.com,vgrandhi@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId3"/>
+    <hyperlink ref="W10" r:id="rId4" display="ayadav@zarca.com"/>
+    <hyperlink ref="W11" r:id="rId5" display="ayadav@zarca.com"/>
+    <hyperlink ref="W12" r:id="rId6" display="ayadav@zarca.com"/>
+    <hyperlink ref="W13" r:id="rId7" display="ayadav@zarca.com"/>
+    <hyperlink ref="CU10" r:id="rId8"/>
+    <hyperlink ref="CU11" r:id="rId9"/>
+    <hyperlink ref="CU12" r:id="rId10"/>
+    <hyperlink ref="CU13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>

--- a/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
+++ b/Engage/Engage-Smoke/src/main/resources/excelfiles/Engage_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="778">
   <si>
     <t>Environment</t>
   </si>
@@ -2115,7 +2115,376 @@
     <t>account_id</t>
   </si>
   <si>
+    <t>Smoke_TC110</t>
+  </si>
+  <si>
+    <t>Master Log</t>
+  </si>
+  <si>
+    <t>Export All</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>Masterlog.xls</t>
+  </si>
+  <si>
+    <t>searchfor</t>
+  </si>
+  <si>
+    <t>Smoke_TC111</t>
+  </si>
+  <si>
+    <t>Smoke_TC112</t>
+  </si>
+  <si>
+    <t>Unsubsribe Status</t>
+  </si>
+  <si>
+    <t>Ok Status</t>
+  </si>
+  <si>
+    <t>Unsubscribed</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>subscription_status</t>
+  </si>
+  <si>
+    <t>Smoke_TC113</t>
+  </si>
+  <si>
+    <t>Smoke_TC114</t>
+  </si>
+  <si>
+    <t>Tool Tip :Learn More</t>
+  </si>
+  <si>
+    <t>New Entry</t>
+  </si>
+  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Master Log Sample TextBox</t>
+  </si>
+  <si>
+    <t>amulla@sogolytics.com</t>
+  </si>
+  <si>
+    <t>MasterLog</t>
+  </si>
+  <si>
+    <t>Smoke_TC115</t>
+  </si>
+  <si>
+    <t>aplhabet_number</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Smoke_TC116</t>
+  </si>
+  <si>
+    <t>Smoke_TC117</t>
+  </si>
+  <si>
+    <t>Smoke_TC118</t>
+  </si>
+  <si>
+    <t>Smoke_TC119</t>
+  </si>
+  <si>
+    <t>Smoke_TC120</t>
+  </si>
+  <si>
+    <t>Smoke_TC121</t>
+  </si>
+  <si>
+    <t>Smoke_TC122</t>
+  </si>
+  <si>
+    <t>Smoke_TC123</t>
+  </si>
+  <si>
+    <t>Smoke_TC124</t>
+  </si>
+  <si>
+    <t>Smoke_TC125</t>
+  </si>
+  <si>
+    <t>Smoke_TC126</t>
+  </si>
+  <si>
+    <t>Smoke_TC127</t>
+  </si>
+  <si>
+    <t>Smoke_TC128</t>
+  </si>
+  <si>
+    <t>Smoke_TC129</t>
+  </si>
+  <si>
+    <t>Smoke_TC130</t>
+  </si>
+  <si>
+    <t>Smoke_TC131</t>
+  </si>
+  <si>
+    <t>Smoke_TC132</t>
+  </si>
+  <si>
+    <t>Smoke_TC133</t>
+  </si>
+  <si>
+    <t>Smoke_TC134</t>
+  </si>
+  <si>
+    <t>Smoke_TC135</t>
+  </si>
+  <si>
+    <t>Smoke_TC136</t>
+  </si>
+  <si>
+    <t>Smoke_TC137</t>
+  </si>
+  <si>
+    <t>Smoke_TC138</t>
+  </si>
+  <si>
+    <t>Smoke_TC139</t>
+  </si>
+  <si>
+    <t>Smoke_TC140</t>
+  </si>
+  <si>
+    <t>Smoke_TC141</t>
+  </si>
+  <si>
+    <t>Smoke_TC142</t>
+  </si>
+  <si>
+    <t>Smoke_TC143</t>
+  </si>
+  <si>
+    <t>Smoke_TC144</t>
+  </si>
+  <si>
+    <t>Smoke_TC145</t>
+  </si>
+  <si>
+    <t>Filter Keyword : A</t>
+  </si>
+  <si>
+    <t>Filter Keyword : B</t>
+  </si>
+  <si>
+    <t>Filter Keyword : C</t>
+  </si>
+  <si>
+    <t>Filter Keyword : D</t>
+  </si>
+  <si>
+    <t>Filter Keyword : E</t>
+  </si>
+  <si>
+    <t>Filter Keyword : F</t>
+  </si>
+  <si>
+    <t>Filter Keyword : G</t>
+  </si>
+  <si>
+    <t>Filter Keyword : H</t>
+  </si>
+  <si>
+    <t>Filter Keyword : I</t>
+  </si>
+  <si>
+    <t>Filter Keyword : J</t>
+  </si>
+  <si>
+    <t>Filter Keyword : K</t>
+  </si>
+  <si>
+    <t>Filter Keyword : L</t>
+  </si>
+  <si>
+    <t>Filter Keyword : M</t>
+  </si>
+  <si>
+    <t>Filter Keyword : N</t>
+  </si>
+  <si>
+    <t>Filter Keyword : O</t>
+  </si>
+  <si>
+    <t>Filter Keyword : P</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Q</t>
+  </si>
+  <si>
+    <t>Filter Keyword : R</t>
+  </si>
+  <si>
+    <t>Filter Keyword : S</t>
+  </si>
+  <si>
+    <t>Filter Keyword : T</t>
+  </si>
+  <si>
+    <t>Filter Keyword : U</t>
+  </si>
+  <si>
+    <t>Filter Keyword : V</t>
+  </si>
+  <si>
+    <t>Filter Keyword : W</t>
+  </si>
+  <si>
+    <t>Filter Keyword : X</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Y</t>
+  </si>
+  <si>
+    <t>Filter Keyword : Z</t>
+  </si>
+  <si>
+    <t>Smoke_TC146</t>
+  </si>
+  <si>
+    <t>Smoke_TC147</t>
+  </si>
+  <si>
+    <t>Smoke_TC148</t>
+  </si>
+  <si>
+    <t>Smoke_TC149</t>
+  </si>
+  <si>
+    <t>Smoke_TC150</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 0</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 1</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 2</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 3</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 4</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 5</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 6</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 7</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 8</t>
+  </si>
+  <si>
+    <t>Filter Keyword : 9</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Smoke_TC151</t>
+  </si>
+  <si>
+    <t>Pagation</t>
+  </si>
+  <si>
+    <t>Smoke_TC152</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2193,11 +2562,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2209,7 +2573,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2259,8 +2623,28 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -2352,7 +2736,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2404,13 +2788,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2915,10 +3306,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CW104"/>
+  <dimension ref="A1:CZ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B147" sqref="B105:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2946,7 +3337,7 @@
     <col min="94" max="94" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:104">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3250,8 +3641,17 @@
       <c r="CW1" s="25" t="s">
         <v>653</v>
       </c>
+      <c r="CX1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>677</v>
+      </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3274,7 +3674,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J2" s="11"/>
@@ -3371,8 +3771,11 @@
       <c r="CU2" s="1"/>
       <c r="CV2" s="1"/>
       <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
     </row>
-    <row r="3" spans="1:101">
+    <row r="3" spans="1:104">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -3395,7 +3798,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J3" s="11"/>
@@ -3570,8 +3973,11 @@
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
       <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
     </row>
-    <row r="4" spans="1:101">
+    <row r="4" spans="1:104">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -3594,7 +4000,7 @@
       <c r="H4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J4" s="11"/>
@@ -3703,8 +4109,11 @@
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:104">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -3727,7 +4136,7 @@
       <c r="H5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="10"/>
@@ -3836,8 +4245,11 @@
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
       <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
     </row>
-    <row r="6" spans="1:101">
+    <row r="6" spans="1:104">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -3860,7 +4272,7 @@
       <c r="H6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J6" s="11"/>
@@ -3959,8 +4371,11 @@
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
       <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
     </row>
-    <row r="7" spans="1:101">
+    <row r="7" spans="1:104">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -3983,7 +4398,7 @@
       <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J7" s="10"/>
@@ -4084,8 +4499,11 @@
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
       <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
     </row>
-    <row r="8" spans="1:101">
+    <row r="8" spans="1:104">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -4108,7 +4526,7 @@
       <c r="H8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J8" s="11"/>
@@ -4209,8 +4627,11 @@
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
       <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
     </row>
-    <row r="9" spans="1:101">
+    <row r="9" spans="1:104">
       <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
@@ -4233,7 +4654,7 @@
       <c r="H9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J9" s="1"/>
@@ -4342,8 +4763,11 @@
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
       <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
     </row>
-    <row r="10" spans="1:101">
+    <row r="10" spans="1:104">
       <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
@@ -4366,7 +4790,7 @@
         <v>191</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J10" s="16"/>
@@ -4473,8 +4897,11 @@
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
     </row>
-    <row r="11" spans="1:101">
+    <row r="11" spans="1:104">
       <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
@@ -4497,7 +4924,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J11" s="16"/>
@@ -4600,8 +5027,11 @@
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
       <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
     </row>
-    <row r="12" spans="1:101">
+    <row r="12" spans="1:104">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -4624,7 +5054,7 @@
         <v>198</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J12" s="16"/>
@@ -4727,8 +5157,11 @@
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
       <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
     </row>
-    <row r="13" spans="1:101">
+    <row r="13" spans="1:104">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -4751,7 +5184,7 @@
         <v>202</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J13" s="16"/>
@@ -4854,8 +5287,11 @@
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
       <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
     </row>
-    <row r="14" spans="1:101">
+    <row r="14" spans="1:104">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -4878,7 +5314,7 @@
         <v>206</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J14" s="16"/>
@@ -4981,8 +5417,11 @@
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
       <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
     </row>
-    <row r="15" spans="1:101">
+    <row r="15" spans="1:104">
       <c r="A15" s="14" t="s">
         <v>207</v>
       </c>
@@ -5005,7 +5444,7 @@
         <v>209</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J15" s="16"/>
@@ -5130,8 +5569,11 @@
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
       <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
     </row>
-    <row r="16" spans="1:101">
+    <row r="16" spans="1:104">
       <c r="A16" s="13" t="s">
         <v>215</v>
       </c>
@@ -5154,7 +5596,7 @@
         <v>229</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J16" s="13"/>
@@ -5273,8 +5715,11 @@
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
       <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
     </row>
-    <row r="17" spans="1:101">
+    <row r="17" spans="1:104">
       <c r="A17" s="1" t="s">
         <v>216</v>
       </c>
@@ -5297,7 +5742,7 @@
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J17" s="11"/>
@@ -5406,8 +5851,11 @@
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
       <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
     </row>
-    <row r="18" spans="1:101">
+    <row r="18" spans="1:104">
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
@@ -5428,7 +5876,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J18" s="11"/>
@@ -5529,8 +5977,11 @@
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
       <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
     </row>
-    <row r="19" spans="1:101">
+    <row r="19" spans="1:104">
       <c r="A19" s="1" t="s">
         <v>250</v>
       </c>
@@ -5551,7 +6002,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J19" s="11"/>
@@ -5652,8 +6103,11 @@
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
       <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
     </row>
-    <row r="20" spans="1:101">
+    <row r="20" spans="1:104">
       <c r="A20" s="1" t="s">
         <v>254</v>
       </c>
@@ -5674,7 +6128,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J20" s="11"/>
@@ -5779,8 +6233,11 @@
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
       <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
     </row>
-    <row r="21" spans="1:101">
+    <row r="21" spans="1:104">
       <c r="A21" s="1" t="s">
         <v>263</v>
       </c>
@@ -5805,7 +6262,7 @@
       <c r="H21" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J21" s="1"/>
@@ -5910,8 +6367,11 @@
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
       <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
     </row>
-    <row r="22" spans="1:101">
+    <row r="22" spans="1:104">
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
@@ -5936,7 +6396,7 @@
       <c r="H22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J22" s="1"/>
@@ -6037,8 +6497,11 @@
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
       <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
+      <c r="CZ22" s="1"/>
     </row>
-    <row r="23" spans="1:101">
+    <row r="23" spans="1:104">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -6063,7 +6526,7 @@
       <c r="H23" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J23" s="1"/>
@@ -6170,8 +6633,11 @@
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
       <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
+      <c r="CZ23" s="1"/>
     </row>
-    <row r="24" spans="1:101">
+    <row r="24" spans="1:104">
       <c r="A24" s="1" t="s">
         <v>266</v>
       </c>
@@ -6196,7 +6662,7 @@
       <c r="H24" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J24" s="1"/>
@@ -6299,8 +6765,11 @@
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
       <c r="CW24" s="1"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
+      <c r="CZ24" s="1"/>
     </row>
-    <row r="25" spans="1:101">
+    <row r="25" spans="1:104">
       <c r="A25" s="1" t="s">
         <v>267</v>
       </c>
@@ -6325,7 +6794,7 @@
       <c r="H25" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J25" s="1"/>
@@ -6428,8 +6897,11 @@
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
       <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
+      <c r="CZ25" s="1"/>
     </row>
-    <row r="26" spans="1:101">
+    <row r="26" spans="1:104">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
@@ -6454,7 +6926,7 @@
       <c r="H26" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J26" s="1"/>
@@ -6557,8 +7029,11 @@
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
       <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
     </row>
-    <row r="27" spans="1:101">
+    <row r="27" spans="1:104">
       <c r="A27" s="1" t="s">
         <v>269</v>
       </c>
@@ -6583,7 +7058,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J27" s="1"/>
@@ -6684,8 +7159,11 @@
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
       <c r="CW27" s="1"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="1"/>
+      <c r="CZ27" s="1"/>
     </row>
-    <row r="28" spans="1:101">
+    <row r="28" spans="1:104">
       <c r="A28" s="1" t="s">
         <v>270</v>
       </c>
@@ -6710,7 +7188,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J28" s="1"/>
@@ -6811,8 +7289,11 @@
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
       <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
     </row>
-    <row r="29" spans="1:101">
+    <row r="29" spans="1:104">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
@@ -6837,7 +7318,7 @@
       <c r="H29" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J29" s="1"/>
@@ -6940,8 +7421,11 @@
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
       <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
     </row>
-    <row r="30" spans="1:101">
+    <row r="30" spans="1:104">
       <c r="A30" s="1" t="s">
         <v>272</v>
       </c>
@@ -6966,7 +7450,7 @@
       <c r="H30" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J30" s="1"/>
@@ -7071,8 +7555,11 @@
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
       <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
     </row>
-    <row r="31" spans="1:101">
+    <row r="31" spans="1:104">
       <c r="A31" s="1" t="s">
         <v>273</v>
       </c>
@@ -7097,7 +7584,7 @@
       <c r="H31" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J31" s="1"/>
@@ -7202,8 +7689,11 @@
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
       <c r="CW31" s="1"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
+      <c r="CZ31" s="1"/>
     </row>
-    <row r="32" spans="1:101">
+    <row r="32" spans="1:104">
       <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
@@ -7228,7 +7718,7 @@
       <c r="H32" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J32" s="1"/>
@@ -7329,8 +7819,11 @@
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
       <c r="CW32" s="1"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
+      <c r="CZ32" s="1"/>
     </row>
-    <row r="33" spans="1:101">
+    <row r="33" spans="1:104">
       <c r="A33" s="1" t="s">
         <v>502</v>
       </c>
@@ -7353,7 +7846,7 @@
         <v>544</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="1"/>
@@ -7448,8 +7941,11 @@
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
       <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
     </row>
-    <row r="34" spans="1:101">
+    <row r="34" spans="1:104">
       <c r="A34" s="1" t="s">
         <v>505</v>
       </c>
@@ -7472,7 +7968,7 @@
         <v>507</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J34" s="1"/>
@@ -7585,8 +8081,11 @@
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
       <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
     </row>
-    <row r="35" spans="1:101">
+    <row r="35" spans="1:104">
       <c r="A35" s="1" t="s">
         <v>514</v>
       </c>
@@ -7609,7 +8108,7 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J35" s="1"/>
@@ -7722,8 +8221,11 @@
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
       <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
     </row>
-    <row r="36" spans="1:101">
+    <row r="36" spans="1:104">
       <c r="A36" s="1" t="s">
         <v>517</v>
       </c>
@@ -7746,7 +8248,7 @@
         <v>519</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="47" t="s">
+      <c r="I36" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J36" s="1"/>
@@ -7859,8 +8361,11 @@
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
       <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
     </row>
-    <row r="37" spans="1:101">
+    <row r="37" spans="1:104">
       <c r="A37" s="1" t="s">
         <v>520</v>
       </c>
@@ -7883,7 +8388,7 @@
         <v>522</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J37" s="1"/>
@@ -7996,8 +8501,11 @@
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
       <c r="CW37" s="1"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
+      <c r="CZ37" s="1"/>
     </row>
-    <row r="38" spans="1:101">
+    <row r="38" spans="1:104">
       <c r="A38" s="1" t="s">
         <v>523</v>
       </c>
@@ -8020,7 +8528,7 @@
         <v>525</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="1"/>
@@ -8133,8 +8641,11 @@
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
       <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
     </row>
-    <row r="39" spans="1:101">
+    <row r="39" spans="1:104">
       <c r="A39" s="1" t="s">
         <v>526</v>
       </c>
@@ -8157,7 +8668,7 @@
         <v>528</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J39" s="1"/>
@@ -8270,8 +8781,11 @@
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
       <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
     </row>
-    <row r="40" spans="1:101">
+    <row r="40" spans="1:104">
       <c r="A40" s="1" t="s">
         <v>529</v>
       </c>
@@ -8294,7 +8808,7 @@
         <v>531</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J40" s="1"/>
@@ -8407,8 +8921,11 @@
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
       <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
     </row>
-    <row r="41" spans="1:101">
+    <row r="41" spans="1:104">
       <c r="A41" s="1" t="s">
         <v>532</v>
       </c>
@@ -8431,7 +8948,7 @@
         <v>534</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J41" s="1"/>
@@ -8544,8 +9061,11 @@
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
       <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
     </row>
-    <row r="42" spans="1:101">
+    <row r="42" spans="1:104">
       <c r="A42" s="1" t="s">
         <v>535</v>
       </c>
@@ -8568,7 +9088,7 @@
         <v>537</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="47" t="s">
+      <c r="I42" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J42" s="1"/>
@@ -8681,8 +9201,11 @@
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
       <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
     </row>
-    <row r="43" spans="1:101">
+    <row r="43" spans="1:104">
       <c r="A43" s="1" t="s">
         <v>538</v>
       </c>
@@ -8705,7 +9228,7 @@
         <v>540</v>
       </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="47" t="s">
+      <c r="I43" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J43" s="1"/>
@@ -8818,8 +9341,11 @@
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
       <c r="CW43" s="1"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
+      <c r="CZ43" s="1"/>
     </row>
-    <row r="44" spans="1:101">
+    <row r="44" spans="1:104">
       <c r="A44" s="1" t="s">
         <v>543</v>
       </c>
@@ -8842,7 +9368,7 @@
         <v>542</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="47" t="s">
+      <c r="I44" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J44" s="1"/>
@@ -8955,8 +9481,11 @@
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
       <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
     </row>
-    <row r="45" spans="1:101" ht="19.5" customHeight="1">
+    <row r="45" spans="1:104" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>343</v>
       </c>
@@ -8981,7 +9510,7 @@
       <c r="H45" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I45" s="47" t="s">
+      <c r="I45" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J45" s="1"/>
@@ -9086,8 +9615,11 @@
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
       <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
     </row>
-    <row r="46" spans="1:101" ht="19.5" customHeight="1">
+    <row r="46" spans="1:104" ht="19.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>348</v>
       </c>
@@ -9112,7 +9644,7 @@
       <c r="H46" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I46" s="47" t="s">
+      <c r="I46" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J46" s="1"/>
@@ -9217,8 +9749,11 @@
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
       <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
     </row>
-    <row r="47" spans="1:101">
+    <row r="47" spans="1:104">
       <c r="A47" s="1" t="s">
         <v>350</v>
       </c>
@@ -9243,7 +9778,7 @@
       <c r="H47" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="1"/>
@@ -9344,8 +9879,11 @@
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
       <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
     </row>
-    <row r="48" spans="1:101">
+    <row r="48" spans="1:104">
       <c r="A48" s="1" t="s">
         <v>353</v>
       </c>
@@ -9370,7 +9908,7 @@
       <c r="H48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="1"/>
@@ -9471,8 +10009,11 @@
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
       <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
     </row>
-    <row r="49" spans="1:101">
+    <row r="49" spans="1:104">
       <c r="A49" s="1" t="s">
         <v>354</v>
       </c>
@@ -9497,7 +10038,7 @@
       <c r="H49" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I49" s="47" t="s">
+      <c r="I49" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J49" s="1"/>
@@ -9598,8 +10139,11 @@
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
       <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
     </row>
-    <row r="50" spans="1:101">
+    <row r="50" spans="1:104">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -9624,7 +10168,7 @@
       <c r="H50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J50" s="1"/>
@@ -9725,8 +10269,11 @@
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
       <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
     </row>
-    <row r="51" spans="1:101">
+    <row r="51" spans="1:104">
       <c r="A51" s="1" t="s">
         <v>356</v>
       </c>
@@ -9751,7 +10298,7 @@
       <c r="H51" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I51" s="47" t="s">
+      <c r="I51" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J51" s="1"/>
@@ -9852,8 +10399,11 @@
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
       <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
     </row>
-    <row r="52" spans="1:101">
+    <row r="52" spans="1:104">
       <c r="A52" s="1" t="s">
         <v>357</v>
       </c>
@@ -9878,7 +10428,7 @@
       <c r="H52" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I52" s="47" t="s">
+      <c r="I52" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J52" s="1"/>
@@ -9979,8 +10529,11 @@
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
       <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
     </row>
-    <row r="53" spans="1:101">
+    <row r="53" spans="1:104">
       <c r="A53" s="1" t="s">
         <v>358</v>
       </c>
@@ -10005,7 +10558,7 @@
       <c r="H53" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I53" s="47" t="s">
+      <c r="I53" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J53" s="1"/>
@@ -10106,8 +10659,11 @@
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
       <c r="CW53" s="1"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="1"/>
+      <c r="CZ53" s="1"/>
     </row>
-    <row r="54" spans="1:101">
+    <row r="54" spans="1:104">
       <c r="A54" s="1" t="s">
         <v>359</v>
       </c>
@@ -10132,7 +10688,7 @@
       <c r="H54" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I54" s="47" t="s">
+      <c r="I54" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J54" s="1"/>
@@ -10233,8 +10789,11 @@
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
       <c r="CW54" s="1"/>
+      <c r="CX54" s="1"/>
+      <c r="CY54" s="1"/>
+      <c r="CZ54" s="1"/>
     </row>
-    <row r="55" spans="1:101">
+    <row r="55" spans="1:104">
       <c r="A55" s="1" t="s">
         <v>360</v>
       </c>
@@ -10257,7 +10816,7 @@
         <v>447</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="1"/>
@@ -10358,8 +10917,11 @@
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
       <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
     </row>
-    <row r="56" spans="1:101">
+    <row r="56" spans="1:104">
       <c r="A56" s="1" t="s">
         <v>361</v>
       </c>
@@ -10382,7 +10944,7 @@
         <v>449</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="47" t="s">
+      <c r="I56" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J56" s="1"/>
@@ -10483,8 +11045,11 @@
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
       <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
     </row>
-    <row r="57" spans="1:101">
+    <row r="57" spans="1:104">
       <c r="A57" s="1" t="s">
         <v>362</v>
       </c>
@@ -10507,7 +11072,7 @@
         <v>451</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J57" s="1"/>
@@ -10608,8 +11173,11 @@
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
       <c r="CW57" s="1"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
+      <c r="CZ57" s="1"/>
     </row>
-    <row r="58" spans="1:101">
+    <row r="58" spans="1:104">
       <c r="A58" s="1" t="s">
         <v>363</v>
       </c>
@@ -10632,7 +11200,7 @@
         <v>453</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="47" t="s">
+      <c r="I58" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J58" s="1"/>
@@ -10733,8 +11301,11 @@
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
       <c r="CW58" s="1"/>
+      <c r="CX58" s="1"/>
+      <c r="CY58" s="1"/>
+      <c r="CZ58" s="1"/>
     </row>
-    <row r="59" spans="1:101">
+    <row r="59" spans="1:104">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -10759,7 +11330,7 @@
       <c r="H59" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I59" s="47" t="s">
+      <c r="I59" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J59" s="1"/>
@@ -10860,8 +11431,11 @@
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
       <c r="CW59" s="1"/>
+      <c r="CX59" s="1"/>
+      <c r="CY59" s="1"/>
+      <c r="CZ59" s="1"/>
     </row>
-    <row r="60" spans="1:101">
+    <row r="60" spans="1:104">
       <c r="A60" s="1" t="s">
         <v>365</v>
       </c>
@@ -10886,7 +11460,7 @@
       <c r="H60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I60" s="47" t="s">
+      <c r="I60" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J60" s="1"/>
@@ -10987,8 +11561,11 @@
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
       <c r="CW60" s="1"/>
+      <c r="CX60" s="1"/>
+      <c r="CY60" s="1"/>
+      <c r="CZ60" s="1"/>
     </row>
-    <row r="61" spans="1:101">
+    <row r="61" spans="1:104">
       <c r="A61" s="1" t="s">
         <v>366</v>
       </c>
@@ -11013,7 +11590,7 @@
       <c r="H61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="47" t="s">
+      <c r="I61" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J61" s="1"/>
@@ -11114,8 +11691,11 @@
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
       <c r="CW61" s="1"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="1"/>
+      <c r="CZ61" s="1"/>
     </row>
-    <row r="62" spans="1:101">
+    <row r="62" spans="1:104">
       <c r="A62" s="1" t="s">
         <v>367</v>
       </c>
@@ -11140,7 +11720,7 @@
       <c r="H62" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J62" s="1"/>
@@ -11241,8 +11821,11 @@
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
       <c r="CW62" s="1"/>
+      <c r="CX62" s="1"/>
+      <c r="CY62" s="1"/>
+      <c r="CZ62" s="1"/>
     </row>
-    <row r="63" spans="1:101">
+    <row r="63" spans="1:104">
       <c r="A63" s="1" t="s">
         <v>368</v>
       </c>
@@ -11265,7 +11848,7 @@
         <v>467</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J63" s="1"/>
@@ -11366,8 +11949,11 @@
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
       <c r="CW63" s="1"/>
+      <c r="CX63" s="1"/>
+      <c r="CY63" s="1"/>
+      <c r="CZ63" s="1"/>
     </row>
-    <row r="64" spans="1:101">
+    <row r="64" spans="1:104">
       <c r="A64" s="1" t="s">
         <v>369</v>
       </c>
@@ -11390,7 +11976,7 @@
         <v>469</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J64" s="1"/>
@@ -11491,8 +12077,11 @@
       <c r="CU64" s="1"/>
       <c r="CV64" s="1"/>
       <c r="CW64" s="1"/>
+      <c r="CX64" s="1"/>
+      <c r="CY64" s="1"/>
+      <c r="CZ64" s="1"/>
     </row>
-    <row r="65" spans="1:101">
+    <row r="65" spans="1:104">
       <c r="A65" s="1" t="s">
         <v>370</v>
       </c>
@@ -11517,7 +12106,7 @@
       <c r="H65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1"/>
@@ -11618,8 +12207,11 @@
       <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
       <c r="CW65" s="1"/>
+      <c r="CX65" s="1"/>
+      <c r="CY65" s="1"/>
+      <c r="CZ65" s="1"/>
     </row>
-    <row r="66" spans="1:101">
+    <row r="66" spans="1:104">
       <c r="A66" s="1" t="s">
         <v>371</v>
       </c>
@@ -11644,7 +12236,7 @@
       <c r="H66" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J66" s="1"/>
@@ -11745,8 +12337,11 @@
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
       <c r="CW66" s="1"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
+      <c r="CZ66" s="1"/>
     </row>
-    <row r="67" spans="1:101">
+    <row r="67" spans="1:104">
       <c r="A67" s="1" t="s">
         <v>372</v>
       </c>
@@ -11769,7 +12364,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="47" t="s">
+      <c r="I67" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J67" s="1"/>
@@ -11872,8 +12467,11 @@
       <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
       <c r="CW67" s="1"/>
+      <c r="CX67" s="1"/>
+      <c r="CY67" s="1"/>
+      <c r="CZ67" s="1"/>
     </row>
-    <row r="68" spans="1:101">
+    <row r="68" spans="1:104">
       <c r="A68" s="1" t="s">
         <v>373</v>
       </c>
@@ -11896,7 +12494,7 @@
         <v>479</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="47" t="s">
+      <c r="I68" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J68" s="1"/>
@@ -11999,8 +12597,11 @@
       <c r="CU68" s="1"/>
       <c r="CV68" s="1"/>
       <c r="CW68" s="1"/>
+      <c r="CX68" s="1"/>
+      <c r="CY68" s="1"/>
+      <c r="CZ68" s="1"/>
     </row>
-    <row r="69" spans="1:101">
+    <row r="69" spans="1:104">
       <c r="A69" s="1" t="s">
         <v>374</v>
       </c>
@@ -12025,7 +12626,7 @@
       <c r="H69" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J69" s="1"/>
@@ -12128,8 +12729,11 @@
       <c r="CU69" s="1"/>
       <c r="CV69" s="1"/>
       <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="1"/>
+      <c r="CZ69" s="1"/>
     </row>
-    <row r="70" spans="1:101">
+    <row r="70" spans="1:104">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -12154,7 +12758,7 @@
       <c r="H70" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J70" s="1"/>
@@ -12257,8 +12861,11 @@
       <c r="CU70" s="1"/>
       <c r="CV70" s="1"/>
       <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="1"/>
+      <c r="CZ70" s="1"/>
     </row>
-    <row r="71" spans="1:101">
+    <row r="71" spans="1:104">
       <c r="A71" s="1" t="s">
         <v>376</v>
       </c>
@@ -12283,7 +12890,7 @@
       <c r="H71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I71" s="47" t="s">
+      <c r="I71" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J71" s="1"/>
@@ -12386,8 +12993,11 @@
       <c r="CU71" s="1"/>
       <c r="CV71" s="1"/>
       <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="1"/>
+      <c r="CZ71" s="1"/>
     </row>
-    <row r="72" spans="1:101">
+    <row r="72" spans="1:104">
       <c r="A72" s="1" t="s">
         <v>377</v>
       </c>
@@ -12412,7 +13022,7 @@
       <c r="H72" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I72" s="47" t="s">
+      <c r="I72" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J72" s="1"/>
@@ -12515,8 +13125,11 @@
       <c r="CU72" s="1"/>
       <c r="CV72" s="1"/>
       <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
+      <c r="CZ72" s="1"/>
     </row>
-    <row r="73" spans="1:101">
+    <row r="73" spans="1:104">
       <c r="A73" s="1" t="s">
         <v>378</v>
       </c>
@@ -12541,7 +13154,7 @@
       <c r="H73" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J73" s="1"/>
@@ -12644,8 +13257,11 @@
       <c r="CU73" s="1"/>
       <c r="CV73" s="1"/>
       <c r="CW73" s="1"/>
+      <c r="CX73" s="1"/>
+      <c r="CY73" s="1"/>
+      <c r="CZ73" s="1"/>
     </row>
-    <row r="74" spans="1:101">
+    <row r="74" spans="1:104">
       <c r="A74" s="1" t="s">
         <v>379</v>
       </c>
@@ -12670,7 +13286,7 @@
       <c r="H74" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I74" s="47" t="s">
+      <c r="I74" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J74" s="1"/>
@@ -12773,8 +13389,11 @@
       <c r="CU74" s="1"/>
       <c r="CV74" s="1"/>
       <c r="CW74" s="1"/>
+      <c r="CX74" s="1"/>
+      <c r="CY74" s="1"/>
+      <c r="CZ74" s="1"/>
     </row>
-    <row r="75" spans="1:101">
+    <row r="75" spans="1:104">
       <c r="A75" s="1" t="s">
         <v>380</v>
       </c>
@@ -12799,7 +13418,7 @@
       <c r="H75" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="I75" s="47" t="s">
+      <c r="I75" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J75" s="1"/>
@@ -12902,8 +13521,11 @@
       <c r="CU75" s="1"/>
       <c r="CV75" s="1"/>
       <c r="CW75" s="1"/>
+      <c r="CX75" s="1"/>
+      <c r="CY75" s="1"/>
+      <c r="CZ75" s="1"/>
     </row>
-    <row r="76" spans="1:101">
+    <row r="76" spans="1:104">
       <c r="A76" s="1" t="s">
         <v>381</v>
       </c>
@@ -12928,7 +13550,7 @@
       <c r="H76" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I76" s="47" t="s">
+      <c r="I76" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J76" s="1"/>
@@ -13031,8 +13653,11 @@
       <c r="CU76" s="1"/>
       <c r="CV76" s="1"/>
       <c r="CW76" s="1"/>
+      <c r="CX76" s="1"/>
+      <c r="CY76" s="1"/>
+      <c r="CZ76" s="1"/>
     </row>
-    <row r="77" spans="1:101">
+    <row r="77" spans="1:104">
       <c r="A77" s="1" t="s">
         <v>550</v>
       </c>
@@ -13055,7 +13680,7 @@
         <v>551</v>
       </c>
       <c r="H77" s="27"/>
-      <c r="I77" s="52" t="s">
+      <c r="I77" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J77" s="27"/>
@@ -13168,8 +13793,11 @@
         <v>559</v>
       </c>
       <c r="CW77" s="1"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="1"/>
+      <c r="CZ77" s="1"/>
     </row>
-    <row r="78" spans="1:101">
+    <row r="78" spans="1:104">
       <c r="A78" s="36" t="s">
         <v>563</v>
       </c>
@@ -13305,8 +13933,11 @@
       <c r="CU78" s="43"/>
       <c r="CV78" s="36"/>
       <c r="CW78" s="1"/>
+      <c r="CX78" s="1"/>
+      <c r="CY78" s="1"/>
+      <c r="CZ78" s="1"/>
     </row>
-    <row r="79" spans="1:101">
+    <row r="79" spans="1:104">
       <c r="A79" s="1" t="s">
         <v>576</v>
       </c>
@@ -13327,7 +13958,7 @@
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="52" t="s">
+      <c r="I79" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J79" s="1"/>
@@ -13422,8 +14053,11 @@
       <c r="CU79" s="23"/>
       <c r="CV79" s="1"/>
       <c r="CW79" s="1"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="1"/>
+      <c r="CZ79" s="1"/>
     </row>
-    <row r="80" spans="1:101">
+    <row r="80" spans="1:104">
       <c r="A80" s="36" t="s">
         <v>577</v>
       </c>
@@ -13444,7 +14078,7 @@
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="52" t="s">
+      <c r="I80" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J80" s="36"/>
@@ -13539,13 +14173,16 @@
       <c r="CU80" s="43"/>
       <c r="CV80" s="36"/>
       <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="1"/>
+      <c r="CZ80" s="1"/>
     </row>
-    <row r="81" spans="1:101" ht="15" customHeight="1">
+    <row r="81" spans="1:104" ht="15" customHeight="1">
       <c r="A81" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="B81" s="44" t="s">
-        <v>3</v>
+      <c r="B81" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>578</v>
@@ -13563,7 +14200,7 @@
         <v>606</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="47" t="s">
+      <c r="I81" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J81" s="1"/>
@@ -13662,13 +14299,16 @@
       <c r="CW81" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX81" s="1"/>
+      <c r="CY81" s="1"/>
+      <c r="CZ81" s="1"/>
     </row>
-    <row r="82" spans="1:101" ht="15.75" customHeight="1">
+    <row r="82" spans="1:104" ht="15.75" customHeight="1">
       <c r="A82" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="B82" s="44" t="s">
-        <v>3</v>
+      <c r="B82" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>578</v>
@@ -13686,7 +14326,7 @@
         <v>607</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="47" t="s">
+      <c r="I82" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J82" s="1"/>
@@ -13785,13 +14425,16 @@
       <c r="CW82" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX82" s="1"/>
+      <c r="CY82" s="1"/>
+      <c r="CZ82" s="1"/>
     </row>
-    <row r="83" spans="1:101" ht="17.25" customHeight="1">
+    <row r="83" spans="1:104" ht="17.25" customHeight="1">
       <c r="A83" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>3</v>
+      <c r="B83" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>578</v>
@@ -13809,7 +14452,7 @@
         <v>608</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J83" s="1"/>
@@ -13908,13 +14551,16 @@
       <c r="CW83" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX83" s="1"/>
+      <c r="CY83" s="1"/>
+      <c r="CZ83" s="1"/>
     </row>
-    <row r="84" spans="1:101" ht="15" customHeight="1">
+    <row r="84" spans="1:104" ht="15" customHeight="1">
       <c r="A84" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="B84" s="44" t="s">
-        <v>3</v>
+      <c r="B84" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>578</v>
@@ -13932,7 +14578,7 @@
         <v>609</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="47" t="s">
+      <c r="I84" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J84" s="1"/>
@@ -14031,13 +14677,16 @@
       <c r="CW84" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX84" s="1"/>
+      <c r="CY84" s="1"/>
+      <c r="CZ84" s="1"/>
     </row>
-    <row r="85" spans="1:101">
+    <row r="85" spans="1:104">
       <c r="A85" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="B85" s="44" t="s">
-        <v>3</v>
+      <c r="B85" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C85" s="35" t="s">
         <v>578</v>
@@ -14055,7 +14704,7 @@
         <v>610</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="47" t="s">
+      <c r="I85" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J85" s="1"/>
@@ -14154,13 +14803,16 @@
       <c r="CW85" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX85" s="1"/>
+      <c r="CY85" s="1"/>
+      <c r="CZ85" s="1"/>
     </row>
-    <row r="86" spans="1:101" ht="15.75" customHeight="1">
+    <row r="86" spans="1:104" ht="15.75" customHeight="1">
       <c r="A86" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>3</v>
+      <c r="B86" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C86" s="35" t="s">
         <v>578</v>
@@ -14178,7 +14830,7 @@
         <v>611</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="47" t="s">
+      <c r="I86" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J86" s="1"/>
@@ -14277,13 +14929,16 @@
       <c r="CW86" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX86" s="1"/>
+      <c r="CY86" s="1"/>
+      <c r="CZ86" s="1"/>
     </row>
-    <row r="87" spans="1:101">
+    <row r="87" spans="1:104">
       <c r="A87" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>3</v>
+      <c r="B87" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="35" t="s">
         <v>578</v>
@@ -14301,7 +14956,7 @@
         <v>612</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="47" t="s">
+      <c r="I87" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J87" s="1"/>
@@ -14400,13 +15055,16 @@
       <c r="CW87" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX87" s="1"/>
+      <c r="CY87" s="1"/>
+      <c r="CZ87" s="1"/>
     </row>
-    <row r="88" spans="1:101">
+    <row r="88" spans="1:104">
       <c r="A88" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>3</v>
+      <c r="B88" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>578</v>
@@ -14424,7 +15082,7 @@
         <v>613</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="47" t="s">
+      <c r="I88" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J88" s="1"/>
@@ -14523,13 +15181,16 @@
       <c r="CW88" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX88" s="1"/>
+      <c r="CY88" s="1"/>
+      <c r="CZ88" s="1"/>
     </row>
-    <row r="89" spans="1:101">
+    <row r="89" spans="1:104">
       <c r="A89" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="B89" s="44" t="s">
-        <v>3</v>
+      <c r="B89" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C89" s="35" t="s">
         <v>578</v>
@@ -14547,7 +15208,7 @@
         <v>614</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="48" t="s">
+      <c r="I89" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J89" s="1"/>
@@ -14646,13 +15307,16 @@
       <c r="CW89" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX89" s="1"/>
+      <c r="CY89" s="1"/>
+      <c r="CZ89" s="1"/>
     </row>
-    <row r="90" spans="1:101">
+    <row r="90" spans="1:104">
       <c r="A90" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>3</v>
+      <c r="B90" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C90" s="35" t="s">
         <v>578</v>
@@ -14670,7 +15334,7 @@
         <v>615</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="48" t="s">
+      <c r="I90" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J90" s="1"/>
@@ -14769,12 +15433,15 @@
       <c r="CW90" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX90" s="1"/>
+      <c r="CY90" s="1"/>
+      <c r="CZ90" s="1"/>
     </row>
-    <row r="91" spans="1:101">
+    <row r="91" spans="1:104">
       <c r="A91" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="35" t="s">
@@ -14793,7 +15460,7 @@
         <v>616</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="49" t="s">
+      <c r="I91" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J91" s="1"/>
@@ -14892,13 +15559,16 @@
       <c r="CW91" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX91" s="1"/>
+      <c r="CY91" s="1"/>
+      <c r="CZ91" s="1"/>
     </row>
-    <row r="92" spans="1:101" ht="15" customHeight="1">
+    <row r="92" spans="1:104" ht="15" customHeight="1">
       <c r="A92" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="B92" s="44" t="s">
-        <v>3</v>
+      <c r="B92" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C92" s="35" t="s">
         <v>578</v>
@@ -14916,7 +15586,7 @@
         <v>617</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="49" t="s">
+      <c r="I92" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J92" s="1"/>
@@ -15015,13 +15685,16 @@
       <c r="CW92" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX92" s="1"/>
+      <c r="CY92" s="1"/>
+      <c r="CZ92" s="1"/>
     </row>
-    <row r="93" spans="1:101">
+    <row r="93" spans="1:104">
       <c r="A93" s="44" t="s">
         <v>593</v>
       </c>
-      <c r="B93" s="44" t="s">
-        <v>3</v>
+      <c r="B93" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C93" s="35" t="s">
         <v>578</v>
@@ -15039,7 +15712,7 @@
         <v>618</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="49" t="s">
+      <c r="I93" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J93" s="1"/>
@@ -15138,13 +15811,16 @@
       <c r="CW93" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX93" s="1"/>
+      <c r="CY93" s="1"/>
+      <c r="CZ93" s="1"/>
     </row>
-    <row r="94" spans="1:101">
+    <row r="94" spans="1:104">
       <c r="A94" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="B94" s="44" t="s">
-        <v>3</v>
+      <c r="B94" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C94" s="35" t="s">
         <v>578</v>
@@ -15162,7 +15838,7 @@
         <v>619</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="49" t="s">
+      <c r="I94" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J94" s="1"/>
@@ -15261,13 +15937,16 @@
       <c r="CW94" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX94" s="1"/>
+      <c r="CY94" s="1"/>
+      <c r="CZ94" s="1"/>
     </row>
-    <row r="95" spans="1:101" ht="14.25" customHeight="1">
+    <row r="95" spans="1:104" ht="14.25" customHeight="1">
       <c r="A95" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="B95" s="44" t="s">
-        <v>3</v>
+      <c r="B95" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>578</v>
@@ -15285,7 +15964,7 @@
         <v>620</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="49" t="s">
+      <c r="I95" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J95" s="1"/>
@@ -15384,13 +16063,16 @@
       <c r="CW95" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX95" s="1"/>
+      <c r="CY95" s="1"/>
+      <c r="CZ95" s="1"/>
     </row>
-    <row r="96" spans="1:101" ht="16.5" customHeight="1">
+    <row r="96" spans="1:104" ht="16.5" customHeight="1">
       <c r="A96" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="B96" s="44" t="s">
-        <v>3</v>
+      <c r="B96" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C96" s="35" t="s">
         <v>578</v>
@@ -15408,7 +16090,7 @@
         <v>621</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="49" t="s">
+      <c r="I96" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J96" s="1"/>
@@ -15507,13 +16189,16 @@
       <c r="CW96" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX96" s="1"/>
+      <c r="CY96" s="1"/>
+      <c r="CZ96" s="1"/>
     </row>
-    <row r="97" spans="1:101">
+    <row r="97" spans="1:104">
       <c r="A97" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="B97" s="44" t="s">
-        <v>3</v>
+      <c r="B97" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C97" s="35" t="s">
         <v>578</v>
@@ -15531,7 +16216,7 @@
         <v>622</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="49" t="s">
+      <c r="I97" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J97" s="1"/>
@@ -15630,13 +16315,16 @@
       <c r="CW97" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX97" s="1"/>
+      <c r="CY97" s="1"/>
+      <c r="CZ97" s="1"/>
     </row>
-    <row r="98" spans="1:101">
+    <row r="98" spans="1:104">
       <c r="A98" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="B98" s="44" t="s">
-        <v>3</v>
+      <c r="B98" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C98" s="35" t="s">
         <v>578</v>
@@ -15654,7 +16342,7 @@
         <v>623</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="49" t="s">
+      <c r="I98" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J98" s="1"/>
@@ -15753,13 +16441,16 @@
       <c r="CW98" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX98" s="1"/>
+      <c r="CY98" s="1"/>
+      <c r="CZ98" s="1"/>
     </row>
-    <row r="99" spans="1:101">
+    <row r="99" spans="1:104">
       <c r="A99" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="B99" s="44" t="s">
-        <v>3</v>
+      <c r="B99" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C99" s="35" t="s">
         <v>578</v>
@@ -15777,8 +16468,8 @@
         <v>624</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="50" t="s">
-        <v>654</v>
+      <c r="I99" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -15876,13 +16567,16 @@
       <c r="CW99" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX99" s="1"/>
+      <c r="CY99" s="1"/>
+      <c r="CZ99" s="1"/>
     </row>
-    <row r="100" spans="1:101" ht="15.75" customHeight="1">
+    <row r="100" spans="1:104" ht="15.75" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="B100" s="44" t="s">
-        <v>3</v>
+      <c r="B100" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C100" s="35" t="s">
         <v>578</v>
@@ -15900,8 +16594,8 @@
         <v>625</v>
       </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="50" t="s">
-        <v>654</v>
+      <c r="I100" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -15999,13 +16693,16 @@
       <c r="CW100" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX100" s="1"/>
+      <c r="CY100" s="1"/>
+      <c r="CZ100" s="1"/>
     </row>
-    <row r="101" spans="1:101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:104" ht="15.75" customHeight="1">
       <c r="A101" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="B101" s="44" t="s">
-        <v>3</v>
+      <c r="B101" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C101" s="35" t="s">
         <v>578</v>
@@ -16023,8 +16720,8 @@
         <v>626</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="50" t="s">
-        <v>654</v>
+      <c r="I101" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -16122,13 +16819,16 @@
       <c r="CW101" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX101" s="1"/>
+      <c r="CY101" s="1"/>
+      <c r="CZ101" s="1"/>
     </row>
-    <row r="102" spans="1:101">
+    <row r="102" spans="1:104">
       <c r="A102" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="B102" s="44" t="s">
-        <v>3</v>
+      <c r="B102" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="35" t="s">
         <v>578</v>
@@ -16146,8 +16846,8 @@
         <v>627</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="50" t="s">
-        <v>654</v>
+      <c r="I102" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -16245,13 +16945,16 @@
       <c r="CW102" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX102" s="1"/>
+      <c r="CY102" s="1"/>
+      <c r="CZ102" s="1"/>
     </row>
-    <row r="103" spans="1:101" ht="14.25" customHeight="1">
+    <row r="103" spans="1:104" ht="14.25" customHeight="1">
       <c r="A103" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="B103" s="44" t="s">
-        <v>3</v>
+      <c r="B103" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="C103" s="35" t="s">
         <v>578</v>
@@ -16269,7 +16972,7 @@
         <v>628</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="48" t="s">
+      <c r="I103" s="59" t="s">
         <v>188</v>
       </c>
       <c r="J103" s="1"/>
@@ -16368,129 +17071,5549 @@
       <c r="CW103" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="CX103" s="1"/>
+      <c r="CY103" s="1"/>
+      <c r="CZ103" s="1"/>
     </row>
-    <row r="104" spans="1:101" ht="16.5" customHeight="1">
-      <c r="A104" s="44" t="s">
+    <row r="104" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A104" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="H104" s="36"/>
+      <c r="I104" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="36"/>
+      <c r="AH104" s="36"/>
+      <c r="AI104" s="36"/>
+      <c r="AJ104" s="36"/>
+      <c r="AK104" s="36"/>
+      <c r="AL104" s="36"/>
+      <c r="AM104" s="36"/>
+      <c r="AN104" s="36"/>
+      <c r="AO104" s="36"/>
+      <c r="AP104" s="36"/>
+      <c r="AQ104" s="36"/>
+      <c r="AR104" s="36"/>
+      <c r="AS104" s="36"/>
+      <c r="AT104" s="36"/>
+      <c r="AU104" s="36"/>
+      <c r="AV104" s="36"/>
+      <c r="AW104" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="AX104" s="36"/>
+      <c r="AY104" s="36"/>
+      <c r="AZ104" s="36"/>
+      <c r="BA104" s="36"/>
+      <c r="BB104" s="36"/>
+      <c r="BC104" s="36"/>
+      <c r="BD104" s="39"/>
+      <c r="BE104" s="39"/>
+      <c r="BF104" s="39"/>
+      <c r="BG104" s="39"/>
+      <c r="BH104" s="39"/>
+      <c r="BI104" s="39"/>
+      <c r="BJ104" s="39"/>
+      <c r="BK104" s="39"/>
+      <c r="BL104" s="39"/>
+      <c r="BM104" s="39"/>
+      <c r="BN104" s="39"/>
+      <c r="BO104" s="39"/>
+      <c r="BP104" s="39"/>
+      <c r="BQ104" s="39"/>
+      <c r="BR104" s="39"/>
+      <c r="BS104" s="39"/>
+      <c r="BT104" s="39"/>
+      <c r="BU104" s="39"/>
+      <c r="BV104" s="39"/>
+      <c r="BW104" s="39"/>
+      <c r="BX104" s="39"/>
+      <c r="BY104" s="39"/>
+      <c r="BZ104" s="39"/>
+      <c r="CA104" s="39"/>
+      <c r="CB104" s="39"/>
+      <c r="CC104" s="39"/>
+      <c r="CD104" s="39"/>
+      <c r="CE104" s="39"/>
+      <c r="CF104" s="39"/>
+      <c r="CG104" s="39"/>
+      <c r="CH104" s="39"/>
+      <c r="CI104" s="40"/>
+      <c r="CJ104" s="39"/>
+      <c r="CK104" s="39"/>
+      <c r="CL104" s="39"/>
+      <c r="CM104" s="39"/>
+      <c r="CN104" s="39"/>
+      <c r="CO104" s="39"/>
+      <c r="CP104" s="39"/>
+      <c r="CQ104" s="36"/>
+      <c r="CR104" s="39"/>
+      <c r="CS104" s="41"/>
+      <c r="CT104" s="42"/>
+      <c r="CU104" s="43"/>
+      <c r="CV104" s="36"/>
+      <c r="CW104" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="CX104" s="1"/>
+      <c r="CY104" s="1"/>
+      <c r="CZ104" s="1"/>
+    </row>
+    <row r="105" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A105" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="B105" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C105" s="45" t="s">
         <v>578</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D105" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="E104" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="F104" s="44" t="s">
-        <v>605</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>629</v>
-      </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="31"/>
-      <c r="P104" s="31"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-      <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="1"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-      <c r="AH104" s="1"/>
-      <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
-      <c r="AK104" s="1"/>
-      <c r="AL104" s="1"/>
-      <c r="AM104" s="1"/>
-      <c r="AN104" s="1"/>
-      <c r="AO104" s="1"/>
-      <c r="AP104" s="1"/>
-      <c r="AQ104" s="1"/>
-      <c r="AR104" s="1"/>
-      <c r="AS104" s="1"/>
-      <c r="AT104" s="1"/>
-      <c r="AU104" s="1"/>
-      <c r="AV104" s="1"/>
-      <c r="AW104" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="AX104" s="1"/>
-      <c r="AY104" s="1"/>
-      <c r="AZ104" s="1"/>
-      <c r="BA104" s="1"/>
-      <c r="BB104" s="1"/>
-      <c r="BC104" s="1"/>
-      <c r="BD104" s="27"/>
-      <c r="BE104" s="27"/>
-      <c r="BF104" s="27"/>
-      <c r="BG104" s="27"/>
-      <c r="BH104" s="27"/>
-      <c r="BI104" s="27"/>
-      <c r="BJ104" s="27"/>
-      <c r="BK104" s="27"/>
-      <c r="BL104" s="27"/>
-      <c r="BM104" s="27"/>
-      <c r="BN104" s="27"/>
-      <c r="BO104" s="27"/>
-      <c r="BP104" s="27"/>
-      <c r="BQ104" s="27"/>
-      <c r="BR104" s="27"/>
-      <c r="BS104" s="27"/>
-      <c r="BT104" s="27"/>
-      <c r="BU104" s="27"/>
-      <c r="BV104" s="27"/>
-      <c r="BW104" s="27"/>
-      <c r="BX104" s="27"/>
-      <c r="BY104" s="27"/>
-      <c r="BZ104" s="27"/>
-      <c r="CA104" s="27"/>
-      <c r="CB104" s="27"/>
-      <c r="CC104" s="27"/>
-      <c r="CD104" s="27"/>
-      <c r="CE104" s="27"/>
-      <c r="CF104" s="27"/>
-      <c r="CG104" s="27"/>
-      <c r="CH104" s="27"/>
-      <c r="CI104" s="28"/>
-      <c r="CJ104" s="27"/>
-      <c r="CK104" s="27"/>
-      <c r="CL104" s="27"/>
-      <c r="CM104" s="27"/>
-      <c r="CN104" s="27"/>
-      <c r="CO104" s="27"/>
-      <c r="CP104" s="27"/>
-      <c r="CQ104" s="1"/>
-      <c r="CR104" s="27"/>
-      <c r="CS104" s="25"/>
-      <c r="CT104" s="26"/>
-      <c r="CU104" s="23"/>
-      <c r="CV104" s="1"/>
-      <c r="CW104" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="E105" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F105" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="G105" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="H105" s="36"/>
+      <c r="I105" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="37"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="36"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="36"/>
+      <c r="AH105" s="36"/>
+      <c r="AI105" s="36"/>
+      <c r="AJ105" s="36"/>
+      <c r="AK105" s="36"/>
+      <c r="AL105" s="36"/>
+      <c r="AM105" s="36"/>
+      <c r="AN105" s="36"/>
+      <c r="AO105" s="36"/>
+      <c r="AP105" s="36"/>
+      <c r="AQ105" s="36"/>
+      <c r="AR105" s="36"/>
+      <c r="AS105" s="36"/>
+      <c r="AT105" s="36"/>
+      <c r="AU105" s="36"/>
+      <c r="AV105" s="36"/>
+      <c r="AW105" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX105" s="36"/>
+      <c r="AY105" s="36"/>
+      <c r="AZ105" s="36"/>
+      <c r="BA105" s="36"/>
+      <c r="BB105" s="36"/>
+      <c r="BC105" s="36"/>
+      <c r="BD105" s="39"/>
+      <c r="BE105" s="39"/>
+      <c r="BF105" s="39"/>
+      <c r="BG105" s="39"/>
+      <c r="BH105" s="39"/>
+      <c r="BI105" s="39"/>
+      <c r="BJ105" s="39"/>
+      <c r="BK105" s="39"/>
+      <c r="BL105" s="39"/>
+      <c r="BM105" s="39"/>
+      <c r="BN105" s="39"/>
+      <c r="BO105" s="39"/>
+      <c r="BP105" s="39"/>
+      <c r="BQ105" s="39"/>
+      <c r="BR105" s="39"/>
+      <c r="BS105" s="39"/>
+      <c r="BT105" s="39"/>
+      <c r="BU105" s="39"/>
+      <c r="BV105" s="39"/>
+      <c r="BW105" s="39"/>
+      <c r="BX105" s="39"/>
+      <c r="BY105" s="39"/>
+      <c r="BZ105" s="39"/>
+      <c r="CA105" s="39"/>
+      <c r="CB105" s="39"/>
+      <c r="CC105" s="39"/>
+      <c r="CD105" s="39"/>
+      <c r="CE105" s="39"/>
+      <c r="CF105" s="39"/>
+      <c r="CG105" s="39"/>
+      <c r="CH105" s="39"/>
+      <c r="CI105" s="40"/>
+      <c r="CJ105" s="39"/>
+      <c r="CK105" s="39"/>
+      <c r="CL105" s="39"/>
+      <c r="CM105" s="39"/>
+      <c r="CN105" s="39"/>
+      <c r="CO105" s="39"/>
+      <c r="CP105" s="39"/>
+      <c r="CQ105" s="36"/>
+      <c r="CR105" s="39"/>
+      <c r="CS105" s="41"/>
+      <c r="CT105" s="42"/>
+      <c r="CU105" s="43"/>
+      <c r="CV105" s="36"/>
+      <c r="CW105" s="36"/>
+      <c r="CX105" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="CY105" s="36"/>
+      <c r="CZ105" s="1"/>
+    </row>
+    <row r="106" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A106" s="44" t="s">
+        <v>661</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F106" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="G106" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="31"/>
+      <c r="P106" s="31"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="27"/>
+      <c r="BE106" s="27"/>
+      <c r="BF106" s="27"/>
+      <c r="BG106" s="27"/>
+      <c r="BH106" s="27"/>
+      <c r="BI106" s="27"/>
+      <c r="BJ106" s="27"/>
+      <c r="BK106" s="27"/>
+      <c r="BL106" s="27"/>
+      <c r="BM106" s="27"/>
+      <c r="BN106" s="27"/>
+      <c r="BO106" s="27"/>
+      <c r="BP106" s="27"/>
+      <c r="BQ106" s="27"/>
+      <c r="BR106" s="27"/>
+      <c r="BS106" s="27"/>
+      <c r="BT106" s="27"/>
+      <c r="BU106" s="27"/>
+      <c r="BV106" s="27"/>
+      <c r="BW106" s="27"/>
+      <c r="BX106" s="27"/>
+      <c r="BY106" s="27"/>
+      <c r="BZ106" s="27"/>
+      <c r="CA106" s="27"/>
+      <c r="CB106" s="27"/>
+      <c r="CC106" s="27"/>
+      <c r="CD106" s="27"/>
+      <c r="CE106" s="27"/>
+      <c r="CF106" s="27"/>
+      <c r="CG106" s="27"/>
+      <c r="CH106" s="27"/>
+      <c r="CI106" s="28"/>
+      <c r="CJ106" s="27"/>
+      <c r="CK106" s="27"/>
+      <c r="CL106" s="27"/>
+      <c r="CM106" s="27"/>
+      <c r="CN106" s="27"/>
+      <c r="CO106" s="27"/>
+      <c r="CP106" s="27"/>
+      <c r="CQ106" s="1"/>
+      <c r="CR106" s="27"/>
+      <c r="CS106" s="25"/>
+      <c r="CT106" s="26"/>
+      <c r="CU106" s="23"/>
+      <c r="CV106" s="1"/>
+      <c r="CW106" s="1"/>
+      <c r="CX106" s="1"/>
+      <c r="CY106" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="CZ106" s="1"/>
+    </row>
+    <row r="107" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A107" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="E107" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F107" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="G107" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="H107" s="36"/>
+      <c r="I107" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="36"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107" s="36"/>
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="36"/>
+      <c r="AH107" s="36"/>
+      <c r="AI107" s="36"/>
+      <c r="AJ107" s="36"/>
+      <c r="AK107" s="36"/>
+      <c r="AL107" s="36"/>
+      <c r="AM107" s="36"/>
+      <c r="AN107" s="36"/>
+      <c r="AO107" s="36"/>
+      <c r="AP107" s="36"/>
+      <c r="AQ107" s="36"/>
+      <c r="AR107" s="36"/>
+      <c r="AS107" s="36"/>
+      <c r="AT107" s="36"/>
+      <c r="AU107" s="36"/>
+      <c r="AV107" s="36"/>
+      <c r="AW107" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX107" s="36"/>
+      <c r="AY107" s="36"/>
+      <c r="AZ107" s="36"/>
+      <c r="BA107" s="36"/>
+      <c r="BB107" s="36"/>
+      <c r="BC107" s="36"/>
+      <c r="BD107" s="39"/>
+      <c r="BE107" s="39"/>
+      <c r="BF107" s="39"/>
+      <c r="BG107" s="39"/>
+      <c r="BH107" s="39"/>
+      <c r="BI107" s="39"/>
+      <c r="BJ107" s="39"/>
+      <c r="BK107" s="39"/>
+      <c r="BL107" s="39"/>
+      <c r="BM107" s="39"/>
+      <c r="BN107" s="39"/>
+      <c r="BO107" s="39"/>
+      <c r="BP107" s="39"/>
+      <c r="BQ107" s="39"/>
+      <c r="BR107" s="39"/>
+      <c r="BS107" s="39"/>
+      <c r="BT107" s="39"/>
+      <c r="BU107" s="39"/>
+      <c r="BV107" s="39"/>
+      <c r="BW107" s="39"/>
+      <c r="BX107" s="39"/>
+      <c r="BY107" s="39"/>
+      <c r="BZ107" s="39"/>
+      <c r="CA107" s="39"/>
+      <c r="CB107" s="39"/>
+      <c r="CC107" s="39"/>
+      <c r="CD107" s="39"/>
+      <c r="CE107" s="39"/>
+      <c r="CF107" s="39"/>
+      <c r="CG107" s="39"/>
+      <c r="CH107" s="39"/>
+      <c r="CI107" s="40"/>
+      <c r="CJ107" s="39"/>
+      <c r="CK107" s="39"/>
+      <c r="CL107" s="39"/>
+      <c r="CM107" s="39"/>
+      <c r="CN107" s="39"/>
+      <c r="CO107" s="39"/>
+      <c r="CP107" s="39"/>
+      <c r="CQ107" s="36"/>
+      <c r="CR107" s="39"/>
+      <c r="CS107" s="41"/>
+      <c r="CT107" s="42"/>
+      <c r="CU107" s="43"/>
+      <c r="CV107" s="36"/>
+      <c r="CW107" s="36"/>
+      <c r="CX107" s="36"/>
+      <c r="CY107" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="CZ107" s="1"/>
+    </row>
+    <row r="108" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A108" s="44" t="s">
+        <v>668</v>
+      </c>
+      <c r="B108" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D108" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E108" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F108" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="G108" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="31"/>
+      <c r="P108" s="31"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1"/>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="24"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1"/>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1"/>
+      <c r="BC108" s="1"/>
+      <c r="BD108" s="27"/>
+      <c r="BE108" s="27"/>
+      <c r="BF108" s="27"/>
+      <c r="BG108" s="27"/>
+      <c r="BH108" s="27"/>
+      <c r="BI108" s="27"/>
+      <c r="BJ108" s="27"/>
+      <c r="BK108" s="27"/>
+      <c r="BL108" s="27"/>
+      <c r="BM108" s="27"/>
+      <c r="BN108" s="27"/>
+      <c r="BO108" s="27"/>
+      <c r="BP108" s="27"/>
+      <c r="BQ108" s="27"/>
+      <c r="BR108" s="27"/>
+      <c r="BS108" s="27"/>
+      <c r="BT108" s="27"/>
+      <c r="BU108" s="27"/>
+      <c r="BV108" s="27"/>
+      <c r="BW108" s="27"/>
+      <c r="BX108" s="27"/>
+      <c r="BY108" s="27"/>
+      <c r="BZ108" s="27"/>
+      <c r="CA108" s="27"/>
+      <c r="CB108" s="27"/>
+      <c r="CC108" s="27"/>
+      <c r="CD108" s="27"/>
+      <c r="CE108" s="27"/>
+      <c r="CF108" s="27"/>
+      <c r="CG108" s="27"/>
+      <c r="CH108" s="27"/>
+      <c r="CI108" s="28"/>
+      <c r="CJ108" s="27"/>
+      <c r="CK108" s="27"/>
+      <c r="CL108" s="27"/>
+      <c r="CM108" s="27"/>
+      <c r="CN108" s="27"/>
+      <c r="CO108" s="27"/>
+      <c r="CP108" s="27"/>
+      <c r="CQ108" s="1"/>
+      <c r="CR108" s="27"/>
+      <c r="CS108" s="25"/>
+      <c r="CT108" s="26"/>
+      <c r="CU108" s="23"/>
+      <c r="CV108" s="1"/>
+      <c r="CW108" s="1"/>
+      <c r="CX108" s="1"/>
+      <c r="CY108" s="1"/>
+      <c r="CZ108" s="1"/>
+    </row>
+    <row r="109" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A109" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="B109" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="E109" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F109" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="G109" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="H109" s="36"/>
+      <c r="I109" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109" s="36"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="36"/>
+      <c r="AH109" s="36"/>
+      <c r="AI109" s="36"/>
+      <c r="AJ109" s="36"/>
+      <c r="AK109" s="36"/>
+      <c r="AL109" s="36"/>
+      <c r="AM109" s="36"/>
+      <c r="AN109" s="36"/>
+      <c r="AO109" s="36"/>
+      <c r="AP109" s="36"/>
+      <c r="AQ109" s="36"/>
+      <c r="AR109" s="36"/>
+      <c r="AS109" s="36"/>
+      <c r="AT109" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU109" s="36"/>
+      <c r="AV109" s="36"/>
+      <c r="AW109" s="38"/>
+      <c r="AX109" s="36"/>
+      <c r="AY109" s="36"/>
+      <c r="AZ109" s="36"/>
+      <c r="BA109" s="36"/>
+      <c r="BB109" s="36"/>
+      <c r="BC109" s="36"/>
+      <c r="BD109" s="39"/>
+      <c r="BE109" s="39"/>
+      <c r="BF109" s="39"/>
+      <c r="BG109" s="39"/>
+      <c r="BH109" s="39"/>
+      <c r="BI109" s="39"/>
+      <c r="BJ109" s="39"/>
+      <c r="BK109" s="39"/>
+      <c r="BL109" s="39"/>
+      <c r="BM109" s="39"/>
+      <c r="BN109" s="39"/>
+      <c r="BO109" s="39"/>
+      <c r="BP109" s="39"/>
+      <c r="BQ109" s="39"/>
+      <c r="BR109" s="39"/>
+      <c r="BS109" s="39"/>
+      <c r="BT109" s="39"/>
+      <c r="BU109" s="39"/>
+      <c r="BV109" s="39"/>
+      <c r="BW109" s="39"/>
+      <c r="BX109" s="39"/>
+      <c r="BY109" s="39"/>
+      <c r="BZ109" s="39"/>
+      <c r="CA109" s="39"/>
+      <c r="CB109" s="39"/>
+      <c r="CC109" s="39"/>
+      <c r="CD109" s="39"/>
+      <c r="CE109" s="39"/>
+      <c r="CF109" s="39"/>
+      <c r="CG109" s="39"/>
+      <c r="CH109" s="39"/>
+      <c r="CI109" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="CJ109" s="39"/>
+      <c r="CK109" s="39"/>
+      <c r="CL109" s="39"/>
+      <c r="CM109" s="39"/>
+      <c r="CN109" s="39"/>
+      <c r="CO109" s="39"/>
+      <c r="CP109" s="39"/>
+      <c r="CQ109" s="36"/>
+      <c r="CR109" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="CS109" s="41"/>
+      <c r="CT109" s="42"/>
+      <c r="CU109" s="43"/>
+      <c r="CV109" s="36"/>
+      <c r="CW109" s="36"/>
+      <c r="CX109" s="36"/>
+      <c r="CY109" s="36"/>
+      <c r="CZ109" s="1"/>
+    </row>
+    <row r="110" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A110" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="E110" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F110" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="G110" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="H110" s="36"/>
+      <c r="I110" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="36"/>
+      <c r="AE110" s="36"/>
+      <c r="AF110" s="36"/>
+      <c r="AG110" s="36"/>
+      <c r="AH110" s="36"/>
+      <c r="AI110" s="36"/>
+      <c r="AJ110" s="36"/>
+      <c r="AK110" s="36"/>
+      <c r="AL110" s="36"/>
+      <c r="AM110" s="36"/>
+      <c r="AN110" s="36"/>
+      <c r="AO110" s="36"/>
+      <c r="AP110" s="36"/>
+      <c r="AQ110" s="36"/>
+      <c r="AR110" s="36"/>
+      <c r="AS110" s="36"/>
+      <c r="AT110" s="36"/>
+      <c r="AU110" s="36"/>
+      <c r="AV110" s="36"/>
+      <c r="AW110" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX110" s="36"/>
+      <c r="AY110" s="36"/>
+      <c r="AZ110" s="36"/>
+      <c r="BA110" s="36"/>
+      <c r="BB110" s="36"/>
+      <c r="BC110" s="36"/>
+      <c r="BD110" s="39"/>
+      <c r="BE110" s="39"/>
+      <c r="BF110" s="39"/>
+      <c r="BG110" s="39"/>
+      <c r="BH110" s="39"/>
+      <c r="BI110" s="39"/>
+      <c r="BJ110" s="39"/>
+      <c r="BK110" s="39"/>
+      <c r="BL110" s="39"/>
+      <c r="BM110" s="39"/>
+      <c r="BN110" s="39"/>
+      <c r="BO110" s="39"/>
+      <c r="BP110" s="39"/>
+      <c r="BQ110" s="39"/>
+      <c r="BR110" s="39"/>
+      <c r="BS110" s="39"/>
+      <c r="BT110" s="39"/>
+      <c r="BU110" s="39"/>
+      <c r="BV110" s="39"/>
+      <c r="BW110" s="39"/>
+      <c r="BX110" s="39"/>
+      <c r="BY110" s="39"/>
+      <c r="BZ110" s="39"/>
+      <c r="CA110" s="39"/>
+      <c r="CB110" s="39"/>
+      <c r="CC110" s="39"/>
+      <c r="CD110" s="39"/>
+      <c r="CE110" s="39"/>
+      <c r="CF110" s="39"/>
+      <c r="CG110" s="39"/>
+      <c r="CH110" s="39"/>
+      <c r="CI110" s="40"/>
+      <c r="CJ110" s="39"/>
+      <c r="CK110" s="39"/>
+      <c r="CL110" s="39"/>
+      <c r="CM110" s="39"/>
+      <c r="CN110" s="39"/>
+      <c r="CO110" s="39"/>
+      <c r="CP110" s="39"/>
+      <c r="CQ110" s="36"/>
+      <c r="CR110" s="39"/>
+      <c r="CS110" s="41"/>
+      <c r="CT110" s="42"/>
+      <c r="CU110" s="43"/>
+      <c r="CV110" s="36"/>
+      <c r="CW110" s="36"/>
+      <c r="CX110" s="36"/>
+      <c r="CY110" s="36"/>
+      <c r="CZ110" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="111" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A111" s="44" t="s">
+        <v>679</v>
+      </c>
+      <c r="B111" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E111" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G111" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1"/>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1"/>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1"/>
+      <c r="BC111" s="1"/>
+      <c r="BD111" s="27"/>
+      <c r="BE111" s="27"/>
+      <c r="BF111" s="27"/>
+      <c r="BG111" s="27"/>
+      <c r="BH111" s="27"/>
+      <c r="BI111" s="27"/>
+      <c r="BJ111" s="27"/>
+      <c r="BK111" s="27"/>
+      <c r="BL111" s="27"/>
+      <c r="BM111" s="27"/>
+      <c r="BN111" s="27"/>
+      <c r="BO111" s="27"/>
+      <c r="BP111" s="27"/>
+      <c r="BQ111" s="27"/>
+      <c r="BR111" s="27"/>
+      <c r="BS111" s="27"/>
+      <c r="BT111" s="27"/>
+      <c r="BU111" s="27"/>
+      <c r="BV111" s="27"/>
+      <c r="BW111" s="27"/>
+      <c r="BX111" s="27"/>
+      <c r="BY111" s="27"/>
+      <c r="BZ111" s="27"/>
+      <c r="CA111" s="27"/>
+      <c r="CB111" s="27"/>
+      <c r="CC111" s="27"/>
+      <c r="CD111" s="27"/>
+      <c r="CE111" s="27"/>
+      <c r="CF111" s="27"/>
+      <c r="CG111" s="27"/>
+      <c r="CH111" s="27"/>
+      <c r="CI111" s="28"/>
+      <c r="CJ111" s="27"/>
+      <c r="CK111" s="27"/>
+      <c r="CL111" s="27"/>
+      <c r="CM111" s="27"/>
+      <c r="CN111" s="27"/>
+      <c r="CO111" s="27"/>
+      <c r="CP111" s="27"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="27"/>
+      <c r="CS111" s="25"/>
+      <c r="CT111" s="26"/>
+      <c r="CU111" s="23"/>
+      <c r="CV111" s="1"/>
+      <c r="CW111" s="1"/>
+      <c r="CX111" s="1"/>
+      <c r="CY111" s="1"/>
+      <c r="CZ111" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A112" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D112" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E112" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F112" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G112" s="51" t="s">
+        <v>711</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="31"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1"/>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1"/>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1"/>
+      <c r="BC112" s="1"/>
+      <c r="BD112" s="27"/>
+      <c r="BE112" s="27"/>
+      <c r="BF112" s="27"/>
+      <c r="BG112" s="27"/>
+      <c r="BH112" s="27"/>
+      <c r="BI112" s="27"/>
+      <c r="BJ112" s="27"/>
+      <c r="BK112" s="27"/>
+      <c r="BL112" s="27"/>
+      <c r="BM112" s="27"/>
+      <c r="BN112" s="27"/>
+      <c r="BO112" s="27"/>
+      <c r="BP112" s="27"/>
+      <c r="BQ112" s="27"/>
+      <c r="BR112" s="27"/>
+      <c r="BS112" s="27"/>
+      <c r="BT112" s="27"/>
+      <c r="BU112" s="27"/>
+      <c r="BV112" s="27"/>
+      <c r="BW112" s="27"/>
+      <c r="BX112" s="27"/>
+      <c r="BY112" s="27"/>
+      <c r="BZ112" s="27"/>
+      <c r="CA112" s="27"/>
+      <c r="CB112" s="27"/>
+      <c r="CC112" s="27"/>
+      <c r="CD112" s="27"/>
+      <c r="CE112" s="27"/>
+      <c r="CF112" s="27"/>
+      <c r="CG112" s="27"/>
+      <c r="CH112" s="27"/>
+      <c r="CI112" s="28"/>
+      <c r="CJ112" s="27"/>
+      <c r="CK112" s="27"/>
+      <c r="CL112" s="27"/>
+      <c r="CM112" s="27"/>
+      <c r="CN112" s="27"/>
+      <c r="CO112" s="27"/>
+      <c r="CP112" s="27"/>
+      <c r="CQ112" s="1"/>
+      <c r="CR112" s="27"/>
+      <c r="CS112" s="25"/>
+      <c r="CT112" s="26"/>
+      <c r="CU112" s="23"/>
+      <c r="CV112" s="1"/>
+      <c r="CW112" s="1"/>
+      <c r="CX112" s="1"/>
+      <c r="CY112" s="1"/>
+      <c r="CZ112" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="113" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A113" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E113" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F113" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G113" s="51" t="s">
+        <v>712</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+      <c r="AT113" s="1"/>
+      <c r="AU113" s="1"/>
+      <c r="AV113" s="1"/>
+      <c r="AW113" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX113" s="1"/>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="1"/>
+      <c r="BA113" s="1"/>
+      <c r="BB113" s="1"/>
+      <c r="BC113" s="1"/>
+      <c r="BD113" s="27"/>
+      <c r="BE113" s="27"/>
+      <c r="BF113" s="27"/>
+      <c r="BG113" s="27"/>
+      <c r="BH113" s="27"/>
+      <c r="BI113" s="27"/>
+      <c r="BJ113" s="27"/>
+      <c r="BK113" s="27"/>
+      <c r="BL113" s="27"/>
+      <c r="BM113" s="27"/>
+      <c r="BN113" s="27"/>
+      <c r="BO113" s="27"/>
+      <c r="BP113" s="27"/>
+      <c r="BQ113" s="27"/>
+      <c r="BR113" s="27"/>
+      <c r="BS113" s="27"/>
+      <c r="BT113" s="27"/>
+      <c r="BU113" s="27"/>
+      <c r="BV113" s="27"/>
+      <c r="BW113" s="27"/>
+      <c r="BX113" s="27"/>
+      <c r="BY113" s="27"/>
+      <c r="BZ113" s="27"/>
+      <c r="CA113" s="27"/>
+      <c r="CB113" s="27"/>
+      <c r="CC113" s="27"/>
+      <c r="CD113" s="27"/>
+      <c r="CE113" s="27"/>
+      <c r="CF113" s="27"/>
+      <c r="CG113" s="27"/>
+      <c r="CH113" s="27"/>
+      <c r="CI113" s="28"/>
+      <c r="CJ113" s="27"/>
+      <c r="CK113" s="27"/>
+      <c r="CL113" s="27"/>
+      <c r="CM113" s="27"/>
+      <c r="CN113" s="27"/>
+      <c r="CO113" s="27"/>
+      <c r="CP113" s="27"/>
+      <c r="CQ113" s="1"/>
+      <c r="CR113" s="27"/>
+      <c r="CS113" s="25"/>
+      <c r="CT113" s="26"/>
+      <c r="CU113" s="23"/>
+      <c r="CV113" s="1"/>
+      <c r="CW113" s="1"/>
+      <c r="CX113" s="1"/>
+      <c r="CY113" s="1"/>
+      <c r="CZ113" s="51" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A114" s="44" t="s">
+        <v>682</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E114" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G114" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="H114" s="1"/>
+      <c r="I114" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="31"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="1"/>
+      <c r="AO114" s="1"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+      <c r="AR114" s="1"/>
+      <c r="AS114" s="1"/>
+      <c r="AT114" s="1"/>
+      <c r="AU114" s="1"/>
+      <c r="AV114" s="1"/>
+      <c r="AW114" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX114" s="1"/>
+      <c r="AY114" s="1"/>
+      <c r="AZ114" s="1"/>
+      <c r="BA114" s="1"/>
+      <c r="BB114" s="1"/>
+      <c r="BC114" s="1"/>
+      <c r="BD114" s="27"/>
+      <c r="BE114" s="27"/>
+      <c r="BF114" s="27"/>
+      <c r="BG114" s="27"/>
+      <c r="BH114" s="27"/>
+      <c r="BI114" s="27"/>
+      <c r="BJ114" s="27"/>
+      <c r="BK114" s="27"/>
+      <c r="BL114" s="27"/>
+      <c r="BM114" s="27"/>
+      <c r="BN114" s="27"/>
+      <c r="BO114" s="27"/>
+      <c r="BP114" s="27"/>
+      <c r="BQ114" s="27"/>
+      <c r="BR114" s="27"/>
+      <c r="BS114" s="27"/>
+      <c r="BT114" s="27"/>
+      <c r="BU114" s="27"/>
+      <c r="BV114" s="27"/>
+      <c r="BW114" s="27"/>
+      <c r="BX114" s="27"/>
+      <c r="BY114" s="27"/>
+      <c r="BZ114" s="27"/>
+      <c r="CA114" s="27"/>
+      <c r="CB114" s="27"/>
+      <c r="CC114" s="27"/>
+      <c r="CD114" s="27"/>
+      <c r="CE114" s="27"/>
+      <c r="CF114" s="27"/>
+      <c r="CG114" s="27"/>
+      <c r="CH114" s="27"/>
+      <c r="CI114" s="28"/>
+      <c r="CJ114" s="27"/>
+      <c r="CK114" s="27"/>
+      <c r="CL114" s="27"/>
+      <c r="CM114" s="27"/>
+      <c r="CN114" s="27"/>
+      <c r="CO114" s="27"/>
+      <c r="CP114" s="27"/>
+      <c r="CQ114" s="1"/>
+      <c r="CR114" s="27"/>
+      <c r="CS114" s="25"/>
+      <c r="CT114" s="26"/>
+      <c r="CU114" s="23"/>
+      <c r="CV114" s="1"/>
+      <c r="CW114" s="1"/>
+      <c r="CX114" s="1"/>
+      <c r="CY114" s="1"/>
+      <c r="CZ114" s="51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A115" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="B115" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E115" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F115" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G115" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="31"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AO115" s="1"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AR115" s="1"/>
+      <c r="AS115" s="1"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+      <c r="AV115" s="1"/>
+      <c r="AW115" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX115" s="1"/>
+      <c r="AY115" s="1"/>
+      <c r="AZ115" s="1"/>
+      <c r="BA115" s="1"/>
+      <c r="BB115" s="1"/>
+      <c r="BC115" s="1"/>
+      <c r="BD115" s="27"/>
+      <c r="BE115" s="27"/>
+      <c r="BF115" s="27"/>
+      <c r="BG115" s="27"/>
+      <c r="BH115" s="27"/>
+      <c r="BI115" s="27"/>
+      <c r="BJ115" s="27"/>
+      <c r="BK115" s="27"/>
+      <c r="BL115" s="27"/>
+      <c r="BM115" s="27"/>
+      <c r="BN115" s="27"/>
+      <c r="BO115" s="27"/>
+      <c r="BP115" s="27"/>
+      <c r="BQ115" s="27"/>
+      <c r="BR115" s="27"/>
+      <c r="BS115" s="27"/>
+      <c r="BT115" s="27"/>
+      <c r="BU115" s="27"/>
+      <c r="BV115" s="27"/>
+      <c r="BW115" s="27"/>
+      <c r="BX115" s="27"/>
+      <c r="BY115" s="27"/>
+      <c r="BZ115" s="27"/>
+      <c r="CA115" s="27"/>
+      <c r="CB115" s="27"/>
+      <c r="CC115" s="27"/>
+      <c r="CD115" s="27"/>
+      <c r="CE115" s="27"/>
+      <c r="CF115" s="27"/>
+      <c r="CG115" s="27"/>
+      <c r="CH115" s="27"/>
+      <c r="CI115" s="28"/>
+      <c r="CJ115" s="27"/>
+      <c r="CK115" s="27"/>
+      <c r="CL115" s="27"/>
+      <c r="CM115" s="27"/>
+      <c r="CN115" s="27"/>
+      <c r="CO115" s="27"/>
+      <c r="CP115" s="27"/>
+      <c r="CQ115" s="1"/>
+      <c r="CR115" s="27"/>
+      <c r="CS115" s="25"/>
+      <c r="CT115" s="26"/>
+      <c r="CU115" s="23"/>
+      <c r="CV115" s="1"/>
+      <c r="CW115" s="1"/>
+      <c r="CX115" s="1"/>
+      <c r="CY115" s="1"/>
+      <c r="CZ115" s="51" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A116" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="B116" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E116" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F116" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G116" s="51" t="s">
+        <v>715</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1"/>
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1"/>
+      <c r="AU116" s="1"/>
+      <c r="AV116" s="1"/>
+      <c r="AW116" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX116" s="1"/>
+      <c r="AY116" s="1"/>
+      <c r="AZ116" s="1"/>
+      <c r="BA116" s="1"/>
+      <c r="BB116" s="1"/>
+      <c r="BC116" s="1"/>
+      <c r="BD116" s="27"/>
+      <c r="BE116" s="27"/>
+      <c r="BF116" s="27"/>
+      <c r="BG116" s="27"/>
+      <c r="BH116" s="27"/>
+      <c r="BI116" s="27"/>
+      <c r="BJ116" s="27"/>
+      <c r="BK116" s="27"/>
+      <c r="BL116" s="27"/>
+      <c r="BM116" s="27"/>
+      <c r="BN116" s="27"/>
+      <c r="BO116" s="27"/>
+      <c r="BP116" s="27"/>
+      <c r="BQ116" s="27"/>
+      <c r="BR116" s="27"/>
+      <c r="BS116" s="27"/>
+      <c r="BT116" s="27"/>
+      <c r="BU116" s="27"/>
+      <c r="BV116" s="27"/>
+      <c r="BW116" s="27"/>
+      <c r="BX116" s="27"/>
+      <c r="BY116" s="27"/>
+      <c r="BZ116" s="27"/>
+      <c r="CA116" s="27"/>
+      <c r="CB116" s="27"/>
+      <c r="CC116" s="27"/>
+      <c r="CD116" s="27"/>
+      <c r="CE116" s="27"/>
+      <c r="CF116" s="27"/>
+      <c r="CG116" s="27"/>
+      <c r="CH116" s="27"/>
+      <c r="CI116" s="28"/>
+      <c r="CJ116" s="27"/>
+      <c r="CK116" s="27"/>
+      <c r="CL116" s="27"/>
+      <c r="CM116" s="27"/>
+      <c r="CN116" s="27"/>
+      <c r="CO116" s="27"/>
+      <c r="CP116" s="27"/>
+      <c r="CQ116" s="1"/>
+      <c r="CR116" s="27"/>
+      <c r="CS116" s="25"/>
+      <c r="CT116" s="26"/>
+      <c r="CU116" s="23"/>
+      <c r="CV116" s="1"/>
+      <c r="CW116" s="1"/>
+      <c r="CX116" s="1"/>
+      <c r="CY116" s="1"/>
+      <c r="CZ116" s="51" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A117" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="B117" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E117" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F117" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G117" s="51" t="s">
+        <v>716</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="31"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
+      <c r="AS117" s="1"/>
+      <c r="AT117" s="1"/>
+      <c r="AU117" s="1"/>
+      <c r="AV117" s="1"/>
+      <c r="AW117" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX117" s="1"/>
+      <c r="AY117" s="1"/>
+      <c r="AZ117" s="1"/>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="27"/>
+      <c r="BE117" s="27"/>
+      <c r="BF117" s="27"/>
+      <c r="BG117" s="27"/>
+      <c r="BH117" s="27"/>
+      <c r="BI117" s="27"/>
+      <c r="BJ117" s="27"/>
+      <c r="BK117" s="27"/>
+      <c r="BL117" s="27"/>
+      <c r="BM117" s="27"/>
+      <c r="BN117" s="27"/>
+      <c r="BO117" s="27"/>
+      <c r="BP117" s="27"/>
+      <c r="BQ117" s="27"/>
+      <c r="BR117" s="27"/>
+      <c r="BS117" s="27"/>
+      <c r="BT117" s="27"/>
+      <c r="BU117" s="27"/>
+      <c r="BV117" s="27"/>
+      <c r="BW117" s="27"/>
+      <c r="BX117" s="27"/>
+      <c r="BY117" s="27"/>
+      <c r="BZ117" s="27"/>
+      <c r="CA117" s="27"/>
+      <c r="CB117" s="27"/>
+      <c r="CC117" s="27"/>
+      <c r="CD117" s="27"/>
+      <c r="CE117" s="27"/>
+      <c r="CF117" s="27"/>
+      <c r="CG117" s="27"/>
+      <c r="CH117" s="27"/>
+      <c r="CI117" s="28"/>
+      <c r="CJ117" s="27"/>
+      <c r="CK117" s="27"/>
+      <c r="CL117" s="27"/>
+      <c r="CM117" s="27"/>
+      <c r="CN117" s="27"/>
+      <c r="CO117" s="27"/>
+      <c r="CP117" s="27"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="27"/>
+      <c r="CS117" s="25"/>
+      <c r="CT117" s="26"/>
+      <c r="CU117" s="23"/>
+      <c r="CV117" s="1"/>
+      <c r="CW117" s="1"/>
+      <c r="CX117" s="1"/>
+      <c r="CY117" s="1"/>
+      <c r="CZ117" s="51" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A118" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E118" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F118" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G118" s="51" t="s">
+        <v>717</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="31"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX118" s="1"/>
+      <c r="AY118" s="1"/>
+      <c r="AZ118" s="1"/>
+      <c r="BA118" s="1"/>
+      <c r="BB118" s="1"/>
+      <c r="BC118" s="1"/>
+      <c r="BD118" s="27"/>
+      <c r="BE118" s="27"/>
+      <c r="BF118" s="27"/>
+      <c r="BG118" s="27"/>
+      <c r="BH118" s="27"/>
+      <c r="BI118" s="27"/>
+      <c r="BJ118" s="27"/>
+      <c r="BK118" s="27"/>
+      <c r="BL118" s="27"/>
+      <c r="BM118" s="27"/>
+      <c r="BN118" s="27"/>
+      <c r="BO118" s="27"/>
+      <c r="BP118" s="27"/>
+      <c r="BQ118" s="27"/>
+      <c r="BR118" s="27"/>
+      <c r="BS118" s="27"/>
+      <c r="BT118" s="27"/>
+      <c r="BU118" s="27"/>
+      <c r="BV118" s="27"/>
+      <c r="BW118" s="27"/>
+      <c r="BX118" s="27"/>
+      <c r="BY118" s="27"/>
+      <c r="BZ118" s="27"/>
+      <c r="CA118" s="27"/>
+      <c r="CB118" s="27"/>
+      <c r="CC118" s="27"/>
+      <c r="CD118" s="27"/>
+      <c r="CE118" s="27"/>
+      <c r="CF118" s="27"/>
+      <c r="CG118" s="27"/>
+      <c r="CH118" s="27"/>
+      <c r="CI118" s="28"/>
+      <c r="CJ118" s="27"/>
+      <c r="CK118" s="27"/>
+      <c r="CL118" s="27"/>
+      <c r="CM118" s="27"/>
+      <c r="CN118" s="27"/>
+      <c r="CO118" s="27"/>
+      <c r="CP118" s="27"/>
+      <c r="CQ118" s="1"/>
+      <c r="CR118" s="27"/>
+      <c r="CS118" s="25"/>
+      <c r="CT118" s="26"/>
+      <c r="CU118" s="23"/>
+      <c r="CV118" s="1"/>
+      <c r="CW118" s="1"/>
+      <c r="CX118" s="1"/>
+      <c r="CY118" s="1"/>
+      <c r="CZ118" s="51" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="119" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A119" s="44" t="s">
+        <v>687</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E119" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F119" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G119" s="51" t="s">
+        <v>718</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX119" s="1"/>
+      <c r="AY119" s="1"/>
+      <c r="AZ119" s="1"/>
+      <c r="BA119" s="1"/>
+      <c r="BB119" s="1"/>
+      <c r="BC119" s="1"/>
+      <c r="BD119" s="27"/>
+      <c r="BE119" s="27"/>
+      <c r="BF119" s="27"/>
+      <c r="BG119" s="27"/>
+      <c r="BH119" s="27"/>
+      <c r="BI119" s="27"/>
+      <c r="BJ119" s="27"/>
+      <c r="BK119" s="27"/>
+      <c r="BL119" s="27"/>
+      <c r="BM119" s="27"/>
+      <c r="BN119" s="27"/>
+      <c r="BO119" s="27"/>
+      <c r="BP119" s="27"/>
+      <c r="BQ119" s="27"/>
+      <c r="BR119" s="27"/>
+      <c r="BS119" s="27"/>
+      <c r="BT119" s="27"/>
+      <c r="BU119" s="27"/>
+      <c r="BV119" s="27"/>
+      <c r="BW119" s="27"/>
+      <c r="BX119" s="27"/>
+      <c r="BY119" s="27"/>
+      <c r="BZ119" s="27"/>
+      <c r="CA119" s="27"/>
+      <c r="CB119" s="27"/>
+      <c r="CC119" s="27"/>
+      <c r="CD119" s="27"/>
+      <c r="CE119" s="27"/>
+      <c r="CF119" s="27"/>
+      <c r="CG119" s="27"/>
+      <c r="CH119" s="27"/>
+      <c r="CI119" s="28"/>
+      <c r="CJ119" s="27"/>
+      <c r="CK119" s="27"/>
+      <c r="CL119" s="27"/>
+      <c r="CM119" s="27"/>
+      <c r="CN119" s="27"/>
+      <c r="CO119" s="27"/>
+      <c r="CP119" s="27"/>
+      <c r="CQ119" s="1"/>
+      <c r="CR119" s="27"/>
+      <c r="CS119" s="25"/>
+      <c r="CT119" s="26"/>
+      <c r="CU119" s="23"/>
+      <c r="CV119" s="1"/>
+      <c r="CW119" s="1"/>
+      <c r="CX119" s="1"/>
+      <c r="CY119" s="1"/>
+      <c r="CZ119" s="51" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="120" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A120" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="B120" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E120" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F120" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G120" s="51" t="s">
+        <v>719</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="31"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX120" s="1"/>
+      <c r="AY120" s="1"/>
+      <c r="AZ120" s="1"/>
+      <c r="BA120" s="1"/>
+      <c r="BB120" s="1"/>
+      <c r="BC120" s="1"/>
+      <c r="BD120" s="27"/>
+      <c r="BE120" s="27"/>
+      <c r="BF120" s="27"/>
+      <c r="BG120" s="27"/>
+      <c r="BH120" s="27"/>
+      <c r="BI120" s="27"/>
+      <c r="BJ120" s="27"/>
+      <c r="BK120" s="27"/>
+      <c r="BL120" s="27"/>
+      <c r="BM120" s="27"/>
+      <c r="BN120" s="27"/>
+      <c r="BO120" s="27"/>
+      <c r="BP120" s="27"/>
+      <c r="BQ120" s="27"/>
+      <c r="BR120" s="27"/>
+      <c r="BS120" s="27"/>
+      <c r="BT120" s="27"/>
+      <c r="BU120" s="27"/>
+      <c r="BV120" s="27"/>
+      <c r="BW120" s="27"/>
+      <c r="BX120" s="27"/>
+      <c r="BY120" s="27"/>
+      <c r="BZ120" s="27"/>
+      <c r="CA120" s="27"/>
+      <c r="CB120" s="27"/>
+      <c r="CC120" s="27"/>
+      <c r="CD120" s="27"/>
+      <c r="CE120" s="27"/>
+      <c r="CF120" s="27"/>
+      <c r="CG120" s="27"/>
+      <c r="CH120" s="27"/>
+      <c r="CI120" s="28"/>
+      <c r="CJ120" s="27"/>
+      <c r="CK120" s="27"/>
+      <c r="CL120" s="27"/>
+      <c r="CM120" s="27"/>
+      <c r="CN120" s="27"/>
+      <c r="CO120" s="27"/>
+      <c r="CP120" s="27"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="27"/>
+      <c r="CS120" s="25"/>
+      <c r="CT120" s="26"/>
+      <c r="CU120" s="23"/>
+      <c r="CV120" s="1"/>
+      <c r="CW120" s="1"/>
+      <c r="CX120" s="1"/>
+      <c r="CY120" s="1"/>
+      <c r="CZ120" s="51" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="121" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A121" s="44" t="s">
+        <v>689</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E121" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G121" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="31"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX121" s="1"/>
+      <c r="AY121" s="1"/>
+      <c r="AZ121" s="1"/>
+      <c r="BA121" s="1"/>
+      <c r="BB121" s="1"/>
+      <c r="BC121" s="1"/>
+      <c r="BD121" s="27"/>
+      <c r="BE121" s="27"/>
+      <c r="BF121" s="27"/>
+      <c r="BG121" s="27"/>
+      <c r="BH121" s="27"/>
+      <c r="BI121" s="27"/>
+      <c r="BJ121" s="27"/>
+      <c r="BK121" s="27"/>
+      <c r="BL121" s="27"/>
+      <c r="BM121" s="27"/>
+      <c r="BN121" s="27"/>
+      <c r="BO121" s="27"/>
+      <c r="BP121" s="27"/>
+      <c r="BQ121" s="27"/>
+      <c r="BR121" s="27"/>
+      <c r="BS121" s="27"/>
+      <c r="BT121" s="27"/>
+      <c r="BU121" s="27"/>
+      <c r="BV121" s="27"/>
+      <c r="BW121" s="27"/>
+      <c r="BX121" s="27"/>
+      <c r="BY121" s="27"/>
+      <c r="BZ121" s="27"/>
+      <c r="CA121" s="27"/>
+      <c r="CB121" s="27"/>
+      <c r="CC121" s="27"/>
+      <c r="CD121" s="27"/>
+      <c r="CE121" s="27"/>
+      <c r="CF121" s="27"/>
+      <c r="CG121" s="27"/>
+      <c r="CH121" s="27"/>
+      <c r="CI121" s="28"/>
+      <c r="CJ121" s="27"/>
+      <c r="CK121" s="27"/>
+      <c r="CL121" s="27"/>
+      <c r="CM121" s="27"/>
+      <c r="CN121" s="27"/>
+      <c r="CO121" s="27"/>
+      <c r="CP121" s="27"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="27"/>
+      <c r="CS121" s="25"/>
+      <c r="CT121" s="26"/>
+      <c r="CU121" s="23"/>
+      <c r="CV121" s="1"/>
+      <c r="CW121" s="1"/>
+      <c r="CX121" s="1"/>
+      <c r="CY121" s="1"/>
+      <c r="CZ121" s="51" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A122" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="B122" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E122" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G122" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="31"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
+      <c r="AN122" s="1"/>
+      <c r="AO122" s="1"/>
+      <c r="AP122" s="1"/>
+      <c r="AQ122" s="1"/>
+      <c r="AR122" s="1"/>
+      <c r="AS122" s="1"/>
+      <c r="AT122" s="1"/>
+      <c r="AU122" s="1"/>
+      <c r="AV122" s="1"/>
+      <c r="AW122" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX122" s="1"/>
+      <c r="AY122" s="1"/>
+      <c r="AZ122" s="1"/>
+      <c r="BA122" s="1"/>
+      <c r="BB122" s="1"/>
+      <c r="BC122" s="1"/>
+      <c r="BD122" s="27"/>
+      <c r="BE122" s="27"/>
+      <c r="BF122" s="27"/>
+      <c r="BG122" s="27"/>
+      <c r="BH122" s="27"/>
+      <c r="BI122" s="27"/>
+      <c r="BJ122" s="27"/>
+      <c r="BK122" s="27"/>
+      <c r="BL122" s="27"/>
+      <c r="BM122" s="27"/>
+      <c r="BN122" s="27"/>
+      <c r="BO122" s="27"/>
+      <c r="BP122" s="27"/>
+      <c r="BQ122" s="27"/>
+      <c r="BR122" s="27"/>
+      <c r="BS122" s="27"/>
+      <c r="BT122" s="27"/>
+      <c r="BU122" s="27"/>
+      <c r="BV122" s="27"/>
+      <c r="BW122" s="27"/>
+      <c r="BX122" s="27"/>
+      <c r="BY122" s="27"/>
+      <c r="BZ122" s="27"/>
+      <c r="CA122" s="27"/>
+      <c r="CB122" s="27"/>
+      <c r="CC122" s="27"/>
+      <c r="CD122" s="27"/>
+      <c r="CE122" s="27"/>
+      <c r="CF122" s="27"/>
+      <c r="CG122" s="27"/>
+      <c r="CH122" s="27"/>
+      <c r="CI122" s="28"/>
+      <c r="CJ122" s="27"/>
+      <c r="CK122" s="27"/>
+      <c r="CL122" s="27"/>
+      <c r="CM122" s="27"/>
+      <c r="CN122" s="27"/>
+      <c r="CO122" s="27"/>
+      <c r="CP122" s="27"/>
+      <c r="CQ122" s="1"/>
+      <c r="CR122" s="27"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="26"/>
+      <c r="CU122" s="23"/>
+      <c r="CV122" s="1"/>
+      <c r="CW122" s="1"/>
+      <c r="CX122" s="1"/>
+      <c r="CY122" s="1"/>
+      <c r="CZ122" s="51" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="123" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A123" s="44" t="s">
+        <v>691</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E123" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G123" s="51" t="s">
+        <v>722</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="31"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX123" s="1"/>
+      <c r="AY123" s="1"/>
+      <c r="AZ123" s="1"/>
+      <c r="BA123" s="1"/>
+      <c r="BB123" s="1"/>
+      <c r="BC123" s="1"/>
+      <c r="BD123" s="27"/>
+      <c r="BE123" s="27"/>
+      <c r="BF123" s="27"/>
+      <c r="BG123" s="27"/>
+      <c r="BH123" s="27"/>
+      <c r="BI123" s="27"/>
+      <c r="BJ123" s="27"/>
+      <c r="BK123" s="27"/>
+      <c r="BL123" s="27"/>
+      <c r="BM123" s="27"/>
+      <c r="BN123" s="27"/>
+      <c r="BO123" s="27"/>
+      <c r="BP123" s="27"/>
+      <c r="BQ123" s="27"/>
+      <c r="BR123" s="27"/>
+      <c r="BS123" s="27"/>
+      <c r="BT123" s="27"/>
+      <c r="BU123" s="27"/>
+      <c r="BV123" s="27"/>
+      <c r="BW123" s="27"/>
+      <c r="BX123" s="27"/>
+      <c r="BY123" s="27"/>
+      <c r="BZ123" s="27"/>
+      <c r="CA123" s="27"/>
+      <c r="CB123" s="27"/>
+      <c r="CC123" s="27"/>
+      <c r="CD123" s="27"/>
+      <c r="CE123" s="27"/>
+      <c r="CF123" s="27"/>
+      <c r="CG123" s="27"/>
+      <c r="CH123" s="27"/>
+      <c r="CI123" s="28"/>
+      <c r="CJ123" s="27"/>
+      <c r="CK123" s="27"/>
+      <c r="CL123" s="27"/>
+      <c r="CM123" s="27"/>
+      <c r="CN123" s="27"/>
+      <c r="CO123" s="27"/>
+      <c r="CP123" s="27"/>
+      <c r="CQ123" s="1"/>
+      <c r="CR123" s="27"/>
+      <c r="CS123" s="25"/>
+      <c r="CT123" s="26"/>
+      <c r="CU123" s="23"/>
+      <c r="CV123" s="1"/>
+      <c r="CW123" s="1"/>
+      <c r="CX123" s="1"/>
+      <c r="CY123" s="1"/>
+      <c r="CZ123" s="51" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="124" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A124" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G124" s="51" t="s">
+        <v>723</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="31"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+      <c r="AJ124" s="1"/>
+      <c r="AK124" s="1"/>
+      <c r="AL124" s="1"/>
+      <c r="AM124" s="1"/>
+      <c r="AN124" s="1"/>
+      <c r="AO124" s="1"/>
+      <c r="AP124" s="1"/>
+      <c r="AQ124" s="1"/>
+      <c r="AR124" s="1"/>
+      <c r="AS124" s="1"/>
+      <c r="AT124" s="1"/>
+      <c r="AU124" s="1"/>
+      <c r="AV124" s="1"/>
+      <c r="AW124" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX124" s="1"/>
+      <c r="AY124" s="1"/>
+      <c r="AZ124" s="1"/>
+      <c r="BA124" s="1"/>
+      <c r="BB124" s="1"/>
+      <c r="BC124" s="1"/>
+      <c r="BD124" s="27"/>
+      <c r="BE124" s="27"/>
+      <c r="BF124" s="27"/>
+      <c r="BG124" s="27"/>
+      <c r="BH124" s="27"/>
+      <c r="BI124" s="27"/>
+      <c r="BJ124" s="27"/>
+      <c r="BK124" s="27"/>
+      <c r="BL124" s="27"/>
+      <c r="BM124" s="27"/>
+      <c r="BN124" s="27"/>
+      <c r="BO124" s="27"/>
+      <c r="BP124" s="27"/>
+      <c r="BQ124" s="27"/>
+      <c r="BR124" s="27"/>
+      <c r="BS124" s="27"/>
+      <c r="BT124" s="27"/>
+      <c r="BU124" s="27"/>
+      <c r="BV124" s="27"/>
+      <c r="BW124" s="27"/>
+      <c r="BX124" s="27"/>
+      <c r="BY124" s="27"/>
+      <c r="BZ124" s="27"/>
+      <c r="CA124" s="27"/>
+      <c r="CB124" s="27"/>
+      <c r="CC124" s="27"/>
+      <c r="CD124" s="27"/>
+      <c r="CE124" s="27"/>
+      <c r="CF124" s="27"/>
+      <c r="CG124" s="27"/>
+      <c r="CH124" s="27"/>
+      <c r="CI124" s="28"/>
+      <c r="CJ124" s="27"/>
+      <c r="CK124" s="27"/>
+      <c r="CL124" s="27"/>
+      <c r="CM124" s="27"/>
+      <c r="CN124" s="27"/>
+      <c r="CO124" s="27"/>
+      <c r="CP124" s="27"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="27"/>
+      <c r="CS124" s="25"/>
+      <c r="CT124" s="26"/>
+      <c r="CU124" s="23"/>
+      <c r="CV124" s="1"/>
+      <c r="CW124" s="1"/>
+      <c r="CX124" s="1"/>
+      <c r="CY124" s="1"/>
+      <c r="CZ124" s="51" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="125" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A125" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E125" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G125" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="31"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+      <c r="AJ125" s="1"/>
+      <c r="AK125" s="1"/>
+      <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
+      <c r="AN125" s="1"/>
+      <c r="AO125" s="1"/>
+      <c r="AP125" s="1"/>
+      <c r="AQ125" s="1"/>
+      <c r="AR125" s="1"/>
+      <c r="AS125" s="1"/>
+      <c r="AT125" s="1"/>
+      <c r="AU125" s="1"/>
+      <c r="AV125" s="1"/>
+      <c r="AW125" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX125" s="1"/>
+      <c r="AY125" s="1"/>
+      <c r="AZ125" s="1"/>
+      <c r="BA125" s="1"/>
+      <c r="BB125" s="1"/>
+      <c r="BC125" s="1"/>
+      <c r="BD125" s="27"/>
+      <c r="BE125" s="27"/>
+      <c r="BF125" s="27"/>
+      <c r="BG125" s="27"/>
+      <c r="BH125" s="27"/>
+      <c r="BI125" s="27"/>
+      <c r="BJ125" s="27"/>
+      <c r="BK125" s="27"/>
+      <c r="BL125" s="27"/>
+      <c r="BM125" s="27"/>
+      <c r="BN125" s="27"/>
+      <c r="BO125" s="27"/>
+      <c r="BP125" s="27"/>
+      <c r="BQ125" s="27"/>
+      <c r="BR125" s="27"/>
+      <c r="BS125" s="27"/>
+      <c r="BT125" s="27"/>
+      <c r="BU125" s="27"/>
+      <c r="BV125" s="27"/>
+      <c r="BW125" s="27"/>
+      <c r="BX125" s="27"/>
+      <c r="BY125" s="27"/>
+      <c r="BZ125" s="27"/>
+      <c r="CA125" s="27"/>
+      <c r="CB125" s="27"/>
+      <c r="CC125" s="27"/>
+      <c r="CD125" s="27"/>
+      <c r="CE125" s="27"/>
+      <c r="CF125" s="27"/>
+      <c r="CG125" s="27"/>
+      <c r="CH125" s="27"/>
+      <c r="CI125" s="28"/>
+      <c r="CJ125" s="27"/>
+      <c r="CK125" s="27"/>
+      <c r="CL125" s="27"/>
+      <c r="CM125" s="27"/>
+      <c r="CN125" s="27"/>
+      <c r="CO125" s="27"/>
+      <c r="CP125" s="27"/>
+      <c r="CQ125" s="1"/>
+      <c r="CR125" s="27"/>
+      <c r="CS125" s="25"/>
+      <c r="CT125" s="26"/>
+      <c r="CU125" s="23"/>
+      <c r="CV125" s="1"/>
+      <c r="CW125" s="1"/>
+      <c r="CX125" s="1"/>
+      <c r="CY125" s="1"/>
+      <c r="CZ125" s="51" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="126" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A126" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="B126" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E126" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F126" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G126" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="H126" s="1"/>
+      <c r="I126" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
+      <c r="AN126" s="1"/>
+      <c r="AO126" s="1"/>
+      <c r="AP126" s="1"/>
+      <c r="AQ126" s="1"/>
+      <c r="AR126" s="1"/>
+      <c r="AS126" s="1"/>
+      <c r="AT126" s="1"/>
+      <c r="AU126" s="1"/>
+      <c r="AV126" s="1"/>
+      <c r="AW126" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX126" s="1"/>
+      <c r="AY126" s="1"/>
+      <c r="AZ126" s="1"/>
+      <c r="BA126" s="1"/>
+      <c r="BB126" s="1"/>
+      <c r="BC126" s="1"/>
+      <c r="BD126" s="27"/>
+      <c r="BE126" s="27"/>
+      <c r="BF126" s="27"/>
+      <c r="BG126" s="27"/>
+      <c r="BH126" s="27"/>
+      <c r="BI126" s="27"/>
+      <c r="BJ126" s="27"/>
+      <c r="BK126" s="27"/>
+      <c r="BL126" s="27"/>
+      <c r="BM126" s="27"/>
+      <c r="BN126" s="27"/>
+      <c r="BO126" s="27"/>
+      <c r="BP126" s="27"/>
+      <c r="BQ126" s="27"/>
+      <c r="BR126" s="27"/>
+      <c r="BS126" s="27"/>
+      <c r="BT126" s="27"/>
+      <c r="BU126" s="27"/>
+      <c r="BV126" s="27"/>
+      <c r="BW126" s="27"/>
+      <c r="BX126" s="27"/>
+      <c r="BY126" s="27"/>
+      <c r="BZ126" s="27"/>
+      <c r="CA126" s="27"/>
+      <c r="CB126" s="27"/>
+      <c r="CC126" s="27"/>
+      <c r="CD126" s="27"/>
+      <c r="CE126" s="27"/>
+      <c r="CF126" s="27"/>
+      <c r="CG126" s="27"/>
+      <c r="CH126" s="27"/>
+      <c r="CI126" s="28"/>
+      <c r="CJ126" s="27"/>
+      <c r="CK126" s="27"/>
+      <c r="CL126" s="27"/>
+      <c r="CM126" s="27"/>
+      <c r="CN126" s="27"/>
+      <c r="CO126" s="27"/>
+      <c r="CP126" s="27"/>
+      <c r="CQ126" s="1"/>
+      <c r="CR126" s="27"/>
+      <c r="CS126" s="25"/>
+      <c r="CT126" s="26"/>
+      <c r="CU126" s="23"/>
+      <c r="CV126" s="1"/>
+      <c r="CW126" s="1"/>
+      <c r="CX126" s="1"/>
+      <c r="CY126" s="1"/>
+      <c r="CZ126" s="51" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="127" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A127" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="B127" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E127" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F127" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G127" s="51" t="s">
+        <v>726</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="31"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="1"/>
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
+      <c r="AS127" s="1"/>
+      <c r="AT127" s="1"/>
+      <c r="AU127" s="1"/>
+      <c r="AV127" s="1"/>
+      <c r="AW127" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX127" s="1"/>
+      <c r="AY127" s="1"/>
+      <c r="AZ127" s="1"/>
+      <c r="BA127" s="1"/>
+      <c r="BB127" s="1"/>
+      <c r="BC127" s="1"/>
+      <c r="BD127" s="27"/>
+      <c r="BE127" s="27"/>
+      <c r="BF127" s="27"/>
+      <c r="BG127" s="27"/>
+      <c r="BH127" s="27"/>
+      <c r="BI127" s="27"/>
+      <c r="BJ127" s="27"/>
+      <c r="BK127" s="27"/>
+      <c r="BL127" s="27"/>
+      <c r="BM127" s="27"/>
+      <c r="BN127" s="27"/>
+      <c r="BO127" s="27"/>
+      <c r="BP127" s="27"/>
+      <c r="BQ127" s="27"/>
+      <c r="BR127" s="27"/>
+      <c r="BS127" s="27"/>
+      <c r="BT127" s="27"/>
+      <c r="BU127" s="27"/>
+      <c r="BV127" s="27"/>
+      <c r="BW127" s="27"/>
+      <c r="BX127" s="27"/>
+      <c r="BY127" s="27"/>
+      <c r="BZ127" s="27"/>
+      <c r="CA127" s="27"/>
+      <c r="CB127" s="27"/>
+      <c r="CC127" s="27"/>
+      <c r="CD127" s="27"/>
+      <c r="CE127" s="27"/>
+      <c r="CF127" s="27"/>
+      <c r="CG127" s="27"/>
+      <c r="CH127" s="27"/>
+      <c r="CI127" s="28"/>
+      <c r="CJ127" s="27"/>
+      <c r="CK127" s="27"/>
+      <c r="CL127" s="27"/>
+      <c r="CM127" s="27"/>
+      <c r="CN127" s="27"/>
+      <c r="CO127" s="27"/>
+      <c r="CP127" s="27"/>
+      <c r="CQ127" s="1"/>
+      <c r="CR127" s="27"/>
+      <c r="CS127" s="25"/>
+      <c r="CT127" s="26"/>
+      <c r="CU127" s="23"/>
+      <c r="CV127" s="1"/>
+      <c r="CW127" s="1"/>
+      <c r="CX127" s="1"/>
+      <c r="CY127" s="1"/>
+      <c r="CZ127" s="51" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="128" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A128" s="44" t="s">
+        <v>696</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E128" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F128" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G128" s="51" t="s">
+        <v>727</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AA128" s="1"/>
+      <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1"/>
+      <c r="AL128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="1"/>
+      <c r="AO128" s="1"/>
+      <c r="AP128" s="1"/>
+      <c r="AQ128" s="1"/>
+      <c r="AR128" s="1"/>
+      <c r="AS128" s="1"/>
+      <c r="AT128" s="1"/>
+      <c r="AU128" s="1"/>
+      <c r="AV128" s="1"/>
+      <c r="AW128" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX128" s="1"/>
+      <c r="AY128" s="1"/>
+      <c r="AZ128" s="1"/>
+      <c r="BA128" s="1"/>
+      <c r="BB128" s="1"/>
+      <c r="BC128" s="1"/>
+      <c r="BD128" s="27"/>
+      <c r="BE128" s="27"/>
+      <c r="BF128" s="27"/>
+      <c r="BG128" s="27"/>
+      <c r="BH128" s="27"/>
+      <c r="BI128" s="27"/>
+      <c r="BJ128" s="27"/>
+      <c r="BK128" s="27"/>
+      <c r="BL128" s="27"/>
+      <c r="BM128" s="27"/>
+      <c r="BN128" s="27"/>
+      <c r="BO128" s="27"/>
+      <c r="BP128" s="27"/>
+      <c r="BQ128" s="27"/>
+      <c r="BR128" s="27"/>
+      <c r="BS128" s="27"/>
+      <c r="BT128" s="27"/>
+      <c r="BU128" s="27"/>
+      <c r="BV128" s="27"/>
+      <c r="BW128" s="27"/>
+      <c r="BX128" s="27"/>
+      <c r="BY128" s="27"/>
+      <c r="BZ128" s="27"/>
+      <c r="CA128" s="27"/>
+      <c r="CB128" s="27"/>
+      <c r="CC128" s="27"/>
+      <c r="CD128" s="27"/>
+      <c r="CE128" s="27"/>
+      <c r="CF128" s="27"/>
+      <c r="CG128" s="27"/>
+      <c r="CH128" s="27"/>
+      <c r="CI128" s="28"/>
+      <c r="CJ128" s="27"/>
+      <c r="CK128" s="27"/>
+      <c r="CL128" s="27"/>
+      <c r="CM128" s="27"/>
+      <c r="CN128" s="27"/>
+      <c r="CO128" s="27"/>
+      <c r="CP128" s="27"/>
+      <c r="CQ128" s="1"/>
+      <c r="CR128" s="27"/>
+      <c r="CS128" s="25"/>
+      <c r="CT128" s="26"/>
+      <c r="CU128" s="23"/>
+      <c r="CV128" s="1"/>
+      <c r="CW128" s="1"/>
+      <c r="CX128" s="1"/>
+      <c r="CY128" s="1"/>
+      <c r="CZ128" s="51" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="129" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A129" s="44" t="s">
+        <v>697</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E129" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G129" s="51" t="s">
+        <v>728</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AA129" s="1"/>
+      <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AJ129" s="1"/>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
+      <c r="AS129" s="1"/>
+      <c r="AT129" s="1"/>
+      <c r="AU129" s="1"/>
+      <c r="AV129" s="1"/>
+      <c r="AW129" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX129" s="1"/>
+      <c r="AY129" s="1"/>
+      <c r="AZ129" s="1"/>
+      <c r="BA129" s="1"/>
+      <c r="BB129" s="1"/>
+      <c r="BC129" s="1"/>
+      <c r="BD129" s="27"/>
+      <c r="BE129" s="27"/>
+      <c r="BF129" s="27"/>
+      <c r="BG129" s="27"/>
+      <c r="BH129" s="27"/>
+      <c r="BI129" s="27"/>
+      <c r="BJ129" s="27"/>
+      <c r="BK129" s="27"/>
+      <c r="BL129" s="27"/>
+      <c r="BM129" s="27"/>
+      <c r="BN129" s="27"/>
+      <c r="BO129" s="27"/>
+      <c r="BP129" s="27"/>
+      <c r="BQ129" s="27"/>
+      <c r="BR129" s="27"/>
+      <c r="BS129" s="27"/>
+      <c r="BT129" s="27"/>
+      <c r="BU129" s="27"/>
+      <c r="BV129" s="27"/>
+      <c r="BW129" s="27"/>
+      <c r="BX129" s="27"/>
+      <c r="BY129" s="27"/>
+      <c r="BZ129" s="27"/>
+      <c r="CA129" s="27"/>
+      <c r="CB129" s="27"/>
+      <c r="CC129" s="27"/>
+      <c r="CD129" s="27"/>
+      <c r="CE129" s="27"/>
+      <c r="CF129" s="27"/>
+      <c r="CG129" s="27"/>
+      <c r="CH129" s="27"/>
+      <c r="CI129" s="28"/>
+      <c r="CJ129" s="27"/>
+      <c r="CK129" s="27"/>
+      <c r="CL129" s="27"/>
+      <c r="CM129" s="27"/>
+      <c r="CN129" s="27"/>
+      <c r="CO129" s="27"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="1"/>
+      <c r="CR129" s="27"/>
+      <c r="CS129" s="25"/>
+      <c r="CT129" s="26"/>
+      <c r="CU129" s="23"/>
+      <c r="CV129" s="1"/>
+      <c r="CW129" s="1"/>
+      <c r="CX129" s="1"/>
+      <c r="CY129" s="1"/>
+      <c r="CZ129" s="51" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="130" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A130" s="44" t="s">
+        <v>698</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E130" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F130" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G130" s="51" t="s">
+        <v>729</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="31"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AA130" s="1"/>
+      <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+      <c r="AJ130" s="1"/>
+      <c r="AK130" s="1"/>
+      <c r="AL130" s="1"/>
+      <c r="AM130" s="1"/>
+      <c r="AN130" s="1"/>
+      <c r="AO130" s="1"/>
+      <c r="AP130" s="1"/>
+      <c r="AQ130" s="1"/>
+      <c r="AR130" s="1"/>
+      <c r="AS130" s="1"/>
+      <c r="AT130" s="1"/>
+      <c r="AU130" s="1"/>
+      <c r="AV130" s="1"/>
+      <c r="AW130" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX130" s="1"/>
+      <c r="AY130" s="1"/>
+      <c r="AZ130" s="1"/>
+      <c r="BA130" s="1"/>
+      <c r="BB130" s="1"/>
+      <c r="BC130" s="1"/>
+      <c r="BD130" s="27"/>
+      <c r="BE130" s="27"/>
+      <c r="BF130" s="27"/>
+      <c r="BG130" s="27"/>
+      <c r="BH130" s="27"/>
+      <c r="BI130" s="27"/>
+      <c r="BJ130" s="27"/>
+      <c r="BK130" s="27"/>
+      <c r="BL130" s="27"/>
+      <c r="BM130" s="27"/>
+      <c r="BN130" s="27"/>
+      <c r="BO130" s="27"/>
+      <c r="BP130" s="27"/>
+      <c r="BQ130" s="27"/>
+      <c r="BR130" s="27"/>
+      <c r="BS130" s="27"/>
+      <c r="BT130" s="27"/>
+      <c r="BU130" s="27"/>
+      <c r="BV130" s="27"/>
+      <c r="BW130" s="27"/>
+      <c r="BX130" s="27"/>
+      <c r="BY130" s="27"/>
+      <c r="BZ130" s="27"/>
+      <c r="CA130" s="27"/>
+      <c r="CB130" s="27"/>
+      <c r="CC130" s="27"/>
+      <c r="CD130" s="27"/>
+      <c r="CE130" s="27"/>
+      <c r="CF130" s="27"/>
+      <c r="CG130" s="27"/>
+      <c r="CH130" s="27"/>
+      <c r="CI130" s="28"/>
+      <c r="CJ130" s="27"/>
+      <c r="CK130" s="27"/>
+      <c r="CL130" s="27"/>
+      <c r="CM130" s="27"/>
+      <c r="CN130" s="27"/>
+      <c r="CO130" s="27"/>
+      <c r="CP130" s="27"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="27"/>
+      <c r="CS130" s="25"/>
+      <c r="CT130" s="26"/>
+      <c r="CU130" s="23"/>
+      <c r="CV130" s="1"/>
+      <c r="CW130" s="1"/>
+      <c r="CX130" s="1"/>
+      <c r="CY130" s="1"/>
+      <c r="CZ130" s="51" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A131" s="44" t="s">
+        <v>699</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G131" s="51" t="s">
+        <v>730</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="31"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AA131" s="1"/>
+      <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1"/>
+      <c r="AL131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="1"/>
+      <c r="AO131" s="1"/>
+      <c r="AP131" s="1"/>
+      <c r="AQ131" s="1"/>
+      <c r="AR131" s="1"/>
+      <c r="AS131" s="1"/>
+      <c r="AT131" s="1"/>
+      <c r="AU131" s="1"/>
+      <c r="AV131" s="1"/>
+      <c r="AW131" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX131" s="1"/>
+      <c r="AY131" s="1"/>
+      <c r="AZ131" s="1"/>
+      <c r="BA131" s="1"/>
+      <c r="BB131" s="1"/>
+      <c r="BC131" s="1"/>
+      <c r="BD131" s="27"/>
+      <c r="BE131" s="27"/>
+      <c r="BF131" s="27"/>
+      <c r="BG131" s="27"/>
+      <c r="BH131" s="27"/>
+      <c r="BI131" s="27"/>
+      <c r="BJ131" s="27"/>
+      <c r="BK131" s="27"/>
+      <c r="BL131" s="27"/>
+      <c r="BM131" s="27"/>
+      <c r="BN131" s="27"/>
+      <c r="BO131" s="27"/>
+      <c r="BP131" s="27"/>
+      <c r="BQ131" s="27"/>
+      <c r="BR131" s="27"/>
+      <c r="BS131" s="27"/>
+      <c r="BT131" s="27"/>
+      <c r="BU131" s="27"/>
+      <c r="BV131" s="27"/>
+      <c r="BW131" s="27"/>
+      <c r="BX131" s="27"/>
+      <c r="BY131" s="27"/>
+      <c r="BZ131" s="27"/>
+      <c r="CA131" s="27"/>
+      <c r="CB131" s="27"/>
+      <c r="CC131" s="27"/>
+      <c r="CD131" s="27"/>
+      <c r="CE131" s="27"/>
+      <c r="CF131" s="27"/>
+      <c r="CG131" s="27"/>
+      <c r="CH131" s="27"/>
+      <c r="CI131" s="28"/>
+      <c r="CJ131" s="27"/>
+      <c r="CK131" s="27"/>
+      <c r="CL131" s="27"/>
+      <c r="CM131" s="27"/>
+      <c r="CN131" s="27"/>
+      <c r="CO131" s="27"/>
+      <c r="CP131" s="27"/>
+      <c r="CQ131" s="1"/>
+      <c r="CR131" s="27"/>
+      <c r="CS131" s="25"/>
+      <c r="CT131" s="26"/>
+      <c r="CU131" s="23"/>
+      <c r="CV131" s="1"/>
+      <c r="CW131" s="1"/>
+      <c r="CX131" s="1"/>
+      <c r="CY131" s="1"/>
+      <c r="CZ131" s="51" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="132" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A132" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="B132" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E132" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F132" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G132" s="51" t="s">
+        <v>731</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AA132" s="1"/>
+      <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+      <c r="AH132" s="1"/>
+      <c r="AI132" s="1"/>
+      <c r="AJ132" s="1"/>
+      <c r="AK132" s="1"/>
+      <c r="AL132" s="1"/>
+      <c r="AM132" s="1"/>
+      <c r="AN132" s="1"/>
+      <c r="AO132" s="1"/>
+      <c r="AP132" s="1"/>
+      <c r="AQ132" s="1"/>
+      <c r="AR132" s="1"/>
+      <c r="AS132" s="1"/>
+      <c r="AT132" s="1"/>
+      <c r="AU132" s="1"/>
+      <c r="AV132" s="1"/>
+      <c r="AW132" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX132" s="1"/>
+      <c r="AY132" s="1"/>
+      <c r="AZ132" s="1"/>
+      <c r="BA132" s="1"/>
+      <c r="BB132" s="1"/>
+      <c r="BC132" s="1"/>
+      <c r="BD132" s="27"/>
+      <c r="BE132" s="27"/>
+      <c r="BF132" s="27"/>
+      <c r="BG132" s="27"/>
+      <c r="BH132" s="27"/>
+      <c r="BI132" s="27"/>
+      <c r="BJ132" s="27"/>
+      <c r="BK132" s="27"/>
+      <c r="BL132" s="27"/>
+      <c r="BM132" s="27"/>
+      <c r="BN132" s="27"/>
+      <c r="BO132" s="27"/>
+      <c r="BP132" s="27"/>
+      <c r="BQ132" s="27"/>
+      <c r="BR132" s="27"/>
+      <c r="BS132" s="27"/>
+      <c r="BT132" s="27"/>
+      <c r="BU132" s="27"/>
+      <c r="BV132" s="27"/>
+      <c r="BW132" s="27"/>
+      <c r="BX132" s="27"/>
+      <c r="BY132" s="27"/>
+      <c r="BZ132" s="27"/>
+      <c r="CA132" s="27"/>
+      <c r="CB132" s="27"/>
+      <c r="CC132" s="27"/>
+      <c r="CD132" s="27"/>
+      <c r="CE132" s="27"/>
+      <c r="CF132" s="27"/>
+      <c r="CG132" s="27"/>
+      <c r="CH132" s="27"/>
+      <c r="CI132" s="28"/>
+      <c r="CJ132" s="27"/>
+      <c r="CK132" s="27"/>
+      <c r="CL132" s="27"/>
+      <c r="CM132" s="27"/>
+      <c r="CN132" s="27"/>
+      <c r="CO132" s="27"/>
+      <c r="CP132" s="27"/>
+      <c r="CQ132" s="1"/>
+      <c r="CR132" s="27"/>
+      <c r="CS132" s="25"/>
+      <c r="CT132" s="26"/>
+      <c r="CU132" s="23"/>
+      <c r="CV132" s="1"/>
+      <c r="CW132" s="1"/>
+      <c r="CX132" s="1"/>
+      <c r="CY132" s="1"/>
+      <c r="CZ132" s="51" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A133" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="B133" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E133" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G133" s="51" t="s">
+        <v>732</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="31"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AJ133" s="1"/>
+      <c r="AK133" s="1"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="1"/>
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+      <c r="AT133" s="1"/>
+      <c r="AU133" s="1"/>
+      <c r="AV133" s="1"/>
+      <c r="AW133" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX133" s="1"/>
+      <c r="AY133" s="1"/>
+      <c r="AZ133" s="1"/>
+      <c r="BA133" s="1"/>
+      <c r="BB133" s="1"/>
+      <c r="BC133" s="1"/>
+      <c r="BD133" s="27"/>
+      <c r="BE133" s="27"/>
+      <c r="BF133" s="27"/>
+      <c r="BG133" s="27"/>
+      <c r="BH133" s="27"/>
+      <c r="BI133" s="27"/>
+      <c r="BJ133" s="27"/>
+      <c r="BK133" s="27"/>
+      <c r="BL133" s="27"/>
+      <c r="BM133" s="27"/>
+      <c r="BN133" s="27"/>
+      <c r="BO133" s="27"/>
+      <c r="BP133" s="27"/>
+      <c r="BQ133" s="27"/>
+      <c r="BR133" s="27"/>
+      <c r="BS133" s="27"/>
+      <c r="BT133" s="27"/>
+      <c r="BU133" s="27"/>
+      <c r="BV133" s="27"/>
+      <c r="BW133" s="27"/>
+      <c r="BX133" s="27"/>
+      <c r="BY133" s="27"/>
+      <c r="BZ133" s="27"/>
+      <c r="CA133" s="27"/>
+      <c r="CB133" s="27"/>
+      <c r="CC133" s="27"/>
+      <c r="CD133" s="27"/>
+      <c r="CE133" s="27"/>
+      <c r="CF133" s="27"/>
+      <c r="CG133" s="27"/>
+      <c r="CH133" s="27"/>
+      <c r="CI133" s="28"/>
+      <c r="CJ133" s="27"/>
+      <c r="CK133" s="27"/>
+      <c r="CL133" s="27"/>
+      <c r="CM133" s="27"/>
+      <c r="CN133" s="27"/>
+      <c r="CO133" s="27"/>
+      <c r="CP133" s="27"/>
+      <c r="CQ133" s="1"/>
+      <c r="CR133" s="27"/>
+      <c r="CS133" s="25"/>
+      <c r="CT133" s="26"/>
+      <c r="CU133" s="23"/>
+      <c r="CV133" s="1"/>
+      <c r="CW133" s="1"/>
+      <c r="CX133" s="1"/>
+      <c r="CY133" s="1"/>
+      <c r="CZ133" s="51" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="134" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A134" s="44" t="s">
+        <v>702</v>
+      </c>
+      <c r="B134" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E134" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F134" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G134" s="51" t="s">
+        <v>733</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="31"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AA134" s="1"/>
+      <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+      <c r="AJ134" s="1"/>
+      <c r="AK134" s="1"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="1"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
+      <c r="AV134" s="1"/>
+      <c r="AW134" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX134" s="1"/>
+      <c r="AY134" s="1"/>
+      <c r="AZ134" s="1"/>
+      <c r="BA134" s="1"/>
+      <c r="BB134" s="1"/>
+      <c r="BC134" s="1"/>
+      <c r="BD134" s="27"/>
+      <c r="BE134" s="27"/>
+      <c r="BF134" s="27"/>
+      <c r="BG134" s="27"/>
+      <c r="BH134" s="27"/>
+      <c r="BI134" s="27"/>
+      <c r="BJ134" s="27"/>
+      <c r="BK134" s="27"/>
+      <c r="BL134" s="27"/>
+      <c r="BM134" s="27"/>
+      <c r="BN134" s="27"/>
+      <c r="BO134" s="27"/>
+      <c r="BP134" s="27"/>
+      <c r="BQ134" s="27"/>
+      <c r="BR134" s="27"/>
+      <c r="BS134" s="27"/>
+      <c r="BT134" s="27"/>
+      <c r="BU134" s="27"/>
+      <c r="BV134" s="27"/>
+      <c r="BW134" s="27"/>
+      <c r="BX134" s="27"/>
+      <c r="BY134" s="27"/>
+      <c r="BZ134" s="27"/>
+      <c r="CA134" s="27"/>
+      <c r="CB134" s="27"/>
+      <c r="CC134" s="27"/>
+      <c r="CD134" s="27"/>
+      <c r="CE134" s="27"/>
+      <c r="CF134" s="27"/>
+      <c r="CG134" s="27"/>
+      <c r="CH134" s="27"/>
+      <c r="CI134" s="28"/>
+      <c r="CJ134" s="27"/>
+      <c r="CK134" s="27"/>
+      <c r="CL134" s="27"/>
+      <c r="CM134" s="27"/>
+      <c r="CN134" s="27"/>
+      <c r="CO134" s="27"/>
+      <c r="CP134" s="27"/>
+      <c r="CQ134" s="1"/>
+      <c r="CR134" s="27"/>
+      <c r="CS134" s="25"/>
+      <c r="CT134" s="26"/>
+      <c r="CU134" s="23"/>
+      <c r="CV134" s="1"/>
+      <c r="CW134" s="1"/>
+      <c r="CX134" s="1"/>
+      <c r="CY134" s="1"/>
+      <c r="CZ134" s="51" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="135" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A135" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B135" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E135" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F135" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G135" s="51" t="s">
+        <v>734</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="31"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AA135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+      <c r="AJ135" s="1"/>
+      <c r="AK135" s="1"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="1"/>
+      <c r="AQ135" s="1"/>
+      <c r="AR135" s="1"/>
+      <c r="AS135" s="1"/>
+      <c r="AT135" s="1"/>
+      <c r="AU135" s="1"/>
+      <c r="AV135" s="1"/>
+      <c r="AW135" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX135" s="1"/>
+      <c r="AY135" s="1"/>
+      <c r="AZ135" s="1"/>
+      <c r="BA135" s="1"/>
+      <c r="BB135" s="1"/>
+      <c r="BC135" s="1"/>
+      <c r="BD135" s="27"/>
+      <c r="BE135" s="27"/>
+      <c r="BF135" s="27"/>
+      <c r="BG135" s="27"/>
+      <c r="BH135" s="27"/>
+      <c r="BI135" s="27"/>
+      <c r="BJ135" s="27"/>
+      <c r="BK135" s="27"/>
+      <c r="BL135" s="27"/>
+      <c r="BM135" s="27"/>
+      <c r="BN135" s="27"/>
+      <c r="BO135" s="27"/>
+      <c r="BP135" s="27"/>
+      <c r="BQ135" s="27"/>
+      <c r="BR135" s="27"/>
+      <c r="BS135" s="27"/>
+      <c r="BT135" s="27"/>
+      <c r="BU135" s="27"/>
+      <c r="BV135" s="27"/>
+      <c r="BW135" s="27"/>
+      <c r="BX135" s="27"/>
+      <c r="BY135" s="27"/>
+      <c r="BZ135" s="27"/>
+      <c r="CA135" s="27"/>
+      <c r="CB135" s="27"/>
+      <c r="CC135" s="27"/>
+      <c r="CD135" s="27"/>
+      <c r="CE135" s="27"/>
+      <c r="CF135" s="27"/>
+      <c r="CG135" s="27"/>
+      <c r="CH135" s="27"/>
+      <c r="CI135" s="28"/>
+      <c r="CJ135" s="27"/>
+      <c r="CK135" s="27"/>
+      <c r="CL135" s="27"/>
+      <c r="CM135" s="27"/>
+      <c r="CN135" s="27"/>
+      <c r="CO135" s="27"/>
+      <c r="CP135" s="27"/>
+      <c r="CQ135" s="1"/>
+      <c r="CR135" s="27"/>
+      <c r="CS135" s="25"/>
+      <c r="CT135" s="26"/>
+      <c r="CU135" s="23"/>
+      <c r="CV135" s="1"/>
+      <c r="CW135" s="1"/>
+      <c r="CX135" s="1"/>
+      <c r="CY135" s="1"/>
+      <c r="CZ135" s="52" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="136" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A136" s="44" t="s">
+        <v>704</v>
+      </c>
+      <c r="B136" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E136" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F136" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G136" s="51" t="s">
+        <v>740</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="31"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+      <c r="AJ136" s="1"/>
+      <c r="AK136" s="1"/>
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
+      <c r="AN136" s="1"/>
+      <c r="AO136" s="1"/>
+      <c r="AP136" s="1"/>
+      <c r="AQ136" s="1"/>
+      <c r="AR136" s="1"/>
+      <c r="AS136" s="1"/>
+      <c r="AT136" s="1"/>
+      <c r="AU136" s="1"/>
+      <c r="AV136" s="1"/>
+      <c r="AW136" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX136" s="1"/>
+      <c r="AY136" s="1"/>
+      <c r="AZ136" s="1"/>
+      <c r="BA136" s="1"/>
+      <c r="BB136" s="1"/>
+      <c r="BC136" s="1"/>
+      <c r="BD136" s="27"/>
+      <c r="BE136" s="27"/>
+      <c r="BF136" s="27"/>
+      <c r="BG136" s="27"/>
+      <c r="BH136" s="27"/>
+      <c r="BI136" s="27"/>
+      <c r="BJ136" s="27"/>
+      <c r="BK136" s="27"/>
+      <c r="BL136" s="27"/>
+      <c r="BM136" s="27"/>
+      <c r="BN136" s="27"/>
+      <c r="BO136" s="27"/>
+      <c r="BP136" s="27"/>
+      <c r="BQ136" s="27"/>
+      <c r="BR136" s="27"/>
+      <c r="BS136" s="27"/>
+      <c r="BT136" s="27"/>
+      <c r="BU136" s="27"/>
+      <c r="BV136" s="27"/>
+      <c r="BW136" s="27"/>
+      <c r="BX136" s="27"/>
+      <c r="BY136" s="27"/>
+      <c r="BZ136" s="27"/>
+      <c r="CA136" s="27"/>
+      <c r="CB136" s="27"/>
+      <c r="CC136" s="27"/>
+      <c r="CD136" s="27"/>
+      <c r="CE136" s="27"/>
+      <c r="CF136" s="27"/>
+      <c r="CG136" s="27"/>
+      <c r="CH136" s="27"/>
+      <c r="CI136" s="28"/>
+      <c r="CJ136" s="27"/>
+      <c r="CK136" s="27"/>
+      <c r="CL136" s="27"/>
+      <c r="CM136" s="27"/>
+      <c r="CN136" s="27"/>
+      <c r="CO136" s="27"/>
+      <c r="CP136" s="27"/>
+      <c r="CQ136" s="1"/>
+      <c r="CR136" s="27"/>
+      <c r="CS136" s="25"/>
+      <c r="CT136" s="26"/>
+      <c r="CU136" s="23"/>
+      <c r="CV136" s="1"/>
+      <c r="CW136" s="1"/>
+      <c r="CX136" s="1"/>
+      <c r="CY136" s="1"/>
+      <c r="CZ136" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A137" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="B137" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E137" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F137" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G137" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="31"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1"/>
+      <c r="AL137" s="1"/>
+      <c r="AM137" s="1"/>
+      <c r="AN137" s="1"/>
+      <c r="AO137" s="1"/>
+      <c r="AP137" s="1"/>
+      <c r="AQ137" s="1"/>
+      <c r="AR137" s="1"/>
+      <c r="AS137" s="1"/>
+      <c r="AT137" s="1"/>
+      <c r="AU137" s="1"/>
+      <c r="AV137" s="1"/>
+      <c r="AW137" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX137" s="1"/>
+      <c r="AY137" s="1"/>
+      <c r="AZ137" s="1"/>
+      <c r="BA137" s="1"/>
+      <c r="BB137" s="1"/>
+      <c r="BC137" s="1"/>
+      <c r="BD137" s="27"/>
+      <c r="BE137" s="27"/>
+      <c r="BF137" s="27"/>
+      <c r="BG137" s="27"/>
+      <c r="BH137" s="27"/>
+      <c r="BI137" s="27"/>
+      <c r="BJ137" s="27"/>
+      <c r="BK137" s="27"/>
+      <c r="BL137" s="27"/>
+      <c r="BM137" s="27"/>
+      <c r="BN137" s="27"/>
+      <c r="BO137" s="27"/>
+      <c r="BP137" s="27"/>
+      <c r="BQ137" s="27"/>
+      <c r="BR137" s="27"/>
+      <c r="BS137" s="27"/>
+      <c r="BT137" s="27"/>
+      <c r="BU137" s="27"/>
+      <c r="BV137" s="27"/>
+      <c r="BW137" s="27"/>
+      <c r="BX137" s="27"/>
+      <c r="BY137" s="27"/>
+      <c r="BZ137" s="27"/>
+      <c r="CA137" s="27"/>
+      <c r="CB137" s="27"/>
+      <c r="CC137" s="27"/>
+      <c r="CD137" s="27"/>
+      <c r="CE137" s="27"/>
+      <c r="CF137" s="27"/>
+      <c r="CG137" s="27"/>
+      <c r="CH137" s="27"/>
+      <c r="CI137" s="28"/>
+      <c r="CJ137" s="27"/>
+      <c r="CK137" s="27"/>
+      <c r="CL137" s="27"/>
+      <c r="CM137" s="27"/>
+      <c r="CN137" s="27"/>
+      <c r="CO137" s="27"/>
+      <c r="CP137" s="27"/>
+      <c r="CQ137" s="1"/>
+      <c r="CR137" s="27"/>
+      <c r="CS137" s="25"/>
+      <c r="CT137" s="26"/>
+      <c r="CU137" s="23"/>
+      <c r="CV137" s="1"/>
+      <c r="CW137" s="1"/>
+      <c r="CX137" s="1"/>
+      <c r="CY137" s="1"/>
+      <c r="CZ137" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:104" ht="16.5" customHeight="1">
+      <c r="A138" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E138" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F138" s="51" t="s">
+        <v>655</v>
+      </c>
+      <c r="G138" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="31"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+      <c r="AJ138" s="1"/>
+      <c r="AK138" s="1"/>
+      <c r="AL138" s="1"/>
+      <c r="AM138" s="1"/>
+      <c r="AN138" s="1"/>
+      <c r="AO138" s="1"/>
+      <c r="AP138" s="1"/>
+      <c r="AQ138" s="1"/>
+      <c r="AR138" s="1"/>
+      <c r="AS138" s="1"/>
+      <c r="AT138" s="1"/>
+      <c r="AU138" s="1"/>
+      <c r="AV138" s="1"/>
+      <c r="AW138" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX138" s="1"/>
+      <c r="AY138" s="1"/>
+      <c r="AZ138" s="1"/>
+      <c r="BA138" s="1"/>
+      <c r="BB138" s="1"/>
+      <c r="BC138" s="1"/>
+      <c r="BD138" s="27"/>
+      <c r="BE138" s="27"/>
+      <c r="BF138" s="27"/>
+      <c r="BG138" s="27"/>
+      <c r="BH138" s="27"/>
+      <c r="BI138" s="27"/>
+      <c r="BJ138" s="27"/>
+      <c r="BK138" s="27"/>
+      <c r="BL138" s="27"/>
+      <c r="BM138" s="27"/>
+      <c r="BN138" s="27"/>
+      <c r="BO138" s="27"/>
+      <c r="BP138" s="27"/>
+      <c r="BQ138" s="27"/>
+      <c r="BR138" s="27"/>
+      <c r="BS138" s="27"/>
+      <c r="BT138" s="27"/>
+      <c r="BU138" s="27"/>
+      <c r="BV138" s="27"/>
+      <c r="BW138" s="27"/>